--- a/music_list_610.xlsx
+++ b/music_list_610.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1097" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1103" uniqueCount="1103">
   <si>
     <t>歌名</t>
   </si>
@@ -1055,6 +1055,18 @@
     <t>泡沫</t>
   </si>
   <si>
+    <t>流沙</t>
+  </si>
+  <si>
+    <t>陶喆</t>
+  </si>
+  <si>
+    <t>天天（2003）</t>
+  </si>
+  <si>
+    <t>沙滩</t>
+  </si>
+  <si>
     <t>仰望</t>
   </si>
   <si>
@@ -1076,6 +1088,105 @@
     <t>大眠</t>
   </si>
   <si>
+    <t>矜持</t>
+  </si>
+  <si>
+    <t>王菲</t>
+  </si>
+  <si>
+    <t>红豆</t>
+  </si>
+  <si>
+    <t>旋木</t>
+  </si>
+  <si>
+    <t>星空</t>
+  </si>
+  <si>
+    <t>五月天</t>
+  </si>
+  <si>
+    <t>干杯</t>
+  </si>
+  <si>
+    <t>知足</t>
+  </si>
+  <si>
+    <t>尽头</t>
+  </si>
+  <si>
+    <t>破裂</t>
+  </si>
+  <si>
+    <t>戒烟</t>
+  </si>
+  <si>
+    <t>李荣浩</t>
+  </si>
+  <si>
+    <t>耳朵</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>郭静</t>
+  </si>
+  <si>
+    <t>心墙</t>
+  </si>
+  <si>
+    <t>如燕</t>
+  </si>
+  <si>
+    <t>Olivia Ong</t>
+  </si>
+  <si>
+    <t>守望</t>
+  </si>
+  <si>
+    <t>命运</t>
+  </si>
+  <si>
+    <t>家家</t>
+  </si>
+  <si>
+    <t>尘埃</t>
+  </si>
+  <si>
+    <t>成全</t>
+  </si>
+  <si>
+    <t>刘若英</t>
+  </si>
+  <si>
+    <t>后来</t>
+  </si>
+  <si>
+    <t>乌鸦</t>
+  </si>
+  <si>
+    <t>温泉</t>
+  </si>
+  <si>
+    <t>许嵩、刘美麟</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>恰好</t>
+  </si>
+  <si>
+    <t>深海</t>
+  </si>
+  <si>
+    <t>张学友</t>
+  </si>
+  <si>
+    <t>慢慢</t>
+  </si>
+  <si>
     <t>鸽子</t>
   </si>
   <si>
@@ -1100,114 +1211,6 @@
     <t>双笙、V.K克</t>
   </si>
   <si>
-    <t>矜持</t>
-  </si>
-  <si>
-    <t>王菲</t>
-  </si>
-  <si>
-    <t>红豆</t>
-  </si>
-  <si>
-    <t>旋木</t>
-  </si>
-  <si>
-    <t>星空</t>
-  </si>
-  <si>
-    <t>五月天</t>
-  </si>
-  <si>
-    <t>干杯</t>
-  </si>
-  <si>
-    <t>知足</t>
-  </si>
-  <si>
-    <t>尽头</t>
-  </si>
-  <si>
-    <t>破裂</t>
-  </si>
-  <si>
-    <t>戒烟</t>
-  </si>
-  <si>
-    <t>李荣浩</t>
-  </si>
-  <si>
-    <t>耳朵</t>
-  </si>
-  <si>
-    <t>聊天</t>
-  </si>
-  <si>
-    <t>郭静</t>
-  </si>
-  <si>
-    <t>心墙</t>
-  </si>
-  <si>
-    <t>如燕</t>
-  </si>
-  <si>
-    <t>Olivia Ong</t>
-  </si>
-  <si>
-    <t>守望</t>
-  </si>
-  <si>
-    <t>命运</t>
-  </si>
-  <si>
-    <t>家家</t>
-  </si>
-  <si>
-    <t>尘埃</t>
-  </si>
-  <si>
-    <t>成全</t>
-  </si>
-  <si>
-    <t>刘若英</t>
-  </si>
-  <si>
-    <t>后来</t>
-  </si>
-  <si>
-    <t>乌鸦</t>
-  </si>
-  <si>
-    <t>温泉</t>
-  </si>
-  <si>
-    <t>许嵩、刘美麟</t>
-  </si>
-  <si>
-    <t>骑士</t>
-  </si>
-  <si>
-    <t>恰好</t>
-  </si>
-  <si>
-    <t>深海</t>
-  </si>
-  <si>
-    <t>张学友</t>
-  </si>
-  <si>
-    <t>慢慢</t>
-  </si>
-  <si>
-    <t>流沙</t>
-  </si>
-  <si>
-    <t>陶喆</t>
-  </si>
-  <si>
-    <t>天天（2003）</t>
-  </si>
-  <si>
     <t>空心</t>
   </si>
   <si>
@@ -1550,6 +1553,12 @@
     <t>徐佳莹</t>
   </si>
   <si>
+    <t>离人</t>
+  </si>
+  <si>
+    <t>林志炫</t>
+  </si>
+  <si>
     <t>七里香</t>
   </si>
   <si>
@@ -2057,6 +2066,18 @@
     <t>寻人启事</t>
   </si>
   <si>
+    <t>黑色柳丁</t>
+  </si>
+  <si>
+    <t>普通朋友</t>
+  </si>
+  <si>
+    <t>那个女孩</t>
+  </si>
+  <si>
+    <t>陶喆、卢广仲</t>
+  </si>
+  <si>
     <t>空空如也</t>
   </si>
   <si>
@@ -2075,18 +2096,6 @@
     <t>大城小爱</t>
   </si>
   <si>
-    <t>黑色柳丁</t>
-  </si>
-  <si>
-    <t>普通朋友</t>
-  </si>
-  <si>
-    <t>那个女孩</t>
-  </si>
-  <si>
-    <t>陶喆、卢广仲</t>
-  </si>
-  <si>
     <t>配不上你</t>
   </si>
   <si>
@@ -2165,6 +2174,12 @@
     <t>桃花旗袍</t>
   </si>
   <si>
+    <t>年少有为</t>
+  </si>
+  <si>
+    <t>乌梅子酱</t>
+  </si>
+  <si>
     <t>不可思议</t>
   </si>
   <si>
@@ -2180,9 +2195,6 @@
     <t>母系社会</t>
   </si>
   <si>
-    <t>年少有为</t>
-  </si>
-  <si>
     <t>夏天的风</t>
   </si>
   <si>
@@ -3084,6 +3096,12 @@
   </si>
   <si>
     <t>陈蕾</t>
+  </si>
+  <si>
+    <t>周末画报</t>
+  </si>
+  <si>
+    <t>薛凯琪</t>
   </si>
   <si>
     <t>我怀念的你</t>
@@ -3772,7 +3790,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8394,16 +8412,16 @@
       <c r="K225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D226" s="4"/>
+      <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -8416,13 +8434,13 @@
       <c r="A227" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D227" s="4"/>
+      <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -8432,16 +8450,16 @@
       <c r="K227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D228" s="4"/>
+      <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
@@ -8454,7 +8472,7 @@
       <c r="A229" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -8470,10 +8488,10 @@
       <c r="K229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B230" s="2" t="s">
+      <c r="A230" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -8490,16 +8508,18 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B231" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D231" s="4"/>
-      <c r="E231" s="3"/>
+      <c r="E231" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
@@ -8509,10 +8529,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>274</v>
@@ -8528,10 +8548,10 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>274</v>
@@ -8547,10 +8567,10 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>274</v>
@@ -8566,10 +8586,10 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>274</v>
@@ -8585,10 +8605,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>274</v>
@@ -8604,10 +8624,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>274</v>
@@ -8623,7 +8643,7 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>363</v>
@@ -8642,10 +8662,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>274</v>
@@ -8661,10 +8681,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>274</v>
@@ -8680,10 +8700,10 @@
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>274</v>
@@ -8699,10 +8719,10 @@
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>15</v>
+        <v>367</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>274</v>
@@ -8718,10 +8738,10 @@
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>274</v>
@@ -8736,11 +8756,11 @@
       <c r="K243" s="4"/>
     </row>
     <row r="244">
-      <c r="A244" s="4" t="s">
-        <v>372</v>
+      <c r="A244" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>274</v>
@@ -8755,11 +8775,11 @@
       <c r="K244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="s">
-        <v>374</v>
+      <c r="A245" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>274</v>
@@ -8775,10 +8795,10 @@
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>274</v>
@@ -8794,10 +8814,10 @@
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>274</v>
@@ -8813,10 +8833,10 @@
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>274</v>
@@ -8832,10 +8852,10 @@
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>274</v>
@@ -8850,11 +8870,11 @@
       <c r="K249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>382</v>
+      <c r="A250" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>274</v>
@@ -8869,11 +8889,11 @@
       <c r="K250" s="4"/>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>382</v>
+      <c r="A251" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>274</v>
@@ -8889,10 +8909,10 @@
     </row>
     <row r="252">
       <c r="A252" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>274</v>
@@ -8908,10 +8928,10 @@
     </row>
     <row r="253">
       <c r="A253" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>385</v>
+        <v>185</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>274</v>
@@ -8927,10 +8947,10 @@
     </row>
     <row r="254">
       <c r="A254" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>185</v>
+        <v>384</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>274</v>
@@ -8946,10 +8966,10 @@
     </row>
     <row r="255">
       <c r="A255" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>274</v>
@@ -8965,9 +8985,9 @@
     </row>
     <row r="256">
       <c r="A256" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B256" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -8984,10 +9004,10 @@
     </row>
     <row r="257">
       <c r="A257" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>91</v>
+        <v>388</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>274</v>
@@ -9002,16 +9022,16 @@
       <c r="K257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="4" t="s">
-        <v>392</v>
+      <c r="A258" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D258" s="4"/>
+      <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
@@ -9021,16 +9041,16 @@
       <c r="K258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>393</v>
+      <c r="A259" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D259" s="3"/>
+      <c r="D259" s="4"/>
       <c r="E259" s="3"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
@@ -9040,16 +9060,16 @@
       <c r="K259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>396</v>
+      <c r="A260" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D260" s="3"/>
+      <c r="D260" s="4"/>
       <c r="E260" s="3"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
@@ -9059,16 +9079,16 @@
       <c r="K260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B261" s="3" t="s">
+      <c r="A261" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D261" s="3"/>
+      <c r="D261" s="4"/>
       <c r="E261" s="3"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -9079,18 +9099,16 @@
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="C262" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D262" s="4"/>
-      <c r="E262" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E262" s="3"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
@@ -9100,16 +9118,18 @@
     </row>
     <row r="263">
       <c r="A263" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="C263" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D263" s="4"/>
-      <c r="E263" s="3"/>
+      <c r="E263" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
@@ -9122,7 +9142,7 @@
         <v>401</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>274</v>
@@ -9138,10 +9158,10 @@
     </row>
     <row r="265">
       <c r="A265" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>274</v>
@@ -9156,10 +9176,10 @@
       <c r="K265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B266" s="2" t="s">
+      <c r="A266" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>405</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -9175,11 +9195,11 @@
       <c r="K266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>274</v>
@@ -9195,10 +9215,10 @@
     </row>
     <row r="268">
       <c r="A268" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>274</v>
@@ -9214,10 +9234,10 @@
     </row>
     <row r="269">
       <c r="A269" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>274</v>
@@ -9233,18 +9253,16 @@
     </row>
     <row r="270">
       <c r="A270" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="C270" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D270" s="4"/>
-      <c r="E270" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E270" s="3"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
@@ -9254,16 +9272,18 @@
     </row>
     <row r="271">
       <c r="A271" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="C271" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D271" s="4"/>
-      <c r="E271" s="3"/>
+      <c r="E271" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
@@ -9275,8 +9295,8 @@
       <c r="A272" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>416</v>
+      <c r="B272" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>274</v>
@@ -9292,10 +9312,10 @@
     </row>
     <row r="273">
       <c r="A273" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>274</v>
@@ -9311,10 +9331,10 @@
     </row>
     <row r="274">
       <c r="A274" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>274</v>
@@ -9330,10 +9350,10 @@
     </row>
     <row r="275">
       <c r="A275" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>274</v>
@@ -9351,8 +9371,8 @@
       <c r="A276" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>423</v>
+      <c r="B276" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>274</v>
@@ -9368,9 +9388,9 @@
     </row>
     <row r="277">
       <c r="A277" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B277" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>424</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -9387,18 +9407,16 @@
     </row>
     <row r="278">
       <c r="A278" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="C278" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D278" s="4"/>
-      <c r="E278" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E278" s="3"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
@@ -9408,16 +9426,18 @@
     </row>
     <row r="279">
       <c r="A279" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B279" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="C279" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D279" s="4"/>
-      <c r="E279" s="3"/>
+      <c r="E279" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
@@ -9427,10 +9447,10 @@
     </row>
     <row r="280">
       <c r="A280" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>274</v>
@@ -9446,10 +9466,10 @@
     </row>
     <row r="281">
       <c r="A281" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>274</v>
@@ -9465,10 +9485,10 @@
     </row>
     <row r="282">
       <c r="A282" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>274</v>
@@ -9484,10 +9504,10 @@
     </row>
     <row r="283">
       <c r="A283" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>274</v>
@@ -9503,10 +9523,10 @@
     </row>
     <row r="284">
       <c r="A284" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>274</v>
@@ -9522,18 +9542,16 @@
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="C285" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D285" s="4"/>
-      <c r="E285" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E285" s="3"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
@@ -9546,13 +9564,15 @@
         <v>440</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>441</v>
+        <v>257</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D286" s="4"/>
-      <c r="E286" s="3"/>
+      <c r="E286" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
@@ -9561,11 +9581,11 @@
       <c r="K286" s="4"/>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>274</v>
@@ -9580,11 +9600,11 @@
       <c r="K287" s="4"/>
     </row>
     <row r="288">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>274</v>
@@ -9600,10 +9620,10 @@
     </row>
     <row r="289">
       <c r="A289" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>274</v>
@@ -9619,10 +9639,10 @@
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B290" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>274</v>
@@ -9638,10 +9658,10 @@
     </row>
     <row r="291">
       <c r="A291" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>274</v>
@@ -9657,10 +9677,10 @@
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>274</v>
@@ -9676,18 +9696,16 @@
     </row>
     <row r="293">
       <c r="A293" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="C293" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D293" s="4"/>
-      <c r="E293" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E293" s="3"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
@@ -9697,16 +9715,18 @@
     </row>
     <row r="294">
       <c r="A294" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="C294" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D294" s="4"/>
-      <c r="E294" s="3"/>
+      <c r="E294" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
@@ -9716,10 +9736,10 @@
     </row>
     <row r="295">
       <c r="A295" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>274</v>
@@ -9735,10 +9755,10 @@
     </row>
     <row r="296">
       <c r="A296" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>274</v>
@@ -9754,10 +9774,10 @@
     </row>
     <row r="297">
       <c r="A297" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>274</v>
@@ -9773,10 +9793,10 @@
     </row>
     <row r="298">
       <c r="A298" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>274</v>
@@ -9792,10 +9812,10 @@
     </row>
     <row r="299">
       <c r="A299" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>274</v>
@@ -9811,10 +9831,10 @@
     </row>
     <row r="300">
       <c r="A300" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>274</v>
@@ -9830,10 +9850,10 @@
     </row>
     <row r="301">
       <c r="A301" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>274</v>
@@ -9849,18 +9869,16 @@
     </row>
     <row r="302">
       <c r="A302" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="C302" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D302" s="4"/>
-      <c r="E302" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E302" s="3"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
@@ -9870,16 +9888,18 @@
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="C303" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D303" s="4"/>
-      <c r="E303" s="3"/>
+      <c r="E303" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
@@ -9889,10 +9909,10 @@
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>274</v>
@@ -9908,10 +9928,10 @@
     </row>
     <row r="305">
       <c r="A305" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>274</v>
@@ -9927,10 +9947,10 @@
     </row>
     <row r="306">
       <c r="A306" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>274</v>
@@ -9946,10 +9966,10 @@
     </row>
     <row r="307">
       <c r="A307" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>274</v>
@@ -9965,10 +9985,10 @@
     </row>
     <row r="308">
       <c r="A308" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>274</v>
@@ -9984,10 +10004,10 @@
     </row>
     <row r="309">
       <c r="A309" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>274</v>
@@ -10003,10 +10023,10 @@
     </row>
     <row r="310">
       <c r="A310" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>274</v>
@@ -10022,16 +10042,18 @@
     </row>
     <row r="311">
       <c r="A311" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B311" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B311" s="3" t="s">
-        <v>490</v>
-      </c>
       <c r="C311" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D311" s="4"/>
-      <c r="E311" s="3"/>
+      <c r="E311" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
@@ -10041,10 +10063,10 @@
     </row>
     <row r="312">
       <c r="A312" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>274</v>
@@ -10060,10 +10082,10 @@
     </row>
     <row r="313">
       <c r="A313" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B313" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>274</v>
@@ -10079,10 +10101,10 @@
     </row>
     <row r="314">
       <c r="A314" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B314" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>1055</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>274</v>
@@ -10101,7 +10123,7 @@
         <v>496</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>497</v>
+        <v>1061</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>274</v>
@@ -10117,10 +10139,10 @@
     </row>
     <row r="316">
       <c r="A316" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B316" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>274</v>
@@ -10136,10 +10158,10 @@
     </row>
     <row r="317">
       <c r="A317" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>1056</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>274</v>
@@ -10154,11 +10176,11 @@
       <c r="K317" s="4"/>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B318" s="3" t="s">
-        <v>118</v>
+      <c r="B318" s="4" t="s">
+        <v>1062</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>274</v>
@@ -10177,12 +10199,12 @@
         <v>502</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>503</v>
+        <v>118</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D319" s="3"/>
+      <c r="D319" s="4"/>
       <c r="E319" s="3"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -10193,10 +10215,10 @@
     </row>
     <row r="320">
       <c r="A320" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>274</v>
@@ -10212,10 +10234,10 @@
     </row>
     <row r="321">
       <c r="A321" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>274</v>
@@ -10231,10 +10253,10 @@
     </row>
     <row r="322">
       <c r="A322" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>274</v>
@@ -10250,10 +10272,10 @@
     </row>
     <row r="323">
       <c r="A323" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B323" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>274</v>
@@ -10268,16 +10290,16 @@
       <c r="K323" s="4"/>
     </row>
     <row r="324">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B324" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="C324" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D324" s="4"/>
+      <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -10287,16 +10309,16 @@
       <c r="K324" s="4"/>
     </row>
     <row r="325">
-      <c r="A325" s="4" t="s">
+      <c r="A325" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B325" s="4" t="s">
-        <v>103</v>
+      <c r="B325" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D325" s="4"/>
+      <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
@@ -10307,7 +10329,7 @@
     </row>
     <row r="326">
       <c r="A326" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>103</v>
@@ -10326,7 +10348,7 @@
     </row>
     <row r="327">
       <c r="A327" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>103</v>
@@ -10345,7 +10367,7 @@
     </row>
     <row r="328">
       <c r="A328" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>103</v>
@@ -10364,7 +10386,7 @@
     </row>
     <row r="329">
       <c r="A329" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>103</v>
@@ -10382,8 +10404,8 @@
       <c r="K329" s="4"/>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="s">
-        <v>518</v>
+      <c r="A330" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>103</v>
@@ -10402,7 +10424,7 @@
     </row>
     <row r="331">
       <c r="A331" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>103</v>
@@ -10420,11 +10442,11 @@
       <c r="K331" s="4"/>
     </row>
     <row r="332">
-      <c r="A332" s="4" t="s">
-        <v>520</v>
+      <c r="A332" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>1057</v>
+        <v>103</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>274</v>
@@ -10440,7 +10462,7 @@
     </row>
     <row r="333">
       <c r="A333" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>103</v>
@@ -10459,10 +10481,10 @@
     </row>
     <row r="334">
       <c r="A334" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>103</v>
+        <v>1063</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>274</v>
@@ -10478,10 +10500,10 @@
     </row>
     <row r="335">
       <c r="A335" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>1058</v>
+        <v>103</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>274</v>
@@ -10497,10 +10519,10 @@
     </row>
     <row r="336">
       <c r="A336" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>1059</v>
+        <v>103</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>274</v>
@@ -10516,10 +10538,10 @@
     </row>
     <row r="337">
       <c r="A337" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>274</v>
@@ -10535,10 +10557,10 @@
     </row>
     <row r="338">
       <c r="A338" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>274</v>
@@ -10554,10 +10576,10 @@
     </row>
     <row r="339">
       <c r="A339" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>274</v>
@@ -10573,10 +10595,10 @@
     </row>
     <row r="340">
       <c r="A340" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>103</v>
+        <v>1067</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>274</v>
@@ -10592,10 +10614,10 @@
     </row>
     <row r="341">
       <c r="A341" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>274</v>
@@ -10611,10 +10633,10 @@
     </row>
     <row r="342">
       <c r="A342" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>531</v>
+        <v>103</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>274</v>
@@ -10632,8 +10654,8 @@
       <c r="A343" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B343" s="3" t="s">
-        <v>533</v>
+      <c r="B343" s="4" t="s">
+        <v>1069</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>274</v>
@@ -10649,10 +10671,10 @@
     </row>
     <row r="344">
       <c r="A344" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B344" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>274</v>
@@ -10668,10 +10690,10 @@
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>1064</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>274</v>
@@ -10689,8 +10711,8 @@
       <c r="A346" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B346" s="3" t="s">
-        <v>342</v>
+      <c r="B346" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>274</v>
@@ -10706,10 +10728,10 @@
     </row>
     <row r="347">
       <c r="A347" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>342</v>
+        <v>539</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>1070</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>274</v>
@@ -10725,10 +10747,10 @@
     </row>
     <row r="348">
       <c r="A348" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>1065</v>
+        <v>540</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>274</v>
@@ -10744,10 +10766,10 @@
     </row>
     <row r="349">
       <c r="A349" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>1066</v>
+        <v>541</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>274</v>
@@ -10763,10 +10785,10 @@
     </row>
     <row r="350">
       <c r="A350" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>541</v>
+        <v>1071</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>274</v>
@@ -10782,10 +10804,10 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>329</v>
+        <v>1072</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>274</v>
@@ -10804,7 +10826,7 @@
         <v>543</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1067</v>
+        <v>544</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>274</v>
@@ -10819,8 +10841,8 @@
       <c r="K352" s="4"/>
     </row>
     <row r="353">
-      <c r="A353" s="3" t="s">
-        <v>544</v>
+      <c r="A353" s="4" t="s">
+        <v>545</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>329</v>
@@ -10828,7 +10850,7 @@
       <c r="C353" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D353" s="3"/>
+      <c r="D353" s="4"/>
       <c r="E353" s="3"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
@@ -10839,10 +10861,10 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>274</v>
@@ -10857,16 +10879,16 @@
       <c r="K354" s="4"/>
     </row>
     <row r="355">
-      <c r="A355" s="4" t="s">
-        <v>546</v>
+      <c r="A355" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1069</v>
+        <v>329</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D355" s="4"/>
+      <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
@@ -10877,10 +10899,10 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>274</v>
@@ -10896,10 +10918,10 @@
     </row>
     <row r="357">
       <c r="A357" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>274</v>
@@ -10915,10 +10937,10 @@
     </row>
     <row r="358">
       <c r="A358" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>274</v>
@@ -10934,10 +10956,10 @@
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>551</v>
+        <v>1077</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>274</v>
@@ -10956,7 +10978,7 @@
         <v>552</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>474</v>
+        <v>1078</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>274</v>
@@ -10975,7 +10997,7 @@
         <v>553</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>274</v>
@@ -10991,10 +11013,10 @@
     </row>
     <row r="362">
       <c r="A362" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>274</v>
@@ -11009,16 +11031,16 @@
       <c r="K362" s="4"/>
     </row>
     <row r="363">
-      <c r="A363" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>476</v>
+      <c r="A363" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D363" s="3"/>
+      <c r="D363" s="4"/>
       <c r="E363" s="3"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -11029,10 +11051,10 @@
     </row>
     <row r="364">
       <c r="A364" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>274</v>
@@ -11047,16 +11069,16 @@
       <c r="K364" s="4"/>
     </row>
     <row r="365">
-      <c r="A365" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>1073</v>
+      <c r="A365" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D365" s="4"/>
+      <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
@@ -11067,10 +11089,10 @@
     </row>
     <row r="366">
       <c r="A366" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1074</v>
+        <v>477</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>274</v>
@@ -11086,10 +11108,10 @@
     </row>
     <row r="367">
       <c r="A367" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>348</v>
+        <v>1079</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>274</v>
@@ -11105,10 +11127,10 @@
     </row>
     <row r="368">
       <c r="A368" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>561</v>
+        <v>1080</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>274</v>
@@ -11126,8 +11148,8 @@
       <c r="A369" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>561</v>
+      <c r="B369" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>274</v>
@@ -11146,7 +11168,7 @@
         <v>563</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1075</v>
+        <v>564</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>274</v>
@@ -11162,10 +11184,10 @@
     </row>
     <row r="371">
       <c r="A371" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>274</v>
@@ -11181,10 +11203,10 @@
     </row>
     <row r="372">
       <c r="A372" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>274</v>
@@ -11200,10 +11222,10 @@
     </row>
     <row r="373">
       <c r="A373" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>567</v>
+        <v>78</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>274</v>
@@ -11222,15 +11244,13 @@
         <v>568</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>569</v>
+        <v>1082</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D374" s="4"/>
-      <c r="E374" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E374" s="3"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
@@ -11239,11 +11259,11 @@
       <c r="K374" s="4"/>
     </row>
     <row r="375">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B375" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>274</v>
@@ -11259,16 +11279,18 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B376" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="B376" s="4" t="s">
-        <v>573</v>
-      </c>
       <c r="C376" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D376" s="4"/>
-      <c r="E376" s="3"/>
+      <c r="E376" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
@@ -11277,11 +11299,11 @@
       <c r="K376" s="4"/>
     </row>
     <row r="377">
-      <c r="A377" s="4" t="s">
+      <c r="A377" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>1077</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>274</v>
@@ -11300,7 +11322,7 @@
         <v>575</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1078</v>
+        <v>576</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>274</v>
@@ -11316,10 +11338,10 @@
     </row>
     <row r="379">
       <c r="A379" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>274</v>
@@ -11335,10 +11357,10 @@
     </row>
     <row r="380">
       <c r="A380" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>578</v>
+        <v>1084</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>274</v>
@@ -11357,7 +11379,7 @@
         <v>579</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>580</v>
+        <v>1085</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>274</v>
@@ -11373,10 +11395,10 @@
     </row>
     <row r="382">
       <c r="A382" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B382" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>274</v>
@@ -11392,10 +11414,10 @@
     </row>
     <row r="383">
       <c r="A383" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B383" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>1080</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>274</v>
@@ -11413,8 +11435,8 @@
       <c r="A384" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>145</v>
+      <c r="B384" s="4" t="s">
+        <v>585</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>274</v>
@@ -11430,10 +11452,10 @@
     </row>
     <row r="385">
       <c r="A385" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>586</v>
+        <v>1086</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>274</v>
@@ -11451,8 +11473,8 @@
       <c r="A386" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="B386" s="4" t="s">
-        <v>1081</v>
+      <c r="B386" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>274</v>
@@ -11471,7 +11493,7 @@
         <v>588</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1082</v>
+        <v>589</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>274</v>
@@ -11487,10 +11509,10 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>590</v>
+        <v>1087</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>274</v>
@@ -11509,7 +11531,7 @@
         <v>591</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>592</v>
+        <v>1088</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>274</v>
@@ -11525,10 +11547,10 @@
     </row>
     <row r="390">
       <c r="A390" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B390" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="B390" s="4" t="s">
-        <v>1083</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>274</v>
@@ -11547,7 +11569,7 @@
         <v>594</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1084</v>
+        <v>595</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>274</v>
@@ -11563,10 +11585,10 @@
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>318</v>
+        <v>1089</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>274</v>
@@ -11582,10 +11604,10 @@
     </row>
     <row r="393">
       <c r="A393" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>597</v>
+        <v>1090</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>274</v>
@@ -11604,7 +11626,7 @@
         <v>598</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1085</v>
+        <v>318</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>274</v>
@@ -11623,7 +11645,7 @@
         <v>599</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1086</v>
+        <v>600</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>274</v>
@@ -11639,10 +11661,10 @@
     </row>
     <row r="396">
       <c r="A396" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>274</v>
@@ -11658,10 +11680,10 @@
     </row>
     <row r="397">
       <c r="A397" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>274</v>
@@ -11677,10 +11699,10 @@
     </row>
     <row r="398">
       <c r="A398" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>274</v>
@@ -11696,10 +11718,10 @@
     </row>
     <row r="399">
       <c r="A399" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>274</v>
@@ -11715,10 +11737,10 @@
     </row>
     <row r="400">
       <c r="A400" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>274</v>
@@ -11734,10 +11756,10 @@
     </row>
     <row r="401">
       <c r="A401" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>606</v>
+        <v>1096</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>274</v>
@@ -11756,7 +11778,7 @@
         <v>607</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>608</v>
+        <v>1097</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>274</v>
@@ -11772,10 +11794,10 @@
     </row>
     <row r="403">
       <c r="A403" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B403" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>274</v>
@@ -11813,7 +11835,7 @@
         <v>612</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1092</v>
+        <v>483</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>274</v>
@@ -11831,8 +11853,8 @@
       <c r="A406" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>95</v>
+      <c r="B406" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>274</v>
@@ -11848,10 +11870,10 @@
     </row>
     <row r="407">
       <c r="A407" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>615</v>
+        <v>1098</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>274</v>
@@ -11869,8 +11891,8 @@
       <c r="A408" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B408" s="4" t="s">
-        <v>1093</v>
+      <c r="B408" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>274</v>
@@ -11904,16 +11926,16 @@
       <c r="K409" s="4"/>
     </row>
     <row r="410">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="B410" s="3" t="s">
-        <v>620</v>
+      <c r="B410" s="4" t="s">
+        <v>1099</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D410" s="3"/>
+      <c r="D410" s="4"/>
       <c r="E410" s="3"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
@@ -11923,16 +11945,16 @@
       <c r="K410" s="4"/>
     </row>
     <row r="411">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B411" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B411" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="C411" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D411" s="3"/>
+      <c r="D411" s="4"/>
       <c r="E411" s="3"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
@@ -11965,7 +11987,7 @@
         <v>624</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>625</v>
+        <v>389</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>274</v>
@@ -11981,10 +12003,10 @@
     </row>
     <row r="414">
       <c r="A414" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B414" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>274</v>
@@ -12022,7 +12044,7 @@
         <v>629</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>352</v>
+        <v>506</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>274</v>
@@ -12037,16 +12059,16 @@
       <c r="K416" s="4"/>
     </row>
     <row r="417">
-      <c r="A417" s="4" t="s">
+      <c r="A417" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B417" s="3" t="s">
         <v>631</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D417" s="4"/>
+      <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
@@ -12056,16 +12078,16 @@
       <c r="K417" s="4"/>
     </row>
     <row r="418">
-      <c r="A418" s="4" t="s">
+      <c r="A418" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B418" s="4" t="s">
-        <v>103</v>
+      <c r="B418" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D418" s="4"/>
+      <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
@@ -12079,7 +12101,7 @@
         <v>633</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>103</v>
+        <v>634</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>274</v>
@@ -12095,10 +12117,10 @@
     </row>
     <row r="420">
       <c r="A420" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1094</v>
+        <v>103</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>274</v>
@@ -12114,7 +12136,7 @@
     </row>
     <row r="421">
       <c r="A421" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>103</v>
@@ -12123,9 +12145,7 @@
         <v>274</v>
       </c>
       <c r="D421" s="4"/>
-      <c r="E421" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E421" s="3"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
@@ -12135,10 +12155,10 @@
     </row>
     <row r="422">
       <c r="A422" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>103</v>
+        <v>637</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>1100</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>274</v>
@@ -12154,16 +12174,18 @@
     </row>
     <row r="423">
       <c r="A423" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="B423" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B423" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D423" s="4"/>
-      <c r="E423" s="3"/>
+      <c r="E423" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
@@ -12173,7 +12195,7 @@
     </row>
     <row r="424">
       <c r="A424" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>103</v>
@@ -12192,9 +12214,9 @@
     </row>
     <row r="425">
       <c r="A425" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B425" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C425" s="2" t="s">
@@ -12211,7 +12233,7 @@
     </row>
     <row r="426">
       <c r="A426" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>103</v>
@@ -12230,7 +12252,7 @@
     </row>
     <row r="427">
       <c r="A427" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>103</v>
@@ -12249,9 +12271,9 @@
     </row>
     <row r="428">
       <c r="A428" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="B428" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C428" s="2" t="s">
@@ -12268,7 +12290,7 @@
     </row>
     <row r="429">
       <c r="A429" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>103</v>
@@ -12287,7 +12309,7 @@
     </row>
     <row r="430">
       <c r="A430" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>103</v>
@@ -12306,7 +12328,7 @@
     </row>
     <row r="431">
       <c r="A431" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B431" s="4" t="s">
         <v>103</v>
@@ -12325,7 +12347,7 @@
     </row>
     <row r="432">
       <c r="A432" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>103</v>
@@ -12344,7 +12366,7 @@
     </row>
     <row r="433">
       <c r="A433" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>103</v>
@@ -12363,7 +12385,7 @@
     </row>
     <row r="434">
       <c r="A434" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>103</v>
@@ -12382,7 +12404,7 @@
     </row>
     <row r="435">
       <c r="A435" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>103</v>
@@ -12401,9 +12423,9 @@
     </row>
     <row r="436">
       <c r="A436" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="B436" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B436" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C436" s="2" t="s">
@@ -12420,9 +12442,9 @@
     </row>
     <row r="437">
       <c r="A437" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B437" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B437" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C437" s="2" t="s">
@@ -12439,9 +12461,9 @@
     </row>
     <row r="438">
       <c r="A438" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="B438" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -12458,9 +12480,9 @@
     </row>
     <row r="439">
       <c r="A439" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B439" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C439" s="2" t="s">
@@ -12477,9 +12499,9 @@
     </row>
     <row r="440">
       <c r="A440" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="B440" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B440" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C440" s="2" t="s">
@@ -12496,7 +12518,7 @@
     </row>
     <row r="441">
       <c r="A441" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>103</v>
@@ -12504,7 +12526,7 @@
       <c r="C441" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D441" s="3"/>
+      <c r="D441" s="4"/>
       <c r="E441" s="3"/>
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
@@ -12515,10 +12537,10 @@
     </row>
     <row r="442">
       <c r="A442" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="B442" s="4" t="s">
-        <v>329</v>
+        <v>657</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>274</v>
@@ -12534,15 +12556,15 @@
     </row>
     <row r="443">
       <c r="A443" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>329</v>
+        <v>103</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D443" s="4"/>
+      <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
@@ -12553,7 +12575,7 @@
     </row>
     <row r="444">
       <c r="A444" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>329</v>
@@ -12572,9 +12594,9 @@
     </row>
     <row r="445">
       <c r="A445" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B445" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B445" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C445" s="2" t="s">
@@ -12590,8 +12612,8 @@
       <c r="K445" s="4"/>
     </row>
     <row r="446">
-      <c r="A446" s="3" t="s">
-        <v>660</v>
+      <c r="A446" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>329</v>
@@ -12610,9 +12632,9 @@
     </row>
     <row r="447">
       <c r="A447" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B447" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C447" s="2" t="s">
@@ -12628,11 +12650,11 @@
       <c r="K447" s="4"/>
     </row>
     <row r="448">
-      <c r="A448" s="4" t="s">
-        <v>662</v>
+      <c r="A448" s="3" t="s">
+        <v>663</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>274</v>
@@ -12648,10 +12670,10 @@
     </row>
     <row r="449">
       <c r="A449" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>274</v>
@@ -12667,7 +12689,7 @@
     </row>
     <row r="450">
       <c r="A450" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B450" s="4" t="s">
         <v>285</v>
@@ -12686,9 +12708,9 @@
     </row>
     <row r="451">
       <c r="A451" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="B451" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B451" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C451" s="2" t="s">
@@ -12705,10 +12727,10 @@
     </row>
     <row r="452">
       <c r="A452" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>1095</v>
+        <v>285</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>274</v>
@@ -12724,10 +12746,10 @@
     </row>
     <row r="453">
       <c r="A453" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="B453" s="4" t="s">
-        <v>335</v>
+        <v>668</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>274</v>
@@ -12743,10 +12765,10 @@
     </row>
     <row r="454">
       <c r="A454" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B454" s="1" t="s">
         <v>669</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>274</v>
@@ -12764,8 +12786,8 @@
       <c r="A455" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B455" s="3" t="s">
-        <v>669</v>
+      <c r="B455" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>274</v>
@@ -12780,16 +12802,16 @@
       <c r="K455" s="4"/>
     </row>
     <row r="456">
-      <c r="A456" s="3" t="s">
+      <c r="A456" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B456" s="3" t="s">
-        <v>669</v>
+      <c r="B456" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D456" s="3"/>
+      <c r="D456" s="4"/>
       <c r="E456" s="3"/>
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
@@ -12800,10 +12822,10 @@
     </row>
     <row r="457">
       <c r="A457" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B457" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>274</v>
@@ -12818,16 +12840,16 @@
       <c r="K457" s="4"/>
     </row>
     <row r="458">
-      <c r="A458" s="4" t="s">
-        <v>673</v>
+      <c r="A458" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>342</v>
+        <v>672</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D458" s="4"/>
+      <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
@@ -12837,8 +12859,8 @@
       <c r="K458" s="4"/>
     </row>
     <row r="459">
-      <c r="A459" s="3" t="s">
-        <v>674</v>
+      <c r="A459" s="4" t="s">
+        <v>675</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>342</v>
@@ -12846,7 +12868,7 @@
       <c r="C459" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D459" s="3"/>
+      <c r="D459" s="4"/>
       <c r="E459" s="3"/>
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
@@ -12856,16 +12878,16 @@
       <c r="K459" s="4"/>
     </row>
     <row r="460">
-      <c r="A460" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B460" s="4" t="s">
+      <c r="A460" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>342</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D460" s="3"/>
+      <c r="D460" s="4"/>
       <c r="E460" s="3"/>
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
@@ -12875,16 +12897,16 @@
       <c r="K460" s="4"/>
     </row>
     <row r="461">
-      <c r="A461" s="4" t="s">
-        <v>676</v>
+      <c r="A461" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>677</v>
+        <v>342</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D461" s="4"/>
+      <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
@@ -12894,16 +12916,16 @@
       <c r="K461" s="4"/>
     </row>
     <row r="462">
-      <c r="A462" s="4" t="s">
+      <c r="A462" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>511</v>
+      <c r="B462" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D462" s="4"/>
+      <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
@@ -12916,16 +12938,14 @@
       <c r="A463" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>511</v>
+      <c r="B463" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D463" s="4"/>
-      <c r="E463" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E463" s="3"/>
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
@@ -12934,11 +12954,11 @@
       <c r="K463" s="4"/>
     </row>
     <row r="464">
-      <c r="A464" s="3" t="s">
-        <v>680</v>
+      <c r="A464" s="4" t="s">
+        <v>681</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>274</v>
@@ -12954,16 +12974,18 @@
     </row>
     <row r="465">
       <c r="A465" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>134</v>
+        <v>512</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D465" s="4"/>
-      <c r="E465" s="3"/>
+      <c r="E465" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
@@ -12972,11 +12994,11 @@
       <c r="K465" s="4"/>
     </row>
     <row r="466">
-      <c r="A466" s="4" t="s">
-        <v>682</v>
+      <c r="A466" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>134</v>
+        <v>512</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>274</v>
@@ -12992,10 +13014,10 @@
     </row>
     <row r="467">
       <c r="A467" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1096</v>
+        <v>348</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>274</v>
@@ -13011,10 +13033,10 @@
     </row>
     <row r="468">
       <c r="A468" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>274</v>
@@ -13030,10 +13052,10 @@
     </row>
     <row r="469">
       <c r="A469" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="B469" s="4" t="s">
-        <v>468</v>
+        <v>686</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>687</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>274</v>
@@ -13049,10 +13071,10 @@
     </row>
     <row r="470">
       <c r="A470" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B470" s="4" t="s">
-        <v>468</v>
+        <v>688</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>274</v>
@@ -13068,10 +13090,10 @@
     </row>
     <row r="471">
       <c r="A471" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="B471" s="4" t="s">
-        <v>396</v>
+        <v>689</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>274</v>
@@ -13087,10 +13109,10 @@
     </row>
     <row r="472">
       <c r="A472" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>396</v>
+        <v>690</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>274</v>
@@ -13106,10 +13128,10 @@
     </row>
     <row r="473">
       <c r="A473" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>690</v>
+        <v>359</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>274</v>
@@ -13125,10 +13147,10 @@
     </row>
     <row r="474">
       <c r="A474" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="B474" s="1" t="s">
         <v>692</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>274</v>
@@ -13146,8 +13168,8 @@
       <c r="A475" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>692</v>
+      <c r="B475" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>274</v>
@@ -13166,7 +13188,7 @@
         <v>694</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>274</v>
@@ -13182,10 +13204,10 @@
     </row>
     <row r="477">
       <c r="A477" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B477" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>274</v>
@@ -13201,15 +13223,15 @@
     </row>
     <row r="478">
       <c r="A478" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>308</v>
+        <v>695</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D478" s="3"/>
+      <c r="D478" s="4"/>
       <c r="E478" s="3"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
@@ -13220,7 +13242,7 @@
     </row>
     <row r="479">
       <c r="A479" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>308</v>
@@ -13228,7 +13250,7 @@
       <c r="C479" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D479" s="3"/>
+      <c r="D479" s="4"/>
       <c r="E479" s="3"/>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
@@ -13239,15 +13261,15 @@
     </row>
     <row r="480">
       <c r="A480" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>699</v>
+        <v>308</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D480" s="4"/>
+      <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
@@ -13260,13 +13282,13 @@
       <c r="A481" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B481" s="3" t="s">
-        <v>699</v>
+      <c r="B481" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D481" s="4"/>
+      <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
@@ -13276,16 +13298,16 @@
       <c r="K481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="3" t="s">
+      <c r="A482" s="4" t="s">
         <v>701</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D482" s="3"/>
+      <c r="D482" s="4"/>
       <c r="E482" s="3"/>
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
@@ -13296,10 +13318,10 @@
     </row>
     <row r="483">
       <c r="A483" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B483" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>274</v>
@@ -13314,16 +13336,16 @@
       <c r="K483" s="4"/>
     </row>
     <row r="484">
-      <c r="A484" s="4" t="s">
-        <v>703</v>
+      <c r="A484" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>592</v>
+        <v>702</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D484" s="4"/>
+      <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
@@ -13334,10 +13356,10 @@
     </row>
     <row r="485">
       <c r="A485" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>118</v>
+        <v>595</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>274</v>
@@ -13353,10 +13375,10 @@
     </row>
     <row r="486">
       <c r="A486" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="B486" s="4" t="s">
-        <v>118</v>
+        <v>706</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>274</v>
@@ -13372,10 +13394,10 @@
     </row>
     <row r="487">
       <c r="A487" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="B487" s="3" t="s">
         <v>707</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>274</v>
@@ -13393,8 +13415,8 @@
       <c r="A488" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>707</v>
+      <c r="B488" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>274</v>
@@ -13412,8 +13434,8 @@
       <c r="A489" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>590</v>
+      <c r="B489" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>274</v>
@@ -13429,18 +13451,16 @@
     </row>
     <row r="490">
       <c r="A490" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="C490" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D490" s="4"/>
-      <c r="E490" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E490" s="3"/>
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
@@ -13450,10 +13470,10 @@
     </row>
     <row r="491">
       <c r="A491" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>452</v>
+        <v>593</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>274</v>
@@ -13469,16 +13489,18 @@
     </row>
     <row r="492">
       <c r="A492" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="B492" s="4" t="s">
-        <v>452</v>
+        <v>713</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D492" s="4"/>
-      <c r="E492" s="3"/>
+      <c r="E492" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
@@ -13487,11 +13509,11 @@
       <c r="K492" s="4"/>
     </row>
     <row r="493">
-      <c r="A493" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>185</v>
+      <c r="A493" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>274</v>
@@ -13506,11 +13528,11 @@
       <c r="K493" s="4"/>
     </row>
     <row r="494">
-      <c r="A494" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="B494" s="3" t="s">
-        <v>185</v>
+      <c r="A494" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>274</v>
@@ -13525,11 +13547,11 @@
       <c r="K494" s="4"/>
     </row>
     <row r="495">
-      <c r="A495" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>571</v>
+      <c r="A495" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>274</v>
@@ -13545,10 +13567,10 @@
     </row>
     <row r="496">
       <c r="A496" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>571</v>
+        <v>717</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>274</v>
@@ -13564,10 +13586,10 @@
     </row>
     <row r="497">
       <c r="A497" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="B497" s="4" t="s">
-        <v>139</v>
+        <v>718</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>274</v>
@@ -13583,15 +13605,15 @@
     </row>
     <row r="498">
       <c r="A498" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>139</v>
+        <v>719</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D498" s="3"/>
+      <c r="D498" s="4"/>
       <c r="E498" s="3"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
@@ -13602,10 +13624,10 @@
     </row>
     <row r="499">
       <c r="A499" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="B499" s="5" t="s">
-        <v>420</v>
+        <v>720</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>274</v>
@@ -13620,11 +13642,11 @@
       <c r="K499" s="4"/>
     </row>
     <row r="500">
-      <c r="A500" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>720</v>
+      <c r="A500" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>274</v>
@@ -13640,18 +13662,16 @@
     </row>
     <row r="501">
       <c r="A501" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>335</v>
+        <v>139</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D501" s="4"/>
-      <c r="E501" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E501" s="3"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
@@ -13660,16 +13680,16 @@
       <c r="K501" s="4"/>
     </row>
     <row r="502">
-      <c r="A502" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="B502" s="4" t="s">
-        <v>373</v>
+      <c r="A502" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D502" s="4"/>
+      <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
@@ -13680,10 +13700,10 @@
     </row>
     <row r="503">
       <c r="A503" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B503" s="1" t="s">
         <v>724</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>274</v>
@@ -13698,11 +13718,11 @@
       <c r="K503" s="4"/>
     </row>
     <row r="504">
-      <c r="A504" s="4" t="s">
+      <c r="A504" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B504" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>274</v>
@@ -13721,13 +13741,15 @@
         <v>726</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>727</v>
+        <v>335</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D505" s="4"/>
-      <c r="E505" s="3"/>
+      <c r="E505" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
@@ -13737,10 +13759,10 @@
     </row>
     <row r="506">
       <c r="A506" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B506" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>274</v>
@@ -13758,8 +13780,8 @@
       <c r="A507" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="B507" s="3" t="s">
-        <v>730</v>
+      <c r="B507" s="4" t="s">
+        <v>554</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>274</v>
@@ -13775,10 +13797,10 @@
     </row>
     <row r="508">
       <c r="A508" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B508" s="4" t="s">
         <v>731</v>
-      </c>
-      <c r="B508" s="5" t="s">
-        <v>732</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>274</v>
@@ -13794,10 +13816,10 @@
     </row>
     <row r="509">
       <c r="A509" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>274</v>
@@ -13812,16 +13834,16 @@
       <c r="K509" s="4"/>
     </row>
     <row r="510">
-      <c r="A510" s="3" t="s">
+      <c r="A510" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B510" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="C510" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D510" s="3"/>
+      <c r="D510" s="4"/>
       <c r="E510" s="3"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
@@ -13832,10 +13854,10 @@
     </row>
     <row r="511">
       <c r="A511" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B511" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="B511" s="4" t="s">
-        <v>737</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>274</v>
@@ -13851,10 +13873,10 @@
     </row>
     <row r="512">
       <c r="A512" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>110</v>
+        <v>737</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>274</v>
@@ -13869,16 +13891,16 @@
       <c r="K512" s="4"/>
     </row>
     <row r="513">
-      <c r="A513" s="4" t="s">
+      <c r="A513" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B513" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B513" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="C513" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D513" s="4"/>
+      <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
@@ -13891,8 +13913,8 @@
       <c r="A514" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="B514" s="5" t="s">
-        <v>168</v>
+      <c r="B514" s="4" t="s">
+        <v>741</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>274</v>
@@ -13908,10 +13930,10 @@
     </row>
     <row r="515">
       <c r="A515" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="B515" s="1" t="s">
         <v>742</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>274</v>
@@ -13930,7 +13952,7 @@
         <v>743</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>274</v>
@@ -13948,8 +13970,8 @@
       <c r="A517" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="B517" s="1" t="s">
-        <v>492</v>
+      <c r="B517" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>274</v>
@@ -13968,7 +13990,7 @@
         <v>745</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>318</v>
+        <v>746</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>274</v>
@@ -13984,10 +14006,10 @@
     </row>
     <row r="519">
       <c r="A519" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="B519" s="1" t="s">
         <v>747</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>274</v>
@@ -14006,7 +14028,7 @@
         <v>748</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>615</v>
+        <v>493</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>274</v>
@@ -14025,7 +14047,7 @@
         <v>749</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>750</v>
+        <v>318</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>274</v>
@@ -14041,10 +14063,10 @@
     </row>
     <row r="522">
       <c r="A522" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B522" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>274</v>
@@ -14060,10 +14082,10 @@
     </row>
     <row r="523">
       <c r="A523" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>264</v>
+        <v>752</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>274</v>
@@ -14079,10 +14101,10 @@
     </row>
     <row r="524">
       <c r="A524" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B524" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>274</v>
@@ -14100,7 +14122,7 @@
       <c r="A525" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B525" s="4" t="s">
+      <c r="B525" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C525" s="2" t="s">
@@ -14119,8 +14141,8 @@
       <c r="A526" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>758</v>
+      <c r="B526" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>274</v>
@@ -14136,10 +14158,10 @@
     </row>
     <row r="527">
       <c r="A527" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="B527" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>274</v>
@@ -14155,10 +14177,10 @@
     </row>
     <row r="528">
       <c r="A528" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>274</v>
@@ -14174,10 +14196,10 @@
     </row>
     <row r="529">
       <c r="A529" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B529" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>274</v>
@@ -14193,10 +14215,10 @@
     </row>
     <row r="530">
       <c r="A530" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>6</v>
+        <v>763</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>274</v>
@@ -14212,10 +14234,10 @@
     </row>
     <row r="531">
       <c r="A531" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B531" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>767</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>274</v>
@@ -14231,10 +14253,10 @@
     </row>
     <row r="532">
       <c r="A532" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B532" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="B532" s="4" t="s">
-        <v>769</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>274</v>
@@ -14250,10 +14272,10 @@
     </row>
     <row r="533">
       <c r="A533" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>771</v>
+        <v>6</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>274</v>
@@ -14269,10 +14291,10 @@
     </row>
     <row r="534">
       <c r="A534" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B534" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>274</v>
@@ -14288,10 +14310,10 @@
     </row>
     <row r="535">
       <c r="A535" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>274</v>
@@ -14307,10 +14329,10 @@
     </row>
     <row r="536">
       <c r="A536" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>274</v>
@@ -14326,10 +14348,10 @@
     </row>
     <row r="537">
       <c r="A537" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>274</v>
@@ -14345,10 +14367,10 @@
     </row>
     <row r="538">
       <c r="A538" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>274</v>
@@ -14364,10 +14386,10 @@
     </row>
     <row r="539">
       <c r="A539" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B539" s="4" t="s">
-        <v>428</v>
+        <v>780</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>781</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>274</v>
@@ -14383,10 +14405,10 @@
     </row>
     <row r="540">
       <c r="A540" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B540" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="B540" s="4" t="s">
-        <v>784</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>274</v>
@@ -14401,11 +14423,11 @@
       <c r="K540" s="4"/>
     </row>
     <row r="541">
-      <c r="A541" s="3" t="s">
+      <c r="A541" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B541" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>786</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>274</v>
@@ -14421,10 +14443,10 @@
     </row>
     <row r="542">
       <c r="A542" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>788</v>
+        <v>429</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>274</v>
@@ -14440,10 +14462,10 @@
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>274</v>
@@ -14458,11 +14480,11 @@
       <c r="K543" s="4"/>
     </row>
     <row r="544">
-      <c r="A544" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="B544" s="4" t="s">
-        <v>233</v>
+      <c r="A544" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>274</v>
@@ -14478,10 +14500,10 @@
     </row>
     <row r="545">
       <c r="A545" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B545" s="4" t="s">
         <v>792</v>
-      </c>
-      <c r="B545" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>274</v>
@@ -14500,7 +14522,7 @@
         <v>793</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>611</v>
+        <v>794</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>274</v>
@@ -14515,11 +14537,11 @@
       <c r="K546" s="4"/>
     </row>
     <row r="547">
-      <c r="A547" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B547" s="1" t="s">
+      <c r="A547" s="4" t="s">
         <v>795</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>274</v>
@@ -14537,8 +14559,8 @@
       <c r="A548" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>797</v>
+      <c r="B548" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>274</v>
@@ -14554,10 +14576,10 @@
     </row>
     <row r="549">
       <c r="A549" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>799</v>
+        <v>614</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>274</v>
@@ -14572,11 +14594,11 @@
       <c r="K549" s="4"/>
     </row>
     <row r="550">
-      <c r="A550" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="B550" s="4" t="s">
-        <v>801</v>
+      <c r="A550" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>274</v>
@@ -14591,11 +14613,11 @@
       <c r="K550" s="4"/>
     </row>
     <row r="551">
-      <c r="A551" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="B551" s="3" t="s">
-        <v>803</v>
+      <c r="A551" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>801</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>274</v>
@@ -14610,11 +14632,11 @@
       <c r="K551" s="4"/>
     </row>
     <row r="552">
-      <c r="A552" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="B552" s="3" t="s">
-        <v>805</v>
+      <c r="A552" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>803</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>274</v>
@@ -14629,11 +14651,11 @@
       <c r="K552" s="4"/>
     </row>
     <row r="553">
-      <c r="A553" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>807</v>
+      <c r="A553" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>274</v>
@@ -14648,11 +14670,11 @@
       <c r="K553" s="4"/>
     </row>
     <row r="554">
-      <c r="A554" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B554" s="4" t="s">
-        <v>281</v>
+      <c r="A554" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>807</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>274</v>
@@ -14667,11 +14689,11 @@
       <c r="K554" s="4"/>
     </row>
     <row r="555">
-      <c r="A555" s="4" t="s">
+      <c r="A555" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B555" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>274</v>
@@ -14686,11 +14708,11 @@
       <c r="K555" s="4"/>
     </row>
     <row r="556">
-      <c r="A556" s="4" t="s">
+      <c r="A556" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B556" s="1" t="s">
-        <v>103</v>
+      <c r="B556" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>274</v>
@@ -14706,10 +14728,10 @@
     </row>
     <row r="557">
       <c r="A557" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>274</v>
@@ -14725,9 +14747,9 @@
     </row>
     <row r="558">
       <c r="A558" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B558" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B558" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C558" s="2" t="s">
@@ -14744,9 +14766,9 @@
     </row>
     <row r="559">
       <c r="A559" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="B559" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B559" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C559" s="2" t="s">
@@ -14763,9 +14785,9 @@
     </row>
     <row r="560">
       <c r="A560" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="B560" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B560" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C560" s="2" t="s">
@@ -14782,18 +14804,16 @@
     </row>
     <row r="561">
       <c r="A561" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="B561" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B561" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D561" s="4"/>
-      <c r="E561" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E561" s="3"/>
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
       <c r="H561" s="4"/>
@@ -14803,9 +14823,9 @@
     </row>
     <row r="562">
       <c r="A562" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="B562" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B562" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C562" s="2" t="s">
@@ -14822,9 +14842,9 @@
     </row>
     <row r="563">
       <c r="A563" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="B563" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C563" s="2" t="s">
@@ -14841,16 +14861,18 @@
     </row>
     <row r="564">
       <c r="A564" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="B564" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B564" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D564" s="4"/>
-      <c r="E564" s="3"/>
+      <c r="E564" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
       <c r="H564" s="4"/>
@@ -14860,9 +14882,9 @@
     </row>
     <row r="565">
       <c r="A565" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B565" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B565" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C565" s="2" t="s">
@@ -14879,9 +14901,9 @@
     </row>
     <row r="566">
       <c r="A566" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="B566" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B566" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C566" s="2" t="s">
@@ -14897,16 +14919,16 @@
       <c r="K566" s="4"/>
     </row>
     <row r="567">
-      <c r="A567" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B567" s="1" t="s">
+      <c r="A567" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B567" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D567" s="3"/>
+      <c r="D567" s="4"/>
       <c r="E567" s="3"/>
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
@@ -14917,10 +14939,10 @@
     </row>
     <row r="568">
       <c r="A568" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>274</v>
@@ -14936,10 +14958,10 @@
     </row>
     <row r="569">
       <c r="A569" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B569" s="4" t="s">
-        <v>342</v>
+        <v>823</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>274</v>
@@ -14954,16 +14976,16 @@
       <c r="K569" s="4"/>
     </row>
     <row r="570">
-      <c r="A570" s="4" t="s">
-        <v>823</v>
+      <c r="A570" s="3" t="s">
+        <v>824</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D570" s="4"/>
+      <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
@@ -14974,10 +14996,10 @@
     </row>
     <row r="571">
       <c r="A571" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>274</v>
@@ -14993,10 +15015,10 @@
     </row>
     <row r="572">
       <c r="A572" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>274</v>
@@ -15012,10 +15034,10 @@
     </row>
     <row r="573">
       <c r="A573" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>274</v>
@@ -15031,10 +15053,10 @@
     </row>
     <row r="574">
       <c r="A574" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>474</v>
+        <v>308</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>274</v>
@@ -15050,10 +15072,10 @@
     </row>
     <row r="575">
       <c r="A575" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>474</v>
+        <v>829</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>274</v>
@@ -15069,10 +15091,10 @@
     </row>
     <row r="576">
       <c r="A576" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>474</v>
+        <v>308</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>274</v>
@@ -15088,10 +15110,10 @@
     </row>
     <row r="577">
       <c r="A577" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="B577" s="4" t="s">
-        <v>367</v>
+        <v>831</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>274</v>
@@ -15106,11 +15128,11 @@
       <c r="K577" s="4"/>
     </row>
     <row r="578">
-      <c r="A578" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="B578" s="4" t="s">
-        <v>367</v>
+      <c r="A578" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>274</v>
@@ -15124,14 +15146,14 @@
       <c r="J578" s="4"/>
       <c r="K578" s="4"/>
     </row>
-    <row r="579" ht="18.0" customHeight="true">
-      <c r="A579" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="B579" s="7" t="s">
+    <row r="579">
+      <c r="A579" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C579" s="8" t="s">
+      <c r="B579" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C579" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D579" s="4"/>
@@ -15147,8 +15169,8 @@
       <c r="A580" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="B580" s="1" t="s">
-        <v>281</v>
+      <c r="B580" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>274</v>
@@ -15166,8 +15188,8 @@
       <c r="A581" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B581" s="1" t="s">
-        <v>281</v>
+      <c r="B581" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>274</v>
@@ -15181,14 +15203,14 @@
       <c r="J581" s="4"/>
       <c r="K581" s="4"/>
     </row>
-    <row r="582">
-      <c r="A582" s="4" t="s">
+    <row r="582" ht="18.0" customHeight="true">
+      <c r="A582" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="B582" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C582" s="2" t="s">
+      <c r="B582" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="C582" s="8" t="s">
         <v>274</v>
       </c>
       <c r="D582" s="4"/>
@@ -15202,15 +15224,15 @@
     </row>
     <row r="583">
       <c r="A583" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D583" s="3"/>
+      <c r="D583" s="4"/>
       <c r="E583" s="3"/>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
@@ -15220,11 +15242,11 @@
       <c r="K583" s="4"/>
     </row>
     <row r="584">
-      <c r="A584" s="4" t="s">
-        <v>838</v>
+      <c r="A584" s="3" t="s">
+        <v>839</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>456</v>
+        <v>281</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>274</v>
@@ -15240,10 +15262,10 @@
     </row>
     <row r="585">
       <c r="A585" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>456</v>
+        <v>329</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>274</v>
@@ -15259,15 +15281,15 @@
     </row>
     <row r="586">
       <c r="A586" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B586" s="4" t="s">
         <v>841</v>
       </c>
+      <c r="B586" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C586" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D586" s="4"/>
+      <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
@@ -15280,8 +15302,8 @@
       <c r="A587" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="B587" s="4" t="s">
-        <v>843</v>
+      <c r="B587" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>274</v>
@@ -15297,10 +15319,10 @@
     </row>
     <row r="588">
       <c r="A588" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B588" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>274</v>
@@ -15316,10 +15338,10 @@
     </row>
     <row r="589">
       <c r="A589" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>233</v>
+        <v>845</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>274</v>
@@ -15335,10 +15357,10 @@
     </row>
     <row r="590">
       <c r="A590" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B590" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="B590" s="4" t="s">
-        <v>732</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>274</v>
@@ -15356,7 +15378,7 @@
       <c r="A591" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="B591" s="1" t="s">
+      <c r="B591" s="4" t="s">
         <v>849</v>
       </c>
       <c r="C591" s="2" t="s">
@@ -15376,7 +15398,7 @@
         <v>850</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>851</v>
+        <v>233</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>274</v>
@@ -15392,10 +15414,10 @@
     </row>
     <row r="593">
       <c r="A593" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>452</v>
+        <v>736</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>274</v>
@@ -15411,10 +15433,10 @@
     </row>
     <row r="594">
       <c r="A594" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B594" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>274</v>
@@ -15432,8 +15454,8 @@
       <c r="A595" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="B595" s="1" t="s">
-        <v>118</v>
+      <c r="B595" s="4" t="s">
+        <v>855</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>274</v>
@@ -15449,10 +15471,10 @@
     </row>
     <row r="596">
       <c r="A596" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="B596" s="1" t="s">
         <v>856</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>274</v>
@@ -15470,8 +15492,8 @@
       <c r="A597" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="B597" s="4" t="s">
-        <v>149</v>
+      <c r="B597" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>274</v>
@@ -15489,8 +15511,8 @@
       <c r="A598" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B598" s="4" t="s">
-        <v>752</v>
+      <c r="B598" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>274</v>
@@ -15509,7 +15531,7 @@
         <v>859</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>452</v>
+        <v>860</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>274</v>
@@ -15525,10 +15547,10 @@
     </row>
     <row r="600">
       <c r="A600" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="B600" s="3" t="s">
         <v>861</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>274</v>
@@ -15546,8 +15568,8 @@
       <c r="A601" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="B601" s="1" t="s">
-        <v>863</v>
+      <c r="B601" s="4" t="s">
+        <v>756</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>274</v>
@@ -15563,10 +15585,10 @@
     </row>
     <row r="602">
       <c r="A602" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="B602" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>274</v>
@@ -15582,10 +15604,10 @@
     </row>
     <row r="603">
       <c r="A603" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="B603" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>865</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>274</v>
@@ -15601,10 +15623,10 @@
     </row>
     <row r="604">
       <c r="A604" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>396</v>
+        <v>867</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>274</v>
@@ -15620,10 +15642,10 @@
     </row>
     <row r="605">
       <c r="A605" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B605" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>274</v>
@@ -15639,10 +15661,10 @@
     </row>
     <row r="606">
       <c r="A606" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B606" s="4" t="s">
         <v>871</v>
-      </c>
-      <c r="B606" s="4" t="s">
-        <v>872</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>274</v>
@@ -15658,10 +15680,10 @@
     </row>
     <row r="607">
       <c r="A607" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="B607" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>274</v>
@@ -15677,10 +15699,10 @@
     </row>
     <row r="608">
       <c r="A608" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="B608" s="4" t="s">
-        <v>376</v>
+        <v>873</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>274</v>
@@ -15696,10 +15718,10 @@
     </row>
     <row r="609">
       <c r="A609" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B609" s="4" t="s">
         <v>876</v>
-      </c>
-      <c r="B609" s="4" t="s">
-        <v>877</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>274</v>
@@ -15715,10 +15737,10 @@
     </row>
     <row r="610">
       <c r="A610" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B610" s="4" t="s">
         <v>878</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>274</v>
@@ -15734,10 +15756,10 @@
     </row>
     <row r="611">
       <c r="A611" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="B611" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>274</v>
@@ -15753,10 +15775,10 @@
     </row>
     <row r="612">
       <c r="A612" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>335</v>
+        <v>881</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>274</v>
@@ -15772,10 +15794,10 @@
     </row>
     <row r="613">
       <c r="A613" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B613" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B613" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>274</v>
@@ -15812,8 +15834,8 @@
       <c r="A615" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B615" s="1" t="s">
-        <v>887</v>
+      <c r="B615" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>274</v>
@@ -15829,10 +15851,10 @@
     </row>
     <row r="616">
       <c r="A616" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>889</v>
+        <v>417</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>274</v>
@@ -15848,10 +15870,10 @@
     </row>
     <row r="617">
       <c r="A617" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="B617" s="4" t="s">
-        <v>318</v>
+        <v>888</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>889</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>274</v>
@@ -15867,10 +15889,10 @@
     </row>
     <row r="618">
       <c r="A618" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B618" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>274</v>
@@ -15888,7 +15910,7 @@
       <c r="A619" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="B619" s="3" t="s">
+      <c r="B619" s="1" t="s">
         <v>893</v>
       </c>
       <c r="C619" s="2" t="s">
@@ -15908,7 +15930,7 @@
         <v>894</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>274</v>
@@ -15926,8 +15948,8 @@
       <c r="A621" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="B621" s="4" t="s">
-        <v>777</v>
+      <c r="B621" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>274</v>
@@ -15945,8 +15967,8 @@
       <c r="A622" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="B622" s="4" t="s">
-        <v>845</v>
+      <c r="B622" s="3" t="s">
+        <v>897</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>274</v>
@@ -15961,16 +15983,16 @@
       <c r="K622" s="4"/>
     </row>
     <row r="623">
-      <c r="A623" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="B623" s="3" t="s">
+      <c r="A623" s="4" t="s">
         <v>898</v>
       </c>
+      <c r="B623" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="C623" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D623" s="3"/>
+      <c r="D623" s="4"/>
       <c r="E623" s="3"/>
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
@@ -15979,14 +16001,14 @@
       <c r="J623" s="4"/>
       <c r="K623" s="4"/>
     </row>
-    <row r="624" ht="18.0" customHeight="true">
-      <c r="A624" s="7" t="s">
+    <row r="624">
+      <c r="A624" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="B624" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C624" s="8" t="s">
+      <c r="B624" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C624" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D624" s="4"/>
@@ -16003,7 +16025,7 @@
         <v>900</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>590</v>
+        <v>849</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>274</v>
@@ -16018,16 +16040,16 @@
       <c r="K625" s="4"/>
     </row>
     <row r="626">
-      <c r="A626" s="4" t="s">
+      <c r="A626" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="B626" s="1" t="s">
-        <v>103</v>
+      <c r="B626" s="3" t="s">
+        <v>902</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D626" s="4"/>
+      <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
@@ -16036,14 +16058,14 @@
       <c r="J626" s="4"/>
       <c r="K626" s="4"/>
     </row>
-    <row r="627">
-      <c r="A627" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="B627" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C627" s="2" t="s">
+    <row r="627" ht="18.0" customHeight="true">
+      <c r="A627" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C627" s="8" t="s">
         <v>274</v>
       </c>
       <c r="D627" s="4"/>
@@ -16057,10 +16079,10 @@
     </row>
     <row r="628">
       <c r="A628" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>103</v>
+        <v>593</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>274</v>
@@ -16076,9 +16098,9 @@
     </row>
     <row r="629">
       <c r="A629" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="B629" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B629" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C629" s="2" t="s">
@@ -16094,8 +16116,8 @@
       <c r="K629" s="4"/>
     </row>
     <row r="630">
-      <c r="A630" s="3" t="s">
-        <v>905</v>
+      <c r="A630" s="4" t="s">
+        <v>906</v>
       </c>
       <c r="B630" s="4" t="s">
         <v>103</v>
@@ -16114,7 +16136,7 @@
     </row>
     <row r="631">
       <c r="A631" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B631" s="4" t="s">
         <v>103</v>
@@ -16132,8 +16154,8 @@
       <c r="K631" s="4"/>
     </row>
     <row r="632">
-      <c r="A632" s="7" t="s">
-        <v>907</v>
+      <c r="A632" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="B632" s="4" t="s">
         <v>103</v>
@@ -16151,11 +16173,11 @@
       <c r="K632" s="4"/>
     </row>
     <row r="633">
-      <c r="A633" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>335</v>
+      <c r="A633" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>274</v>
@@ -16171,18 +16193,16 @@
     </row>
     <row r="634">
       <c r="A634" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>335</v>
+        <v>910</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D634" s="4"/>
-      <c r="E634" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E634" s="3"/>
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
       <c r="H634" s="4"/>
@@ -16191,11 +16211,11 @@
       <c r="K634" s="4"/>
     </row>
     <row r="635">
-      <c r="A635" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>58</v>
+      <c r="A635" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>274</v>
@@ -16210,19 +16230,17 @@
       <c r="K635" s="4"/>
     </row>
     <row r="636">
-      <c r="A636" s="3" t="s">
-        <v>911</v>
+      <c r="A636" s="4" t="s">
+        <v>912</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>912</v>
+        <v>335</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D636" s="4"/>
-      <c r="E636" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E636" s="3"/>
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
       <c r="H636" s="4"/>
@@ -16234,14 +16252,16 @@
       <c r="A637" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="B637" s="4" t="s">
-        <v>396</v>
+      <c r="B637" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D637" s="4"/>
-      <c r="E637" s="3"/>
+      <c r="E637" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
@@ -16250,11 +16270,11 @@
       <c r="K637" s="4"/>
     </row>
     <row r="638">
-      <c r="A638" s="3" t="s">
+      <c r="A638" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="B638" s="3" t="s">
-        <v>396</v>
+      <c r="B638" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>274</v>
@@ -16269,17 +16289,19 @@
       <c r="K638" s="4"/>
     </row>
     <row r="639">
-      <c r="A639" s="4" t="s">
+      <c r="A639" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="B639" s="4" t="s">
-        <v>420</v>
+      <c r="B639" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D639" s="4"/>
-      <c r="E639" s="3"/>
+      <c r="E639" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
       <c r="H639" s="4"/>
@@ -16289,10 +16311,10 @@
     </row>
     <row r="640">
       <c r="A640" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>851</v>
+        <v>348</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>274</v>
@@ -16307,11 +16329,11 @@
       <c r="K640" s="4"/>
     </row>
     <row r="641">
-      <c r="A641" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="B641" s="1" t="s">
+      <c r="A641" s="3" t="s">
         <v>918</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>274</v>
@@ -16330,7 +16352,7 @@
         <v>919</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>920</v>
+        <v>421</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>274</v>
@@ -16346,10 +16368,10 @@
     </row>
     <row r="643">
       <c r="A643" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>503</v>
+        <v>920</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>855</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>274</v>
@@ -16363,12 +16385,12 @@
       <c r="J643" s="4"/>
       <c r="K643" s="4"/>
     </row>
-    <row r="644" ht="18.0" customHeight="true">
+    <row r="644">
       <c r="A644" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B644" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>923</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>274</v>
@@ -16384,10 +16406,10 @@
     </row>
     <row r="645">
       <c r="A645" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B645" s="4" t="s">
         <v>924</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>274</v>
@@ -16406,7 +16428,7 @@
         <v>925</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>233</v>
+        <v>504</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>274</v>
@@ -16420,12 +16442,12 @@
       <c r="J646" s="4"/>
       <c r="K646" s="4"/>
     </row>
-    <row r="647">
+    <row r="647" ht="18.0" customHeight="true">
       <c r="A647" s="4" t="s">
         <v>926</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>352</v>
+        <v>927</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>274</v>
@@ -16441,10 +16463,10 @@
     </row>
     <row r="648">
       <c r="A648" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>52</v>
+        <v>481</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>274</v>
@@ -16459,11 +16481,11 @@
       <c r="K648" s="4"/>
     </row>
     <row r="649">
-      <c r="A649" s="3" t="s">
-        <v>928</v>
+      <c r="A649" s="4" t="s">
+        <v>929</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>393</v>
+        <v>233</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>274</v>
@@ -16479,10 +16501,10 @@
     </row>
     <row r="650">
       <c r="A650" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="B650" s="4" t="s">
-        <v>468</v>
+        <v>930</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>274</v>
@@ -16498,10 +16520,10 @@
     </row>
     <row r="651">
       <c r="A651" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>767</v>
+        <v>52</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>274</v>
@@ -16516,19 +16538,17 @@
       <c r="K651" s="4"/>
     </row>
     <row r="652">
-      <c r="A652" s="4" t="s">
-        <v>931</v>
+      <c r="A652" s="3" t="s">
+        <v>932</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>879</v>
+        <v>389</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D652" s="4"/>
-      <c r="E652" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E652" s="3"/>
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
@@ -16538,10 +16558,10 @@
     </row>
     <row r="653">
       <c r="A653" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>274</v>
@@ -16557,10 +16577,10 @@
     </row>
     <row r="654">
       <c r="A654" s="4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>103</v>
+        <v>771</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>274</v>
@@ -16576,17 +16596,17 @@
     </row>
     <row r="655">
       <c r="A655" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>103</v>
+        <v>883</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D655" s="4"/>
       <c r="E655" s="3" t="n">
-        <v>30.0</v>
+        <v>100.0</v>
       </c>
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
@@ -16597,10 +16617,10 @@
     </row>
     <row r="656">
       <c r="A656" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>936</v>
+        <v>493</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>274</v>
@@ -16619,7 +16639,7 @@
         <v>937</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>727</v>
+        <v>103</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>274</v>
@@ -16638,13 +16658,15 @@
         <v>938</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>452</v>
+        <v>103</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D658" s="4"/>
-      <c r="E658" s="3"/>
+      <c r="E658" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
@@ -16657,7 +16679,7 @@
         <v>939</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>274</v>
@@ -16673,10 +16695,10 @@
     </row>
     <row r="660">
       <c r="A660" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="B660" s="4" t="s">
-        <v>285</v>
+        <v>941</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>274</v>
@@ -16692,10 +16714,10 @@
     </row>
     <row r="661">
       <c r="A661" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>274</v>
@@ -16711,10 +16733,10 @@
     </row>
     <row r="662">
       <c r="A662" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="B662" s="1" t="s">
-        <v>492</v>
+        <v>943</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>924</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>274</v>
@@ -16730,10 +16752,10 @@
     </row>
     <row r="663">
       <c r="A663" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>274</v>
@@ -16749,10 +16771,10 @@
     </row>
     <row r="664">
       <c r="A664" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="B664" s="4" t="s">
         <v>945</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>274</v>
@@ -16770,8 +16792,8 @@
       <c r="A665" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="B665" s="3" t="s">
-        <v>462</v>
+      <c r="B665" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>274</v>
@@ -16790,7 +16812,7 @@
         <v>947</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>274</v>
@@ -16828,12 +16850,12 @@
         <v>950</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>730</v>
+        <v>463</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D668" s="3"/>
+      <c r="D668" s="4"/>
       <c r="E668" s="3"/>
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
@@ -16846,13 +16868,13 @@
       <c r="A669" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="B669" s="3" t="s">
-        <v>396</v>
+      <c r="B669" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D669" s="3"/>
+      <c r="D669" s="4"/>
       <c r="E669" s="3"/>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
@@ -16865,13 +16887,13 @@
       <c r="A670" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="B670" s="3" t="s">
-        <v>385</v>
+      <c r="B670" s="4" t="s">
+        <v>953</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D670" s="3"/>
+      <c r="D670" s="4"/>
       <c r="E670" s="3"/>
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
@@ -16881,11 +16903,11 @@
       <c r="K670" s="4"/>
     </row>
     <row r="671">
-      <c r="A671" s="3" t="s">
-        <v>953</v>
+      <c r="A671" s="4" t="s">
+        <v>954</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>954</v>
+        <v>734</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>274</v>
@@ -16903,13 +16925,13 @@
       <c r="A672" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="B672" s="4" t="s">
-        <v>103</v>
+      <c r="B672" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D672" s="4"/>
+      <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
@@ -16922,13 +16944,13 @@
       <c r="A673" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="B673" s="4" t="s">
-        <v>851</v>
+      <c r="B673" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D673" s="4"/>
+      <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
@@ -16938,16 +16960,16 @@
       <c r="K673" s="4"/>
     </row>
     <row r="674">
-      <c r="A674" s="4" t="s">
+      <c r="A674" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="B674" s="4" t="s">
-        <v>444</v>
+      <c r="B674" s="3" t="s">
+        <v>958</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D674" s="4"/>
+      <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
@@ -16958,10 +16980,10 @@
     </row>
     <row r="675">
       <c r="A675" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B675" s="3" t="s">
-        <v>29</v>
+        <v>959</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>274</v>
@@ -16977,10 +16999,10 @@
     </row>
     <row r="676">
       <c r="A676" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>342</v>
+        <v>960</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>855</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>274</v>
@@ -16996,10 +17018,10 @@
     </row>
     <row r="677">
       <c r="A677" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="B677" s="1" t="s">
-        <v>767</v>
+        <v>961</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>274</v>
@@ -17015,10 +17037,10 @@
     </row>
     <row r="678">
       <c r="A678" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="B678" s="5" t="s">
-        <v>411</v>
+        <v>962</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>274</v>
@@ -17034,10 +17056,10 @@
     </row>
     <row r="679">
       <c r="A679" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="B679" s="3" t="s">
         <v>963</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>274</v>
@@ -17055,8 +17077,8 @@
       <c r="A680" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="B680" s="4" t="s">
-        <v>352</v>
+      <c r="B680" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>274</v>
@@ -17074,8 +17096,8 @@
       <c r="A681" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="B681" s="1" t="s">
-        <v>966</v>
+      <c r="B681" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>274</v>
@@ -17091,10 +17113,10 @@
     </row>
     <row r="682">
       <c r="A682" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B682" s="3" t="s">
         <v>967</v>
-      </c>
-      <c r="B682" s="3" t="s">
-        <v>968</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>274</v>
@@ -17110,10 +17132,10 @@
     </row>
     <row r="683">
       <c r="A683" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="B683" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>274</v>
@@ -17129,10 +17151,10 @@
     </row>
     <row r="684">
       <c r="A684" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="B684" s="5" t="s">
-        <v>233</v>
+        <v>969</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>274</v>
@@ -17148,10 +17170,10 @@
     </row>
     <row r="685">
       <c r="A685" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B685" s="3" t="s">
         <v>972</v>
-      </c>
-      <c r="B685" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>274</v>
@@ -17169,13 +17191,13 @@
       <c r="A686" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="B686" s="1" t="s">
+      <c r="B686" s="3" t="s">
         <v>974</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D686" s="3"/>
+      <c r="D686" s="4"/>
       <c r="E686" s="3"/>
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
@@ -17188,13 +17210,13 @@
       <c r="A687" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B687" s="1" t="s">
-        <v>329</v>
+      <c r="B687" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D687" s="3"/>
+      <c r="D687" s="4"/>
       <c r="E687" s="3"/>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
@@ -17208,12 +17230,12 @@
         <v>976</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>393</v>
+        <v>893</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D688" s="3"/>
+      <c r="D688" s="4"/>
       <c r="E688" s="3"/>
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
@@ -17226,13 +17248,13 @@
       <c r="A689" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="B689" s="4" t="s">
+      <c r="B689" s="1" t="s">
         <v>978</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D689" s="4"/>
+      <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
@@ -17245,13 +17267,13 @@
       <c r="A690" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="B690" s="4" t="s">
-        <v>980</v>
+      <c r="B690" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D690" s="4"/>
+      <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
@@ -17262,15 +17284,15 @@
     </row>
     <row r="691">
       <c r="A691" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="B691" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D691" s="4"/>
+      <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
@@ -17281,10 +17303,10 @@
     </row>
     <row r="692">
       <c r="A692" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>420</v>
+        <v>982</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>274</v>
@@ -17300,10 +17322,10 @@
     </row>
     <row r="693">
       <c r="A693" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B693" s="4" t="s">
         <v>984</v>
-      </c>
-      <c r="B693" s="3" t="s">
-        <v>985</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>274</v>
@@ -17319,10 +17341,10 @@
     </row>
     <row r="694">
       <c r="A694" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B694" s="4" t="s">
         <v>986</v>
-      </c>
-      <c r="B694" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>274</v>
@@ -17341,7 +17363,7 @@
         <v>987</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>118</v>
+        <v>421</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>274</v>
@@ -17359,7 +17381,7 @@
       <c r="A696" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="B696" s="4" t="s">
+      <c r="B696" s="3" t="s">
         <v>989</v>
       </c>
       <c r="C696" s="2" t="s">
@@ -17379,7 +17401,7 @@
         <v>990</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>474</v>
+        <v>281</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>274</v>
@@ -17397,8 +17419,8 @@
       <c r="A698" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="B698" s="9" t="s">
-        <v>992</v>
+      <c r="B698" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>274</v>
@@ -17414,15 +17436,15 @@
     </row>
     <row r="699">
       <c r="A699" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B699" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="B699" s="9" t="s">
-        <v>505</v>
-      </c>
       <c r="C699" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D699" s="3"/>
+      <c r="D699" s="4"/>
       <c r="E699" s="3"/>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
@@ -17435,13 +17457,13 @@
       <c r="A700" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="B700" s="9" t="s">
-        <v>474</v>
+      <c r="B700" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D700" s="3"/>
+      <c r="D700" s="4"/>
       <c r="E700" s="3"/>
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
@@ -17454,11 +17476,11 @@
       <c r="A701" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B701" s="4" t="s">
+      <c r="B701" s="9" t="s">
         <v>996</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>997</v>
+        <v>274</v>
       </c>
       <c r="D701" s="4"/>
       <c r="E701" s="3"/>
@@ -17471,15 +17493,15 @@
     </row>
     <row r="702">
       <c r="A702" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="B702" s="4" t="s">
-        <v>996</v>
+        <v>997</v>
+      </c>
+      <c r="B702" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D702" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
@@ -17490,15 +17512,15 @@
     </row>
     <row r="703">
       <c r="A703" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="B703" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
+      </c>
+      <c r="B703" s="9" t="s">
+        <v>475</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D703" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
@@ -17509,13 +17531,13 @@
     </row>
     <row r="704">
       <c r="A704" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C704" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="B704" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C704" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="D704" s="4"/>
       <c r="E704" s="3"/>
@@ -17531,10 +17553,10 @@
         <v>1002</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D705" s="4"/>
       <c r="E705" s="3"/>
@@ -17547,13 +17569,13 @@
     </row>
     <row r="706">
       <c r="A706" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B706" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B706" s="4" t="s">
-        <v>1005</v>
-      </c>
       <c r="C706" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D706" s="4"/>
       <c r="E706" s="3"/>
@@ -17566,13 +17588,13 @@
     </row>
     <row r="707">
       <c r="A707" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1005</v>
+        <v>455</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D707" s="4"/>
       <c r="E707" s="3"/>
@@ -17585,13 +17607,13 @@
     </row>
     <row r="708">
       <c r="A708" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B708" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B708" s="4" t="s">
-        <v>996</v>
-      </c>
       <c r="C708" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D708" s="4"/>
       <c r="E708" s="3"/>
@@ -17606,11 +17628,11 @@
       <c r="A709" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="B709" s="5" t="s">
+      <c r="B709" s="4" t="s">
         <v>1009</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D709" s="4"/>
       <c r="E709" s="3"/>
@@ -17625,11 +17647,11 @@
       <c r="A710" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="B710" s="3" t="s">
-        <v>1011</v>
+      <c r="B710" s="4" t="s">
+        <v>1009</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D710" s="4"/>
       <c r="E710" s="3"/>
@@ -17642,13 +17664,13 @@
     </row>
     <row r="711">
       <c r="A711" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D711" s="4"/>
       <c r="E711" s="3"/>
@@ -17660,14 +17682,14 @@
       <c r="K711" s="4"/>
     </row>
     <row r="712">
-      <c r="A712" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B712" s="3" t="s">
-        <v>732</v>
+      <c r="A712" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>1013</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D712" s="4"/>
       <c r="E712" s="3"/>
@@ -17679,14 +17701,14 @@
       <c r="K712" s="4"/>
     </row>
     <row r="713">
-      <c r="A713" s="3" t="s">
+      <c r="A713" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B713" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="B713" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="C713" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D713" s="4"/>
       <c r="E713" s="3"/>
@@ -17702,10 +17724,10 @@
         <v>1016</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>452</v>
+        <v>1017</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D714" s="4"/>
       <c r="E714" s="3"/>
@@ -17717,14 +17739,14 @@
       <c r="K714" s="4"/>
     </row>
     <row r="715">
-      <c r="A715" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B715" s="4" t="s">
+      <c r="A715" s="3" t="s">
         <v>1018</v>
       </c>
+      <c r="B715" s="3" t="s">
+        <v>736</v>
+      </c>
       <c r="C715" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D715" s="4"/>
       <c r="E715" s="3"/>
@@ -17736,14 +17758,14 @@
       <c r="K715" s="4"/>
     </row>
     <row r="716">
-      <c r="A716" s="4" t="s">
+      <c r="A716" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="B716" s="4" t="s">
-        <v>1020</v>
+      <c r="B716" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D716" s="4"/>
       <c r="E716" s="3"/>
@@ -17756,13 +17778,13 @@
     </row>
     <row r="717">
       <c r="A717" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>945</v>
+        <v>453</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D717" s="4"/>
       <c r="E717" s="3"/>
@@ -17774,16 +17796,16 @@
       <c r="K717" s="4"/>
     </row>
     <row r="718">
-      <c r="A718" s="3" t="s">
+      <c r="A718" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B718" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="B718" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="C718" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D718" s="3"/>
+        <v>1001</v>
+      </c>
+      <c r="D718" s="4"/>
       <c r="E718" s="3"/>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
@@ -17794,13 +17816,13 @@
     </row>
     <row r="719">
       <c r="A719" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B719" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="B719" s="4" t="s">
-        <v>996</v>
-      </c>
       <c r="C719" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D719" s="4"/>
       <c r="E719" s="3"/>
@@ -17816,10 +17838,10 @@
         <v>1025</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1005</v>
+        <v>949</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D720" s="4"/>
       <c r="E720" s="3"/>
@@ -17831,16 +17853,16 @@
       <c r="K720" s="4"/>
     </row>
     <row r="721">
-      <c r="A721" s="4" t="s">
+      <c r="A721" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B721" s="1" t="s">
-        <v>732</v>
+      <c r="B721" s="3" t="s">
+        <v>1027</v>
       </c>
       <c r="C721" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D721" s="4"/>
+        <v>1001</v>
+      </c>
+      <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
@@ -17850,16 +17872,16 @@
       <c r="K721" s="4"/>
     </row>
     <row r="722">
-      <c r="A722" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B722" s="4" t="s">
-        <v>1005</v>
+      <c r="A722" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1029</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D722" s="4"/>
+        <v>1001</v>
+      </c>
+      <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
@@ -17869,14 +17891,14 @@
       <c r="K722" s="4"/>
     </row>
     <row r="723">
-      <c r="A723" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B723" s="3" t="s">
-        <v>411</v>
+      <c r="A723" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>1000</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D723" s="4"/>
       <c r="E723" s="3"/>
@@ -17889,13 +17911,13 @@
     </row>
     <row r="724">
       <c r="A724" s="4" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="D724" s="4"/>
       <c r="E724" s="3"/>
@@ -17910,11 +17932,11 @@
       <c r="A725" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B725" s="4" t="s">
-        <v>1033</v>
+      <c r="B725" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="D725" s="4"/>
       <c r="E725" s="3"/>
@@ -17927,13 +17949,13 @@
     </row>
     <row r="726">
       <c r="A726" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1035</v>
+        <v>1009</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="D726" s="4"/>
       <c r="E726" s="3"/>
@@ -17945,14 +17967,14 @@
       <c r="K726" s="4"/>
     </row>
     <row r="727">
-      <c r="A727" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B727" s="4" t="s">
-        <v>1037</v>
+      <c r="A727" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="D727" s="4"/>
       <c r="E727" s="3"/>
@@ -17964,14 +17986,14 @@
       <c r="K727" s="4"/>
     </row>
     <row r="728">
-      <c r="A728" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B728" s="3" t="s">
-        <v>1039</v>
+      <c r="A728" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>1036</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D728" s="4"/>
       <c r="E728" s="3"/>
@@ -17984,13 +18006,13 @@
     </row>
     <row r="729">
       <c r="A729" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D729" s="4"/>
       <c r="E729" s="3"/>
@@ -18002,14 +18024,14 @@
       <c r="K729" s="4"/>
     </row>
     <row r="730">
-      <c r="A730" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B730" s="1" t="s">
-        <v>1043</v>
+      <c r="A730" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>1041</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D730" s="4"/>
       <c r="E730" s="3"/>
@@ -18021,14 +18043,14 @@
       <c r="K730" s="4"/>
     </row>
     <row r="731">
-      <c r="A731" s="3" t="s">
-        <v>1044</v>
+      <c r="A731" s="4" t="s">
+        <v>1042</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D731" s="4"/>
       <c r="E731" s="3"/>
@@ -18040,14 +18062,14 @@
       <c r="K731" s="4"/>
     </row>
     <row r="732">
-      <c r="A732" s="4" t="s">
+      <c r="A732" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B732" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="B732" s="1" t="s">
-        <v>1046</v>
-      </c>
       <c r="C732" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D732" s="4"/>
       <c r="E732" s="3"/>
@@ -18060,13 +18082,13 @@
     </row>
     <row r="733">
       <c r="A733" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B733" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="B733" s="4" t="s">
-        <v>1048</v>
-      </c>
       <c r="C733" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D733" s="4"/>
       <c r="E733" s="3"/>
@@ -18078,14 +18100,14 @@
       <c r="K733" s="4"/>
     </row>
     <row r="734">
-      <c r="A734" s="4" t="s">
+      <c r="A734" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B734" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B734" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="C734" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D734" s="4"/>
       <c r="E734" s="3"/>
@@ -18097,14 +18119,14 @@
       <c r="K734" s="4"/>
     </row>
     <row r="735">
-      <c r="A735" s="10" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B735" s="3" t="s">
-        <v>1052</v>
+      <c r="A735" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D735" s="4"/>
       <c r="E735" s="3"/>
@@ -18117,13 +18139,13 @@
     </row>
     <row r="736">
       <c r="A736" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D736" s="4"/>
       <c r="E736" s="3"/>
@@ -18134,6 +18156,82 @@
       <c r="J736" s="4"/>
       <c r="K736" s="4"/>
     </row>
+    <row r="737">
+      <c r="A737" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D737" s="4"/>
+      <c r="E737" s="3"/>
+      <c r="F737" s="4"/>
+      <c r="G737" s="4"/>
+      <c r="H737" s="4"/>
+      <c r="I737" s="4"/>
+      <c r="J737" s="4"/>
+      <c r="K737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D738" s="4"/>
+      <c r="E738" s="3"/>
+      <c r="F738" s="4"/>
+      <c r="G738" s="4"/>
+      <c r="H738" s="4"/>
+      <c r="I738" s="4"/>
+      <c r="J738" s="4"/>
+      <c r="K738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D739" s="4"/>
+      <c r="E739" s="3"/>
+      <c r="F739" s="4"/>
+      <c r="G739" s="4"/>
+      <c r="H739" s="4"/>
+      <c r="I739" s="4"/>
+      <c r="J739" s="4"/>
+      <c r="K739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D740" s="4"/>
+      <c r="E740" s="3"/>
+      <c r="F740" s="4"/>
+      <c r="G740" s="4"/>
+      <c r="H740" s="4"/>
+      <c r="I740" s="4"/>
+      <c r="J740" s="4"/>
+      <c r="K740" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/music_list_610.xlsx
+++ b/music_list_610.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1116" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1123" uniqueCount="1123">
   <si>
     <t>歌名</t>
   </si>
@@ -1571,6 +1571,12 @@
     <t>汪苏泷</t>
   </si>
   <si>
+    <t>唯一</t>
+  </si>
+  <si>
+    <t>告五人</t>
+  </si>
+  <si>
     <t>七里香</t>
   </si>
   <si>
@@ -2036,63 +2042,99 @@
     <t>光年之外</t>
   </si>
   <si>
+    <t>我还想她</t>
+  </si>
+  <si>
+    <t>修炼爱情</t>
+  </si>
+  <si>
+    <t>豆浆油条</t>
+  </si>
+  <si>
+    <t>浪漫血液</t>
+  </si>
+  <si>
+    <t>飞云之下</t>
+  </si>
+  <si>
+    <t>林俊杰、韩红</t>
+  </si>
+  <si>
+    <t>黑色柳丁</t>
+  </si>
+  <si>
+    <t>普通朋友</t>
+  </si>
+  <si>
+    <t>就是爱你</t>
+  </si>
+  <si>
+    <t>那个女孩</t>
+  </si>
+  <si>
+    <t>陶喆、卢广仲</t>
+  </si>
+  <si>
+    <t>失落沙洲</t>
+  </si>
+  <si>
+    <t>身骑白马</t>
+  </si>
+  <si>
+    <t>寻人启事</t>
+  </si>
+  <si>
+    <t>云烟成雨</t>
+  </si>
+  <si>
+    <t>房东的猫</t>
+  </si>
+  <si>
+    <t>那些花儿</t>
+  </si>
+  <si>
+    <t>纵情年代</t>
+  </si>
+  <si>
+    <t>配不上你</t>
+  </si>
+  <si>
+    <t>Fine乐团</t>
+  </si>
+  <si>
+    <t>我不需要</t>
+  </si>
+  <si>
+    <t>呼吸决定</t>
+  </si>
+  <si>
+    <t>分手快乐</t>
+  </si>
+  <si>
+    <t>可以的话</t>
+  </si>
+  <si>
+    <t>没有如果</t>
+  </si>
+  <si>
+    <t>四季予你</t>
+  </si>
+  <si>
+    <t>程响</t>
+  </si>
+  <si>
+    <t>不再联系</t>
+  </si>
+  <si>
+    <t>时光洪流</t>
+  </si>
+  <si>
     <t>我要快乐</t>
   </si>
   <si>
     <t>连名带姓</t>
   </si>
   <si>
-    <t>云烟成雨</t>
-  </si>
-  <si>
-    <t>房东的猫</t>
-  </si>
-  <si>
-    <t>那些花儿</t>
-  </si>
-  <si>
-    <t>纵情年代</t>
-  </si>
-  <si>
-    <t>我还想她</t>
-  </si>
-  <si>
-    <t>修炼爱情</t>
-  </si>
-  <si>
-    <t>豆浆油条</t>
-  </si>
-  <si>
-    <t>浪漫血液</t>
-  </si>
-  <si>
-    <t>飞云之下</t>
-  </si>
-  <si>
-    <t>林俊杰、韩红</t>
-  </si>
-  <si>
-    <t>失落沙洲</t>
-  </si>
-  <si>
-    <t>身骑白马</t>
-  </si>
-  <si>
-    <t>寻人启事</t>
-  </si>
-  <si>
-    <t>黑色柳丁</t>
-  </si>
-  <si>
-    <t>普通朋友</t>
-  </si>
-  <si>
-    <t>那个女孩</t>
-  </si>
-  <si>
-    <t>陶喆、卢广仲</t>
-  </si>
-  <si>
     <t>空空如也</t>
   </si>
   <si>
@@ -2111,39 +2153,6 @@
     <t>大城小爱</t>
   </si>
   <si>
-    <t>配不上你</t>
-  </si>
-  <si>
-    <t>Fine乐团</t>
-  </si>
-  <si>
-    <t>我不需要</t>
-  </si>
-  <si>
-    <t>呼吸决定</t>
-  </si>
-  <si>
-    <t>分手快乐</t>
-  </si>
-  <si>
-    <t>可以的话</t>
-  </si>
-  <si>
-    <t>没有如果</t>
-  </si>
-  <si>
-    <t>四季予你</t>
-  </si>
-  <si>
-    <t>程响</t>
-  </si>
-  <si>
-    <t>不再联系</t>
-  </si>
-  <si>
-    <t>时光洪流</t>
-  </si>
-  <si>
     <t>路过人间</t>
   </si>
   <si>
@@ -2183,6 +2192,12 @@
     <t>全球变冷</t>
   </si>
   <si>
+    <t>残酷月光</t>
+  </si>
+  <si>
+    <t>神秘嘉宾</t>
+  </si>
+  <si>
     <t>爱丫爱丫</t>
   </si>
   <si>
@@ -2195,6 +2210,21 @@
     <t>乌梅子酱</t>
   </si>
   <si>
+    <t>与你有关</t>
+  </si>
+  <si>
+    <t>流年如歌</t>
+  </si>
+  <si>
+    <t>诱惑的街</t>
+  </si>
+  <si>
+    <t>林忆莲</t>
+  </si>
+  <si>
+    <t>词不达意</t>
+  </si>
+  <si>
     <t>不可思议</t>
   </si>
   <si>
@@ -2234,12 +2264,6 @@
     <t>苏打绿</t>
   </si>
   <si>
-    <t>诱惑的街</t>
-  </si>
-  <si>
-    <t>林忆莲</t>
-  </si>
-  <si>
     <t>孤独患者</t>
   </si>
   <si>
@@ -2276,9 +2300,6 @@
     <t>不醉不会</t>
   </si>
   <si>
-    <t>残酷月光</t>
-  </si>
-  <si>
     <t>昨日青空</t>
   </si>
   <si>
@@ -2414,9 +2435,6 @@
     <t>朱一龙、白宇</t>
   </si>
   <si>
-    <t>与你有关</t>
-  </si>
-  <si>
     <t>睫毛弯弯</t>
   </si>
   <si>
@@ -2916,6 +2934,9 @@
   </si>
   <si>
     <t>阿肆、林宥嘉</t>
+  </si>
+  <si>
+    <t>mine mine</t>
   </si>
   <si>
     <t>给我一首歌的时间</t>
@@ -3829,7 +3850,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10181,7 +10202,7 @@
         <v>498</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>276</v>
@@ -10238,7 +10259,7 @@
         <v>503</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>276</v>
@@ -10405,16 +10426,16 @@
       <c r="K327" s="4"/>
     </row>
     <row r="328">
-      <c r="A328" s="4" t="s">
+      <c r="A328" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B328" s="4" t="s">
-        <v>105</v>
+      <c r="B328" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D328" s="4"/>
+      <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
@@ -10425,7 +10446,7 @@
     </row>
     <row r="329">
       <c r="A329" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>105</v>
@@ -10444,7 +10465,7 @@
     </row>
     <row r="330">
       <c r="A330" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>105</v>
@@ -10463,7 +10484,7 @@
     </row>
     <row r="331">
       <c r="A331" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>105</v>
@@ -10482,7 +10503,7 @@
     </row>
     <row r="332">
       <c r="A332" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>105</v>
@@ -10501,7 +10522,7 @@
     </row>
     <row r="333">
       <c r="A333" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>105</v>
@@ -10519,8 +10540,8 @@
       <c r="K333" s="4"/>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="s">
-        <v>525</v>
+      <c r="A334" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>105</v>
@@ -10538,8 +10559,8 @@
       <c r="K334" s="4"/>
     </row>
     <row r="335">
-      <c r="A335" s="4" t="s">
-        <v>526</v>
+      <c r="A335" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>105</v>
@@ -10558,10 +10579,10 @@
     </row>
     <row r="336">
       <c r="A336" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>1076</v>
+        <v>105</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>276</v>
@@ -10577,10 +10598,10 @@
     </row>
     <row r="337">
       <c r="A337" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>105</v>
+        <v>1083</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>276</v>
@@ -10596,7 +10617,7 @@
     </row>
     <row r="338">
       <c r="A338" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>105</v>
@@ -10615,10 +10636,10 @@
     </row>
     <row r="339">
       <c r="A339" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>1077</v>
+        <v>105</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>276</v>
@@ -10634,10 +10655,10 @@
     </row>
     <row r="340">
       <c r="A340" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>276</v>
@@ -10653,10 +10674,10 @@
     </row>
     <row r="341">
       <c r="A341" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>276</v>
@@ -10672,10 +10693,10 @@
     </row>
     <row r="342">
       <c r="A342" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>276</v>
@@ -10691,10 +10712,10 @@
     </row>
     <row r="343">
       <c r="A343" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>276</v>
@@ -10710,10 +10731,10 @@
     </row>
     <row r="344">
       <c r="A344" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>105</v>
+        <v>1088</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>276</v>
@@ -10729,10 +10750,10 @@
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1082</v>
+        <v>105</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>276</v>
@@ -10748,10 +10769,10 @@
     </row>
     <row r="346">
       <c r="A346" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>538</v>
+        <v>1089</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>276</v>
@@ -10769,7 +10790,7 @@
       <c r="A347" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" s="4" t="s">
         <v>540</v>
       </c>
       <c r="C347" s="2" t="s">
@@ -10788,7 +10809,7 @@
       <c r="A348" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" s="3" t="s">
         <v>542</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -10808,7 +10829,7 @@
         <v>543</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1083</v>
+        <v>544</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>276</v>
@@ -10824,10 +10845,10 @@
     </row>
     <row r="350">
       <c r="A350" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>344</v>
+        <v>545</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>1090</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>276</v>
@@ -10843,7 +10864,7 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>344</v>
@@ -10862,10 +10883,10 @@
     </row>
     <row r="352">
       <c r="A352" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B352" s="4" t="s">
-        <v>1084</v>
+        <v>547</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>276</v>
@@ -10881,10 +10902,10 @@
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>276</v>
@@ -10900,10 +10921,10 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>548</v>
+        <v>1092</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>276</v>
@@ -10922,7 +10943,7 @@
         <v>549</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>331</v>
+        <v>550</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>276</v>
@@ -10938,10 +10959,10 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1086</v>
+        <v>331</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>276</v>
@@ -10956,16 +10977,16 @@
       <c r="K356" s="4"/>
     </row>
     <row r="357">
-      <c r="A357" s="3" t="s">
-        <v>551</v>
+      <c r="A357" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>331</v>
+        <v>1093</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D357" s="3"/>
+      <c r="D357" s="4"/>
       <c r="E357" s="3"/>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
@@ -10975,16 +10996,16 @@
       <c r="K357" s="4"/>
     </row>
     <row r="358">
-      <c r="A358" s="4" t="s">
-        <v>552</v>
+      <c r="A358" s="3" t="s">
+        <v>553</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1087</v>
+        <v>331</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D358" s="4"/>
+      <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
@@ -10995,10 +11016,10 @@
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>276</v>
@@ -11014,10 +11035,10 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>276</v>
@@ -11033,10 +11054,10 @@
     </row>
     <row r="361">
       <c r="A361" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>276</v>
@@ -11052,10 +11073,10 @@
     </row>
     <row r="362">
       <c r="A362" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>276</v>
@@ -11071,10 +11092,10 @@
     </row>
     <row r="363">
       <c r="A363" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>558</v>
+        <v>1098</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>276</v>
@@ -11093,7 +11114,7 @@
         <v>559</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>477</v>
+        <v>560</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>276</v>
@@ -11109,7 +11130,7 @@
     </row>
     <row r="365">
       <c r="A365" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>477</v>
@@ -11128,7 +11149,7 @@
     </row>
     <row r="366">
       <c r="A366" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>477</v>
@@ -11146,16 +11167,16 @@
       <c r="K366" s="4"/>
     </row>
     <row r="367">
-      <c r="A367" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>479</v>
+      <c r="A367" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D367" s="3"/>
+      <c r="D367" s="4"/>
       <c r="E367" s="3"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -11165,16 +11186,16 @@
       <c r="K367" s="4"/>
     </row>
     <row r="368">
-      <c r="A368" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="B368" s="4" t="s">
+      <c r="A368" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B368" s="3" t="s">
         <v>479</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D368" s="4"/>
+      <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
@@ -11185,10 +11206,10 @@
     </row>
     <row r="369">
       <c r="A369" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1092</v>
+        <v>479</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>276</v>
@@ -11204,10 +11225,10 @@
     </row>
     <row r="370">
       <c r="A370" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>276</v>
@@ -11223,10 +11244,10 @@
     </row>
     <row r="371">
       <c r="A371" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>354</v>
+        <v>1100</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>276</v>
@@ -11242,10 +11263,10 @@
     </row>
     <row r="372">
       <c r="A372" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>568</v>
+        <v>354</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>276</v>
@@ -11263,8 +11284,8 @@
       <c r="A373" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>568</v>
+      <c r="B373" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>276</v>
@@ -11280,10 +11301,10 @@
     </row>
     <row r="374">
       <c r="A374" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B374" s="4" t="s">
-        <v>1094</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>276</v>
@@ -11299,10 +11320,10 @@
     </row>
     <row r="375">
       <c r="A375" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>80</v>
+        <v>1101</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>276</v>
@@ -11318,10 +11339,10 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1095</v>
+        <v>80</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>276</v>
@@ -11337,10 +11358,10 @@
     </row>
     <row r="377">
       <c r="A377" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>574</v>
+        <v>1102</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>276</v>
@@ -11365,9 +11386,7 @@
         <v>276</v>
       </c>
       <c r="D378" s="4"/>
-      <c r="E378" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E378" s="3"/>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
@@ -11376,17 +11395,19 @@
       <c r="K378" s="4"/>
     </row>
     <row r="379">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" s="4" t="s">
         <v>578</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D379" s="4"/>
-      <c r="E379" s="3"/>
+      <c r="E379" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
@@ -11395,10 +11416,10 @@
       <c r="K379" s="4"/>
     </row>
     <row r="380">
-      <c r="A380" s="4" t="s">
+      <c r="A380" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B380" s="4" t="s">
+      <c r="B380" s="3" t="s">
         <v>580</v>
       </c>
       <c r="C380" s="2" t="s">
@@ -11418,7 +11439,7 @@
         <v>581</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1096</v>
+        <v>582</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>276</v>
@@ -11434,10 +11455,10 @@
     </row>
     <row r="382">
       <c r="A382" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>276</v>
@@ -11453,10 +11474,10 @@
     </row>
     <row r="383">
       <c r="A383" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>276</v>
@@ -11472,10 +11493,10 @@
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>585</v>
+        <v>1105</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>276</v>
@@ -11532,7 +11553,7 @@
         <v>590</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1099</v>
+        <v>591</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>276</v>
@@ -11548,10 +11569,10 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>147</v>
+        <v>592</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>1106</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>276</v>
@@ -11567,10 +11588,10 @@
     </row>
     <row r="389">
       <c r="A389" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B389" s="4" t="s">
         <v>593</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>276</v>
@@ -11589,7 +11610,7 @@
         <v>594</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1100</v>
+        <v>595</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>276</v>
@@ -11605,10 +11626,10 @@
     </row>
     <row r="391">
       <c r="A391" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>276</v>
@@ -11624,10 +11645,10 @@
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>597</v>
+        <v>1108</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>276</v>
@@ -11665,7 +11686,7 @@
         <v>600</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1102</v>
+        <v>601</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>276</v>
@@ -11681,10 +11702,10 @@
     </row>
     <row r="395">
       <c r="A395" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>276</v>
@@ -11700,10 +11721,10 @@
     </row>
     <row r="396">
       <c r="A396" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>320</v>
+        <v>1110</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>276</v>
@@ -11719,10 +11740,10 @@
     </row>
     <row r="397">
       <c r="A397" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>604</v>
+        <v>320</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>276</v>
@@ -11741,7 +11762,7 @@
         <v>605</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1104</v>
+        <v>606</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>276</v>
@@ -11757,10 +11778,10 @@
     </row>
     <row r="399">
       <c r="A399" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>276</v>
@@ -11776,10 +11797,10 @@
     </row>
     <row r="400">
       <c r="A400" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>276</v>
@@ -11795,10 +11816,10 @@
     </row>
     <row r="401">
       <c r="A401" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>276</v>
@@ -11814,10 +11835,10 @@
     </row>
     <row r="402">
       <c r="A402" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>276</v>
@@ -11833,10 +11854,10 @@
     </row>
     <row r="403">
       <c r="A403" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>276</v>
@@ -11852,10 +11873,10 @@
     </row>
     <row r="404">
       <c r="A404" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>276</v>
@@ -11871,10 +11892,10 @@
     </row>
     <row r="405">
       <c r="A405" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>613</v>
+        <v>1117</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>276</v>
@@ -11912,7 +11933,7 @@
         <v>616</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>485</v>
+        <v>617</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>276</v>
@@ -11928,10 +11949,10 @@
     </row>
     <row r="408">
       <c r="A408" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>618</v>
+        <v>485</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>276</v>
@@ -11950,7 +11971,7 @@
         <v>619</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1111</v>
+        <v>620</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>276</v>
@@ -11966,10 +11987,10 @@
     </row>
     <row r="410">
       <c r="A410" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>97</v>
+        <v>621</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>1118</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>276</v>
@@ -11985,10 +12006,10 @@
     </row>
     <row r="411">
       <c r="A411" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B411" s="4" t="s">
         <v>622</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>276</v>
@@ -12007,7 +12028,7 @@
         <v>623</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1112</v>
+        <v>624</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>276</v>
@@ -12023,10 +12044,10 @@
     </row>
     <row r="413">
       <c r="A413" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>625</v>
+        <v>1119</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>276</v>
@@ -12041,16 +12062,16 @@
       <c r="K413" s="4"/>
     </row>
     <row r="414">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" s="4" t="s">
         <v>627</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D414" s="3"/>
+      <c r="D414" s="4"/>
       <c r="E414" s="3"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
@@ -12064,7 +12085,7 @@
         <v>628</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>391</v>
+        <v>629</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>276</v>
@@ -12080,10 +12101,10 @@
     </row>
     <row r="416">
       <c r="A416" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>630</v>
+        <v>391</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>276</v>
@@ -12121,7 +12142,7 @@
         <v>633</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>508</v>
+        <v>634</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>276</v>
@@ -12137,10 +12158,10 @@
     </row>
     <row r="419">
       <c r="A419" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>635</v>
+        <v>508</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>276</v>
@@ -12159,7 +12180,7 @@
         <v>636</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>358</v>
+        <v>637</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>276</v>
@@ -12175,10 +12196,10 @@
     </row>
     <row r="421">
       <c r="A421" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>39</v>
+        <v>358</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>276</v>
@@ -12193,16 +12214,16 @@
       <c r="K421" s="4"/>
     </row>
     <row r="422">
-      <c r="A422" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="B422" s="4" t="s">
+      <c r="A422" s="3" t="s">
         <v>639</v>
       </c>
+      <c r="B422" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C422" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D422" s="4"/>
+      <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
@@ -12216,7 +12237,7 @@
         <v>640</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>105</v>
+        <v>641</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>276</v>
@@ -12232,7 +12253,7 @@
     </row>
     <row r="424">
       <c r="A424" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>105</v>
@@ -12251,10 +12272,10 @@
     </row>
     <row r="425">
       <c r="A425" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>1113</v>
+        <v>105</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>276</v>
@@ -12270,18 +12291,16 @@
     </row>
     <row r="426">
       <c r="A426" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>105</v>
+        <v>1120</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D426" s="4"/>
-      <c r="E426" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E426" s="3"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
@@ -12291,16 +12310,18 @@
     </row>
     <row r="427">
       <c r="A427" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="B427" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B427" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D427" s="4"/>
-      <c r="E427" s="3"/>
+      <c r="E427" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
@@ -12310,7 +12331,7 @@
     </row>
     <row r="428">
       <c r="A428" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>105</v>
@@ -12329,7 +12350,7 @@
     </row>
     <row r="429">
       <c r="A429" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>105</v>
@@ -12348,9 +12369,9 @@
     </row>
     <row r="430">
       <c r="A430" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="B430" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C430" s="2" t="s">
@@ -12367,9 +12388,9 @@
     </row>
     <row r="431">
       <c r="A431" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B431" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B431" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C431" s="2" t="s">
@@ -12386,9 +12407,9 @@
     </row>
     <row r="432">
       <c r="A432" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B432" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C432" s="2" t="s">
@@ -12405,7 +12426,7 @@
     </row>
     <row r="433">
       <c r="A433" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>105</v>
@@ -12424,7 +12445,7 @@
     </row>
     <row r="434">
       <c r="A434" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>105</v>
@@ -12443,7 +12464,7 @@
     </row>
     <row r="435">
       <c r="A435" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>105</v>
@@ -12462,7 +12483,7 @@
     </row>
     <row r="436">
       <c r="A436" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>105</v>
@@ -12481,7 +12502,7 @@
     </row>
     <row r="437">
       <c r="A437" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>105</v>
@@ -12500,7 +12521,7 @@
     </row>
     <row r="438">
       <c r="A438" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>105</v>
@@ -12519,7 +12540,7 @@
     </row>
     <row r="439">
       <c r="A439" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>105</v>
@@ -12538,7 +12559,7 @@
     </row>
     <row r="440">
       <c r="A440" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B440" s="4" t="s">
         <v>105</v>
@@ -12557,9 +12578,9 @@
     </row>
     <row r="441">
       <c r="A441" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B441" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B441" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C441" s="2" t="s">
@@ -12576,7 +12597,7 @@
     </row>
     <row r="442">
       <c r="A442" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>105</v>
@@ -12595,9 +12616,9 @@
     </row>
     <row r="443">
       <c r="A443" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="B443" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C443" s="2" t="s">
@@ -12614,7 +12635,7 @@
     </row>
     <row r="444">
       <c r="A444" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>105</v>
@@ -12633,9 +12654,9 @@
     </row>
     <row r="445">
       <c r="A445" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B445" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B445" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C445" s="2" t="s">
@@ -12652,15 +12673,15 @@
     </row>
     <row r="446">
       <c r="A446" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="B446" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D446" s="3"/>
+      <c r="D446" s="4"/>
       <c r="E446" s="3"/>
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
@@ -12671,15 +12692,15 @@
     </row>
     <row r="447">
       <c r="A447" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>331</v>
+        <v>105</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D447" s="4"/>
+      <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
@@ -12690,7 +12711,7 @@
     </row>
     <row r="448">
       <c r="A448" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>331</v>
@@ -12709,7 +12730,7 @@
     </row>
     <row r="449">
       <c r="A449" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B449" s="4" t="s">
         <v>331</v>
@@ -12728,9 +12749,9 @@
     </row>
     <row r="450">
       <c r="A450" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="B450" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B450" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C450" s="2" t="s">
@@ -12746,10 +12767,10 @@
       <c r="K450" s="4"/>
     </row>
     <row r="451">
-      <c r="A451" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B451" s="4" t="s">
+      <c r="A451" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C451" s="2" t="s">
@@ -12765,8 +12786,8 @@
       <c r="K451" s="4"/>
     </row>
     <row r="452">
-      <c r="A452" s="4" t="s">
-        <v>669</v>
+      <c r="A452" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>331</v>
@@ -12785,10 +12806,10 @@
     </row>
     <row r="453">
       <c r="A453" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>276</v>
@@ -12804,7 +12825,7 @@
     </row>
     <row r="454">
       <c r="A454" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>287</v>
@@ -12823,7 +12844,7 @@
     </row>
     <row r="455">
       <c r="A455" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>287</v>
@@ -12842,9 +12863,9 @@
     </row>
     <row r="456">
       <c r="A456" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="B456" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B456" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C456" s="2" t="s">
@@ -12861,10 +12882,10 @@
     </row>
     <row r="457">
       <c r="A457" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>1114</v>
+        <v>675</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>276</v>
@@ -12880,10 +12901,10 @@
     </row>
     <row r="458">
       <c r="A458" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>276</v>
@@ -12899,10 +12920,10 @@
     </row>
     <row r="459">
       <c r="A459" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="B459" s="1" t="s">
         <v>677</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>276</v>
@@ -12917,16 +12938,16 @@
       <c r="K459" s="4"/>
     </row>
     <row r="460">
-      <c r="A460" s="4" t="s">
+      <c r="A460" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="B460" s="3" t="s">
-        <v>677</v>
+      <c r="B460" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D460" s="4"/>
+      <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
@@ -12939,8 +12960,8 @@
       <c r="A461" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B461" s="3" t="s">
-        <v>677</v>
+      <c r="B461" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>276</v>
@@ -12959,7 +12980,7 @@
         <v>680</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>344</v>
+        <v>681</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>276</v>
@@ -12975,10 +12996,10 @@
     </row>
     <row r="463">
       <c r="A463" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>344</v>
+        <v>682</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>276</v>
@@ -12993,16 +13014,16 @@
       <c r="K463" s="4"/>
     </row>
     <row r="464">
-      <c r="A464" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="B464" s="4" t="s">
-        <v>344</v>
+      <c r="A464" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D464" s="3"/>
+      <c r="D464" s="4"/>
       <c r="E464" s="3"/>
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
@@ -13013,15 +13034,15 @@
     </row>
     <row r="465">
       <c r="A465" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B465" s="4" t="s">
-        <v>344</v>
+        <v>684</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D465" s="3"/>
+      <c r="D465" s="4"/>
       <c r="E465" s="3"/>
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
@@ -13032,10 +13053,10 @@
     </row>
     <row r="466">
       <c r="A466" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B466" s="4" t="s">
         <v>685</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>276</v>
@@ -13051,7 +13072,7 @@
     </row>
     <row r="467">
       <c r="A467" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>514</v>
@@ -13070,7 +13091,7 @@
     </row>
     <row r="468">
       <c r="A468" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>514</v>
@@ -13091,7 +13112,7 @@
     </row>
     <row r="469">
       <c r="A469" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>514</v>
@@ -13110,10 +13131,10 @@
     </row>
     <row r="470">
       <c r="A470" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="B470" s="4" t="s">
-        <v>350</v>
+        <v>690</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>276</v>
@@ -13129,10 +13150,10 @@
     </row>
     <row r="471">
       <c r="A471" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>350</v>
+        <v>692</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>276</v>
@@ -13147,16 +13168,16 @@
       <c r="K471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="4" t="s">
+      <c r="A472" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B472" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="C472" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D472" s="4"/>
+      <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
@@ -13167,10 +13188,10 @@
     </row>
     <row r="473">
       <c r="A473" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>136</v>
+        <v>695</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>276</v>
@@ -13186,10 +13207,10 @@
     </row>
     <row r="474">
       <c r="A474" s="4" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>136</v>
+        <v>695</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>276</v>
@@ -13205,10 +13226,10 @@
     </row>
     <row r="475">
       <c r="A475" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="B475" s="4" t="s">
-        <v>1115</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>276</v>
@@ -13224,10 +13245,10 @@
     </row>
     <row r="476">
       <c r="A476" s="4" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>276</v>
@@ -13243,15 +13264,15 @@
     </row>
     <row r="477">
       <c r="A477" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B477" s="4" t="s">
-        <v>471</v>
+        <v>699</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D477" s="4"/>
+      <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
@@ -13262,15 +13283,15 @@
     </row>
     <row r="478">
       <c r="A478" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="B478" s="4" t="s">
-        <v>471</v>
+        <v>700</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D478" s="4"/>
+      <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
@@ -13281,10 +13302,10 @@
     </row>
     <row r="479">
       <c r="A479" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>276</v>
@@ -13300,10 +13321,10 @@
     </row>
     <row r="480">
       <c r="A480" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>276</v>
@@ -13318,16 +13339,16 @@
       <c r="K480" s="4"/>
     </row>
     <row r="481">
-      <c r="A481" s="4" t="s">
+      <c r="A481" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>700</v>
-      </c>
       <c r="C481" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D481" s="4"/>
+      <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
@@ -13338,10 +13359,10 @@
     </row>
     <row r="482">
       <c r="A482" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>310</v>
+        <v>705</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>1121</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>276</v>
@@ -13357,15 +13378,15 @@
     </row>
     <row r="483">
       <c r="A483" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>310</v>
+        <v>706</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D483" s="3"/>
+      <c r="D483" s="4"/>
       <c r="E483" s="3"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
@@ -13376,15 +13397,15 @@
     </row>
     <row r="484">
       <c r="A484" s="4" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>310</v>
+        <v>136</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D484" s="3"/>
+      <c r="D484" s="4"/>
       <c r="E484" s="3"/>
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
@@ -13395,10 +13416,10 @@
     </row>
     <row r="485">
       <c r="A485" s="4" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>707</v>
+        <v>136</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>276</v>
@@ -13414,10 +13435,10 @@
     </row>
     <row r="486">
       <c r="A486" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>1122</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>276</v>
@@ -13432,16 +13453,16 @@
       <c r="K486" s="4"/>
     </row>
     <row r="487">
-      <c r="A487" s="3" t="s">
-        <v>709</v>
+      <c r="A487" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>707</v>
+        <v>361</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D487" s="3"/>
+      <c r="D487" s="4"/>
       <c r="E487" s="3"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
@@ -13452,10 +13473,10 @@
     </row>
     <row r="488">
       <c r="A488" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>599</v>
+        <v>711</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>276</v>
@@ -13471,10 +13492,10 @@
     </row>
     <row r="489">
       <c r="A489" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>599</v>
+        <v>712</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>276</v>
@@ -13490,10 +13511,10 @@
     </row>
     <row r="490">
       <c r="A490" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>120</v>
+        <v>601</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>276</v>
@@ -13509,10 +13530,10 @@
     </row>
     <row r="491">
       <c r="A491" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B491" s="4" t="s">
-        <v>120</v>
+        <v>714</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>276</v>
@@ -13528,10 +13549,10 @@
     </row>
     <row r="492">
       <c r="A492" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="B492" s="3" t="s">
         <v>715</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>276</v>
@@ -13549,8 +13570,8 @@
       <c r="A493" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>715</v>
+      <c r="B493" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>276</v>
@@ -13568,8 +13589,8 @@
       <c r="A494" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>597</v>
+      <c r="B494" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>276</v>
@@ -13585,18 +13606,16 @@
     </row>
     <row r="495">
       <c r="A495" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B495" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B495" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="C495" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D495" s="4"/>
-      <c r="E495" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E495" s="3"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
@@ -13606,10 +13625,10 @@
     </row>
     <row r="496">
       <c r="A496" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>455</v>
+        <v>599</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>276</v>
@@ -13625,16 +13644,18 @@
     </row>
     <row r="497">
       <c r="A497" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="B497" s="4" t="s">
-        <v>455</v>
+        <v>721</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D497" s="4"/>
-      <c r="E497" s="3"/>
+      <c r="E497" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
@@ -13643,11 +13664,11 @@
       <c r="K497" s="4"/>
     </row>
     <row r="498">
-      <c r="A498" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>187</v>
+      <c r="A498" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>276</v>
@@ -13662,11 +13683,11 @@
       <c r="K498" s="4"/>
     </row>
     <row r="499">
-      <c r="A499" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>187</v>
+      <c r="A499" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>276</v>
@@ -13681,11 +13702,11 @@
       <c r="K499" s="4"/>
     </row>
     <row r="500">
-      <c r="A500" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>578</v>
+      <c r="A500" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>276</v>
@@ -13701,10 +13722,10 @@
     </row>
     <row r="501">
       <c r="A501" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>578</v>
+        <v>725</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>276</v>
@@ -13720,10 +13741,10 @@
     </row>
     <row r="502">
       <c r="A502" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="B502" s="4" t="s">
-        <v>371</v>
+        <v>726</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>276</v>
@@ -13738,11 +13759,11 @@
       <c r="K502" s="4"/>
     </row>
     <row r="503">
-      <c r="A503" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="B503" s="4" t="s">
-        <v>371</v>
+      <c r="A503" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>276</v>
@@ -13758,10 +13779,10 @@
     </row>
     <row r="504">
       <c r="A504" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>141</v>
+        <v>728</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>276</v>
@@ -13777,15 +13798,15 @@
     </row>
     <row r="505">
       <c r="A505" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>141</v>
+        <v>729</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D505" s="3"/>
+      <c r="D505" s="4"/>
       <c r="E505" s="3"/>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
@@ -13796,10 +13817,10 @@
     </row>
     <row r="506">
       <c r="A506" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B506" s="5" t="s">
-        <v>423</v>
+        <v>730</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>276</v>
@@ -13814,11 +13835,11 @@
       <c r="K506" s="4"/>
     </row>
     <row r="507">
-      <c r="A507" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>730</v>
+      <c r="A507" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>276</v>
@@ -13834,18 +13855,16 @@
     </row>
     <row r="508">
       <c r="A508" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D508" s="4"/>
-      <c r="E508" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E508" s="3"/>
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
@@ -13854,17 +13873,19 @@
       <c r="K508" s="4"/>
     </row>
     <row r="509">
-      <c r="A509" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="B509" s="1" t="s">
+      <c r="A509" s="3" t="s">
         <v>733</v>
       </c>
+      <c r="B509" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="C509" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D509" s="4"/>
-      <c r="E509" s="3"/>
+      <c r="E509" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
@@ -13876,8 +13897,8 @@
       <c r="A510" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="B510" s="4" t="s">
-        <v>558</v>
+      <c r="B510" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>276</v>
@@ -13892,11 +13913,11 @@
       <c r="K510" s="4"/>
     </row>
     <row r="511">
-      <c r="A511" s="4" t="s">
+      <c r="A511" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B511" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="B511" s="4" t="s">
-        <v>736</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>276</v>
@@ -13914,8 +13935,8 @@
       <c r="A512" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="B512" s="1" t="s">
-        <v>284</v>
+      <c r="B512" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>276</v>
@@ -13930,16 +13951,16 @@
       <c r="K512" s="4"/>
     </row>
     <row r="513">
-      <c r="A513" s="4" t="s">
+      <c r="A513" s="3" t="s">
         <v>738</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>739</v>
+        <v>141</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D513" s="4"/>
+      <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
@@ -13950,10 +13971,10 @@
     </row>
     <row r="514">
       <c r="A514" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>741</v>
+        <v>423</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>276</v>
@@ -13968,11 +13989,11 @@
       <c r="K514" s="4"/>
     </row>
     <row r="515">
-      <c r="A515" s="4" t="s">
-        <v>742</v>
+      <c r="A515" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>414</v>
+        <v>740</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>276</v>
@@ -13987,17 +14008,19 @@
       <c r="K515" s="4"/>
     </row>
     <row r="516">
-      <c r="A516" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>744</v>
+      <c r="A516" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D516" s="3"/>
-      <c r="E516" s="3"/>
+      <c r="D516" s="4"/>
+      <c r="E516" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
@@ -14007,10 +14030,10 @@
     </row>
     <row r="517">
       <c r="A517" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="B517" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>276</v>
@@ -14026,10 +14049,10 @@
     </row>
     <row r="518">
       <c r="A518" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>112</v>
+        <v>744</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>276</v>
@@ -14045,10 +14068,10 @@
     </row>
     <row r="519">
       <c r="A519" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>435</v>
+        <v>746</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>276</v>
@@ -14064,10 +14087,10 @@
     </row>
     <row r="520">
       <c r="A520" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B520" s="5" t="s">
-        <v>170</v>
+        <v>747</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>276</v>
@@ -14083,10 +14106,10 @@
     </row>
     <row r="521">
       <c r="A521" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>749</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>276</v>
@@ -14102,10 +14125,10 @@
     </row>
     <row r="522">
       <c r="A522" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="B522" s="4" t="s">
-        <v>477</v>
+        <v>750</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>276</v>
@@ -14120,16 +14143,16 @@
       <c r="K522" s="4"/>
     </row>
     <row r="523">
-      <c r="A523" s="4" t="s">
-        <v>753</v>
+      <c r="A523" s="3" t="s">
+        <v>751</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>495</v>
+        <v>752</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D523" s="4"/>
+      <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
@@ -14140,10 +14163,10 @@
     </row>
     <row r="524">
       <c r="A524" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B524" s="4" t="s">
         <v>754</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>276</v>
@@ -14161,8 +14184,8 @@
       <c r="A525" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>756</v>
+      <c r="B525" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>276</v>
@@ -14178,10 +14201,10 @@
     </row>
     <row r="526">
       <c r="A526" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>622</v>
+        <v>756</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>276</v>
@@ -14197,10 +14220,10 @@
     </row>
     <row r="527">
       <c r="A527" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>276</v>
@@ -14216,10 +14239,10 @@
     </row>
     <row r="528">
       <c r="A528" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>276</v>
@@ -14235,10 +14258,10 @@
     </row>
     <row r="529">
       <c r="A529" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>266</v>
+        <v>760</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>276</v>
@@ -14254,10 +14277,10 @@
     </row>
     <row r="530">
       <c r="A530" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>136</v>
+        <v>495</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>276</v>
@@ -14273,10 +14296,10 @@
     </row>
     <row r="531">
       <c r="A531" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B531" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>276</v>
@@ -14292,10 +14315,10 @@
     </row>
     <row r="532">
       <c r="A532" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>767</v>
+        <v>624</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>276</v>
@@ -14311,10 +14334,10 @@
     </row>
     <row r="533">
       <c r="A533" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B533" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>276</v>
@@ -14330,10 +14353,10 @@
     </row>
     <row r="534">
       <c r="A534" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B534" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>276</v>
@@ -14349,10 +14372,10 @@
     </row>
     <row r="535">
       <c r="A535" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B535" s="4" t="s">
-        <v>773</v>
+        <v>769</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>276</v>
@@ -14368,10 +14391,10 @@
     </row>
     <row r="536">
       <c r="A536" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>276</v>
@@ -14387,10 +14410,10 @@
     </row>
     <row r="537">
       <c r="A537" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B537" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>276</v>
@@ -14406,10 +14429,10 @@
     </row>
     <row r="538">
       <c r="A538" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="B538" s="4" t="s">
-        <v>778</v>
+        <v>773</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>276</v>
@@ -14425,10 +14448,10 @@
     </row>
     <row r="539">
       <c r="A539" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>276</v>
@@ -14444,10 +14467,10 @@
     </row>
     <row r="540">
       <c r="A540" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>276</v>
@@ -14463,10 +14486,10 @@
     </row>
     <row r="541">
       <c r="A541" s="4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>276</v>
@@ -14482,10 +14505,10 @@
     </row>
     <row r="542">
       <c r="A542" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>276</v>
@@ -14501,10 +14524,10 @@
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>276</v>
@@ -14520,10 +14543,10 @@
     </row>
     <row r="544">
       <c r="A544" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>785</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>276</v>
@@ -14539,10 +14562,10 @@
     </row>
     <row r="545">
       <c r="A545" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="B545" s="4" t="s">
-        <v>431</v>
+        <v>786</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>276</v>
@@ -14558,10 +14581,10 @@
     </row>
     <row r="546">
       <c r="A546" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>276</v>
@@ -14576,11 +14599,11 @@
       <c r="K546" s="4"/>
     </row>
     <row r="547">
-      <c r="A547" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B547" s="3" t="s">
-        <v>795</v>
+      <c r="A547" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>276</v>
@@ -14596,10 +14619,10 @@
     </row>
     <row r="548">
       <c r="A548" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="B548" s="4" t="s">
-        <v>797</v>
+        <v>792</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>793</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>276</v>
@@ -14615,10 +14638,10 @@
     </row>
     <row r="549">
       <c r="A549" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="B549" s="4" t="s">
-        <v>799</v>
+        <v>794</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>276</v>
@@ -14634,10 +14657,10 @@
     </row>
     <row r="550">
       <c r="A550" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="B550" s="4" t="s">
-        <v>235</v>
+        <v>796</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>797</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>276</v>
@@ -14653,10 +14676,10 @@
     </row>
     <row r="551">
       <c r="A551" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>276</v>
@@ -14672,10 +14695,10 @@
     </row>
     <row r="552">
       <c r="A552" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>618</v>
+        <v>800</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>276</v>
@@ -14691,10 +14714,10 @@
     </row>
     <row r="553">
       <c r="A553" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>802</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>276</v>
@@ -14710,10 +14733,10 @@
     </row>
     <row r="554">
       <c r="A554" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>804</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>276</v>
@@ -14729,10 +14752,10 @@
     </row>
     <row r="555">
       <c r="A555" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>276</v>
@@ -14748,10 +14771,10 @@
     </row>
     <row r="556">
       <c r="A556" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>810</v>
+        <v>358</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>276</v>
@@ -14766,11 +14789,11 @@
       <c r="K556" s="4"/>
     </row>
     <row r="557">
-      <c r="A557" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>812</v>
+      <c r="A557" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>276</v>
@@ -14786,10 +14809,10 @@
     </row>
     <row r="558">
       <c r="A558" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>814</v>
+        <v>809</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>276</v>
@@ -14804,11 +14827,11 @@
       <c r="K558" s="4"/>
     </row>
     <row r="559">
-      <c r="A559" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>816</v>
+      <c r="A559" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>276</v>
@@ -14823,11 +14846,11 @@
       <c r="K559" s="4"/>
     </row>
     <row r="560">
-      <c r="A560" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="B560" s="3" t="s">
-        <v>818</v>
+      <c r="A560" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>276</v>
@@ -14843,10 +14866,10 @@
     </row>
     <row r="561">
       <c r="A561" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>283</v>
+        <v>816</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>276</v>
@@ -14861,11 +14884,11 @@
       <c r="K561" s="4"/>
     </row>
     <row r="562">
-      <c r="A562" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>105</v>
+      <c r="A562" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>818</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>276</v>
@@ -14880,11 +14903,11 @@
       <c r="K562" s="4"/>
     </row>
     <row r="563">
-      <c r="A563" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>105</v>
+      <c r="A563" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>820</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>276</v>
@@ -14899,11 +14922,11 @@
       <c r="K563" s="4"/>
     </row>
     <row r="564">
-      <c r="A564" s="4" t="s">
+      <c r="A564" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="B564" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>276</v>
@@ -14918,11 +14941,11 @@
       <c r="K564" s="4"/>
     </row>
     <row r="565">
-      <c r="A565" s="4" t="s">
+      <c r="A565" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="B565" s="4" t="s">
-        <v>105</v>
+      <c r="B565" s="3" t="s">
+        <v>824</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>276</v>
@@ -14938,10 +14961,10 @@
     </row>
     <row r="566">
       <c r="A566" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>105</v>
+        <v>825</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>276</v>
@@ -14957,7 +14980,7 @@
     </row>
     <row r="567">
       <c r="A567" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>105</v>
@@ -14976,7 +14999,7 @@
     </row>
     <row r="568">
       <c r="A568" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>105</v>
@@ -14985,9 +15008,7 @@
         <v>276</v>
       </c>
       <c r="D568" s="4"/>
-      <c r="E568" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E568" s="3"/>
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
       <c r="H568" s="4"/>
@@ -14997,7 +15018,7 @@
     </row>
     <row r="569">
       <c r="A569" s="4" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B569" s="4" t="s">
         <v>105</v>
@@ -15016,7 +15037,7 @@
     </row>
     <row r="570">
       <c r="A570" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>105</v>
@@ -15035,9 +15056,9 @@
     </row>
     <row r="571">
       <c r="A571" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="B571" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B571" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C571" s="2" t="s">
@@ -15054,7 +15075,7 @@
     </row>
     <row r="572">
       <c r="A572" s="4" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>105</v>
@@ -15073,7 +15094,7 @@
     </row>
     <row r="573">
       <c r="A573" s="4" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>105</v>
@@ -15082,7 +15103,9 @@
         <v>276</v>
       </c>
       <c r="D573" s="4"/>
-      <c r="E573" s="3"/>
+      <c r="E573" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
@@ -15091,16 +15114,16 @@
       <c r="K573" s="4"/>
     </row>
     <row r="574">
-      <c r="A574" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="B574" s="1" t="s">
+      <c r="A574" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B574" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D574" s="3"/>
+      <c r="D574" s="4"/>
       <c r="E574" s="3"/>
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
@@ -15111,10 +15134,10 @@
     </row>
     <row r="575">
       <c r="A575" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>344</v>
+        <v>833</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>276</v>
@@ -15130,10 +15153,10 @@
     </row>
     <row r="576">
       <c r="A576" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>344</v>
+        <v>105</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>276</v>
@@ -15149,10 +15172,10 @@
     </row>
     <row r="577">
       <c r="A577" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>344</v>
+        <v>105</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>276</v>
@@ -15168,10 +15191,10 @@
     </row>
     <row r="578">
       <c r="A578" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>310</v>
+        <v>105</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>276</v>
@@ -15186,16 +15209,16 @@
       <c r="K578" s="4"/>
     </row>
     <row r="579">
-      <c r="A579" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="B579" s="4" t="s">
-        <v>310</v>
+      <c r="A579" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D579" s="4"/>
+      <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
@@ -15206,10 +15229,10 @@
     </row>
     <row r="580">
       <c r="A580" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>276</v>
@@ -15225,10 +15248,10 @@
     </row>
     <row r="581">
       <c r="A581" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>477</v>
+        <v>839</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>276</v>
@@ -15244,10 +15267,10 @@
     </row>
     <row r="582">
       <c r="A582" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>477</v>
+        <v>344</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>276</v>
@@ -15263,10 +15286,10 @@
     </row>
     <row r="583">
       <c r="A583" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>477</v>
+        <v>310</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>276</v>
@@ -15282,10 +15305,10 @@
     </row>
     <row r="584">
       <c r="A584" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>455</v>
+        <v>310</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>276</v>
@@ -15301,10 +15324,10 @@
     </row>
     <row r="585">
       <c r="A585" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>455</v>
+        <v>310</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>276</v>
@@ -15319,11 +15342,11 @@
       <c r="K585" s="4"/>
     </row>
     <row r="586">
-      <c r="A586" s="3" t="s">
-        <v>843</v>
+      <c r="A586" s="4" t="s">
+        <v>844</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>276</v>
@@ -15339,10 +15362,10 @@
     </row>
     <row r="587">
       <c r="A587" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B587" s="4" t="s">
-        <v>365</v>
+        <v>845</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>276</v>
@@ -15357,11 +15380,11 @@
       <c r="K587" s="4"/>
     </row>
     <row r="588">
-      <c r="A588" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="B588" s="4" t="s">
-        <v>365</v>
+      <c r="A588" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>276</v>
@@ -15375,14 +15398,14 @@
       <c r="J588" s="4"/>
       <c r="K588" s="4"/>
     </row>
-    <row r="589" ht="18.0" customHeight="true">
-      <c r="A589" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="B589" s="7" t="s">
+    <row r="589">
+      <c r="A589" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="C589" s="8" t="s">
+      <c r="B589" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C589" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D589" s="4"/>
@@ -15399,7 +15422,7 @@
         <v>848</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>276</v>
@@ -15418,7 +15441,7 @@
         <v>849</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>276</v>
@@ -15436,8 +15459,8 @@
       <c r="A592" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="B592" s="1" t="s">
-        <v>331</v>
+      <c r="B592" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>276</v>
@@ -15455,13 +15478,13 @@
       <c r="A593" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="B593" s="1" t="s">
-        <v>331</v>
+      <c r="B593" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D593" s="3"/>
+      <c r="D593" s="4"/>
       <c r="E593" s="3"/>
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
@@ -15470,14 +15493,14 @@
       <c r="J593" s="4"/>
       <c r="K593" s="4"/>
     </row>
-    <row r="594">
-      <c r="A594" s="4" t="s">
+    <row r="594" ht="18.0" customHeight="true">
+      <c r="A594" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="B594" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C594" s="2" t="s">
+      <c r="B594" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="C594" s="8" t="s">
         <v>276</v>
       </c>
       <c r="D594" s="4"/>
@@ -15491,10 +15514,10 @@
     </row>
     <row r="595">
       <c r="A595" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>459</v>
+        <v>283</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>276</v>
@@ -15509,11 +15532,11 @@
       <c r="K595" s="4"/>
     </row>
     <row r="596">
-      <c r="A596" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="B596" s="4" t="s">
+      <c r="A596" s="3" t="s">
         <v>855</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>276</v>
@@ -15531,8 +15554,8 @@
       <c r="A597" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="B597" s="4" t="s">
-        <v>857</v>
+      <c r="B597" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>276</v>
@@ -15547,16 +15570,16 @@
       <c r="K597" s="4"/>
     </row>
     <row r="598">
-      <c r="A598" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="B598" s="4" t="s">
-        <v>859</v>
+      <c r="A598" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D598" s="4"/>
+      <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
@@ -15567,10 +15590,10 @@
     </row>
     <row r="599">
       <c r="A599" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="B599" s="4" t="s">
-        <v>235</v>
+        <v>858</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>276</v>
@@ -15586,10 +15609,10 @@
     </row>
     <row r="600">
       <c r="A600" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B600" s="4" t="s">
-        <v>741</v>
+        <v>859</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>276</v>
@@ -15605,10 +15628,10 @@
     </row>
     <row r="601">
       <c r="A601" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>861</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>276</v>
@@ -15624,10 +15647,10 @@
     </row>
     <row r="602">
       <c r="A602" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>276</v>
@@ -15643,10 +15666,10 @@
     </row>
     <row r="603">
       <c r="A603" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="B603" s="1" t="s">
-        <v>514</v>
+        <v>864</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>865</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>276</v>
@@ -15662,10 +15685,10 @@
     </row>
     <row r="604">
       <c r="A604" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="B604" s="1" t="s">
-        <v>120</v>
+        <v>866</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>276</v>
@@ -15681,10 +15704,10 @@
     </row>
     <row r="605">
       <c r="A605" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
+      </c>
+      <c r="B605" s="4" t="s">
+        <v>735</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>276</v>
@@ -15700,10 +15723,10 @@
     </row>
     <row r="606">
       <c r="A606" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="B606" s="4" t="s">
-        <v>151</v>
+        <v>868</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>276</v>
@@ -15719,10 +15742,10 @@
     </row>
     <row r="607">
       <c r="A607" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B607" s="4" t="s">
         <v>871</v>
-      </c>
-      <c r="B607" s="4" t="s">
-        <v>761</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>276</v>
@@ -15740,8 +15763,8 @@
       <c r="A608" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="B608" s="3" t="s">
-        <v>873</v>
+      <c r="B608" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>276</v>
@@ -15757,10 +15780,10 @@
     </row>
     <row r="609">
       <c r="A609" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>875</v>
+        <v>120</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>276</v>
@@ -15776,10 +15799,10 @@
     </row>
     <row r="610">
       <c r="A610" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="B610" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>276</v>
@@ -15795,10 +15818,10 @@
     </row>
     <row r="611">
       <c r="A611" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>879</v>
+        <v>151</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>276</v>
@@ -15814,10 +15837,10 @@
     </row>
     <row r="612">
       <c r="A612" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="B612" s="1" t="s">
-        <v>350</v>
+        <v>877</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>276</v>
@@ -15833,10 +15856,10 @@
     </row>
     <row r="613">
       <c r="A613" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="B613" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>276</v>
@@ -15852,10 +15875,10 @@
     </row>
     <row r="614">
       <c r="A614" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="B614" s="4" t="s">
-        <v>884</v>
+        <v>880</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>881</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>276</v>
@@ -15871,10 +15894,10 @@
     </row>
     <row r="615">
       <c r="A615" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>276</v>
@@ -15890,10 +15913,10 @@
     </row>
     <row r="616">
       <c r="A616" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>374</v>
+        <v>885</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>276</v>
@@ -15909,10 +15932,10 @@
     </row>
     <row r="617">
       <c r="A617" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="B617" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>276</v>
@@ -15928,10 +15951,10 @@
     </row>
     <row r="618">
       <c r="A618" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>276</v>
@@ -15947,10 +15970,10 @@
     </row>
     <row r="619">
       <c r="A619" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="B619" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>890</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>276</v>
@@ -15966,10 +15989,10 @@
     </row>
     <row r="620">
       <c r="A620" s="4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>337</v>
+        <v>892</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>276</v>
@@ -15985,10 +16008,10 @@
     </row>
     <row r="621">
       <c r="A621" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>419</v>
+        <v>893</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>276</v>
@@ -16004,10 +16027,10 @@
     </row>
     <row r="622">
       <c r="A622" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="B622" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>895</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>276</v>
@@ -16023,10 +16046,10 @@
     </row>
     <row r="623">
       <c r="A623" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>276</v>
@@ -16042,10 +16065,10 @@
     </row>
     <row r="624">
       <c r="A624" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>276</v>
@@ -16061,10 +16084,10 @@
     </row>
     <row r="625">
       <c r="A625" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>276</v>
@@ -16080,10 +16103,10 @@
     </row>
     <row r="626">
       <c r="A626" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>276</v>
@@ -16099,10 +16122,10 @@
     </row>
     <row r="627">
       <c r="A627" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="B627" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>276</v>
@@ -16118,10 +16141,10 @@
     </row>
     <row r="628">
       <c r="A628" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="B628" s="4" t="s">
-        <v>354</v>
+        <v>904</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>905</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>276</v>
@@ -16137,10 +16160,10 @@
     </row>
     <row r="629">
       <c r="A629" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B629" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="B629" s="4" t="s">
-        <v>786</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>276</v>
@@ -16159,7 +16182,7 @@
         <v>908</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>859</v>
+        <v>320</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>276</v>
@@ -16174,16 +16197,16 @@
       <c r="K630" s="4"/>
     </row>
     <row r="631">
-      <c r="A631" s="3" t="s">
+      <c r="A631" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="B631" s="3" t="s">
-        <v>910</v>
+      <c r="B631" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D631" s="3"/>
+      <c r="D631" s="4"/>
       <c r="E631" s="3"/>
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
@@ -16192,14 +16215,14 @@
       <c r="J631" s="4"/>
       <c r="K631" s="4"/>
     </row>
-    <row r="632" ht="18.0" customHeight="true">
-      <c r="A632" s="7" t="s">
+    <row r="632">
+      <c r="A632" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B632" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="B632" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C632" s="8" t="s">
+      <c r="C632" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D632" s="4"/>
@@ -16216,7 +16239,7 @@
         <v>912</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>597</v>
+        <v>354</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>276</v>
@@ -16234,8 +16257,8 @@
       <c r="A634" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="B634" s="1" t="s">
-        <v>105</v>
+      <c r="B634" s="4" t="s">
+        <v>793</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>276</v>
@@ -16254,7 +16277,7 @@
         <v>914</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>105</v>
+        <v>865</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>276</v>
@@ -16269,16 +16292,16 @@
       <c r="K635" s="4"/>
     </row>
     <row r="636">
-      <c r="A636" s="4" t="s">
+      <c r="A636" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="B636" s="4" t="s">
-        <v>105</v>
+      <c r="B636" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D636" s="4"/>
+      <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
@@ -16287,14 +16310,14 @@
       <c r="J636" s="4"/>
       <c r="K636" s="4"/>
     </row>
-    <row r="637">
-      <c r="A637" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="B637" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C637" s="2" t="s">
+    <row r="637" ht="18.0" customHeight="true">
+      <c r="A637" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C637" s="8" t="s">
         <v>276</v>
       </c>
       <c r="D637" s="4"/>
@@ -16307,11 +16330,11 @@
       <c r="K637" s="4"/>
     </row>
     <row r="638">
-      <c r="A638" s="3" t="s">
-        <v>917</v>
+      <c r="A638" s="4" t="s">
+        <v>918</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>105</v>
+        <v>599</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>276</v>
@@ -16327,9 +16350,9 @@
     </row>
     <row r="639">
       <c r="A639" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B639" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B639" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C639" s="2" t="s">
@@ -16345,8 +16368,8 @@
       <c r="K639" s="4"/>
     </row>
     <row r="640">
-      <c r="A640" s="7" t="s">
-        <v>919</v>
+      <c r="A640" s="4" t="s">
+        <v>920</v>
       </c>
       <c r="B640" s="4" t="s">
         <v>105</v>
@@ -16365,10 +16388,10 @@
     </row>
     <row r="641">
       <c r="A641" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>337</v>
+        <v>921</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>276</v>
@@ -16384,18 +16407,16 @@
     </row>
     <row r="642">
       <c r="A642" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>337</v>
+        <v>922</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D642" s="4"/>
-      <c r="E642" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E642" s="3"/>
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
@@ -16404,11 +16425,11 @@
       <c r="K642" s="4"/>
     </row>
     <row r="643">
-      <c r="A643" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>60</v>
+      <c r="A643" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>276</v>
@@ -16423,19 +16444,17 @@
       <c r="K643" s="4"/>
     </row>
     <row r="644">
-      <c r="A644" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B644" s="1" t="s">
+      <c r="A644" s="4" t="s">
         <v>924</v>
       </c>
+      <c r="B644" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="C644" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D644" s="4"/>
-      <c r="E644" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E644" s="3"/>
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
@@ -16444,11 +16463,11 @@
       <c r="K644" s="4"/>
     </row>
     <row r="645">
-      <c r="A645" s="4" t="s">
+      <c r="A645" s="7" t="s">
         <v>925</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>276</v>
@@ -16463,11 +16482,11 @@
       <c r="K645" s="4"/>
     </row>
     <row r="646">
-      <c r="A646" s="3" t="s">
+      <c r="A646" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="B646" s="3" t="s">
-        <v>350</v>
+      <c r="B646" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>276</v>
@@ -16485,14 +16504,16 @@
       <c r="A647" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="B647" s="4" t="s">
-        <v>423</v>
+      <c r="B647" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D647" s="4"/>
-      <c r="E647" s="3"/>
+      <c r="E647" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
@@ -16504,8 +16525,8 @@
       <c r="A648" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B648" s="4" t="s">
-        <v>865</v>
+      <c r="B648" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>276</v>
@@ -16520,7 +16541,7 @@
       <c r="K648" s="4"/>
     </row>
     <row r="649">
-      <c r="A649" s="4" t="s">
+      <c r="A649" s="3" t="s">
         <v>929</v>
       </c>
       <c r="B649" s="1" t="s">
@@ -16530,7 +16551,9 @@
         <v>276</v>
       </c>
       <c r="D649" s="4"/>
-      <c r="E649" s="3"/>
+      <c r="E649" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
@@ -16543,7 +16566,7 @@
         <v>931</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>932</v>
+        <v>350</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>276</v>
@@ -16558,11 +16581,11 @@
       <c r="K650" s="4"/>
     </row>
     <row r="651">
-      <c r="A651" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>506</v>
+      <c r="A651" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>276</v>
@@ -16576,12 +16599,12 @@
       <c r="J651" s="4"/>
       <c r="K651" s="4"/>
     </row>
-    <row r="652" ht="18.0" customHeight="true">
+    <row r="652">
       <c r="A652" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>276</v>
@@ -16597,10 +16620,10 @@
     </row>
     <row r="653">
       <c r="A653" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>483</v>
+        <v>934</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>871</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>276</v>
@@ -16616,10 +16639,10 @@
     </row>
     <row r="654">
       <c r="A654" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>235</v>
+        <v>936</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>276</v>
@@ -16635,10 +16658,10 @@
     </row>
     <row r="655">
       <c r="A655" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B655" s="4" t="s">
         <v>938</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>276</v>
@@ -16657,7 +16680,7 @@
         <v>939</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>54</v>
+        <v>506</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>276</v>
@@ -16671,12 +16694,12 @@
       <c r="J656" s="4"/>
       <c r="K656" s="4"/>
     </row>
-    <row r="657">
-      <c r="A657" s="3" t="s">
+    <row r="657" ht="18.0" customHeight="true">
+      <c r="A657" s="4" t="s">
         <v>940</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>391</v>
+        <v>941</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>276</v>
@@ -16692,10 +16715,10 @@
     </row>
     <row r="658">
       <c r="A658" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="B658" s="4" t="s">
-        <v>471</v>
+        <v>942</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>276</v>
@@ -16711,10 +16734,10 @@
     </row>
     <row r="659">
       <c r="A659" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>776</v>
+        <v>235</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>276</v>
@@ -16730,18 +16753,16 @@
     </row>
     <row r="660">
       <c r="A660" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>891</v>
+        <v>358</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D660" s="4"/>
-      <c r="E660" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E660" s="3"/>
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
@@ -16750,11 +16771,11 @@
       <c r="K660" s="4"/>
     </row>
     <row r="661">
-      <c r="A661" s="3" t="s">
-        <v>944</v>
+      <c r="A661" s="4" t="s">
+        <v>945</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>518</v>
+        <v>54</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>276</v>
@@ -16769,11 +16790,11 @@
       <c r="K661" s="4"/>
     </row>
     <row r="662">
-      <c r="A662" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="B662" s="4" t="s">
-        <v>495</v>
+      <c r="A662" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>276</v>
@@ -16789,10 +16810,10 @@
     </row>
     <row r="663">
       <c r="A663" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>105</v>
+        <v>947</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>276</v>
@@ -16808,18 +16829,16 @@
     </row>
     <row r="664">
       <c r="A664" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>105</v>
+        <v>783</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D664" s="4"/>
-      <c r="E664" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E664" s="3"/>
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
@@ -16829,16 +16848,18 @@
     </row>
     <row r="665">
       <c r="A665" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="B665" s="4" t="s">
         <v>949</v>
       </c>
+      <c r="B665" s="1" t="s">
+        <v>897</v>
+      </c>
       <c r="C665" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D665" s="4"/>
-      <c r="E665" s="3"/>
+      <c r="E665" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
@@ -16847,11 +16868,11 @@
       <c r="K665" s="4"/>
     </row>
     <row r="666">
-      <c r="A666" s="4" t="s">
+      <c r="A666" s="3" t="s">
         <v>950</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>736</v>
+        <v>518</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>276</v>
@@ -16869,8 +16890,8 @@
       <c r="A667" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="B667" s="1" t="s">
-        <v>455</v>
+      <c r="B667" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>276</v>
@@ -16888,8 +16909,8 @@
       <c r="A668" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="B668" s="4" t="s">
-        <v>932</v>
+      <c r="B668" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>276</v>
@@ -16907,14 +16928,16 @@
       <c r="A669" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="B669" s="4" t="s">
-        <v>287</v>
+      <c r="B669" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D669" s="4"/>
-      <c r="E669" s="3"/>
+      <c r="E669" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
@@ -16926,8 +16949,8 @@
       <c r="A670" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="B670" s="1" t="s">
-        <v>310</v>
+      <c r="B670" s="4" t="s">
+        <v>955</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>276</v>
@@ -16943,10 +16966,10 @@
     </row>
     <row r="671">
       <c r="A671" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>495</v>
+        <v>746</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>276</v>
@@ -16962,10 +16985,10 @@
     </row>
     <row r="672">
       <c r="A672" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="B672" s="4" t="s">
-        <v>344</v>
+        <v>957</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>276</v>
@@ -16981,10 +17004,10 @@
     </row>
     <row r="673">
       <c r="A673" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>276</v>
@@ -17002,8 +17025,8 @@
       <c r="A674" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="B674" s="3" t="s">
-        <v>465</v>
+      <c r="B674" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>276</v>
@@ -17021,8 +17044,8 @@
       <c r="A675" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="B675" s="4" t="s">
-        <v>39</v>
+      <c r="B675" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>276</v>
@@ -17040,8 +17063,8 @@
       <c r="A676" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="B676" s="4" t="s">
-        <v>962</v>
+      <c r="B676" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>276</v>
@@ -17057,15 +17080,15 @@
     </row>
     <row r="677">
       <c r="A677" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="B677" s="3" t="s">
-        <v>739</v>
+        <v>962</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D677" s="3"/>
+      <c r="D677" s="4"/>
       <c r="E677" s="3"/>
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
@@ -17076,15 +17099,15 @@
     </row>
     <row r="678">
       <c r="A678" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B678" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="B678" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="C678" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D678" s="3"/>
+      <c r="D678" s="4"/>
       <c r="E678" s="3"/>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
@@ -17098,12 +17121,12 @@
         <v>965</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D679" s="3"/>
+      <c r="D679" s="4"/>
       <c r="E679" s="3"/>
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
@@ -17113,16 +17136,16 @@
       <c r="K679" s="4"/>
     </row>
     <row r="680">
-      <c r="A680" s="3" t="s">
+      <c r="A680" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="B680" s="3" t="s">
-        <v>967</v>
+      <c r="B680" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D680" s="3"/>
+      <c r="D680" s="4"/>
       <c r="E680" s="3"/>
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
@@ -17133,10 +17156,10 @@
     </row>
     <row r="681">
       <c r="A681" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B681" s="4" t="s">
         <v>968</v>
-      </c>
-      <c r="B681" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>276</v>
@@ -17154,13 +17177,13 @@
       <c r="A682" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="B682" s="4" t="s">
-        <v>865</v>
+      <c r="B682" s="3" t="s">
+        <v>749</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D682" s="4"/>
+      <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
@@ -17173,13 +17196,13 @@
       <c r="A683" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="B683" s="4" t="s">
-        <v>447</v>
+      <c r="B683" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D683" s="4"/>
+      <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
@@ -17193,12 +17216,12 @@
         <v>971</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D684" s="4"/>
+      <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
@@ -17208,16 +17231,16 @@
       <c r="K684" s="4"/>
     </row>
     <row r="685">
-      <c r="A685" s="4" t="s">
+      <c r="A685" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="B685" s="1" t="s">
-        <v>344</v>
+      <c r="B685" s="3" t="s">
+        <v>973</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D685" s="4"/>
+      <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
@@ -17228,10 +17251,10 @@
     </row>
     <row r="686">
       <c r="A686" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="B686" s="1" t="s">
-        <v>776</v>
+        <v>974</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>276</v>
@@ -17247,10 +17270,10 @@
     </row>
     <row r="687">
       <c r="A687" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="B687" s="5" t="s">
-        <v>414</v>
+        <v>975</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>276</v>
@@ -17266,10 +17289,10 @@
     </row>
     <row r="688">
       <c r="A688" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="B688" s="3" t="s">
         <v>976</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>871</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>276</v>
@@ -17288,7 +17311,7 @@
         <v>977</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>276</v>
@@ -17306,8 +17329,8 @@
       <c r="A690" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="B690" s="1" t="s">
-        <v>979</v>
+      <c r="B690" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>276</v>
@@ -17323,10 +17346,10 @@
     </row>
     <row r="691">
       <c r="A691" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="B691" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>276</v>
@@ -17342,10 +17365,10 @@
     </row>
     <row r="692">
       <c r="A692" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="B692" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>276</v>
@@ -17361,10 +17384,10 @@
     </row>
     <row r="693">
       <c r="A693" s="4" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>235</v>
+        <v>414</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>276</v>
@@ -17380,10 +17403,10 @@
     </row>
     <row r="694">
       <c r="A694" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="B694" s="1" t="s">
-        <v>901</v>
+        <v>982</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>983</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>276</v>
@@ -17399,15 +17422,15 @@
     </row>
     <row r="695">
       <c r="A695" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="B695" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D695" s="3"/>
+      <c r="D695" s="4"/>
       <c r="E695" s="3"/>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
@@ -17418,15 +17441,15 @@
     </row>
     <row r="696">
       <c r="A696" s="4" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>331</v>
+        <v>986</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D696" s="3"/>
+      <c r="D696" s="4"/>
       <c r="E696" s="3"/>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
@@ -17437,15 +17460,15 @@
     </row>
     <row r="697">
       <c r="A697" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="B697" s="1" t="s">
-        <v>391</v>
+        <v>987</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>988</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D697" s="3"/>
+      <c r="D697" s="4"/>
       <c r="E697" s="3"/>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
@@ -17456,10 +17479,10 @@
     </row>
     <row r="698">
       <c r="A698" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B698" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="B698" s="4" t="s">
-        <v>991</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>276</v>
@@ -17475,10 +17498,10 @@
     </row>
     <row r="699">
       <c r="A699" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="B699" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
+      </c>
+      <c r="B699" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>276</v>
@@ -17494,10 +17517,10 @@
     </row>
     <row r="700">
       <c r="A700" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="B700" s="4" t="s">
-        <v>995</v>
+        <v>992</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>907</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>276</v>
@@ -17513,15 +17536,15 @@
     </row>
     <row r="701">
       <c r="A701" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B701" s="4" t="s">
-        <v>423</v>
+        <v>993</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>994</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D701" s="4"/>
+      <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
@@ -17532,15 +17555,15 @@
     </row>
     <row r="702">
       <c r="A702" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="B702" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D702" s="4"/>
+      <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
@@ -17551,15 +17574,15 @@
     </row>
     <row r="703">
       <c r="A703" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="B703" s="4" t="s">
-        <v>283</v>
+        <v>996</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D703" s="4"/>
+      <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
@@ -17570,10 +17593,10 @@
     </row>
     <row r="704">
       <c r="A704" s="4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>120</v>
+        <v>998</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>276</v>
@@ -17589,10 +17612,10 @@
     </row>
     <row r="705">
       <c r="A705" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>276</v>
@@ -17608,10 +17631,10 @@
     </row>
     <row r="706">
       <c r="A706" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>477</v>
+        <v>1002</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>276</v>
@@ -17627,10 +17650,10 @@
     </row>
     <row r="707">
       <c r="A707" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B707" s="9" t="s">
-        <v>1005</v>
+        <v>1003</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>276</v>
@@ -17646,15 +17669,15 @@
     </row>
     <row r="708">
       <c r="A708" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B708" s="9" t="s">
-        <v>508</v>
+        <v>1004</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1005</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D708" s="3"/>
+      <c r="D708" s="4"/>
       <c r="E708" s="3"/>
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
@@ -17665,15 +17688,15 @@
     </row>
     <row r="709">
       <c r="A709" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B709" s="9" t="s">
-        <v>477</v>
+        <v>1006</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D709" s="3"/>
+      <c r="D709" s="4"/>
       <c r="E709" s="3"/>
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
@@ -17684,13 +17707,13 @@
     </row>
     <row r="710">
       <c r="A710" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1009</v>
+        <v>120</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>1010</v>
+        <v>276</v>
       </c>
       <c r="D710" s="4"/>
       <c r="E710" s="3"/>
@@ -17703,13 +17726,13 @@
     </row>
     <row r="711">
       <c r="A711" s="4" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B711" s="4" t="s">
         <v>1009</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>1010</v>
+        <v>276</v>
       </c>
       <c r="D711" s="4"/>
       <c r="E711" s="3"/>
@@ -17722,13 +17745,13 @@
     </row>
     <row r="712">
       <c r="A712" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1013</v>
+        <v>477</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>1010</v>
+        <v>276</v>
       </c>
       <c r="D712" s="4"/>
       <c r="E712" s="3"/>
@@ -17741,13 +17764,13 @@
     </row>
     <row r="713">
       <c r="A713" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B713" s="4" t="s">
-        <v>457</v>
+        <v>1011</v>
+      </c>
+      <c r="B713" s="9" t="s">
+        <v>1012</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>1010</v>
+        <v>276</v>
       </c>
       <c r="D713" s="4"/>
       <c r="E713" s="3"/>
@@ -17760,15 +17783,15 @@
     </row>
     <row r="714">
       <c r="A714" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B714" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
+      </c>
+      <c r="B714" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D714" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
@@ -17779,15 +17802,15 @@
     </row>
     <row r="715">
       <c r="A715" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B715" s="4" t="s">
-        <v>1018</v>
+        <v>1014</v>
+      </c>
+      <c r="B715" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D715" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
@@ -17798,13 +17821,13 @@
     </row>
     <row r="716">
       <c r="A716" s="4" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D716" s="4"/>
       <c r="E716" s="3"/>
@@ -17817,13 +17840,13 @@
     </row>
     <row r="717">
       <c r="A717" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D717" s="4"/>
       <c r="E717" s="3"/>
@@ -17836,13 +17859,13 @@
     </row>
     <row r="718">
       <c r="A718" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B718" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>1020</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D718" s="4"/>
       <c r="E718" s="3"/>
@@ -17855,13 +17878,13 @@
     </row>
     <row r="719">
       <c r="A719" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B719" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D719" s="4"/>
       <c r="E719" s="3"/>
@@ -17874,13 +17897,13 @@
     </row>
     <row r="720">
       <c r="A720" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D720" s="4"/>
       <c r="E720" s="3"/>
@@ -17892,14 +17915,14 @@
       <c r="K720" s="4"/>
     </row>
     <row r="721">
-      <c r="A721" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B721" s="3" t="s">
-        <v>741</v>
+      <c r="A721" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="C721" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D721" s="4"/>
       <c r="E721" s="3"/>
@@ -17911,14 +17934,14 @@
       <c r="K721" s="4"/>
     </row>
     <row r="722">
-      <c r="A722" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B722" s="3" t="s">
-        <v>457</v>
+      <c r="A722" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D722" s="4"/>
       <c r="E722" s="3"/>
@@ -17931,13 +17954,13 @@
     </row>
     <row r="723">
       <c r="A723" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>455</v>
+        <v>1016</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D723" s="4"/>
       <c r="E723" s="3"/>
@@ -17950,13 +17973,13 @@
     </row>
     <row r="724">
       <c r="A724" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B724" s="4" t="s">
-        <v>1031</v>
+        <v>1028</v>
+      </c>
+      <c r="B724" s="5" t="s">
+        <v>1029</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D724" s="4"/>
       <c r="E724" s="3"/>
@@ -17969,13 +17992,13 @@
     </row>
     <row r="725">
       <c r="A725" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B725" s="4" t="s">
-        <v>1033</v>
+        <v>1030</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1031</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D725" s="4"/>
       <c r="E725" s="3"/>
@@ -17988,13 +18011,13 @@
     </row>
     <row r="726">
       <c r="A726" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>958</v>
+        <v>1033</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D726" s="4"/>
       <c r="E726" s="3"/>
@@ -18007,15 +18030,15 @@
     </row>
     <row r="727">
       <c r="A727" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>1036</v>
+        <v>735</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D727" s="3"/>
+        <v>1017</v>
+      </c>
+      <c r="D727" s="4"/>
       <c r="E727" s="3"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
@@ -18026,15 +18049,15 @@
     </row>
     <row r="728">
       <c r="A728" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>1038</v>
+        <v>457</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D728" s="3"/>
+        <v>1017</v>
+      </c>
+      <c r="D728" s="4"/>
       <c r="E728" s="3"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
@@ -18045,13 +18068,13 @@
     </row>
     <row r="729">
       <c r="A729" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1009</v>
+        <v>455</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D729" s="4"/>
       <c r="E729" s="3"/>
@@ -18064,13 +18087,13 @@
     </row>
     <row r="730">
       <c r="A730" s="4" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D730" s="4"/>
       <c r="E730" s="3"/>
@@ -18083,13 +18106,13 @@
     </row>
     <row r="731">
       <c r="A731" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B731" s="1" t="s">
-        <v>741</v>
+        <v>1039</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D731" s="4"/>
       <c r="E731" s="3"/>
@@ -18102,13 +18125,13 @@
     </row>
     <row r="732">
       <c r="A732" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1018</v>
+        <v>964</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="D732" s="4"/>
       <c r="E732" s="3"/>
@@ -18121,15 +18144,15 @@
     </row>
     <row r="733">
       <c r="A733" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B733" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="B733" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="C733" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D733" s="4"/>
+        <v>1017</v>
+      </c>
+      <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
@@ -18139,16 +18162,16 @@
       <c r="K733" s="4"/>
     </row>
     <row r="734">
-      <c r="A734" s="4" t="s">
+      <c r="A734" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="B734" s="4" t="s">
+      <c r="B734" s="3" t="s">
         <v>1045</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D734" s="4"/>
+        <v>1017</v>
+      </c>
+      <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
@@ -18159,13 +18182,13 @@
     </row>
     <row r="735">
       <c r="A735" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1048</v>
+        <v>1016</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="D735" s="4"/>
       <c r="E735" s="3"/>
@@ -18178,13 +18201,13 @@
     </row>
     <row r="736">
       <c r="A736" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="D736" s="4"/>
       <c r="E736" s="3"/>
@@ -18197,13 +18220,13 @@
     </row>
     <row r="737">
       <c r="A737" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B737" s="4" t="s">
-        <v>1052</v>
+        <v>1048</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="D737" s="4"/>
       <c r="E737" s="3"/>
@@ -18215,14 +18238,14 @@
       <c r="K737" s="4"/>
     </row>
     <row r="738">
-      <c r="A738" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B738" s="3" t="s">
-        <v>1054</v>
+      <c r="A738" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="D738" s="4"/>
       <c r="E738" s="3"/>
@@ -18234,14 +18257,14 @@
       <c r="K738" s="4"/>
     </row>
     <row r="739">
-      <c r="A739" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B739" s="4" t="s">
-        <v>1056</v>
+      <c r="A739" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="D739" s="4"/>
       <c r="E739" s="3"/>
@@ -18253,14 +18276,14 @@
       <c r="K739" s="4"/>
     </row>
     <row r="740">
-      <c r="A740" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B740" s="1" t="s">
-        <v>1058</v>
+      <c r="A740" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>1052</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D740" s="4"/>
       <c r="E740" s="3"/>
@@ -18272,14 +18295,14 @@
       <c r="K740" s="4"/>
     </row>
     <row r="741">
-      <c r="A741" s="3" t="s">
-        <v>1059</v>
+      <c r="A741" s="4" t="s">
+        <v>1054</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D741" s="4"/>
       <c r="E741" s="3"/>
@@ -18292,13 +18315,13 @@
     </row>
     <row r="742">
       <c r="A742" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B742" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>1057</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D742" s="4"/>
       <c r="E742" s="3"/>
@@ -18311,13 +18334,13 @@
     </row>
     <row r="743">
       <c r="A743" s="4" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D743" s="4"/>
       <c r="E743" s="3"/>
@@ -18330,13 +18353,13 @@
     </row>
     <row r="744">
       <c r="A744" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D744" s="4"/>
       <c r="E744" s="3"/>
@@ -18349,13 +18372,13 @@
     </row>
     <row r="745">
       <c r="A745" s="4" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745" s="3"/>
@@ -18367,14 +18390,14 @@
       <c r="K745" s="4"/>
     </row>
     <row r="746">
-      <c r="A746" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B746" s="3" t="s">
-        <v>1069</v>
+      <c r="A746" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>1065</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D746" s="4"/>
       <c r="E746" s="3"/>
@@ -18386,14 +18409,14 @@
       <c r="K746" s="4"/>
     </row>
     <row r="747">
-      <c r="A747" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B747" s="3" t="s">
-        <v>1071</v>
+      <c r="A747" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>1063</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D747" s="4"/>
       <c r="E747" s="3"/>
@@ -18406,13 +18429,13 @@
     </row>
     <row r="748">
       <c r="A748" s="4" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D748" s="4"/>
       <c r="E748" s="3"/>
@@ -18423,6 +18446,120 @@
       <c r="J748" s="4"/>
       <c r="K748" s="4"/>
     </row>
+    <row r="749">
+      <c r="A749" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D749" s="4"/>
+      <c r="E749" s="3"/>
+      <c r="F749" s="4"/>
+      <c r="G749" s="4"/>
+      <c r="H749" s="4"/>
+      <c r="I749" s="4"/>
+      <c r="J749" s="4"/>
+      <c r="K749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D750" s="4"/>
+      <c r="E750" s="3"/>
+      <c r="F750" s="4"/>
+      <c r="G750" s="4"/>
+      <c r="H750" s="4"/>
+      <c r="I750" s="4"/>
+      <c r="J750" s="4"/>
+      <c r="K750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D751" s="4"/>
+      <c r="E751" s="3"/>
+      <c r="F751" s="4"/>
+      <c r="G751" s="4"/>
+      <c r="H751" s="4"/>
+      <c r="I751" s="4"/>
+      <c r="J751" s="4"/>
+      <c r="K751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D752" s="4"/>
+      <c r="E752" s="3"/>
+      <c r="F752" s="4"/>
+      <c r="G752" s="4"/>
+      <c r="H752" s="4"/>
+      <c r="I752" s="4"/>
+      <c r="J752" s="4"/>
+      <c r="K752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D753" s="4"/>
+      <c r="E753" s="3"/>
+      <c r="F753" s="4"/>
+      <c r="G753" s="4"/>
+      <c r="H753" s="4"/>
+      <c r="I753" s="4"/>
+      <c r="J753" s="4"/>
+      <c r="K753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D754" s="4"/>
+      <c r="E754" s="3"/>
+      <c r="F754" s="4"/>
+      <c r="G754" s="4"/>
+      <c r="H754" s="4"/>
+      <c r="I754" s="4"/>
+      <c r="J754" s="4"/>
+      <c r="K754" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/music_list_610.xlsx
+++ b/music_list_610.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1129" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1140" uniqueCount="1140">
   <si>
     <t>歌名</t>
   </si>
@@ -380,7 +380,7 @@
     <t>三月雨</t>
   </si>
   <si>
-    <t>易水决</t>
+    <t>易水诀</t>
   </si>
   <si>
     <t>马步谣</t>
@@ -980,6 +980,9 @@
     <t>慢冷</t>
   </si>
   <si>
+    <t>属于</t>
+  </si>
+  <si>
     <t>浪费</t>
   </si>
   <si>
@@ -1031,6 +1034,21 @@
     <t>雨天</t>
   </si>
   <si>
+    <t>仰望</t>
+  </si>
+  <si>
+    <t>杨丞琳</t>
+  </si>
+  <si>
+    <t>左边</t>
+  </si>
+  <si>
+    <t>雨爱</t>
+  </si>
+  <si>
+    <t>暗涌</t>
+  </si>
+  <si>
     <t>人质</t>
   </si>
   <si>
@@ -1082,18 +1100,6 @@
     <t>沙滩</t>
   </si>
   <si>
-    <t>仰望</t>
-  </si>
-  <si>
-    <t>杨丞琳</t>
-  </si>
-  <si>
-    <t>左边</t>
-  </si>
-  <si>
-    <t>雨爱</t>
-  </si>
-  <si>
     <t>爱你</t>
   </si>
   <si>
@@ -1214,6 +1220,15 @@
     <t>徐秉龙、桃十五</t>
   </si>
   <si>
+    <t>银河</t>
+  </si>
+  <si>
+    <t>汪苏泷</t>
+  </si>
+  <si>
+    <t>年轮</t>
+  </si>
+  <si>
     <t>朝汐</t>
   </si>
   <si>
@@ -1574,12 +1589,6 @@
     <t>林志炫</t>
   </si>
   <si>
-    <t>银河</t>
-  </si>
-  <si>
-    <t>汪苏泷</t>
-  </si>
-  <si>
     <t>唯一</t>
   </si>
   <si>
@@ -1943,6 +1952,18 @@
     <t>夜航星</t>
   </si>
   <si>
+    <t>舍离断</t>
+  </si>
+  <si>
+    <t>苏诗丁</t>
+  </si>
+  <si>
+    <t>梦里花</t>
+  </si>
+  <si>
+    <t>张韶涵</t>
+  </si>
+  <si>
     <t>elm</t>
   </si>
   <si>
@@ -2135,6 +2156,15 @@
     <t>没有如果</t>
   </si>
   <si>
+    <t>残酷月光</t>
+  </si>
+  <si>
+    <t>神秘嘉宾</t>
+  </si>
+  <si>
+    <t>天真有邪</t>
+  </si>
+  <si>
     <t>四季予你</t>
   </si>
   <si>
@@ -2204,12 +2234,6 @@
     <t>电台情歌</t>
   </si>
   <si>
-    <t>残酷月光</t>
-  </si>
-  <si>
-    <t>神秘嘉宾</t>
-  </si>
-  <si>
     <t>爱丫爱丫</t>
   </si>
   <si>
@@ -2501,6 +2525,9 @@
     <t>王若琳</t>
   </si>
   <si>
+    <t>你的珍藏</t>
+  </si>
+  <si>
     <t>self</t>
   </si>
   <si>
@@ -2747,21 +2774,12 @@
     <t>淋雨一直走</t>
   </si>
   <si>
-    <t>张韶涵</t>
-  </si>
-  <si>
     <t>早开的晚霞</t>
   </si>
   <si>
     <t>在夜里跳舞</t>
   </si>
   <si>
-    <t>你要结婚了</t>
-  </si>
-  <si>
-    <t>曹万江</t>
-  </si>
-  <si>
     <t>匿名的好友</t>
   </si>
   <si>
@@ -2780,6 +2798,15 @@
     <t>当爱在靠近</t>
   </si>
   <si>
+    <t>我是一只鱼</t>
+  </si>
+  <si>
+    <t>想你想疯了</t>
+  </si>
+  <si>
+    <t>彭佳慧</t>
+  </si>
+  <si>
     <t>Lydia</t>
   </si>
   <si>
@@ -2879,6 +2906,9 @@
     <t>眼泪落下之前</t>
   </si>
   <si>
+    <t>想淋雨就别走</t>
+  </si>
+  <si>
     <t>My Love</t>
   </si>
   <si>
@@ -3167,6 +3197,12 @@
     <t>薛凯琪</t>
   </si>
   <si>
+    <t>明知做戏</t>
+  </si>
+  <si>
+    <t>吴雨霏</t>
+  </si>
+  <si>
     <t>我怀念的你</t>
   </si>
   <si>
@@ -3185,15 +3221,18 @@
     <t>lonely Christmas</t>
   </si>
   <si>
+    <t>あたらよ</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
     <t>群青</t>
   </si>
   <si>
     <t>YOASOBI</t>
   </si>
   <si>
-    <t>日语</t>
-  </si>
-  <si>
     <t>夏影</t>
   </si>
   <si>
@@ -3249,12 +3288,6 @@
   </si>
   <si>
     <t>milet</t>
-  </si>
-  <si>
-    <t>candy candy</t>
-  </si>
-  <si>
-    <t>きゃりーぱみゅぱみゅ</t>
   </si>
   <si>
     <t>パンダ ~パステルカラーは夢~</t>
@@ -3868,7 +3901,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5468,7 +5501,7 @@
       <c r="K67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -8072,16 +8105,16 @@
       <c r="K203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D204" s="4"/>
+      <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -8092,10 +8125,10 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>279</v>
@@ -8113,8 +8146,8 @@
       <c r="A206" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>323</v>
+      <c r="B206" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>279</v>
@@ -8132,8 +8165,8 @@
       <c r="A207" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>323</v>
+      <c r="B207" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>279</v>
@@ -8148,16 +8181,16 @@
       <c r="K207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D208" s="3"/>
+      <c r="D208" s="4"/>
       <c r="E208" s="3"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -8167,16 +8200,16 @@
       <c r="K208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>139</v>
+      <c r="B209" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D209" s="4"/>
+      <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -8208,7 +8241,7 @@
       <c r="A211" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -8224,7 +8257,7 @@
       <c r="K211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="4" t="s">
         <v>331</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -8243,16 +8276,16 @@
       <c r="K212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D213" s="3"/>
+      <c r="D213" s="4"/>
       <c r="E213" s="3"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -8266,12 +8299,12 @@
         <v>333</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>334</v>
+        <v>139</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D214" s="4"/>
+      <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -8282,10 +8315,10 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>279</v>
@@ -8304,7 +8337,7 @@
         <v>336</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>279</v>
@@ -8322,13 +8355,13 @@
       <c r="A217" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>334</v>
+      <c r="B217" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D217" s="3"/>
+      <c r="D217" s="4"/>
       <c r="E217" s="3"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -8338,11 +8371,11 @@
       <c r="K217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>334</v>
+      <c r="B218" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>279</v>
@@ -8357,16 +8390,16 @@
       <c r="K218" s="4"/>
     </row>
     <row r="219">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>340</v>
+      <c r="B219" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D219" s="4"/>
+      <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -8376,16 +8409,16 @@
       <c r="K219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C220" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="3"/>
+      <c r="D220" s="4"/>
       <c r="E220" s="3"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -8399,12 +8432,12 @@
         <v>342</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D221" s="3"/>
+      <c r="D221" s="4"/>
       <c r="E221" s="3"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -8414,17 +8447,19 @@
       <c r="K221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>340</v>
+      <c r="B222" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
@@ -8433,11 +8468,11 @@
       <c r="K222" s="4"/>
     </row>
     <row r="223">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>345</v>
+      <c r="B223" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>279</v>
@@ -8453,10 +8488,10 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>279</v>
@@ -8471,16 +8506,16 @@
       <c r="K224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="4" t="s">
-        <v>348</v>
+      <c r="A225" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D225" s="4"/>
+      <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -8490,16 +8525,16 @@
       <c r="K225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="4" t="s">
-        <v>349</v>
+      <c r="A226" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D226" s="4"/>
+      <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -8509,16 +8544,16 @@
       <c r="K226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>290</v>
+      <c r="A227" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D227" s="4"/>
+      <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -8529,18 +8564,16 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="C228" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D228" s="4"/>
-      <c r="E228" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E228" s="3"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
@@ -8549,16 +8582,16 @@
       <c r="K228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D229" s="3"/>
+      <c r="D229" s="4"/>
       <c r="E229" s="3"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
@@ -8568,16 +8601,16 @@
       <c r="K229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="1" t="s">
         <v>353</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D230" s="3"/>
+      <c r="D230" s="4"/>
       <c r="E230" s="3"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -8587,16 +8620,16 @@
       <c r="K230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>353</v>
+      <c r="B231" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D231" s="3"/>
+      <c r="D231" s="4"/>
       <c r="E231" s="3"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -8609,8 +8642,8 @@
       <c r="A232" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>357</v>
+      <c r="B232" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>279</v>
@@ -8625,17 +8658,19 @@
       <c r="K232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="s">
-        <v>358</v>
+      <c r="A233" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D233" s="4"/>
-      <c r="E233" s="3"/>
+      <c r="E233" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
@@ -8644,19 +8679,17 @@
       <c r="K233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="C234" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D234" s="4"/>
-      <c r="E234" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
@@ -8665,16 +8698,16 @@
       <c r="K234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>361</v>
+      <c r="B235" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D235" s="4"/>
+      <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -8684,16 +8717,16 @@
       <c r="K235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B236" s="2" t="s">
+      <c r="A236" s="3" t="s">
         <v>361</v>
       </c>
+      <c r="B236" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="C236" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D236" s="4"/>
+      <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -8706,8 +8739,8 @@
       <c r="A237" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>361</v>
+      <c r="B237" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>279</v>
@@ -8723,10 +8756,10 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>279</v>
@@ -8742,10 +8775,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>279</v>
@@ -8761,10 +8794,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>279</v>
@@ -8782,8 +8815,8 @@
       <c r="A241" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>368</v>
+      <c r="B241" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>279</v>
@@ -8799,10 +8832,10 @@
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>279</v>
@@ -8818,10 +8851,10 @@
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>279</v>
@@ -8839,8 +8872,8 @@
       <c r="A244" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B244" s="5" t="s">
-        <v>17</v>
+      <c r="B244" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>279</v>
@@ -8858,8 +8891,8 @@
       <c r="A245" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>11</v>
+      <c r="B245" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>279</v>
@@ -8877,8 +8910,8 @@
       <c r="A246" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>374</v>
+      <c r="B246" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>279</v>
@@ -8893,11 +8926,11 @@
       <c r="K246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="s">
-        <v>375</v>
+      <c r="A247" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>374</v>
+        <v>11</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>279</v>
@@ -8913,10 +8946,10 @@
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>279</v>
@@ -8931,11 +8964,11 @@
       <c r="K248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="4" t="s">
-        <v>378</v>
+      <c r="A249" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>279</v>
@@ -8951,10 +8984,10 @@
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>279</v>
@@ -8970,10 +9003,10 @@
     </row>
     <row r="251">
       <c r="A251" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B251" s="2" t="s">
         <v>380</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>279</v>
@@ -8989,10 +9022,10 @@
     </row>
     <row r="252">
       <c r="A252" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>279</v>
@@ -9007,11 +9040,11 @@
       <c r="K252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B253" s="3" t="s">
+      <c r="A253" s="4" t="s">
         <v>383</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>279</v>
@@ -9027,10 +9060,10 @@
     </row>
     <row r="254">
       <c r="A254" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>279</v>
@@ -9045,11 +9078,11 @@
       <c r="K254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B255" s="2" t="s">
+      <c r="A255" s="3" t="s">
         <v>386</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>279</v>
@@ -9065,10 +9098,10 @@
     </row>
     <row r="256">
       <c r="A256" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>279</v>
@@ -9086,8 +9119,8 @@
       <c r="A257" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>390</v>
+      <c r="B257" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>279</v>
@@ -9103,10 +9136,10 @@
     </row>
     <row r="258">
       <c r="A258" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>93</v>
+        <v>390</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>279</v>
@@ -9122,10 +9155,10 @@
     </row>
     <row r="259">
       <c r="A259" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>279</v>
@@ -9144,7 +9177,7 @@
         <v>393</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>394</v>
+        <v>93</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>279</v>
@@ -9159,16 +9192,16 @@
       <c r="K260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B261" s="1" t="s">
+      <c r="A261" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="B261" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="C261" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D261" s="3"/>
+      <c r="D261" s="4"/>
       <c r="E261" s="3"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -9179,10 +9212,10 @@
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>279</v>
@@ -9197,16 +9230,16 @@
       <c r="K262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="4" t="s">
-        <v>398</v>
+      <c r="A263" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D263" s="4"/>
+      <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
@@ -9217,10 +9250,10 @@
     </row>
     <row r="264">
       <c r="A264" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>279</v>
@@ -9236,10 +9269,10 @@
     </row>
     <row r="265">
       <c r="A265" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>279</v>
@@ -9254,19 +9287,17 @@
       <c r="K265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>405</v>
+      <c r="A266" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D266" s="4"/>
-      <c r="E266" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
@@ -9275,11 +9306,11 @@
       <c r="K266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="4" t="s">
-        <v>406</v>
+      <c r="A267" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>279</v>
@@ -9295,10 +9326,10 @@
     </row>
     <row r="268">
       <c r="A268" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>279</v>
@@ -9314,10 +9345,10 @@
     </row>
     <row r="269">
       <c r="A269" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>279</v>
@@ -9332,17 +9363,19 @@
       <c r="K269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>411</v>
+      <c r="A270" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D270" s="4"/>
-      <c r="E270" s="3"/>
+      <c r="E270" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
@@ -9352,10 +9385,10 @@
     </row>
     <row r="271">
       <c r="A271" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>279</v>
@@ -9371,10 +9404,10 @@
     </row>
     <row r="272">
       <c r="A272" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>279</v>
@@ -9390,10 +9423,10 @@
     </row>
     <row r="273">
       <c r="A273" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>279</v>
@@ -9408,19 +9441,17 @@
       <c r="K273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>419</v>
+      <c r="A274" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D274" s="4"/>
-      <c r="E274" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E274" s="3"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
@@ -9430,10 +9461,10 @@
     </row>
     <row r="275">
       <c r="A275" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>279</v>
@@ -9449,10 +9480,10 @@
     </row>
     <row r="276">
       <c r="A276" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>279</v>
@@ -9468,10 +9499,10 @@
     </row>
     <row r="277">
       <c r="A277" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>279</v>
@@ -9487,16 +9518,18 @@
     </row>
     <row r="278">
       <c r="A278" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D278" s="4"/>
-      <c r="E278" s="3"/>
+      <c r="E278" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
@@ -9506,10 +9539,10 @@
     </row>
     <row r="279">
       <c r="A279" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>220</v>
+        <v>425</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>279</v>
@@ -9525,10 +9558,10 @@
     </row>
     <row r="280">
       <c r="A280" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>279</v>
@@ -9544,10 +9577,10 @@
     </row>
     <row r="281">
       <c r="A281" s="4" t="s">
-        <v>319</v>
+        <v>428</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>279</v>
@@ -9563,18 +9596,16 @@
     </row>
     <row r="282">
       <c r="A282" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="C282" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D282" s="4"/>
-      <c r="E282" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E282" s="3"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
@@ -9584,10 +9615,10 @@
     </row>
     <row r="283">
       <c r="A283" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>279</v>
@@ -9603,10 +9634,10 @@
     </row>
     <row r="284">
       <c r="A284" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>279</v>
@@ -9622,10 +9653,10 @@
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>438</v>
+        <v>319</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>279</v>
@@ -9641,16 +9672,18 @@
     </row>
     <row r="286">
       <c r="A286" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D286" s="4"/>
-      <c r="E286" s="3"/>
+      <c r="E286" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
@@ -9660,10 +9693,10 @@
     </row>
     <row r="287">
       <c r="A287" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>279</v>
@@ -9679,10 +9712,10 @@
     </row>
     <row r="288">
       <c r="A288" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>279</v>
@@ -9698,18 +9731,16 @@
     </row>
     <row r="289">
       <c r="A289" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>261</v>
+        <v>442</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D289" s="4"/>
-      <c r="E289" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E289" s="3"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
@@ -9719,10 +9750,10 @@
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>279</v>
@@ -9737,11 +9768,11 @@
       <c r="K290" s="4"/>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="s">
-        <v>448</v>
+      <c r="A291" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>112</v>
+        <v>447</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>279</v>
@@ -9757,10 +9788,10 @@
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>279</v>
@@ -9776,16 +9807,18 @@
     </row>
     <row r="293">
       <c r="A293" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D293" s="4"/>
-      <c r="E293" s="3"/>
+      <c r="E293" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
@@ -9795,10 +9828,10 @@
     </row>
     <row r="294">
       <c r="A294" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>279</v>
@@ -9813,11 +9846,11 @@
       <c r="K294" s="4"/>
     </row>
     <row r="295">
-      <c r="A295" s="4" t="s">
-        <v>455</v>
+      <c r="A295" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>456</v>
+        <v>112</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>279</v>
@@ -9833,10 +9866,10 @@
     </row>
     <row r="296">
       <c r="A296" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>279</v>
@@ -9852,18 +9885,16 @@
     </row>
     <row r="297">
       <c r="A297" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D297" s="4"/>
-      <c r="E297" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E297" s="3"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
@@ -9873,10 +9904,10 @@
     </row>
     <row r="298">
       <c r="A298" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>279</v>
@@ -9892,10 +9923,10 @@
     </row>
     <row r="299">
       <c r="A299" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>279</v>
@@ -9911,10 +9942,10 @@
     </row>
     <row r="300">
       <c r="A300" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>279</v>
@@ -9930,16 +9961,18 @@
     </row>
     <row r="301">
       <c r="A301" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D301" s="4"/>
-      <c r="E301" s="3"/>
+      <c r="E301" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
@@ -9949,10 +9982,10 @@
     </row>
     <row r="302">
       <c r="A302" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>279</v>
@@ -9968,10 +10001,10 @@
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>279</v>
@@ -9987,10 +10020,10 @@
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>279</v>
@@ -10006,10 +10039,10 @@
     </row>
     <row r="305">
       <c r="A305" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>279</v>
@@ -10025,18 +10058,16 @@
     </row>
     <row r="306">
       <c r="A306" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D306" s="4"/>
-      <c r="E306" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E306" s="3"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
@@ -10046,10 +10077,10 @@
     </row>
     <row r="307">
       <c r="A307" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>279</v>
@@ -10065,10 +10096,10 @@
     </row>
     <row r="308">
       <c r="A308" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>279</v>
@@ -10084,10 +10115,10 @@
     </row>
     <row r="309">
       <c r="A309" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>279</v>
@@ -10103,16 +10134,18 @@
     </row>
     <row r="310">
       <c r="A310" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D310" s="4"/>
-      <c r="E310" s="3"/>
+      <c r="E310" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
@@ -10122,10 +10155,10 @@
     </row>
     <row r="311">
       <c r="A311" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>279</v>
@@ -10141,10 +10174,10 @@
     </row>
     <row r="312">
       <c r="A312" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>279</v>
@@ -10160,10 +10193,10 @@
     </row>
     <row r="313">
       <c r="A313" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>279</v>
@@ -10179,18 +10212,16 @@
     </row>
     <row r="314">
       <c r="A314" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D314" s="4"/>
-      <c r="E314" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E314" s="3"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10200,10 +10231,10 @@
     </row>
     <row r="315">
       <c r="A315" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>279</v>
@@ -10219,10 +10250,10 @@
     </row>
     <row r="316">
       <c r="A316" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>279</v>
@@ -10238,10 +10269,10 @@
     </row>
     <row r="317">
       <c r="A317" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>279</v>
@@ -10257,16 +10288,18 @@
     </row>
     <row r="318">
       <c r="A318" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>1087</v>
+        <v>498</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D318" s="4"/>
-      <c r="E318" s="3"/>
+      <c r="E318" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
@@ -10276,10 +10309,10 @@
     </row>
     <row r="319">
       <c r="A319" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>279</v>
@@ -10295,10 +10328,10 @@
     </row>
     <row r="320">
       <c r="A320" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>279</v>
@@ -10314,10 +10347,10 @@
     </row>
     <row r="321">
       <c r="A321" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1088</v>
+        <v>505</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>279</v>
@@ -10332,11 +10365,11 @@
       <c r="K321" s="4"/>
     </row>
     <row r="322">
-      <c r="A322" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>120</v>
+      <c r="A322" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>1098</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>279</v>
@@ -10351,16 +10384,16 @@
       <c r="K322" s="4"/>
     </row>
     <row r="323">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B323" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B323" s="3" t="s">
-        <v>509</v>
-      </c>
       <c r="C323" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D323" s="3"/>
+      <c r="D323" s="4"/>
       <c r="E323" s="3"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -10370,16 +10403,16 @@
       <c r="K323" s="4"/>
     </row>
     <row r="324">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B324" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="C324" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D324" s="3"/>
+      <c r="D324" s="4"/>
       <c r="E324" s="3"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -10389,16 +10422,16 @@
       <c r="K324" s="4"/>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>513</v>
+      <c r="A325" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>1099</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D325" s="3"/>
+      <c r="D325" s="4"/>
       <c r="E325" s="3"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
@@ -10409,15 +10442,15 @@
     </row>
     <row r="326">
       <c r="A326" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>515</v>
+        <v>120</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D326" s="3"/>
+      <c r="D326" s="4"/>
       <c r="E326" s="3"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
@@ -10428,10 +10461,10 @@
     </row>
     <row r="327">
       <c r="A327" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>279</v>
@@ -10447,10 +10480,10 @@
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>279</v>
@@ -10466,10 +10499,10 @@
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>279</v>
@@ -10485,10 +10518,10 @@
     </row>
     <row r="330">
       <c r="A330" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>279</v>
@@ -10503,16 +10536,16 @@
       <c r="K330" s="4"/>
     </row>
     <row r="331">
-      <c r="A331" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>105</v>
+      <c r="A331" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D331" s="4"/>
+      <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
@@ -10522,16 +10555,16 @@
       <c r="K331" s="4"/>
     </row>
     <row r="332">
-      <c r="A332" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>105</v>
+      <c r="A332" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D332" s="4"/>
+      <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
@@ -10541,16 +10574,16 @@
       <c r="K332" s="4"/>
     </row>
     <row r="333">
-      <c r="A333" s="4" t="s">
+      <c r="A333" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B333" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B333" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C333" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D333" s="4"/>
+      <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
@@ -10617,7 +10650,7 @@
       <c r="K336" s="4"/>
     </row>
     <row r="337">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="4" t="s">
         <v>530</v>
       </c>
       <c r="B337" s="4" t="s">
@@ -10659,7 +10692,7 @@
         <v>532</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>1089</v>
+        <v>105</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>279</v>
@@ -10674,7 +10707,7 @@
       <c r="K339" s="4"/>
     </row>
     <row r="340">
-      <c r="A340" s="4" t="s">
+      <c r="A340" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B340" s="4" t="s">
@@ -10716,7 +10749,7 @@
         <v>535</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>279</v>
@@ -10735,7 +10768,7 @@
         <v>536</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1091</v>
+        <v>105</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>279</v>
@@ -10754,7 +10787,7 @@
         <v>537</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1092</v>
+        <v>105</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>279</v>
@@ -10773,7 +10806,7 @@
         <v>538</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>279</v>
@@ -10792,7 +10825,7 @@
         <v>539</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>279</v>
@@ -10811,7 +10844,7 @@
         <v>540</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>105</v>
+        <v>1103</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>279</v>
@@ -10830,7 +10863,7 @@
         <v>541</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1095</v>
+        <v>1104</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>279</v>
@@ -10849,7 +10882,7 @@
         <v>542</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>543</v>
+        <v>1105</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>279</v>
@@ -10865,10 +10898,10 @@
     </row>
     <row r="350">
       <c r="A350" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>279</v>
@@ -10884,10 +10917,10 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>547</v>
+        <v>1106</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>279</v>
@@ -10903,10 +10936,10 @@
     </row>
     <row r="352">
       <c r="A352" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1096</v>
+        <v>546</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>279</v>
@@ -10922,10 +10955,10 @@
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>347</v>
+        <v>548</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>279</v>
@@ -10941,10 +10974,10 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>279</v>
@@ -10963,7 +10996,7 @@
         <v>551</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>279</v>
@@ -10979,10 +11012,10 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>1098</v>
+        <v>552</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>279</v>
@@ -10998,10 +11031,10 @@
     </row>
     <row r="357">
       <c r="A357" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="B357" s="4" t="s">
         <v>553</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>279</v>
@@ -11020,7 +11053,7 @@
         <v>554</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>334</v>
+        <v>1108</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>279</v>
@@ -11036,10 +11069,10 @@
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>279</v>
@@ -11054,16 +11087,16 @@
       <c r="K359" s="4"/>
     </row>
     <row r="360">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B360" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B360" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="C360" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D360" s="3"/>
+      <c r="D360" s="4"/>
       <c r="E360" s="3"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
@@ -11077,7 +11110,7 @@
         <v>557</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1100</v>
+        <v>335</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>279</v>
@@ -11096,7 +11129,7 @@
         <v>558</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>279</v>
@@ -11111,16 +11144,16 @@
       <c r="K362" s="4"/>
     </row>
     <row r="363">
-      <c r="A363" s="4" t="s">
+      <c r="A363" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1102</v>
+        <v>335</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D363" s="4"/>
+      <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -11134,7 +11167,7 @@
         <v>560</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>279</v>
@@ -11153,7 +11186,7 @@
         <v>561</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>279</v>
@@ -11172,7 +11205,7 @@
         <v>562</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>563</v>
+        <v>1113</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>279</v>
@@ -11188,10 +11221,10 @@
     </row>
     <row r="367">
       <c r="A367" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>480</v>
+        <v>1114</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>279</v>
@@ -11207,10 +11240,10 @@
     </row>
     <row r="368">
       <c r="A368" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>480</v>
+        <v>1115</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>279</v>
@@ -11226,10 +11259,10 @@
     </row>
     <row r="369">
       <c r="A369" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B369" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B369" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>279</v>
@@ -11244,16 +11277,16 @@
       <c r="K369" s="4"/>
     </row>
     <row r="370">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B370" s="3" t="s">
-        <v>482</v>
+      <c r="B370" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D370" s="3"/>
+      <c r="D370" s="4"/>
       <c r="E370" s="3"/>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
@@ -11267,7 +11300,7 @@
         <v>568</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>279</v>
@@ -11286,7 +11319,7 @@
         <v>569</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1105</v>
+        <v>485</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>279</v>
@@ -11301,16 +11334,16 @@
       <c r="K372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="4" t="s">
+      <c r="A373" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B373" s="4" t="s">
-        <v>1106</v>
+      <c r="B373" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D373" s="4"/>
+      <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
@@ -11324,7 +11357,7 @@
         <v>571</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>357</v>
+        <v>487</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>279</v>
@@ -11343,7 +11376,7 @@
         <v>572</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>573</v>
+        <v>1116</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>279</v>
@@ -11359,10 +11392,10 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="B376" s="1" t="s">
         <v>573</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>1117</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>279</v>
@@ -11378,10 +11411,10 @@
     </row>
     <row r="377">
       <c r="A377" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1107</v>
+        <v>341</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>279</v>
@@ -11397,10 +11430,10 @@
     </row>
     <row r="378">
       <c r="A378" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>279</v>
@@ -11418,8 +11451,8 @@
       <c r="A379" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B379" s="4" t="s">
-        <v>1108</v>
+      <c r="B379" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>279</v>
@@ -11438,7 +11471,7 @@
         <v>578</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>579</v>
+        <v>1118</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>279</v>
@@ -11454,18 +11487,16 @@
     </row>
     <row r="381">
       <c r="A381" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D381" s="4"/>
-      <c r="E381" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E381" s="3"/>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
@@ -11474,11 +11505,11 @@
       <c r="K381" s="4"/>
     </row>
     <row r="382">
-      <c r="A382" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>583</v>
+      <c r="A382" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>1119</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>279</v>
@@ -11494,10 +11525,10 @@
     </row>
     <row r="383">
       <c r="A383" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>279</v>
@@ -11513,16 +11544,18 @@
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1109</v>
+        <v>584</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D384" s="4"/>
-      <c r="E384" s="3"/>
+      <c r="E384" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
@@ -11531,11 +11564,11 @@
       <c r="K384" s="4"/>
     </row>
     <row r="385">
-      <c r="A385" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>1110</v>
+      <c r="A385" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>279</v>
@@ -11551,10 +11584,10 @@
     </row>
     <row r="386">
       <c r="A386" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B386" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>1111</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>279</v>
@@ -11573,7 +11606,7 @@
         <v>589</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>590</v>
+        <v>1120</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>279</v>
@@ -11589,10 +11622,10 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>592</v>
+        <v>1121</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>279</v>
@@ -11608,10 +11641,10 @@
     </row>
     <row r="389">
       <c r="A389" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>594</v>
+        <v>1122</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>279</v>
@@ -11627,10 +11660,10 @@
     </row>
     <row r="390">
       <c r="A390" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1112</v>
+        <v>593</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>279</v>
@@ -11646,10 +11679,10 @@
     </row>
     <row r="391">
       <c r="A391" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>150</v>
+        <v>594</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>279</v>
@@ -11665,10 +11698,10 @@
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B392" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>279</v>
@@ -11684,10 +11717,10 @@
     </row>
     <row r="393">
       <c r="A393" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>279</v>
@@ -11703,10 +11736,10 @@
     </row>
     <row r="394">
       <c r="A394" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>1114</v>
+        <v>599</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>279</v>
@@ -11722,10 +11755,10 @@
     </row>
     <row r="395">
       <c r="A395" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B395" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="B395" s="4" t="s">
-        <v>602</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>279</v>
@@ -11741,10 +11774,10 @@
     </row>
     <row r="396">
       <c r="A396" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>604</v>
+        <v>1124</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>279</v>
@@ -11760,10 +11793,10 @@
     </row>
     <row r="397">
       <c r="A397" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>279</v>
@@ -11779,10 +11812,10 @@
     </row>
     <row r="398">
       <c r="A398" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1116</v>
+        <v>605</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>279</v>
@@ -11798,10 +11831,10 @@
     </row>
     <row r="399">
       <c r="A399" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B399" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>279</v>
@@ -11820,7 +11853,7 @@
         <v>608</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>609</v>
+        <v>1126</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>279</v>
@@ -11836,10 +11869,10 @@
     </row>
     <row r="401">
       <c r="A401" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>279</v>
@@ -11855,10 +11888,10 @@
     </row>
     <row r="402">
       <c r="A402" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1118</v>
+        <v>324</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>279</v>
@@ -11874,10 +11907,10 @@
     </row>
     <row r="403">
       <c r="A403" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B403" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>1119</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>279</v>
@@ -11896,7 +11929,7 @@
         <v>613</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>279</v>
@@ -11915,7 +11948,7 @@
         <v>614</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>279</v>
@@ -11934,7 +11967,7 @@
         <v>615</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>279</v>
@@ -11953,7 +11986,7 @@
         <v>616</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>279</v>
@@ -11972,7 +12005,7 @@
         <v>617</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>618</v>
+        <v>1132</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>279</v>
@@ -11988,10 +12021,10 @@
     </row>
     <row r="409">
       <c r="A409" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>620</v>
+        <v>1133</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>279</v>
@@ -12007,10 +12040,10 @@
     </row>
     <row r="410">
       <c r="A410" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>488</v>
+        <v>1134</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>279</v>
@@ -12026,10 +12059,10 @@
     </row>
     <row r="411">
       <c r="A411" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>279</v>
@@ -12045,10 +12078,10 @@
     </row>
     <row r="412">
       <c r="A412" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1124</v>
+        <v>623</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>279</v>
@@ -12064,10 +12097,10 @@
     </row>
     <row r="413">
       <c r="A413" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>97</v>
+        <v>624</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>279</v>
@@ -12083,10 +12116,10 @@
     </row>
     <row r="414">
       <c r="A414" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B414" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>279</v>
@@ -12102,10 +12135,10 @@
     </row>
     <row r="415">
       <c r="A415" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>279</v>
@@ -12121,10 +12154,10 @@
     </row>
     <row r="416">
       <c r="A416" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="B416" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>279</v>
@@ -12139,16 +12172,16 @@
       <c r="K416" s="4"/>
     </row>
     <row r="417">
-      <c r="A417" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>632</v>
+      <c r="A417" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D417" s="3"/>
+      <c r="D417" s="4"/>
       <c r="E417" s="3"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
@@ -12158,16 +12191,16 @@
       <c r="K417" s="4"/>
     </row>
     <row r="418">
-      <c r="A418" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>394</v>
+      <c r="A418" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>1136</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D418" s="3"/>
+      <c r="D418" s="4"/>
       <c r="E418" s="3"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
@@ -12177,16 +12210,16 @@
       <c r="K418" s="4"/>
     </row>
     <row r="419">
-      <c r="A419" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>635</v>
+      <c r="A419" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>633</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D419" s="3"/>
+      <c r="D419" s="4"/>
       <c r="E419" s="3"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
@@ -12197,10 +12230,10 @@
     </row>
     <row r="420">
       <c r="A420" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>279</v>
@@ -12216,10 +12249,10 @@
     </row>
     <row r="421">
       <c r="A421" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>511</v>
+        <v>396</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>279</v>
@@ -12235,10 +12268,10 @@
     </row>
     <row r="422">
       <c r="A422" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>279</v>
@@ -12254,10 +12287,10 @@
     </row>
     <row r="423">
       <c r="A423" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>361</v>
+        <v>640</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>279</v>
@@ -12273,10 +12306,10 @@
     </row>
     <row r="424">
       <c r="A424" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>39</v>
+        <v>516</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>279</v>
@@ -12291,16 +12324,16 @@
       <c r="K424" s="4"/>
     </row>
     <row r="425">
-      <c r="A425" s="4" t="s">
+      <c r="A425" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B425" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B425" s="4" t="s">
-        <v>644</v>
-      </c>
       <c r="C425" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D425" s="4"/>
+      <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
@@ -12310,16 +12343,16 @@
       <c r="K425" s="4"/>
     </row>
     <row r="426">
-      <c r="A426" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>105</v>
+      <c r="A426" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D426" s="4"/>
+      <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
@@ -12329,16 +12362,16 @@
       <c r="K426" s="4"/>
     </row>
     <row r="427">
-      <c r="A427" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>105</v>
+      <c r="A427" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D427" s="4"/>
+      <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
@@ -12348,17 +12381,19 @@
       <c r="K427" s="4"/>
     </row>
     <row r="428">
-      <c r="A428" s="4" t="s">
+      <c r="A428" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B428" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B428" s="4" t="s">
-        <v>1126</v>
-      </c>
       <c r="C428" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D428" s="4"/>
-      <c r="E428" s="3"/>
+      <c r="D428" s="3"/>
+      <c r="E428" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
@@ -12367,19 +12402,17 @@
       <c r="K428" s="4"/>
     </row>
     <row r="429">
-      <c r="A429" s="4" t="s">
+      <c r="A429" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B429" s="4" t="s">
-        <v>105</v>
+      <c r="B429" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D429" s="4"/>
-      <c r="E429" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="D429" s="3"/>
+      <c r="E429" s="3"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
@@ -12389,10 +12422,10 @@
     </row>
     <row r="430">
       <c r="A430" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>105</v>
+        <v>650</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>651</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>279</v>
@@ -12408,9 +12441,9 @@
     </row>
     <row r="431">
       <c r="A431" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="B431" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B431" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C431" s="2" t="s">
@@ -12427,9 +12460,9 @@
     </row>
     <row r="432">
       <c r="A432" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B432" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B432" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C432" s="2" t="s">
@@ -12446,10 +12479,10 @@
     </row>
     <row r="433">
       <c r="A433" s="4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>105</v>
+        <v>1137</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>279</v>
@@ -12465,16 +12498,18 @@
     </row>
     <row r="434">
       <c r="A434" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B434" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B434" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D434" s="4"/>
-      <c r="E434" s="3"/>
+      <c r="E434" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
@@ -12484,9 +12519,9 @@
     </row>
     <row r="435">
       <c r="A435" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="B435" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C435" s="2" t="s">
@@ -12503,9 +12538,9 @@
     </row>
     <row r="436">
       <c r="A436" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="B436" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C436" s="2" t="s">
@@ -12522,9 +12557,9 @@
     </row>
     <row r="437">
       <c r="A437" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="B437" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C437" s="2" t="s">
@@ -12541,7 +12576,7 @@
     </row>
     <row r="438">
       <c r="A438" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>105</v>
@@ -12560,9 +12595,9 @@
     </row>
     <row r="439">
       <c r="A439" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B439" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C439" s="2" t="s">
@@ -12579,7 +12614,7 @@
     </row>
     <row r="440">
       <c r="A440" s="4" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B440" s="4" t="s">
         <v>105</v>
@@ -12598,7 +12633,7 @@
     </row>
     <row r="441">
       <c r="A441" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>105</v>
@@ -12617,7 +12652,7 @@
     </row>
     <row r="442">
       <c r="A442" s="4" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>105</v>
@@ -12636,7 +12671,7 @@
     </row>
     <row r="443">
       <c r="A443" s="4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B443" s="4" t="s">
         <v>105</v>
@@ -12655,9 +12690,9 @@
     </row>
     <row r="444">
       <c r="A444" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="B444" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B444" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C444" s="2" t="s">
@@ -12674,9 +12709,9 @@
     </row>
     <row r="445">
       <c r="A445" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="B445" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B445" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C445" s="2" t="s">
@@ -12693,7 +12728,7 @@
     </row>
     <row r="446">
       <c r="A446" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>105</v>
@@ -12712,7 +12747,7 @@
     </row>
     <row r="447">
       <c r="A447" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>105</v>
@@ -12731,9 +12766,9 @@
     </row>
     <row r="448">
       <c r="A448" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="B448" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B448" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C448" s="2" t="s">
@@ -12750,15 +12785,15 @@
     </row>
     <row r="449">
       <c r="A449" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B449" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D449" s="3"/>
+      <c r="D449" s="4"/>
       <c r="E449" s="3"/>
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
@@ -12769,10 +12804,10 @@
     </row>
     <row r="450">
       <c r="A450" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B450" s="4" t="s">
-        <v>334</v>
+        <v>671</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>279</v>
@@ -12788,10 +12823,10 @@
     </row>
     <row r="451">
       <c r="A451" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>279</v>
@@ -12807,10 +12842,10 @@
     </row>
     <row r="452">
       <c r="A452" s="4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>279</v>
@@ -12826,10 +12861,10 @@
     </row>
     <row r="453">
       <c r="A453" s="4" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>279</v>
@@ -12844,16 +12879,16 @@
       <c r="K453" s="4"/>
     </row>
     <row r="454">
-      <c r="A454" s="3" t="s">
-        <v>673</v>
+      <c r="A454" s="4" t="s">
+        <v>675</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D454" s="4"/>
+      <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
@@ -12864,10 +12899,10 @@
     </row>
     <row r="455">
       <c r="A455" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>279</v>
@@ -12883,10 +12918,10 @@
     </row>
     <row r="456">
       <c r="A456" s="4" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>279</v>
@@ -12902,10 +12937,10 @@
     </row>
     <row r="457">
       <c r="A457" s="4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>279</v>
@@ -12921,10 +12956,10 @@
     </row>
     <row r="458">
       <c r="A458" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="B458" s="4" t="s">
-        <v>290</v>
+        <v>679</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>279</v>
@@ -12939,11 +12974,11 @@
       <c r="K458" s="4"/>
     </row>
     <row r="459">
-      <c r="A459" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>290</v>
+      <c r="A459" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>279</v>
@@ -12959,10 +12994,10 @@
     </row>
     <row r="460">
       <c r="A460" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>279</v>
@@ -12978,10 +13013,10 @@
     </row>
     <row r="461">
       <c r="A461" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>347</v>
+        <v>682</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>279</v>
@@ -12996,16 +13031,16 @@
       <c r="K461" s="4"/>
     </row>
     <row r="462">
-      <c r="A462" s="3" t="s">
-        <v>681</v>
+      <c r="A462" s="4" t="s">
+        <v>683</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D462" s="3"/>
+      <c r="D462" s="4"/>
       <c r="E462" s="3"/>
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
@@ -13015,16 +13050,16 @@
       <c r="K462" s="4"/>
     </row>
     <row r="463">
-      <c r="A463" s="3" t="s">
-        <v>682</v>
+      <c r="A463" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D463" s="3"/>
+      <c r="D463" s="4"/>
       <c r="E463" s="3"/>
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
@@ -13035,10 +13070,10 @@
     </row>
     <row r="464">
       <c r="A464" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="B464" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>279</v>
@@ -13054,7 +13089,7 @@
     </row>
     <row r="465">
       <c r="A465" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B465" s="4" t="s">
         <v>353</v>
@@ -13073,9 +13108,9 @@
     </row>
     <row r="466">
       <c r="A466" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B466" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B466" s="3" t="s">
         <v>353</v>
       </c>
       <c r="C466" s="2" t="s">
@@ -13092,15 +13127,15 @@
     </row>
     <row r="467">
       <c r="A467" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B467" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B467" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D467" s="4"/>
+      <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
@@ -13110,16 +13145,16 @@
       <c r="K467" s="4"/>
     </row>
     <row r="468">
-      <c r="A468" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="B468" s="1" t="s">
+      <c r="A468" s="3" t="s">
         <v>689</v>
       </c>
+      <c r="B468" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="C468" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D468" s="4"/>
+      <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
@@ -13129,11 +13164,11 @@
       <c r="K468" s="4"/>
     </row>
     <row r="469">
-      <c r="A469" s="3" t="s">
+      <c r="A469" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="B469" s="3" t="s">
-        <v>187</v>
+      <c r="B469" s="4" t="s">
+        <v>691</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>279</v>
@@ -13148,11 +13183,11 @@
       <c r="K469" s="4"/>
     </row>
     <row r="470">
-      <c r="A470" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>187</v>
+      <c r="A470" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>279</v>
@@ -13167,11 +13202,11 @@
       <c r="K470" s="4"/>
     </row>
     <row r="471">
-      <c r="A471" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>187</v>
+      <c r="A471" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>279</v>
@@ -13186,11 +13221,11 @@
       <c r="K471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="4" t="s">
-        <v>693</v>
+      <c r="A472" s="3" t="s">
+        <v>694</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>517</v>
+        <v>359</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>279</v>
@@ -13206,18 +13241,16 @@
     </row>
     <row r="473">
       <c r="A473" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>517</v>
+        <v>696</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D473" s="4"/>
-      <c r="E473" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E473" s="3"/>
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
@@ -13227,10 +13260,10 @@
     </row>
     <row r="474">
       <c r="A474" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>517</v>
+        <v>697</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>279</v>
@@ -13245,11 +13278,11 @@
       <c r="K474" s="4"/>
     </row>
     <row r="475">
-      <c r="A475" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>697</v>
+      <c r="A475" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>279</v>
@@ -13264,11 +13297,11 @@
       <c r="K475" s="4"/>
     </row>
     <row r="476">
-      <c r="A476" s="4" t="s">
-        <v>698</v>
+      <c r="A476" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>697</v>
+        <v>187</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>279</v>
@@ -13283,16 +13316,16 @@
       <c r="K476" s="4"/>
     </row>
     <row r="477">
-      <c r="A477" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>697</v>
+      <c r="A477" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D477" s="3"/>
+      <c r="D477" s="4"/>
       <c r="E477" s="3"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
@@ -13303,16 +13336,18 @@
     </row>
     <row r="478">
       <c r="A478" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>701</v>
+        <v>522</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D478" s="4"/>
-      <c r="E478" s="3"/>
+      <c r="E478" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
@@ -13321,11 +13356,11 @@
       <c r="K478" s="4"/>
     </row>
     <row r="479">
-      <c r="A479" s="4" t="s">
+      <c r="A479" s="3" t="s">
         <v>702</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>701</v>
+        <v>522</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>279</v>
@@ -13344,7 +13379,7 @@
         <v>703</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>279</v>
@@ -13360,10 +13395,10 @@
     </row>
     <row r="481">
       <c r="A481" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B481" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>279</v>
@@ -13378,11 +13413,11 @@
       <c r="K481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>313</v>
+      <c r="A482" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>279</v>
@@ -13398,15 +13433,15 @@
     </row>
     <row r="483">
       <c r="A483" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>313</v>
+        <v>708</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D483" s="3"/>
+      <c r="D483" s="4"/>
       <c r="E483" s="3"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
@@ -13417,7 +13452,7 @@
     </row>
     <row r="484">
       <c r="A484" s="4" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>708</v>
@@ -13436,9 +13471,9 @@
     </row>
     <row r="485">
       <c r="A485" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="B485" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C485" s="2" t="s">
@@ -13454,16 +13489,16 @@
       <c r="K485" s="4"/>
     </row>
     <row r="486">
-      <c r="A486" s="3" t="s">
-        <v>710</v>
+      <c r="A486" s="4" t="s">
+        <v>711</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>708</v>
+        <v>313</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D486" s="3"/>
+      <c r="D486" s="4"/>
       <c r="E486" s="3"/>
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
@@ -13474,15 +13509,15 @@
     </row>
     <row r="487">
       <c r="A487" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="B487" s="4" t="s">
-        <v>1127</v>
+        <v>712</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D487" s="4"/>
+      <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
@@ -13493,15 +13528,15 @@
     </row>
     <row r="488">
       <c r="A488" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="B488" s="4" t="s">
-        <v>340</v>
+        <v>713</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D488" s="4"/>
+      <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
@@ -13512,10 +13547,10 @@
     </row>
     <row r="489">
       <c r="A489" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>279</v>
@@ -13530,11 +13565,11 @@
       <c r="K489" s="4"/>
     </row>
     <row r="490">
-      <c r="A490" s="4" t="s">
-        <v>714</v>
+      <c r="A490" s="3" t="s">
+        <v>715</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>279</v>
@@ -13549,11 +13584,11 @@
       <c r="K490" s="4"/>
     </row>
     <row r="491">
-      <c r="A491" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="B491" s="4" t="s">
-        <v>1128</v>
+      <c r="A491" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>279</v>
@@ -13569,10 +13604,10 @@
     </row>
     <row r="492">
       <c r="A492" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>364</v>
+        <v>718</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>279</v>
@@ -13588,10 +13623,10 @@
     </row>
     <row r="493">
       <c r="A493" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>474</v>
+        <v>719</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>279</v>
@@ -13606,16 +13641,16 @@
       <c r="K493" s="4"/>
     </row>
     <row r="494">
-      <c r="A494" s="4" t="s">
+      <c r="A494" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B494" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="C494" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D494" s="4"/>
+      <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
@@ -13626,10 +13661,10 @@
     </row>
     <row r="495">
       <c r="A495" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>604</v>
+        <v>721</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>1138</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>279</v>
@@ -13645,10 +13680,10 @@
     </row>
     <row r="496">
       <c r="A496" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>604</v>
+        <v>722</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>279</v>
@@ -13664,10 +13699,10 @@
     </row>
     <row r="497">
       <c r="A497" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>279</v>
@@ -13683,10 +13718,10 @@
     </row>
     <row r="498">
       <c r="A498" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="B498" s="4" t="s">
-        <v>120</v>
+        <v>724</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>279</v>
@@ -13702,10 +13737,10 @@
     </row>
     <row r="499">
       <c r="A499" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>1139</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>279</v>
@@ -13721,10 +13756,10 @@
     </row>
     <row r="500">
       <c r="A500" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>724</v>
+        <v>366</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>279</v>
@@ -13740,10 +13775,10 @@
     </row>
     <row r="501">
       <c r="A501" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>602</v>
+        <v>727</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>279</v>
@@ -13759,18 +13794,16 @@
     </row>
     <row r="502">
       <c r="A502" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>602</v>
+        <v>728</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D502" s="4"/>
-      <c r="E502" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E502" s="3"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
@@ -13780,10 +13813,10 @@
     </row>
     <row r="503">
       <c r="A503" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>458</v>
+        <v>607</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>279</v>
@@ -13799,10 +13832,10 @@
     </row>
     <row r="504">
       <c r="A504" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>458</v>
+        <v>730</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>279</v>
@@ -13818,10 +13851,10 @@
     </row>
     <row r="505">
       <c r="A505" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>323</v>
+        <v>120</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>279</v>
@@ -13836,11 +13869,11 @@
       <c r="K505" s="4"/>
     </row>
     <row r="506">
-      <c r="A506" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>323</v>
+      <c r="A506" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>279</v>
@@ -13856,10 +13889,10 @@
     </row>
     <row r="507">
       <c r="A507" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>583</v>
+        <v>733</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>734</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>279</v>
@@ -13874,11 +13907,11 @@
       <c r="K507" s="4"/>
     </row>
     <row r="508">
-      <c r="A508" s="3" t="s">
-        <v>733</v>
+      <c r="A508" s="4" t="s">
+        <v>735</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>583</v>
+        <v>734</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>279</v>
@@ -13894,10 +13927,10 @@
     </row>
     <row r="509">
       <c r="A509" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="B509" s="4" t="s">
-        <v>374</v>
+        <v>736</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>279</v>
@@ -13913,16 +13946,18 @@
     </row>
     <row r="510">
       <c r="A510" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="B510" s="4" t="s">
-        <v>374</v>
+        <v>737</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D510" s="4"/>
-      <c r="E510" s="3"/>
+      <c r="E510" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
@@ -13932,10 +13967,10 @@
     </row>
     <row r="511">
       <c r="A511" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="B511" s="4" t="s">
-        <v>235</v>
+        <v>738</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>279</v>
@@ -13950,19 +13985,17 @@
       <c r="K511" s="4"/>
     </row>
     <row r="512">
-      <c r="A512" s="3" t="s">
-        <v>737</v>
+      <c r="A512" s="4" t="s">
+        <v>739</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>235</v>
+        <v>463</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D512" s="4"/>
-      <c r="E512" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E512" s="3"/>
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
@@ -13972,10 +14005,10 @@
     </row>
     <row r="513">
       <c r="A513" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="B513" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>279</v>
@@ -13991,10 +14024,10 @@
     </row>
     <row r="514">
       <c r="A514" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B514" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>279</v>
@@ -14010,10 +14043,10 @@
     </row>
     <row r="515">
       <c r="A515" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>279</v>
@@ -14028,16 +14061,16 @@
       <c r="K515" s="4"/>
     </row>
     <row r="516">
-      <c r="A516" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>144</v>
+      <c r="A516" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D516" s="3"/>
+      <c r="D516" s="4"/>
       <c r="E516" s="3"/>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
@@ -14048,10 +14081,10 @@
     </row>
     <row r="517">
       <c r="A517" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B517" s="5" t="s">
-        <v>426</v>
+        <v>744</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>279</v>
@@ -14067,16 +14100,18 @@
     </row>
     <row r="518">
       <c r="A518" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D518" s="4"/>
-      <c r="E518" s="3"/>
+      <c r="E518" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
@@ -14086,18 +14121,16 @@
     </row>
     <row r="519">
       <c r="A519" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="B519" s="4" t="s">
-        <v>340</v>
+        <v>746</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>747</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D519" s="4"/>
-      <c r="E519" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E519" s="3"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
@@ -14106,10 +14139,10 @@
       <c r="K519" s="4"/>
     </row>
     <row r="520">
-      <c r="A520" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="B520" s="1" t="s">
+      <c r="A520" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B520" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C520" s="2" t="s">
@@ -14126,10 +14159,10 @@
     </row>
     <row r="521">
       <c r="A521" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>563</v>
+        <v>144</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>279</v>
@@ -14144,16 +14177,16 @@
       <c r="K521" s="4"/>
     </row>
     <row r="522">
-      <c r="A522" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B522" s="4" t="s">
+      <c r="A522" s="3" t="s">
         <v>750</v>
       </c>
+      <c r="B522" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="C522" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D522" s="4"/>
+      <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
@@ -14166,8 +14199,8 @@
       <c r="A523" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B523" s="1" t="s">
-        <v>287</v>
+      <c r="B523" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>279</v>
@@ -14182,11 +14215,11 @@
       <c r="K523" s="4"/>
     </row>
     <row r="524">
-      <c r="A524" s="4" t="s">
+      <c r="A524" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B524" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>279</v>
@@ -14202,16 +14235,18 @@
     </row>
     <row r="525">
       <c r="A525" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>417</v>
+        <v>753</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D525" s="4"/>
-      <c r="E525" s="3"/>
+      <c r="E525" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
@@ -14220,16 +14255,16 @@
       <c r="K525" s="4"/>
     </row>
     <row r="526">
-      <c r="A526" s="3" t="s">
+      <c r="A526" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B526" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>756</v>
-      </c>
       <c r="C526" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D526" s="3"/>
+      <c r="D526" s="4"/>
       <c r="E526" s="3"/>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
@@ -14240,10 +14275,10 @@
     </row>
     <row r="527">
       <c r="A527" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>758</v>
+        <v>566</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>279</v>
@@ -14259,10 +14294,10 @@
     </row>
     <row r="528">
       <c r="A528" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>112</v>
+        <v>757</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>758</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>279</v>
@@ -14278,10 +14313,10 @@
     </row>
     <row r="529">
       <c r="A529" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="B529" s="4" t="s">
-        <v>438</v>
+        <v>759</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>279</v>
@@ -14297,10 +14332,10 @@
     </row>
     <row r="530">
       <c r="A530" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B530" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="B530" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>279</v>
@@ -14319,7 +14354,7 @@
         <v>762</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>763</v>
+        <v>422</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>279</v>
@@ -14334,16 +14369,16 @@
       <c r="K531" s="4"/>
     </row>
     <row r="532">
-      <c r="A532" s="4" t="s">
+      <c r="A532" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B532" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B532" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="C532" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D532" s="4"/>
+      <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
@@ -14356,8 +14391,8 @@
       <c r="A533" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>498</v>
+      <c r="B533" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>279</v>
@@ -14373,10 +14408,10 @@
     </row>
     <row r="534">
       <c r="A534" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B534" s="1" t="s">
         <v>767</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>279</v>
@@ -14394,8 +14429,8 @@
       <c r="A535" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B535" s="1" t="s">
-        <v>627</v>
+      <c r="B535" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>279</v>
@@ -14413,8 +14448,8 @@
       <c r="A536" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B536" s="1" t="s">
-        <v>770</v>
+      <c r="B536" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>279</v>
@@ -14430,10 +14465,10 @@
     </row>
     <row r="537">
       <c r="A537" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B537" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>279</v>
@@ -14449,10 +14484,10 @@
     </row>
     <row r="538">
       <c r="A538" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="B538" s="3" t="s">
-        <v>269</v>
+        <v>772</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>279</v>
@@ -14468,10 +14503,10 @@
     </row>
     <row r="539">
       <c r="A539" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>139</v>
+        <v>503</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>279</v>
@@ -14487,10 +14522,10 @@
     </row>
     <row r="540">
       <c r="A540" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B540" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="B540" s="4" t="s">
-        <v>776</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>279</v>
@@ -14506,10 +14541,10 @@
     </row>
     <row r="541">
       <c r="A541" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>778</v>
+        <v>630</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>279</v>
@@ -14525,10 +14560,10 @@
     </row>
     <row r="542">
       <c r="A542" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="B542" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>279</v>
@@ -14544,10 +14579,10 @@
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B543" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>279</v>
@@ -14563,10 +14598,10 @@
     </row>
     <row r="544">
       <c r="A544" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="B544" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>279</v>
@@ -14582,10 +14617,10 @@
     </row>
     <row r="545">
       <c r="A545" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>279</v>
@@ -14601,10 +14636,10 @@
     </row>
     <row r="546">
       <c r="A546" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>784</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>279</v>
@@ -14620,10 +14655,10 @@
     </row>
     <row r="547">
       <c r="A547" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B547" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>786</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>279</v>
@@ -14639,10 +14674,10 @@
     </row>
     <row r="548">
       <c r="A548" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>788</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>279</v>
@@ -14658,10 +14693,10 @@
     </row>
     <row r="549">
       <c r="A549" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>279</v>
@@ -14677,10 +14712,10 @@
     </row>
     <row r="550">
       <c r="A550" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>279</v>
@@ -14696,10 +14731,10 @@
     </row>
     <row r="551">
       <c r="A551" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="B551" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>279</v>
@@ -14715,10 +14750,10 @@
     </row>
     <row r="552">
       <c r="A552" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>795</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>279</v>
@@ -14734,10 +14769,10 @@
     </row>
     <row r="553">
       <c r="A553" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>797</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>279</v>
@@ -14753,10 +14788,10 @@
     </row>
     <row r="554">
       <c r="A554" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="B554" s="4" t="s">
-        <v>434</v>
+        <v>798</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>279</v>
@@ -14772,10 +14807,10 @@
     </row>
     <row r="555">
       <c r="A555" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>279</v>
@@ -14790,11 +14825,11 @@
       <c r="K555" s="4"/>
     </row>
     <row r="556">
-      <c r="A556" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>806</v>
+      <c r="A556" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>803</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>279</v>
@@ -14810,10 +14845,10 @@
     </row>
     <row r="557">
       <c r="A557" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="B557" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>805</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>279</v>
@@ -14829,10 +14864,10 @@
     </row>
     <row r="558">
       <c r="A558" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="B558" s="4" t="s">
-        <v>810</v>
+        <v>806</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>279</v>
@@ -14848,10 +14883,10 @@
     </row>
     <row r="559">
       <c r="A559" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="B559" s="4" t="s">
-        <v>361</v>
+        <v>808</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>279</v>
@@ -14867,10 +14902,10 @@
     </row>
     <row r="560">
       <c r="A560" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>623</v>
+        <v>439</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>279</v>
@@ -14885,11 +14920,11 @@
       <c r="K560" s="4"/>
     </row>
     <row r="561">
-      <c r="A561" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>814</v>
+      <c r="A561" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>812</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>279</v>
@@ -14904,11 +14939,11 @@
       <c r="K561" s="4"/>
     </row>
     <row r="562">
-      <c r="A562" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>816</v>
+      <c r="A562" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>814</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>279</v>
@@ -14924,10 +14959,10 @@
     </row>
     <row r="563">
       <c r="A563" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>279</v>
@@ -14943,10 +14978,10 @@
     </row>
     <row r="564">
       <c r="A564" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>279</v>
@@ -14961,11 +14996,11 @@
       <c r="K564" s="4"/>
     </row>
     <row r="565">
-      <c r="A565" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="B565" s="3" t="s">
-        <v>822</v>
+      <c r="A565" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>279</v>
@@ -14980,11 +15015,11 @@
       <c r="K565" s="4"/>
     </row>
     <row r="566">
-      <c r="A566" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="B566" s="3" t="s">
-        <v>824</v>
+      <c r="A566" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>626</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>279</v>
@@ -15000,10 +15035,10 @@
     </row>
     <row r="567">
       <c r="A567" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="B567" s="3" t="s">
-        <v>826</v>
+        <v>821</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>279</v>
@@ -15018,11 +15053,11 @@
       <c r="K567" s="4"/>
     </row>
     <row r="568">
-      <c r="A568" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="B568" s="3" t="s">
-        <v>828</v>
+      <c r="A568" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>279</v>
@@ -15038,10 +15073,10 @@
     </row>
     <row r="569">
       <c r="A569" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>286</v>
+        <v>826</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>279</v>
@@ -15057,10 +15092,10 @@
     </row>
     <row r="570">
       <c r="A570" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>105</v>
+        <v>827</v>
+      </c>
+      <c r="B570" s="4" t="s">
+        <v>828</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>279</v>
@@ -15075,11 +15110,11 @@
       <c r="K570" s="4"/>
     </row>
     <row r="571">
-      <c r="A571" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>105</v>
+      <c r="A571" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>830</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>279</v>
@@ -15094,11 +15129,11 @@
       <c r="K571" s="4"/>
     </row>
     <row r="572">
-      <c r="A572" s="4" t="s">
+      <c r="A572" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B572" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="B572" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>279</v>
@@ -15113,11 +15148,11 @@
       <c r="K572" s="4"/>
     </row>
     <row r="573">
-      <c r="A573" s="4" t="s">
+      <c r="A573" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="B573" s="4" t="s">
-        <v>105</v>
+      <c r="B573" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>279</v>
@@ -15132,11 +15167,11 @@
       <c r="K573" s="4"/>
     </row>
     <row r="574">
-      <c r="A574" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="B574" s="2" t="s">
-        <v>105</v>
+      <c r="A574" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>836</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>279</v>
@@ -15151,11 +15186,11 @@
       <c r="K574" s="4"/>
     </row>
     <row r="575">
-      <c r="A575" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>105</v>
+      <c r="A575" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>279</v>
@@ -15171,18 +15206,16 @@
     </row>
     <row r="576">
       <c r="A576" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>105</v>
+        <v>838</v>
+      </c>
+      <c r="B576" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D576" s="4"/>
-      <c r="E576" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E576" s="3"/>
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
       <c r="H576" s="4"/>
@@ -15192,9 +15225,9 @@
     </row>
     <row r="577">
       <c r="A577" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="B577" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B577" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C577" s="2" t="s">
@@ -15211,9 +15244,9 @@
     </row>
     <row r="578">
       <c r="A578" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="B578" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B578" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C578" s="2" t="s">
@@ -15230,7 +15263,7 @@
     </row>
     <row r="579">
       <c r="A579" s="4" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B579" s="4" t="s">
         <v>105</v>
@@ -15249,9 +15282,9 @@
     </row>
     <row r="580">
       <c r="A580" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="B580" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B580" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C580" s="2" t="s">
@@ -15268,9 +15301,9 @@
     </row>
     <row r="581">
       <c r="A581" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B581" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B581" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C581" s="2" t="s">
@@ -15286,8 +15319,8 @@
       <c r="K581" s="4"/>
     </row>
     <row r="582">
-      <c r="A582" s="3" t="s">
-        <v>841</v>
+      <c r="A582" s="4" t="s">
+        <v>844</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>105</v>
@@ -15295,7 +15328,7 @@
       <c r="C582" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D582" s="3"/>
+      <c r="D582" s="4"/>
       <c r="E582" s="3"/>
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
@@ -15306,16 +15339,18 @@
     </row>
     <row r="583">
       <c r="A583" s="4" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D583" s="4"/>
-      <c r="E583" s="3"/>
+      <c r="E583" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
@@ -15328,7 +15363,7 @@
         <v>843</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>279</v>
@@ -15344,10 +15379,10 @@
     </row>
     <row r="585">
       <c r="A585" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>347</v>
+        <v>846</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>279</v>
@@ -15363,10 +15398,10 @@
     </row>
     <row r="586">
       <c r="A586" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="B586" s="1" t="s">
-        <v>313</v>
+        <v>847</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>279</v>
@@ -15382,10 +15417,10 @@
     </row>
     <row r="587">
       <c r="A587" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="B587" s="4" t="s">
-        <v>313</v>
+        <v>848</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>279</v>
@@ -15401,10 +15436,10 @@
     </row>
     <row r="588">
       <c r="A588" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>279</v>
@@ -15419,16 +15454,16 @@
       <c r="K588" s="4"/>
     </row>
     <row r="589">
-      <c r="A589" s="4" t="s">
-        <v>848</v>
+      <c r="A589" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>480</v>
+        <v>105</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D589" s="4"/>
+      <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
@@ -15439,10 +15474,10 @@
     </row>
     <row r="590">
       <c r="A590" s="4" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>480</v>
+        <v>353</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>279</v>
@@ -15458,10 +15493,10 @@
     </row>
     <row r="591">
       <c r="A591" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>480</v>
+        <v>852</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>279</v>
@@ -15477,10 +15512,10 @@
     </row>
     <row r="592">
       <c r="A592" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="B592" s="4" t="s">
-        <v>458</v>
+        <v>853</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>279</v>
@@ -15496,10 +15531,10 @@
     </row>
     <row r="593">
       <c r="A593" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>458</v>
+        <v>313</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>279</v>
@@ -15514,11 +15549,11 @@
       <c r="K593" s="4"/>
     </row>
     <row r="594">
-      <c r="A594" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>458</v>
+      <c r="A594" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>279</v>
@@ -15534,10 +15569,10 @@
     </row>
     <row r="595">
       <c r="A595" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="B595" s="4" t="s">
-        <v>368</v>
+        <v>856</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>279</v>
@@ -15552,11 +15587,11 @@
       <c r="K595" s="4"/>
     </row>
     <row r="596">
-      <c r="A596" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="B596" s="4" t="s">
-        <v>368</v>
+      <c r="A596" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>279</v>
@@ -15570,14 +15605,14 @@
       <c r="J596" s="4"/>
       <c r="K596" s="4"/>
     </row>
-    <row r="597" ht="18.0" customHeight="true">
-      <c r="A597" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="B597" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="C597" s="8" t="s">
+    <row r="597">
+      <c r="A597" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C597" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D597" s="4"/>
@@ -15591,10 +15626,10 @@
     </row>
     <row r="598">
       <c r="A598" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>279</v>
@@ -15609,11 +15644,11 @@
       <c r="K598" s="4"/>
     </row>
     <row r="599">
-      <c r="A599" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>286</v>
+      <c r="A599" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>279</v>
@@ -15629,10 +15664,10 @@
     </row>
     <row r="600">
       <c r="A600" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>334</v>
+        <v>463</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>279</v>
@@ -15648,15 +15683,15 @@
     </row>
     <row r="601">
       <c r="A601" s="3" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>334</v>
+        <v>463</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D601" s="3"/>
+      <c r="D601" s="4"/>
       <c r="E601" s="3"/>
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
@@ -15667,10 +15702,10 @@
     </row>
     <row r="602">
       <c r="A602" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>462</v>
+        <v>863</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>279</v>
@@ -15685,11 +15720,11 @@
       <c r="K602" s="4"/>
     </row>
     <row r="603">
-      <c r="A603" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="B603" s="1" t="s">
-        <v>462</v>
+      <c r="A603" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>279</v>
@@ -15703,14 +15738,14 @@
       <c r="J603" s="4"/>
       <c r="K603" s="4"/>
     </row>
-    <row r="604">
-      <c r="A604" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="B604" s="4" t="s">
+    <row r="604" ht="18.0" customHeight="true">
+      <c r="A604" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="C604" s="2" t="s">
+      <c r="B604" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="C604" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D604" s="4"/>
@@ -15724,10 +15759,10 @@
     </row>
     <row r="605">
       <c r="A605" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="B605" s="4" t="s">
         <v>867</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>279</v>
@@ -15742,11 +15777,11 @@
       <c r="K605" s="4"/>
     </row>
     <row r="606">
-      <c r="A606" s="4" t="s">
+      <c r="A606" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="B606" s="4" t="s">
-        <v>869</v>
+      <c r="B606" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>279</v>
@@ -15762,10 +15797,10 @@
     </row>
     <row r="607">
       <c r="A607" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="B607" s="4" t="s">
-        <v>235</v>
+        <v>869</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>279</v>
@@ -15780,16 +15815,16 @@
       <c r="K607" s="4"/>
     </row>
     <row r="608">
-      <c r="A608" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="B608" s="4" t="s">
-        <v>739</v>
+      <c r="A608" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D608" s="4"/>
+      <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
@@ -15800,10 +15835,10 @@
     </row>
     <row r="609">
       <c r="A609" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>873</v>
+        <v>467</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>279</v>
@@ -15819,10 +15854,10 @@
     </row>
     <row r="610">
       <c r="A610" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="B610" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>279</v>
@@ -15838,10 +15873,10 @@
     </row>
     <row r="611">
       <c r="A611" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="B611" s="1" t="s">
-        <v>517</v>
+        <v>873</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>874</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>279</v>
@@ -15857,10 +15892,10 @@
     </row>
     <row r="612">
       <c r="A612" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="B612" s="1" t="s">
-        <v>120</v>
+        <v>875</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>876</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>279</v>
@@ -15876,10 +15911,10 @@
     </row>
     <row r="613">
       <c r="A613" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B613" s="4" t="s">
         <v>878</v>
-      </c>
-      <c r="B613" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>279</v>
@@ -15895,10 +15930,10 @@
     </row>
     <row r="614">
       <c r="A614" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>279</v>
@@ -15914,10 +15949,10 @@
     </row>
     <row r="615">
       <c r="A615" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>279</v>
@@ -15933,10 +15968,10 @@
     </row>
     <row r="616">
       <c r="A616" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B616" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="B616" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>279</v>
@@ -15952,10 +15987,10 @@
     </row>
     <row r="617">
       <c r="A617" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B617" s="4" t="s">
         <v>884</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>279</v>
@@ -15971,10 +16006,10 @@
     </row>
     <row r="618">
       <c r="A618" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="B618" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>279</v>
@@ -15990,10 +16025,10 @@
     </row>
     <row r="619">
       <c r="A619" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="B619" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>279</v>
@@ -16009,10 +16044,10 @@
     </row>
     <row r="620">
       <c r="A620" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>353</v>
+        <v>888</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>279</v>
@@ -16028,10 +16063,10 @@
     </row>
     <row r="621">
       <c r="A621" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>279</v>
@@ -16047,10 +16082,10 @@
     </row>
     <row r="622">
       <c r="A622" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>894</v>
+        <v>780</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>279</v>
@@ -16066,10 +16101,10 @@
     </row>
     <row r="623">
       <c r="A623" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="B623" s="4" t="s">
-        <v>896</v>
+        <v>891</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>892</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>279</v>
@@ -16085,10 +16120,10 @@
     </row>
     <row r="624">
       <c r="A624" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="B624" s="4" t="s">
-        <v>377</v>
+        <v>893</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>279</v>
@@ -16104,10 +16139,10 @@
     </row>
     <row r="625">
       <c r="A625" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>279</v>
@@ -16123,10 +16158,10 @@
     </row>
     <row r="626">
       <c r="A626" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>898</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>279</v>
@@ -16142,10 +16177,10 @@
     </row>
     <row r="627">
       <c r="A627" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>903</v>
+        <v>359</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>279</v>
@@ -16161,10 +16196,10 @@
     </row>
     <row r="628">
       <c r="A628" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="B628" s="4" t="s">
-        <v>340</v>
+        <v>900</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>279</v>
@@ -16180,10 +16215,10 @@
     </row>
     <row r="629">
       <c r="A629" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>422</v>
+        <v>902</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>903</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>279</v>
@@ -16199,10 +16234,10 @@
     </row>
     <row r="630">
       <c r="A630" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>905</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>279</v>
@@ -16218,10 +16253,10 @@
     </row>
     <row r="631">
       <c r="A631" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>279</v>
@@ -16237,10 +16272,10 @@
     </row>
     <row r="632">
       <c r="A632" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>279</v>
@@ -16256,10 +16291,10 @@
     </row>
     <row r="633">
       <c r="A633" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="B633" s="4" t="s">
-        <v>323</v>
+        <v>909</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>279</v>
@@ -16275,10 +16310,10 @@
     </row>
     <row r="634">
       <c r="A634" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>484</v>
+        <v>912</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>279</v>
@@ -16294,10 +16329,10 @@
     </row>
     <row r="635">
       <c r="A635" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="B635" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>279</v>
@@ -16313,10 +16348,10 @@
     </row>
     <row r="636">
       <c r="A636" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="B636" s="4" t="s">
-        <v>357</v>
+        <v>914</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>279</v>
@@ -16332,10 +16367,10 @@
     </row>
     <row r="637">
       <c r="A637" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="B637" s="4" t="s">
-        <v>797</v>
+        <v>915</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>279</v>
@@ -16351,10 +16386,10 @@
     </row>
     <row r="638">
       <c r="A638" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B638" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="B638" s="4" t="s">
-        <v>869</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>279</v>
@@ -16369,16 +16404,16 @@
       <c r="K638" s="4"/>
     </row>
     <row r="639">
-      <c r="A639" s="3" t="s">
+      <c r="A639" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="B639" s="3" t="s">
-        <v>920</v>
+      <c r="B639" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D639" s="3"/>
+      <c r="D639" s="4"/>
       <c r="E639" s="3"/>
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
@@ -16387,14 +16422,14 @@
       <c r="J639" s="4"/>
       <c r="K639" s="4"/>
     </row>
-    <row r="640" ht="18.0" customHeight="true">
-      <c r="A640" s="7" t="s">
-        <v>921</v>
-      </c>
-      <c r="B640" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C640" s="8" t="s">
+    <row r="640">
+      <c r="A640" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C640" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D640" s="4"/>
@@ -16408,10 +16443,10 @@
     </row>
     <row r="641">
       <c r="A641" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B641" s="4" t="s">
-        <v>602</v>
+        <v>921</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>279</v>
@@ -16427,10 +16462,10 @@
     </row>
     <row r="642">
       <c r="A642" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>105</v>
+        <v>922</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>279</v>
@@ -16446,10 +16481,10 @@
     </row>
     <row r="643">
       <c r="A643" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>105</v>
+        <v>805</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>279</v>
@@ -16465,10 +16500,10 @@
     </row>
     <row r="644">
       <c r="A644" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>105</v>
+        <v>878</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>279</v>
@@ -16483,16 +16518,16 @@
       <c r="K644" s="4"/>
     </row>
     <row r="645">
-      <c r="A645" s="4" t="s">
+      <c r="A645" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B645" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="B645" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C645" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D645" s="4"/>
+      <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
@@ -16501,14 +16536,14 @@
       <c r="J645" s="4"/>
       <c r="K645" s="4"/>
     </row>
-    <row r="646">
-      <c r="A646" s="3" t="s">
+    <row r="646" ht="18.0" customHeight="true">
+      <c r="A646" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="B646" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C646" s="2" t="s">
+      <c r="B646" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C646" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D646" s="4"/>
@@ -16520,14 +16555,14 @@
       <c r="J646" s="4"/>
       <c r="K646" s="4"/>
     </row>
-    <row r="647">
-      <c r="A647" s="4" t="s">
+    <row r="647" ht="18.0" customHeight="true">
+      <c r="A647" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="B647" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C647" s="2" t="s">
+      <c r="B647" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C647" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D647" s="4"/>
@@ -16539,18 +16574,20 @@
       <c r="J647" s="4"/>
       <c r="K647" s="4"/>
     </row>
-    <row r="648">
+    <row r="648" ht="18.0" customHeight="true">
       <c r="A648" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="B648" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C648" s="2" t="s">
+      <c r="B648" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="C648" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D648" s="4"/>
-      <c r="E648" s="3"/>
+      <c r="E648" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
@@ -16560,10 +16597,10 @@
     </row>
     <row r="649">
       <c r="A649" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>340</v>
+        <v>931</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>279</v>
@@ -16579,18 +16616,16 @@
     </row>
     <row r="650">
       <c r="A650" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>340</v>
+        <v>105</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D650" s="4"/>
-      <c r="E650" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E650" s="3"/>
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
@@ -16600,10 +16635,10 @@
     </row>
     <row r="651">
       <c r="A651" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>60</v>
+        <v>933</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>279</v>
@@ -16618,19 +16653,17 @@
       <c r="K651" s="4"/>
     </row>
     <row r="652">
-      <c r="A652" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="B652" s="1" t="s">
+      <c r="A652" s="4" t="s">
         <v>934</v>
       </c>
+      <c r="B652" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="C652" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D652" s="4"/>
-      <c r="E652" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E652" s="3"/>
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
@@ -16643,7 +16676,7 @@
         <v>935</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>353</v>
+        <v>105</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>279</v>
@@ -16661,8 +16694,8 @@
       <c r="A654" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="B654" s="3" t="s">
-        <v>353</v>
+      <c r="B654" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>279</v>
@@ -16681,7 +16714,7 @@
         <v>937</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>426</v>
+        <v>105</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>279</v>
@@ -16696,11 +16729,11 @@
       <c r="K655" s="4"/>
     </row>
     <row r="656">
-      <c r="A656" s="4" t="s">
+      <c r="A656" s="7" t="s">
         <v>938</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>875</v>
+        <v>105</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>279</v>
@@ -16719,7 +16752,7 @@
         <v>939</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>940</v>
+        <v>346</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>279</v>
@@ -16735,16 +16768,18 @@
     </row>
     <row r="658">
       <c r="A658" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="B658" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D658" s="4"/>
-      <c r="E658" s="3"/>
+      <c r="E658" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
@@ -16754,10 +16789,10 @@
     </row>
     <row r="659">
       <c r="A659" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>509</v>
+        <v>60</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>279</v>
@@ -16771,18 +16806,20 @@
       <c r="J659" s="4"/>
       <c r="K659" s="4"/>
     </row>
-    <row r="660" ht="18.0" customHeight="true">
-      <c r="A660" s="4" t="s">
-        <v>944</v>
+    <row r="660">
+      <c r="A660" s="3" t="s">
+        <v>942</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D660" s="4"/>
-      <c r="E660" s="3"/>
+      <c r="E660" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
@@ -16792,10 +16829,10 @@
     </row>
     <row r="661">
       <c r="A661" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>486</v>
+        <v>944</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>279</v>
@@ -16810,11 +16847,11 @@
       <c r="K661" s="4"/>
     </row>
     <row r="662">
-      <c r="A662" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="B662" s="1" t="s">
-        <v>235</v>
+      <c r="A662" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>279</v>
@@ -16830,10 +16867,10 @@
     </row>
     <row r="663">
       <c r="A663" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>361</v>
+        <v>946</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>279</v>
@@ -16849,10 +16886,10 @@
     </row>
     <row r="664">
       <c r="A664" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="B664" s="1" t="s">
-        <v>54</v>
+        <v>947</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>884</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>279</v>
@@ -16867,11 +16904,11 @@
       <c r="K664" s="4"/>
     </row>
     <row r="665">
-      <c r="A665" s="3" t="s">
-        <v>950</v>
+      <c r="A665" s="4" t="s">
+        <v>948</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>394</v>
+        <v>949</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>279</v>
@@ -16887,10 +16924,10 @@
     </row>
     <row r="666">
       <c r="A666" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B666" s="4" t="s">
         <v>951</v>
-      </c>
-      <c r="B666" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>279</v>
@@ -16909,7 +16946,7 @@
         <v>952</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>787</v>
+        <v>514</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>279</v>
@@ -16923,20 +16960,18 @@
       <c r="J667" s="4"/>
       <c r="K667" s="4"/>
     </row>
-    <row r="668">
+    <row r="668" ht="18.0" customHeight="true">
       <c r="A668" s="4" t="s">
         <v>953</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>901</v>
+        <v>954</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D668" s="4"/>
-      <c r="E668" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E668" s="3"/>
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
@@ -16945,11 +16980,11 @@
       <c r="K668" s="4"/>
     </row>
     <row r="669">
-      <c r="A669" s="3" t="s">
-        <v>954</v>
+      <c r="A669" s="4" t="s">
+        <v>955</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>279</v>
@@ -16965,10 +17000,10 @@
     </row>
     <row r="670">
       <c r="A670" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="B670" s="4" t="s">
-        <v>498</v>
+        <v>956</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>279</v>
@@ -16984,10 +17019,10 @@
     </row>
     <row r="671">
       <c r="A671" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>279</v>
@@ -17003,18 +17038,16 @@
     </row>
     <row r="672">
       <c r="A672" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D672" s="4"/>
-      <c r="E672" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E672" s="3"/>
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
@@ -17023,11 +17056,11 @@
       <c r="K672" s="4"/>
     </row>
     <row r="673">
-      <c r="A673" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B673" s="4" t="s">
+      <c r="A673" s="3" t="s">
         <v>959</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>279</v>
@@ -17045,8 +17078,8 @@
       <c r="A674" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="B674" s="1" t="s">
-        <v>750</v>
+      <c r="B674" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>279</v>
@@ -17065,7 +17098,7 @@
         <v>961</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>458</v>
+        <v>795</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>279</v>
@@ -17083,14 +17116,16 @@
       <c r="A676" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="B676" s="4" t="s">
-        <v>942</v>
+      <c r="B676" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D676" s="4"/>
-      <c r="E676" s="3"/>
+      <c r="E676" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
@@ -17099,11 +17134,11 @@
       <c r="K676" s="4"/>
     </row>
     <row r="677">
-      <c r="A677" s="4" t="s">
+      <c r="A677" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="B677" s="4" t="s">
-        <v>290</v>
+      <c r="B677" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>279</v>
@@ -17118,11 +17153,11 @@
       <c r="K677" s="4"/>
     </row>
     <row r="678">
-      <c r="A678" s="4" t="s">
+      <c r="A678" s="3" t="s">
         <v>964</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>313</v>
+        <v>708</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>279</v>
@@ -17140,8 +17175,8 @@
       <c r="A679" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="B679" s="1" t="s">
-        <v>498</v>
+      <c r="B679" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>279</v>
@@ -17159,8 +17194,8 @@
       <c r="A680" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="B680" s="4" t="s">
-        <v>347</v>
+      <c r="B680" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>279</v>
@@ -17178,14 +17213,16 @@
       <c r="A681" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="B681" s="4" t="s">
-        <v>968</v>
+      <c r="B681" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D681" s="4"/>
-      <c r="E681" s="3"/>
+      <c r="E681" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
@@ -17195,10 +17232,10 @@
     </row>
     <row r="682">
       <c r="A682" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B682" s="4" t="s">
         <v>969</v>
-      </c>
-      <c r="B682" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>279</v>
@@ -17216,8 +17253,8 @@
       <c r="A683" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="B683" s="4" t="s">
-        <v>39</v>
+      <c r="B683" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>279</v>
@@ -17235,8 +17272,8 @@
       <c r="A684" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B684" s="4" t="s">
-        <v>972</v>
+      <c r="B684" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>279</v>
@@ -17252,15 +17289,15 @@
     </row>
     <row r="685">
       <c r="A685" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="B685" s="3" t="s">
-        <v>753</v>
+        <v>972</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>951</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D685" s="3"/>
+      <c r="D685" s="4"/>
       <c r="E685" s="3"/>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
@@ -17271,15 +17308,15 @@
     </row>
     <row r="686">
       <c r="A686" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="B686" s="3" t="s">
-        <v>353</v>
+        <v>973</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D686" s="3"/>
+      <c r="D686" s="4"/>
       <c r="E686" s="3"/>
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
@@ -17290,15 +17327,15 @@
     </row>
     <row r="687">
       <c r="A687" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="B687" s="3" t="s">
-        <v>386</v>
+        <v>974</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D687" s="3"/>
+      <c r="D687" s="4"/>
       <c r="E687" s="3"/>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
@@ -17308,16 +17345,16 @@
       <c r="K687" s="4"/>
     </row>
     <row r="688">
-      <c r="A688" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="B688" s="3" t="s">
-        <v>977</v>
+      <c r="A688" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D688" s="3"/>
+      <c r="D688" s="4"/>
       <c r="E688" s="3"/>
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
@@ -17328,10 +17365,10 @@
     </row>
     <row r="689">
       <c r="A689" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>279</v>
@@ -17347,10 +17384,10 @@
     </row>
     <row r="690">
       <c r="A690" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>105</v>
+        <v>978</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>279</v>
@@ -17366,10 +17403,10 @@
     </row>
     <row r="691">
       <c r="A691" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="B691" s="4" t="s">
-        <v>875</v>
+        <v>979</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>279</v>
@@ -17385,10 +17422,10 @@
     </row>
     <row r="692">
       <c r="A692" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>450</v>
+        <v>39</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>279</v>
@@ -17404,10 +17441,10 @@
     </row>
     <row r="693">
       <c r="A693" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B693" s="4" t="s">
         <v>982</v>
-      </c>
-      <c r="B693" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>279</v>
@@ -17425,13 +17462,13 @@
       <c r="A694" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="B694" s="1" t="s">
-        <v>347</v>
+      <c r="B694" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D694" s="4"/>
+      <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
@@ -17444,13 +17481,13 @@
       <c r="A695" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="B695" s="1" t="s">
-        <v>787</v>
+      <c r="B695" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D695" s="4"/>
+      <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
@@ -17463,13 +17500,13 @@
       <c r="A696" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="B696" s="5" t="s">
-        <v>417</v>
+      <c r="B696" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D696" s="4"/>
+      <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
@@ -17479,7 +17516,7 @@
       <c r="K696" s="4"/>
     </row>
     <row r="697">
-      <c r="A697" s="4" t="s">
+      <c r="A697" s="3" t="s">
         <v>986</v>
       </c>
       <c r="B697" s="3" t="s">
@@ -17488,7 +17525,7 @@
       <c r="C697" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D697" s="4"/>
+      <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
@@ -17502,7 +17539,7 @@
         <v>988</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>279</v>
@@ -17520,8 +17557,8 @@
       <c r="A699" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="B699" s="1" t="s">
-        <v>990</v>
+      <c r="B699" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>279</v>
@@ -17537,10 +17574,10 @@
     </row>
     <row r="700">
       <c r="A700" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="B700" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>884</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>279</v>
@@ -17556,10 +17593,10 @@
     </row>
     <row r="701">
       <c r="A701" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="B701" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>279</v>
@@ -17575,10 +17612,10 @@
     </row>
     <row r="702">
       <c r="A702" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="B702" s="5" t="s">
-        <v>235</v>
+        <v>992</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>279</v>
@@ -17594,10 +17631,10 @@
     </row>
     <row r="703">
       <c r="A703" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>911</v>
+        <v>353</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>279</v>
@@ -17613,15 +17650,15 @@
     </row>
     <row r="704">
       <c r="A704" s="4" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>998</v>
+        <v>795</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D704" s="3"/>
+      <c r="D704" s="4"/>
       <c r="E704" s="3"/>
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
@@ -17632,15 +17669,15 @@
     </row>
     <row r="705">
       <c r="A705" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="B705" s="1" t="s">
-        <v>334</v>
+        <v>995</v>
+      </c>
+      <c r="B705" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D705" s="3"/>
+      <c r="D705" s="4"/>
       <c r="E705" s="3"/>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
@@ -17651,15 +17688,15 @@
     </row>
     <row r="706">
       <c r="A706" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B706" s="1" t="s">
-        <v>394</v>
+        <v>996</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>997</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D706" s="3"/>
+      <c r="D706" s="4"/>
       <c r="E706" s="3"/>
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
@@ -17670,10 +17707,10 @@
     </row>
     <row r="707">
       <c r="A707" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1002</v>
+        <v>363</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>279</v>
@@ -17689,10 +17726,10 @@
     </row>
     <row r="708">
       <c r="A708" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B708" s="4" t="s">
-        <v>1004</v>
+        <v>999</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>1000</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>279</v>
@@ -17708,10 +17745,10 @@
     </row>
     <row r="709">
       <c r="A709" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B709" s="4" t="s">
-        <v>1006</v>
+        <v>1001</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1002</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>279</v>
@@ -17727,10 +17764,10 @@
     </row>
     <row r="710">
       <c r="A710" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B710" s="4" t="s">
-        <v>426</v>
+        <v>1003</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1004</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>279</v>
@@ -17746,10 +17783,10 @@
     </row>
     <row r="711">
       <c r="A711" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B711" s="3" t="s">
-        <v>1009</v>
+        <v>1005</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>279</v>
@@ -17765,10 +17802,10 @@
     </row>
     <row r="712">
       <c r="A712" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B712" s="4" t="s">
-        <v>286</v>
+        <v>1006</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>279</v>
@@ -17784,15 +17821,15 @@
     </row>
     <row r="713">
       <c r="A713" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B713" s="4" t="s">
-        <v>120</v>
+        <v>1007</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1008</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D713" s="4"/>
+      <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
@@ -17803,15 +17840,15 @@
     </row>
     <row r="714">
       <c r="A714" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B714" s="4" t="s">
-        <v>1013</v>
+        <v>1009</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D714" s="4"/>
+      <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
@@ -17822,15 +17859,15 @@
     </row>
     <row r="715">
       <c r="A715" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B715" s="4" t="s">
-        <v>480</v>
+        <v>1010</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D715" s="4"/>
+      <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
@@ -17841,10 +17878,10 @@
     </row>
     <row r="716">
       <c r="A716" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B716" s="9" t="s">
-        <v>1016</v>
+        <v>1011</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>1012</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>279</v>
@@ -17860,15 +17897,15 @@
     </row>
     <row r="717">
       <c r="A717" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B717" s="9" t="s">
-        <v>511</v>
+        <v>1013</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>1014</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D717" s="3"/>
+      <c r="D717" s="4"/>
       <c r="E717" s="3"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
@@ -17879,15 +17916,15 @@
     </row>
     <row r="718">
       <c r="A718" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B718" s="9" t="s">
-        <v>480</v>
+        <v>1015</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>1016</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D718" s="3"/>
+      <c r="D718" s="4"/>
       <c r="E718" s="3"/>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
@@ -17898,13 +17935,13 @@
     </row>
     <row r="719">
       <c r="A719" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>1020</v>
+        <v>431</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>1021</v>
+        <v>279</v>
       </c>
       <c r="D719" s="4"/>
       <c r="E719" s="3"/>
@@ -17917,13 +17954,13 @@
     </row>
     <row r="720">
       <c r="A720" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B720" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>1021</v>
+        <v>279</v>
       </c>
       <c r="D720" s="4"/>
       <c r="E720" s="3"/>
@@ -17936,13 +17973,13 @@
     </row>
     <row r="721">
       <c r="A721" s="4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1024</v>
+        <v>286</v>
       </c>
       <c r="C721" s="2" t="s">
-        <v>1021</v>
+        <v>279</v>
       </c>
       <c r="D721" s="4"/>
       <c r="E721" s="3"/>
@@ -17955,13 +17992,13 @@
     </row>
     <row r="722">
       <c r="A722" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>1021</v>
+        <v>279</v>
       </c>
       <c r="D722" s="4"/>
       <c r="E722" s="3"/>
@@ -17974,13 +18011,13 @@
     </row>
     <row r="723">
       <c r="A723" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>1021</v>
+        <v>279</v>
       </c>
       <c r="D723" s="4"/>
       <c r="E723" s="3"/>
@@ -17993,13 +18030,13 @@
     </row>
     <row r="724">
       <c r="A724" s="4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1029</v>
+        <v>485</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>1021</v>
+        <v>279</v>
       </c>
       <c r="D724" s="4"/>
       <c r="E724" s="3"/>
@@ -18012,13 +18049,13 @@
     </row>
     <row r="725">
       <c r="A725" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B725" s="4" t="s">
-        <v>1029</v>
+        <v>1025</v>
+      </c>
+      <c r="B725" s="9" t="s">
+        <v>1026</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>1021</v>
+        <v>279</v>
       </c>
       <c r="D725" s="4"/>
       <c r="E725" s="3"/>
@@ -18031,15 +18068,15 @@
     </row>
     <row r="726">
       <c r="A726" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B726" s="4" t="s">
-        <v>1020</v>
+        <v>1027</v>
+      </c>
+      <c r="B726" s="9" t="s">
+        <v>516</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D726" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
@@ -18050,15 +18087,15 @@
     </row>
     <row r="727">
       <c r="A727" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B727" s="5" t="s">
-        <v>1033</v>
+        <v>1028</v>
+      </c>
+      <c r="B727" s="9" t="s">
+        <v>485</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D727" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
@@ -18069,13 +18106,13 @@
     </row>
     <row r="728">
       <c r="A728" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B728" s="3" t="s">
-        <v>1035</v>
+        <v>1029</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>1030</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D728" s="4"/>
       <c r="E728" s="3"/>
@@ -18088,13 +18125,13 @@
     </row>
     <row r="729">
       <c r="A729" s="4" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D729" s="4"/>
       <c r="E729" s="3"/>
@@ -18106,14 +18143,14 @@
       <c r="K729" s="4"/>
     </row>
     <row r="730">
-      <c r="A730" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B730" s="3" t="s">
-        <v>105</v>
+      <c r="A730" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>1034</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D730" s="4"/>
       <c r="E730" s="3"/>
@@ -18125,14 +18162,14 @@
       <c r="K730" s="4"/>
     </row>
     <row r="731">
-      <c r="A731" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B731" s="3" t="s">
-        <v>739</v>
+      <c r="A731" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D731" s="4"/>
       <c r="E731" s="3"/>
@@ -18144,14 +18181,14 @@
       <c r="K731" s="4"/>
     </row>
     <row r="732">
-      <c r="A732" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B732" s="3" t="s">
-        <v>460</v>
+      <c r="A732" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>1037</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D732" s="4"/>
       <c r="E732" s="3"/>
@@ -18164,13 +18201,13 @@
     </row>
     <row r="733">
       <c r="A733" s="4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>458</v>
+        <v>1039</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D733" s="4"/>
       <c r="E733" s="3"/>
@@ -18183,13 +18220,13 @@
     </row>
     <row r="734">
       <c r="A734" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D734" s="4"/>
       <c r="E734" s="3"/>
@@ -18202,13 +18239,13 @@
     </row>
     <row r="735">
       <c r="A735" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D735" s="4"/>
       <c r="E735" s="3"/>
@@ -18221,13 +18258,13 @@
     </row>
     <row r="736">
       <c r="A736" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B736" s="4" t="s">
-        <v>968</v>
+        <v>1042</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>1043</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D736" s="4"/>
       <c r="E736" s="3"/>
@@ -18239,16 +18276,16 @@
       <c r="K736" s="4"/>
     </row>
     <row r="737">
-      <c r="A737" s="3" t="s">
-        <v>1047</v>
+      <c r="A737" s="4" t="s">
+        <v>1044</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D737" s="3"/>
+        <v>1031</v>
+      </c>
+      <c r="D737" s="4"/>
       <c r="E737" s="3"/>
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
@@ -18258,16 +18295,16 @@
       <c r="K737" s="4"/>
     </row>
     <row r="738">
-      <c r="A738" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B738" s="3" t="s">
-        <v>1050</v>
+      <c r="A738" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D738" s="3"/>
+        <v>1031</v>
+      </c>
+      <c r="D738" s="4"/>
       <c r="E738" s="3"/>
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
@@ -18277,14 +18314,14 @@
       <c r="K738" s="4"/>
     </row>
     <row r="739">
-      <c r="A739" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B739" s="4" t="s">
-        <v>1020</v>
+      <c r="A739" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D739" s="4"/>
       <c r="E739" s="3"/>
@@ -18296,14 +18333,14 @@
       <c r="K739" s="4"/>
     </row>
     <row r="740">
-      <c r="A740" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B740" s="4" t="s">
-        <v>1029</v>
+      <c r="A740" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>747</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D740" s="4"/>
       <c r="E740" s="3"/>
@@ -18315,14 +18352,14 @@
       <c r="K740" s="4"/>
     </row>
     <row r="741">
-      <c r="A741" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B741" s="1" t="s">
-        <v>739</v>
+      <c r="A741" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D741" s="4"/>
       <c r="E741" s="3"/>
@@ -18335,13 +18372,13 @@
     </row>
     <row r="742">
       <c r="A742" s="4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>1029</v>
+        <v>463</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D742" s="4"/>
       <c r="E742" s="3"/>
@@ -18353,14 +18390,14 @@
       <c r="K742" s="4"/>
     </row>
     <row r="743">
-      <c r="A743" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B743" s="3" t="s">
-        <v>1050</v>
+      <c r="A743" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>1053</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D743" s="4"/>
       <c r="E743" s="3"/>
@@ -18372,14 +18409,14 @@
       <c r="K743" s="4"/>
     </row>
     <row r="744">
-      <c r="A744" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B744" s="3" t="s">
-        <v>417</v>
+      <c r="A744" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>1055</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D744" s="4"/>
       <c r="E744" s="3"/>
@@ -18392,13 +18429,13 @@
     </row>
     <row r="745">
       <c r="A745" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1058</v>
+        <v>978</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745" s="3"/>
@@ -18410,16 +18447,16 @@
       <c r="K745" s="4"/>
     </row>
     <row r="746">
-      <c r="A746" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B746" s="4" t="s">
-        <v>1061</v>
+      <c r="A746" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>1058</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D746" s="4"/>
+        <v>1031</v>
+      </c>
+      <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
@@ -18429,16 +18466,16 @@
       <c r="K746" s="4"/>
     </row>
     <row r="747">
-      <c r="A747" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B747" s="4" t="s">
-        <v>1063</v>
+      <c r="A747" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>1060</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D747" s="4"/>
+        <v>1031</v>
+      </c>
+      <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
@@ -18448,16 +18485,16 @@
       <c r="K747" s="4"/>
     </row>
     <row r="748">
-      <c r="A748" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B748" s="4" t="s">
-        <v>1065</v>
+      <c r="A748" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>1062</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D748" s="4"/>
+        <v>1031</v>
+      </c>
+      <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
@@ -18467,14 +18504,14 @@
       <c r="K748" s="4"/>
     </row>
     <row r="749">
-      <c r="A749" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B749" s="3" t="s">
-        <v>1067</v>
+      <c r="A749" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>1030</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="D749" s="4"/>
       <c r="E749" s="3"/>
@@ -18487,13 +18524,13 @@
     </row>
     <row r="750">
       <c r="A750" s="4" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>1069</v>
+        <v>1039</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="D750" s="4"/>
       <c r="E750" s="3"/>
@@ -18505,14 +18542,14 @@
       <c r="K750" s="4"/>
     </row>
     <row r="751">
-      <c r="A751" s="3" t="s">
-        <v>1070</v>
+      <c r="A751" s="4" t="s">
+        <v>1065</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>1071</v>
+        <v>747</v>
       </c>
       <c r="C751" s="2" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="D751" s="4"/>
       <c r="E751" s="3"/>
@@ -18524,14 +18561,14 @@
       <c r="K751" s="4"/>
     </row>
     <row r="752">
-      <c r="A752" s="3" t="s">
-        <v>1072</v>
+      <c r="A752" s="4" t="s">
+        <v>1066</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>1069</v>
+        <v>1039</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="D752" s="4"/>
       <c r="E752" s="3"/>
@@ -18543,14 +18580,14 @@
       <c r="K752" s="4"/>
     </row>
     <row r="753">
-      <c r="A753" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B753" s="1" t="s">
-        <v>1074</v>
+      <c r="A753" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>1060</v>
       </c>
       <c r="C753" s="2" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="D753" s="4"/>
       <c r="E753" s="3"/>
@@ -18562,14 +18599,14 @@
       <c r="K753" s="4"/>
     </row>
     <row r="754">
-      <c r="A754" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B754" s="4" t="s">
-        <v>1076</v>
+      <c r="A754" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="D754" s="4"/>
       <c r="E754" s="3"/>
@@ -18581,14 +18618,14 @@
       <c r="K754" s="4"/>
     </row>
     <row r="755">
-      <c r="A755" s="3" t="s">
-        <v>1077</v>
+      <c r="A755" s="3" t="n">
+        <v>8.8</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="C755" s="2" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="D755" s="4"/>
       <c r="E755" s="3"/>
@@ -18601,13 +18638,13 @@
     </row>
     <row r="756">
       <c r="A756" s="4" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="D756" s="4"/>
       <c r="E756" s="3"/>
@@ -18619,14 +18656,14 @@
       <c r="K756" s="4"/>
     </row>
     <row r="757">
-      <c r="A757" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B757" s="3" t="s">
-        <v>1082</v>
+      <c r="A757" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>1074</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="D757" s="4"/>
       <c r="E757" s="3"/>
@@ -18638,14 +18675,14 @@
       <c r="K757" s="4"/>
     </row>
     <row r="758">
-      <c r="A758" s="10" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B758" s="3" t="s">
-        <v>1084</v>
+      <c r="A758" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>1076</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="D758" s="4"/>
       <c r="E758" s="3"/>
@@ -18658,13 +18695,13 @@
     </row>
     <row r="759">
       <c r="A759" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B759" s="1" t="s">
-        <v>1086</v>
+        <v>1077</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>1078</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="D759" s="4"/>
       <c r="E759" s="3"/>
@@ -18675,6 +18712,196 @@
       <c r="J759" s="4"/>
       <c r="K759" s="4"/>
     </row>
+    <row r="760">
+      <c r="A760" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D760" s="4"/>
+      <c r="E760" s="3"/>
+      <c r="F760" s="4"/>
+      <c r="G760" s="4"/>
+      <c r="H760" s="4"/>
+      <c r="I760" s="4"/>
+      <c r="J760" s="4"/>
+      <c r="K760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D761" s="4"/>
+      <c r="E761" s="3"/>
+      <c r="F761" s="4"/>
+      <c r="G761" s="4"/>
+      <c r="H761" s="4"/>
+      <c r="I761" s="4"/>
+      <c r="J761" s="4"/>
+      <c r="K761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D762" s="4"/>
+      <c r="E762" s="3"/>
+      <c r="F762" s="4"/>
+      <c r="G762" s="4"/>
+      <c r="H762" s="4"/>
+      <c r="I762" s="4"/>
+      <c r="J762" s="4"/>
+      <c r="K762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D763" s="4"/>
+      <c r="E763" s="3"/>
+      <c r="F763" s="4"/>
+      <c r="G763" s="4"/>
+      <c r="H763" s="4"/>
+      <c r="I763" s="4"/>
+      <c r="J763" s="4"/>
+      <c r="K763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D764" s="4"/>
+      <c r="E764" s="3"/>
+      <c r="F764" s="4"/>
+      <c r="G764" s="4"/>
+      <c r="H764" s="4"/>
+      <c r="I764" s="4"/>
+      <c r="J764" s="4"/>
+      <c r="K764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D765" s="4"/>
+      <c r="E765" s="3"/>
+      <c r="F765" s="4"/>
+      <c r="G765" s="4"/>
+      <c r="H765" s="4"/>
+      <c r="I765" s="4"/>
+      <c r="J765" s="4"/>
+      <c r="K765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D766" s="4"/>
+      <c r="E766" s="3"/>
+      <c r="F766" s="4"/>
+      <c r="G766" s="4"/>
+      <c r="H766" s="4"/>
+      <c r="I766" s="4"/>
+      <c r="J766" s="4"/>
+      <c r="K766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D767" s="4"/>
+      <c r="E767" s="3"/>
+      <c r="F767" s="4"/>
+      <c r="G767" s="4"/>
+      <c r="H767" s="4"/>
+      <c r="I767" s="4"/>
+      <c r="J767" s="4"/>
+      <c r="K767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D768" s="4"/>
+      <c r="E768" s="3"/>
+      <c r="F768" s="4"/>
+      <c r="G768" s="4"/>
+      <c r="H768" s="4"/>
+      <c r="I768" s="4"/>
+      <c r="J768" s="4"/>
+      <c r="K768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D769" s="4"/>
+      <c r="E769" s="3"/>
+      <c r="F769" s="4"/>
+      <c r="G769" s="4"/>
+      <c r="H769" s="4"/>
+      <c r="I769" s="4"/>
+      <c r="J769" s="4"/>
+      <c r="K769" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/music_list_610.xlsx
+++ b/music_list_610.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1140" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1145" uniqueCount="1145">
   <si>
     <t>歌名</t>
   </si>
@@ -1133,21 +1133,24 @@
     <t>知足</t>
   </si>
   <si>
+    <t>戒烟</t>
+  </si>
+  <si>
+    <t>李荣浩</t>
+  </si>
+  <si>
+    <t>耳朵</t>
+  </si>
+  <si>
+    <t>老伴</t>
+  </si>
+  <si>
     <t>尽头</t>
   </si>
   <si>
     <t>破裂</t>
   </si>
   <si>
-    <t>戒烟</t>
-  </si>
-  <si>
-    <t>李荣浩</t>
-  </si>
-  <si>
-    <t>耳朵</t>
-  </si>
-  <si>
     <t>聊天</t>
   </si>
   <si>
@@ -2807,6 +2810,9 @@
     <t>彭佳慧</t>
   </si>
   <si>
+    <t>全世界失眠</t>
+  </si>
+  <si>
     <t>Lydia</t>
   </si>
   <si>
@@ -3161,6 +3167,9 @@
     <t>兰亭序（粤语版）</t>
   </si>
   <si>
+    <t>搜神记</t>
+  </si>
+  <si>
     <t>再见悲哀</t>
   </si>
   <si>
@@ -3201,6 +3210,12 @@
   </si>
   <si>
     <t>吴雨霏</t>
+  </si>
+  <si>
+    <t>天生二品</t>
+  </si>
+  <si>
+    <t>陈凯咏</t>
   </si>
   <si>
     <t>我怀念的你</t>
@@ -8910,8 +8925,8 @@
       <c r="A246" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B246" s="5" t="s">
-        <v>17</v>
+      <c r="B246" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>279</v>
@@ -8926,11 +8941,11 @@
       <c r="K246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>279</v>
@@ -8945,11 +8960,11 @@
       <c r="K247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="4" t="s">
-        <v>375</v>
+      <c r="A248" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>279</v>
@@ -8964,11 +8979,11 @@
       <c r="K248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>376</v>
+      <c r="B249" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>279</v>
@@ -8987,7 +9002,7 @@
         <v>378</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>279</v>
@@ -9003,10 +9018,10 @@
     </row>
     <row r="251">
       <c r="A251" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>279</v>
@@ -9024,8 +9039,8 @@
       <c r="A252" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>382</v>
+      <c r="B252" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>279</v>
@@ -9041,10 +9056,10 @@
     </row>
     <row r="253">
       <c r="A253" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>279</v>
@@ -9062,8 +9077,8 @@
       <c r="A254" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>385</v>
+      <c r="B254" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>279</v>
@@ -9078,11 +9093,11 @@
       <c r="K254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>279</v>
@@ -9097,11 +9112,11 @@
       <c r="K255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>388</v>
+      <c r="B256" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>279</v>
@@ -9117,10 +9132,10 @@
     </row>
     <row r="257">
       <c r="A257" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>279</v>
@@ -9139,7 +9154,7 @@
         <v>390</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>187</v>
+        <v>389</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>279</v>
@@ -9157,8 +9172,8 @@
       <c r="A259" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>392</v>
+      <c r="B259" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>279</v>
@@ -9174,10 +9189,10 @@
     </row>
     <row r="260">
       <c r="A260" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>279</v>
@@ -9195,7 +9210,7 @@
       <c r="A261" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -9214,8 +9229,8 @@
       <c r="A262" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>396</v>
+      <c r="B262" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>279</v>
@@ -9230,16 +9245,16 @@
       <c r="K262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="C263" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D263" s="3"/>
+      <c r="D263" s="4"/>
       <c r="E263" s="3"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
@@ -9249,16 +9264,16 @@
       <c r="K263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>399</v>
+      <c r="B264" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D264" s="4"/>
+      <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -9269,10 +9284,10 @@
     </row>
     <row r="265">
       <c r="A265" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>279</v>
@@ -9287,16 +9302,16 @@
       <c r="K265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B266" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="C266" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D266" s="3"/>
+      <c r="D266" s="4"/>
       <c r="E266" s="3"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
@@ -9307,15 +9322,15 @@
     </row>
     <row r="267">
       <c r="A267" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="C267" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D267" s="4"/>
+      <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -9325,11 +9340,11 @@
       <c r="K267" s="4"/>
     </row>
     <row r="268">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>279</v>
@@ -9345,10 +9360,10 @@
     </row>
     <row r="269">
       <c r="A269" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>279</v>
@@ -9364,18 +9379,16 @@
     </row>
     <row r="270">
       <c r="A270" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="C270" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D270" s="4"/>
-      <c r="E270" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E270" s="3"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
@@ -9385,16 +9398,18 @@
     </row>
     <row r="271">
       <c r="A271" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="C271" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D271" s="4"/>
-      <c r="E271" s="3"/>
+      <c r="E271" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
@@ -9407,7 +9422,7 @@
         <v>412</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>279</v>
@@ -9423,10 +9438,10 @@
     </row>
     <row r="273">
       <c r="A273" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>279</v>
@@ -9441,10 +9456,10 @@
       <c r="K273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B274" s="2" t="s">
+      <c r="A274" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>416</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -9460,11 +9475,11 @@
       <c r="K274" s="4"/>
     </row>
     <row r="275">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>279</v>
@@ -9480,10 +9495,10 @@
     </row>
     <row r="276">
       <c r="A276" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>279</v>
@@ -9499,10 +9514,10 @@
     </row>
     <row r="277">
       <c r="A277" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>279</v>
@@ -9518,18 +9533,16 @@
     </row>
     <row r="278">
       <c r="A278" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>424</v>
-      </c>
       <c r="C278" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D278" s="4"/>
-      <c r="E278" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E278" s="3"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
@@ -9539,16 +9552,18 @@
     </row>
     <row r="279">
       <c r="A279" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="C279" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D279" s="4"/>
-      <c r="E279" s="3"/>
+      <c r="E279" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
@@ -9560,8 +9575,8 @@
       <c r="A280" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>427</v>
+      <c r="B280" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>279</v>
@@ -9577,10 +9592,10 @@
     </row>
     <row r="281">
       <c r="A281" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>279</v>
@@ -9596,10 +9611,10 @@
     </row>
     <row r="282">
       <c r="A282" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>279</v>
@@ -9615,10 +9630,10 @@
     </row>
     <row r="283">
       <c r="A283" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>279</v>
@@ -9636,8 +9651,8 @@
       <c r="A284" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>434</v>
+      <c r="B284" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>279</v>
@@ -9653,9 +9668,9 @@
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B285" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -9672,18 +9687,16 @@
     </row>
     <row r="286">
       <c r="A286" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="C286" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D286" s="4"/>
-      <c r="E286" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E286" s="3"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
@@ -9693,16 +9706,18 @@
     </row>
     <row r="287">
       <c r="A287" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B287" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="C287" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D287" s="4"/>
-      <c r="E287" s="3"/>
+      <c r="E287" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
@@ -9712,10 +9727,10 @@
     </row>
     <row r="288">
       <c r="A288" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B288" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>279</v>
@@ -9731,10 +9746,10 @@
     </row>
     <row r="289">
       <c r="A289" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>279</v>
@@ -9750,10 +9765,10 @@
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>279</v>
@@ -9769,10 +9784,10 @@
     </row>
     <row r="291">
       <c r="A291" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>279</v>
@@ -9788,10 +9803,10 @@
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>279</v>
@@ -9807,18 +9822,16 @@
     </row>
     <row r="293">
       <c r="A293" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="C293" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D293" s="4"/>
-      <c r="E293" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E293" s="3"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
@@ -9831,13 +9844,15 @@
         <v>451</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>452</v>
+        <v>261</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D294" s="4"/>
-      <c r="E294" s="3"/>
+      <c r="E294" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
@@ -9846,11 +9861,11 @@
       <c r="K294" s="4"/>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>279</v>
@@ -9865,11 +9880,11 @@
       <c r="K295" s="4"/>
     </row>
     <row r="296">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>455</v>
+        <v>112</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>279</v>
@@ -9885,10 +9900,10 @@
     </row>
     <row r="297">
       <c r="A297" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>279</v>
@@ -9904,10 +9919,10 @@
     </row>
     <row r="298">
       <c r="A298" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B298" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>279</v>
@@ -9923,10 +9938,10 @@
     </row>
     <row r="299">
       <c r="A299" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>279</v>
@@ -9942,10 +9957,10 @@
     </row>
     <row r="300">
       <c r="A300" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>279</v>
@@ -9961,18 +9976,16 @@
     </row>
     <row r="301">
       <c r="A301" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="C301" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D301" s="4"/>
-      <c r="E301" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E301" s="3"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
@@ -9982,16 +9995,18 @@
     </row>
     <row r="302">
       <c r="A302" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="C302" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D302" s="4"/>
-      <c r="E302" s="3"/>
+      <c r="E302" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
@@ -10001,10 +10016,10 @@
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>279</v>
@@ -10020,10 +10035,10 @@
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>279</v>
@@ -10039,10 +10054,10 @@
     </row>
     <row r="305">
       <c r="A305" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>279</v>
@@ -10058,10 +10073,10 @@
     </row>
     <row r="306">
       <c r="A306" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>279</v>
@@ -10077,10 +10092,10 @@
     </row>
     <row r="307">
       <c r="A307" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>279</v>
@@ -10096,10 +10111,10 @@
     </row>
     <row r="308">
       <c r="A308" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>279</v>
@@ -10115,10 +10130,10 @@
     </row>
     <row r="309">
       <c r="A309" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>279</v>
@@ -10134,18 +10149,16 @@
     </row>
     <row r="310">
       <c r="A310" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="C310" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D310" s="4"/>
-      <c r="E310" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E310" s="3"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
@@ -10155,16 +10168,18 @@
     </row>
     <row r="311">
       <c r="A311" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="C311" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D311" s="4"/>
-      <c r="E311" s="3"/>
+      <c r="E311" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
@@ -10174,10 +10189,10 @@
     </row>
     <row r="312">
       <c r="A312" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>279</v>
@@ -10193,10 +10208,10 @@
     </row>
     <row r="313">
       <c r="A313" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>279</v>
@@ -10212,10 +10227,10 @@
     </row>
     <row r="314">
       <c r="A314" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>279</v>
@@ -10231,10 +10246,10 @@
     </row>
     <row r="315">
       <c r="A315" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>279</v>
@@ -10250,10 +10265,10 @@
     </row>
     <row r="316">
       <c r="A316" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>279</v>
@@ -10269,10 +10284,10 @@
     </row>
     <row r="317">
       <c r="A317" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>279</v>
@@ -10288,18 +10303,16 @@
     </row>
     <row r="318">
       <c r="A318" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>499</v>
-      </c>
       <c r="C318" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D318" s="4"/>
-      <c r="E318" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E318" s="3"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
@@ -10309,16 +10322,18 @@
     </row>
     <row r="319">
       <c r="A319" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B319" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B319" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="C319" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D319" s="4"/>
-      <c r="E319" s="3"/>
+      <c r="E319" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
@@ -10328,10 +10343,10 @@
     </row>
     <row r="320">
       <c r="A320" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>279</v>
@@ -10347,10 +10362,10 @@
     </row>
     <row r="321">
       <c r="A321" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B321" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>279</v>
@@ -10366,10 +10381,10 @@
     </row>
     <row r="322">
       <c r="A322" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>1098</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>279</v>
@@ -10388,7 +10403,7 @@
         <v>507</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>508</v>
+        <v>1103</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>279</v>
@@ -10404,10 +10419,10 @@
     </row>
     <row r="324">
       <c r="A324" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B324" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>279</v>
@@ -10423,10 +10438,10 @@
     </row>
     <row r="325">
       <c r="A325" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>1099</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>279</v>
@@ -10441,11 +10456,11 @@
       <c r="K325" s="4"/>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B326" s="3" t="s">
-        <v>120</v>
+      <c r="B326" s="4" t="s">
+        <v>1104</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>279</v>
@@ -10464,12 +10479,12 @@
         <v>513</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>514</v>
+        <v>120</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D327" s="3"/>
+      <c r="D327" s="4"/>
       <c r="E327" s="3"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
@@ -10480,10 +10495,10 @@
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B328" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>279</v>
@@ -10499,10 +10514,10 @@
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>279</v>
@@ -10518,10 +10533,10 @@
     </row>
     <row r="330">
       <c r="A330" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B330" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>279</v>
@@ -10537,10 +10552,10 @@
     </row>
     <row r="331">
       <c r="A331" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>279</v>
@@ -10556,10 +10571,10 @@
     </row>
     <row r="332">
       <c r="A332" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B332" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>279</v>
@@ -10575,10 +10590,10 @@
     </row>
     <row r="333">
       <c r="A333" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B333" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>279</v>
@@ -10593,16 +10608,16 @@
       <c r="K333" s="4"/>
     </row>
     <row r="334">
-      <c r="A334" s="4" t="s">
+      <c r="A334" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B334" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B334" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C334" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D334" s="4"/>
+      <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
@@ -10707,7 +10722,7 @@
       <c r="K339" s="4"/>
     </row>
     <row r="340">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="4" t="s">
         <v>533</v>
       </c>
       <c r="B340" s="4" t="s">
@@ -10726,7 +10741,7 @@
       <c r="K340" s="4"/>
     </row>
     <row r="341">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B341" s="4" t="s">
@@ -10749,7 +10764,7 @@
         <v>535</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>1100</v>
+        <v>105</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>279</v>
@@ -10768,7 +10783,7 @@
         <v>536</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>105</v>
+        <v>1105</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>279</v>
@@ -10806,7 +10821,7 @@
         <v>538</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1101</v>
+        <v>105</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>279</v>
@@ -10825,7 +10840,7 @@
         <v>539</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>279</v>
@@ -10844,7 +10859,7 @@
         <v>540</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>279</v>
@@ -10863,7 +10878,7 @@
         <v>541</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>279</v>
@@ -10882,7 +10897,7 @@
         <v>542</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>279</v>
@@ -10901,7 +10916,7 @@
         <v>543</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>105</v>
+        <v>1110</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>279</v>
@@ -10920,7 +10935,7 @@
         <v>544</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1106</v>
+        <v>105</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>279</v>
@@ -10939,7 +10954,7 @@
         <v>545</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>546</v>
+        <v>1111</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>279</v>
@@ -10955,10 +10970,10 @@
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B353" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>279</v>
@@ -10974,10 +10989,10 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>279</v>
@@ -10993,10 +11008,10 @@
     </row>
     <row r="355">
       <c r="A355" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B355" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>1107</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>279</v>
@@ -11014,8 +11029,8 @@
       <c r="A356" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B356" s="3" t="s">
-        <v>353</v>
+      <c r="B356" s="4" t="s">
+        <v>1112</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>279</v>
@@ -11052,8 +11067,8 @@
       <c r="A358" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B358" s="4" t="s">
-        <v>1108</v>
+      <c r="B358" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>279</v>
@@ -11069,10 +11084,10 @@
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>279</v>
@@ -11088,10 +11103,10 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>556</v>
+        <v>1114</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>279</v>
@@ -11107,10 +11122,10 @@
     </row>
     <row r="361">
       <c r="A361" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B361" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>279</v>
@@ -11129,7 +11144,7 @@
         <v>558</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1110</v>
+        <v>335</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>279</v>
@@ -11144,16 +11159,16 @@
       <c r="K362" s="4"/>
     </row>
     <row r="363">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="4" t="s">
         <v>559</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>335</v>
+        <v>1115</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D363" s="3"/>
+      <c r="D363" s="4"/>
       <c r="E363" s="3"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -11163,16 +11178,16 @@
       <c r="K363" s="4"/>
     </row>
     <row r="364">
-      <c r="A364" s="4" t="s">
+      <c r="A364" s="3" t="s">
         <v>560</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1111</v>
+        <v>335</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D364" s="4"/>
+      <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
@@ -11186,7 +11201,7 @@
         <v>561</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>279</v>
@@ -11205,7 +11220,7 @@
         <v>562</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>279</v>
@@ -11224,7 +11239,7 @@
         <v>563</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>279</v>
@@ -11243,7 +11258,7 @@
         <v>564</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>279</v>
@@ -11262,7 +11277,7 @@
         <v>565</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>566</v>
+        <v>1120</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>279</v>
@@ -11278,10 +11293,10 @@
     </row>
     <row r="370">
       <c r="A370" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B370" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>279</v>
@@ -11300,7 +11315,7 @@
         <v>568</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>279</v>
@@ -11319,7 +11334,7 @@
         <v>569</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>279</v>
@@ -11334,16 +11349,16 @@
       <c r="K372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B373" s="3" t="s">
-        <v>487</v>
+      <c r="B373" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D373" s="3"/>
+      <c r="D373" s="4"/>
       <c r="E373" s="3"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
@@ -11353,16 +11368,16 @@
       <c r="K373" s="4"/>
     </row>
     <row r="374">
-      <c r="A374" s="4" t="s">
+      <c r="A374" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B374" s="4" t="s">
-        <v>487</v>
+      <c r="B374" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D374" s="4"/>
+      <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
@@ -11376,7 +11391,7 @@
         <v>572</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1116</v>
+        <v>488</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>279</v>
@@ -11395,7 +11410,7 @@
         <v>573</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>279</v>
@@ -11414,7 +11429,7 @@
         <v>574</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>341</v>
+        <v>1122</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>279</v>
@@ -11433,7 +11448,7 @@
         <v>575</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>576</v>
+        <v>341</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>279</v>
@@ -11449,10 +11464,10 @@
     </row>
     <row r="379">
       <c r="A379" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B379" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>279</v>
@@ -11470,8 +11485,8 @@
       <c r="A380" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B380" s="4" t="s">
-        <v>1118</v>
+      <c r="B380" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>279</v>
@@ -11490,7 +11505,7 @@
         <v>579</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>80</v>
+        <v>1123</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>279</v>
@@ -11509,7 +11524,7 @@
         <v>580</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1119</v>
+        <v>80</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>279</v>
@@ -11528,7 +11543,7 @@
         <v>581</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>582</v>
+        <v>1124</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>279</v>
@@ -11544,18 +11559,16 @@
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B384" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B384" s="4" t="s">
-        <v>584</v>
-      </c>
       <c r="C384" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D384" s="4"/>
-      <c r="E384" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E384" s="3"/>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
@@ -11564,17 +11577,19 @@
       <c r="K384" s="4"/>
     </row>
     <row r="385">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B385" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B385" s="3" t="s">
-        <v>586</v>
-      </c>
       <c r="C385" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D385" s="4"/>
-      <c r="E385" s="3"/>
+      <c r="E385" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
@@ -11583,11 +11598,11 @@
       <c r="K385" s="4"/>
     </row>
     <row r="386">
-      <c r="A386" s="4" t="s">
+      <c r="A386" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B386" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>279</v>
@@ -11603,10 +11618,10 @@
     </row>
     <row r="387">
       <c r="A387" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B387" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="B387" s="4" t="s">
-        <v>1120</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>279</v>
@@ -11625,7 +11640,7 @@
         <v>590</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>279</v>
@@ -11644,7 +11659,7 @@
         <v>591</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>279</v>
@@ -11663,7 +11678,7 @@
         <v>592</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>593</v>
+        <v>1127</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>279</v>
@@ -11679,10 +11694,10 @@
     </row>
     <row r="391">
       <c r="A391" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>279</v>
@@ -11698,10 +11713,10 @@
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B392" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>279</v>
@@ -11717,10 +11732,10 @@
     </row>
     <row r="393">
       <c r="A393" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B393" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>1123</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>279</v>
@@ -11738,8 +11753,8 @@
       <c r="A394" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="B394" s="1" t="s">
-        <v>150</v>
+      <c r="B394" s="4" t="s">
+        <v>1128</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>279</v>
@@ -11757,8 +11772,8 @@
       <c r="A395" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B395" s="4" t="s">
-        <v>601</v>
+      <c r="B395" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>279</v>
@@ -11774,10 +11789,10 @@
     </row>
     <row r="396">
       <c r="A396" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B396" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="B396" s="4" t="s">
-        <v>1124</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>279</v>
@@ -11796,7 +11811,7 @@
         <v>603</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>279</v>
@@ -11815,7 +11830,7 @@
         <v>604</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>605</v>
+        <v>1130</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>279</v>
@@ -11831,10 +11846,10 @@
     </row>
     <row r="399">
       <c r="A399" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B399" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>279</v>
@@ -11850,10 +11865,10 @@
     </row>
     <row r="400">
       <c r="A400" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B400" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="B400" s="4" t="s">
-        <v>1126</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>279</v>
@@ -11872,7 +11887,7 @@
         <v>609</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>279</v>
@@ -11891,7 +11906,7 @@
         <v>610</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>324</v>
+        <v>1132</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>279</v>
@@ -11910,7 +11925,7 @@
         <v>611</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>612</v>
+        <v>324</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>279</v>
@@ -11926,10 +11941,10 @@
     </row>
     <row r="404">
       <c r="A404" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B404" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>1128</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>279</v>
@@ -11948,7 +11963,7 @@
         <v>614</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>279</v>
@@ -11967,7 +11982,7 @@
         <v>615</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>279</v>
@@ -11986,7 +12001,7 @@
         <v>616</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>279</v>
@@ -12005,7 +12020,7 @@
         <v>617</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>279</v>
@@ -12024,7 +12039,7 @@
         <v>618</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>279</v>
@@ -12043,7 +12058,7 @@
         <v>619</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>279</v>
@@ -12062,7 +12077,7 @@
         <v>620</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>621</v>
+        <v>1139</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>279</v>
@@ -12078,10 +12093,10 @@
     </row>
     <row r="412">
       <c r="A412" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B412" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>279</v>
@@ -12097,10 +12112,10 @@
     </row>
     <row r="413">
       <c r="A413" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B413" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>279</v>
@@ -12119,7 +12134,7 @@
         <v>625</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>626</v>
+        <v>494</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>279</v>
@@ -12135,10 +12150,10 @@
     </row>
     <row r="415">
       <c r="A415" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B415" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>1135</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>279</v>
@@ -12156,8 +12171,8 @@
       <c r="A416" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>97</v>
+      <c r="B416" s="4" t="s">
+        <v>1140</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>279</v>
@@ -12175,8 +12190,8 @@
       <c r="A417" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="B417" s="4" t="s">
-        <v>630</v>
+      <c r="B417" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>279</v>
@@ -12192,10 +12207,10 @@
     </row>
     <row r="418">
       <c r="A418" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B418" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="B418" s="4" t="s">
-        <v>1136</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>279</v>
@@ -12214,7 +12229,7 @@
         <v>632</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>633</v>
+        <v>1141</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>279</v>
@@ -12229,16 +12244,16 @@
       <c r="K419" s="4"/>
     </row>
     <row r="420">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B420" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="B420" s="3" t="s">
-        <v>635</v>
-      </c>
       <c r="C420" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D420" s="3"/>
+      <c r="D420" s="4"/>
       <c r="E420" s="3"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
@@ -12249,10 +12264,10 @@
     </row>
     <row r="421">
       <c r="A421" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B421" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>279</v>
@@ -12271,7 +12286,7 @@
         <v>637</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>638</v>
+        <v>397</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>279</v>
@@ -12287,10 +12302,10 @@
     </row>
     <row r="423">
       <c r="A423" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B423" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>640</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>279</v>
@@ -12306,10 +12321,10 @@
     </row>
     <row r="424">
       <c r="A424" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B424" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>279</v>
@@ -12328,7 +12343,7 @@
         <v>642</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>643</v>
+        <v>517</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>279</v>
@@ -12344,10 +12359,10 @@
     </row>
     <row r="426">
       <c r="A426" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B426" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>279</v>
@@ -12366,7 +12381,7 @@
         <v>645</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>39</v>
+        <v>363</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>279</v>
@@ -12385,15 +12400,13 @@
         <v>646</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>647</v>
+        <v>39</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D428" s="3"/>
-      <c r="E428" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E428" s="3"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
@@ -12403,16 +12416,18 @@
     </row>
     <row r="429">
       <c r="A429" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B429" s="3" t="s">
-        <v>649</v>
-      </c>
       <c r="C429" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D429" s="3"/>
-      <c r="E429" s="3"/>
+      <c r="E429" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
@@ -12421,16 +12436,16 @@
       <c r="K429" s="4"/>
     </row>
     <row r="430">
-      <c r="A430" s="4" t="s">
+      <c r="A430" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B430" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B430" s="4" t="s">
-        <v>651</v>
-      </c>
       <c r="C430" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D430" s="4"/>
+      <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
@@ -12441,10 +12456,10 @@
     </row>
     <row r="431">
       <c r="A431" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B431" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="B431" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>279</v>
@@ -12482,7 +12497,7 @@
         <v>654</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1137</v>
+        <v>105</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>279</v>
@@ -12501,15 +12516,13 @@
         <v>655</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>105</v>
+        <v>1142</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D434" s="4"/>
-      <c r="E434" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E434" s="3"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
@@ -12521,14 +12534,16 @@
       <c r="A435" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="B435" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D435" s="4"/>
-      <c r="E435" s="3"/>
+      <c r="E435" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
@@ -12578,7 +12593,7 @@
       <c r="A438" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -12597,7 +12612,7 @@
       <c r="A439" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B439" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C439" s="2" t="s">
@@ -12616,7 +12631,7 @@
       <c r="A440" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="B440" s="4" t="s">
+      <c r="B440" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C440" s="2" t="s">
@@ -12787,7 +12802,7 @@
       <c r="A449" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="B449" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C449" s="2" t="s">
@@ -12825,7 +12840,7 @@
       <c r="A451" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="B451" s="4" t="s">
+      <c r="B451" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C451" s="2" t="s">
@@ -12863,7 +12878,7 @@
       <c r="A453" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B453" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C453" s="2" t="s">
@@ -12882,13 +12897,13 @@
       <c r="A454" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="B454" s="4" t="s">
+      <c r="B454" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D454" s="3"/>
+      <c r="D454" s="4"/>
       <c r="E454" s="3"/>
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
@@ -12902,12 +12917,12 @@
         <v>676</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D455" s="4"/>
+      <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
@@ -12958,7 +12973,7 @@
       <c r="A458" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="B458" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C458" s="2" t="s">
@@ -12974,10 +12989,10 @@
       <c r="K458" s="4"/>
     </row>
     <row r="459">
-      <c r="A459" s="3" t="s">
+      <c r="A459" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="B459" s="4" t="s">
+      <c r="B459" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C459" s="2" t="s">
@@ -12993,7 +13008,7 @@
       <c r="K459" s="4"/>
     </row>
     <row r="460">
-      <c r="A460" s="4" t="s">
+      <c r="A460" s="3" t="s">
         <v>681</v>
       </c>
       <c r="B460" s="4" t="s">
@@ -13016,7 +13031,7 @@
         <v>682</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>279</v>
@@ -13072,7 +13087,7 @@
       <c r="A464" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="B464" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C464" s="2" t="s">
@@ -13091,8 +13106,8 @@
       <c r="A465" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="B465" s="4" t="s">
-        <v>353</v>
+      <c r="B465" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>279</v>
@@ -13110,7 +13125,7 @@
       <c r="A466" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B466" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C466" s="2" t="s">
@@ -13126,16 +13141,16 @@
       <c r="K466" s="4"/>
     </row>
     <row r="467">
-      <c r="A467" s="3" t="s">
+      <c r="A467" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="B467" s="4" t="s">
+      <c r="B467" s="3" t="s">
         <v>353</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D467" s="3"/>
+      <c r="D467" s="4"/>
       <c r="E467" s="3"/>
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
@@ -13164,16 +13179,16 @@
       <c r="K468" s="4"/>
     </row>
     <row r="469">
-      <c r="A469" s="4" t="s">
+      <c r="A469" s="3" t="s">
         <v>690</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>691</v>
+        <v>353</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D469" s="4"/>
+      <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
@@ -13184,10 +13199,10 @@
     </row>
     <row r="470">
       <c r="A470" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B470" s="4" t="s">
         <v>692</v>
-      </c>
-      <c r="B470" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>279</v>
@@ -13205,7 +13220,7 @@
       <c r="A471" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B471" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C471" s="2" t="s">
@@ -13221,7 +13236,7 @@
       <c r="K471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="3" t="s">
+      <c r="A472" s="4" t="s">
         <v>694</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -13240,11 +13255,11 @@
       <c r="K472" s="4"/>
     </row>
     <row r="473">
-      <c r="A473" s="4" t="s">
+      <c r="A473" s="3" t="s">
         <v>695</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>696</v>
+        <v>359</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>279</v>
@@ -13259,11 +13274,11 @@
       <c r="K473" s="4"/>
     </row>
     <row r="474">
-      <c r="A474" s="3" t="s">
+      <c r="A474" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>279</v>
@@ -13316,11 +13331,11 @@
       <c r="K476" s="4"/>
     </row>
     <row r="477">
-      <c r="A477" s="4" t="s">
+      <c r="A477" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>522</v>
+      <c r="B477" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>279</v>
@@ -13339,15 +13354,13 @@
         <v>701</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D478" s="4"/>
-      <c r="E478" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E478" s="3"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
@@ -13356,17 +13369,19 @@
       <c r="K478" s="4"/>
     </row>
     <row r="479">
-      <c r="A479" s="3" t="s">
+      <c r="A479" s="4" t="s">
         <v>702</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D479" s="4"/>
-      <c r="E479" s="3"/>
+      <c r="E479" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
@@ -13375,11 +13390,11 @@
       <c r="K479" s="4"/>
     </row>
     <row r="480">
-      <c r="A480" s="4" t="s">
+      <c r="A480" s="3" t="s">
         <v>703</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>704</v>
+        <v>523</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>279</v>
@@ -13395,10 +13410,10 @@
     </row>
     <row r="481">
       <c r="A481" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>704</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>279</v>
@@ -13413,16 +13428,16 @@
       <c r="K481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="3" t="s">
+      <c r="A482" s="4" t="s">
         <v>706</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D482" s="3"/>
+      <c r="D482" s="4"/>
       <c r="E482" s="3"/>
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
@@ -13432,16 +13447,16 @@
       <c r="K482" s="4"/>
     </row>
     <row r="483">
-      <c r="A483" s="4" t="s">
+      <c r="A483" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>708</v>
+      <c r="B483" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D483" s="4"/>
+      <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
@@ -13452,10 +13467,10 @@
     </row>
     <row r="484">
       <c r="A484" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>279</v>
@@ -13474,7 +13489,7 @@
         <v>710</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>279</v>
@@ -13493,7 +13508,7 @@
         <v>711</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>313</v>
+        <v>709</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>279</v>
@@ -13517,7 +13532,7 @@
       <c r="C487" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D487" s="3"/>
+      <c r="D487" s="4"/>
       <c r="E487" s="3"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
@@ -13550,12 +13565,12 @@
         <v>714</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D489" s="4"/>
+      <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
@@ -13565,7 +13580,7 @@
       <c r="K489" s="4"/>
     </row>
     <row r="490">
-      <c r="A490" s="3" t="s">
+      <c r="A490" s="4" t="s">
         <v>715</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -13603,11 +13618,11 @@
       <c r="K491" s="4"/>
     </row>
     <row r="492">
-      <c r="A492" s="4" t="s">
+      <c r="A492" s="3" t="s">
         <v>717</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>718</v>
+        <v>324</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>279</v>
@@ -13623,10 +13638,10 @@
     </row>
     <row r="493">
       <c r="A493" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>718</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>279</v>
@@ -13641,16 +13656,16 @@
       <c r="K493" s="4"/>
     </row>
     <row r="494">
-      <c r="A494" s="3" t="s">
+      <c r="A494" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>718</v>
+      <c r="B494" s="3" t="s">
+        <v>719</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D494" s="3"/>
+      <c r="D494" s="4"/>
       <c r="E494" s="3"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
@@ -13660,16 +13675,16 @@
       <c r="K494" s="4"/>
     </row>
     <row r="495">
-      <c r="A495" s="4" t="s">
+      <c r="A495" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B495" s="4" t="s">
-        <v>1138</v>
+      <c r="B495" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D495" s="4"/>
+      <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
@@ -13683,7 +13698,7 @@
         <v>722</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>346</v>
+        <v>1143</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>279</v>
@@ -13701,8 +13716,8 @@
       <c r="A497" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>139</v>
+      <c r="B497" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>279</v>
@@ -13739,8 +13754,8 @@
       <c r="A499" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="B499" s="4" t="s">
-        <v>1139</v>
+      <c r="B499" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>279</v>
@@ -13758,8 +13773,8 @@
       <c r="A500" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="B500" s="1" t="s">
-        <v>366</v>
+      <c r="B500" s="4" t="s">
+        <v>1144</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>279</v>
@@ -13777,8 +13792,8 @@
       <c r="A501" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="B501" s="4" t="s">
-        <v>479</v>
+      <c r="B501" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>279</v>
@@ -13797,7 +13812,7 @@
         <v>728</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>279</v>
@@ -13815,8 +13830,8 @@
       <c r="A503" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>607</v>
+      <c r="B503" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>279</v>
@@ -13835,7 +13850,7 @@
         <v>730</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>279</v>
@@ -13854,7 +13869,7 @@
         <v>731</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>120</v>
+        <v>608</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>279</v>
@@ -13872,7 +13887,7 @@
       <c r="A506" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="B506" s="4" t="s">
+      <c r="B506" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C506" s="2" t="s">
@@ -13891,8 +13906,8 @@
       <c r="A507" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B507" s="3" t="s">
-        <v>734</v>
+      <c r="B507" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>279</v>
@@ -13908,10 +13923,10 @@
     </row>
     <row r="508">
       <c r="A508" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B508" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>279</v>
@@ -13930,7 +13945,7 @@
         <v>736</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>605</v>
+        <v>735</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>279</v>
@@ -13949,15 +13964,13 @@
         <v>737</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D510" s="4"/>
-      <c r="E510" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E510" s="3"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
@@ -13970,13 +13983,15 @@
         <v>738</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>463</v>
+        <v>606</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D511" s="4"/>
-      <c r="E511" s="3"/>
+      <c r="E511" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
@@ -13988,8 +14003,8 @@
       <c r="A512" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B512" s="4" t="s">
-        <v>463</v>
+      <c r="B512" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>279</v>
@@ -14007,8 +14022,8 @@
       <c r="A513" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="B513" s="1" t="s">
-        <v>586</v>
+      <c r="B513" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>279</v>
@@ -14023,11 +14038,11 @@
       <c r="K513" s="4"/>
     </row>
     <row r="514">
-      <c r="A514" s="3" t="s">
+      <c r="A514" s="4" t="s">
         <v>741</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>279</v>
@@ -14042,11 +14057,11 @@
       <c r="K514" s="4"/>
     </row>
     <row r="515">
-      <c r="A515" s="4" t="s">
+      <c r="A515" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B515" s="4" t="s">
-        <v>376</v>
+      <c r="B515" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>279</v>
@@ -14065,7 +14080,7 @@
         <v>743</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>279</v>
@@ -14084,7 +14099,7 @@
         <v>744</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>279</v>
@@ -14099,7 +14114,7 @@
       <c r="K517" s="4"/>
     </row>
     <row r="518">
-      <c r="A518" s="3" t="s">
+      <c r="A518" s="4" t="s">
         <v>745</v>
       </c>
       <c r="B518" s="4" t="s">
@@ -14109,9 +14124,7 @@
         <v>279</v>
       </c>
       <c r="D518" s="4"/>
-      <c r="E518" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E518" s="3"/>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
@@ -14120,17 +14133,19 @@
       <c r="K518" s="4"/>
     </row>
     <row r="519">
-      <c r="A519" s="4" t="s">
+      <c r="A519" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B519" s="5" t="s">
-        <v>747</v>
+      <c r="B519" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D519" s="4"/>
-      <c r="E519" s="3"/>
+      <c r="E519" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
@@ -14139,11 +14154,11 @@
       <c r="K519" s="4"/>
     </row>
     <row r="520">
-      <c r="A520" s="3" t="s">
+      <c r="A520" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B520" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="B520" s="5" t="s">
-        <v>747</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>279</v>
@@ -14158,11 +14173,11 @@
       <c r="K520" s="4"/>
     </row>
     <row r="521">
-      <c r="A521" s="4" t="s">
+      <c r="A521" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B521" s="4" t="s">
-        <v>144</v>
+      <c r="B521" s="5" t="s">
+        <v>748</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>279</v>
@@ -14177,16 +14192,16 @@
       <c r="K521" s="4"/>
     </row>
     <row r="522">
-      <c r="A522" s="3" t="s">
+      <c r="A522" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="B522" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D522" s="3"/>
+      <c r="D522" s="4"/>
       <c r="E522" s="3"/>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
@@ -14196,16 +14211,16 @@
       <c r="K522" s="4"/>
     </row>
     <row r="523">
-      <c r="A523" s="4" t="s">
+      <c r="A523" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B523" s="5" t="s">
-        <v>431</v>
+      <c r="B523" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D523" s="4"/>
+      <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
@@ -14215,11 +14230,11 @@
       <c r="K523" s="4"/>
     </row>
     <row r="524">
-      <c r="A524" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="B524" s="1" t="s">
+      <c r="A524" s="4" t="s">
         <v>752</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>279</v>
@@ -14234,19 +14249,17 @@
       <c r="K524" s="4"/>
     </row>
     <row r="525">
-      <c r="A525" s="4" t="s">
+      <c r="A525" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B525" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B525" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="C525" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D525" s="4"/>
-      <c r="E525" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E525" s="3"/>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
@@ -14258,14 +14271,16 @@
       <c r="A526" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>755</v>
+      <c r="B526" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D526" s="4"/>
-      <c r="E526" s="3"/>
+      <c r="E526" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
@@ -14275,10 +14290,10 @@
     </row>
     <row r="527">
       <c r="A527" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B527" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="B527" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>279</v>
@@ -14297,7 +14312,7 @@
         <v>757</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>758</v>
+        <v>567</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>279</v>
@@ -14313,10 +14328,10 @@
     </row>
     <row r="529">
       <c r="A529" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B529" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>279</v>
@@ -14334,8 +14349,8 @@
       <c r="A530" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="B530" s="3" t="s">
-        <v>761</v>
+      <c r="B530" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>279</v>
@@ -14351,10 +14366,10 @@
     </row>
     <row r="531">
       <c r="A531" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B531" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>279</v>
@@ -14369,16 +14384,16 @@
       <c r="K531" s="4"/>
     </row>
     <row r="532">
-      <c r="A532" s="3" t="s">
+      <c r="A532" s="4" t="s">
         <v>763</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>764</v>
+        <v>423</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D532" s="3"/>
+      <c r="D532" s="4"/>
       <c r="E532" s="3"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
@@ -14388,16 +14403,16 @@
       <c r="K532" s="4"/>
     </row>
     <row r="533">
-      <c r="A533" s="4" t="s">
+      <c r="A533" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B533" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B533" s="4" t="s">
-        <v>766</v>
-      </c>
       <c r="C533" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D533" s="4"/>
+      <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
@@ -14408,10 +14423,10 @@
     </row>
     <row r="534">
       <c r="A534" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B534" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="B534" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>279</v>
@@ -14429,8 +14444,8 @@
       <c r="A535" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B535" s="4" t="s">
-        <v>443</v>
+      <c r="B535" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>279</v>
@@ -14448,8 +14463,8 @@
       <c r="A536" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B536" s="5" t="s">
-        <v>170</v>
+      <c r="B536" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>279</v>
@@ -14467,8 +14482,8 @@
       <c r="A537" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>771</v>
+      <c r="B537" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>279</v>
@@ -14484,10 +14499,10 @@
     </row>
     <row r="538">
       <c r="A538" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B538" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="B538" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>279</v>
@@ -14505,8 +14520,8 @@
       <c r="A539" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B539" s="1" t="s">
-        <v>503</v>
+      <c r="B539" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>279</v>
@@ -14525,7 +14540,7 @@
         <v>774</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>775</v>
+        <v>504</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>279</v>
@@ -14541,10 +14556,10 @@
     </row>
     <row r="541">
       <c r="A541" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B541" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>279</v>
@@ -14563,7 +14578,7 @@
         <v>777</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>778</v>
+        <v>631</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>279</v>
@@ -14579,10 +14594,10 @@
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B543" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>279</v>
@@ -14598,10 +14613,10 @@
     </row>
     <row r="544">
       <c r="A544" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B544" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="B544" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>279</v>
@@ -14619,8 +14634,8 @@
       <c r="A545" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="B545" s="1" t="s">
-        <v>139</v>
+      <c r="B545" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>279</v>
@@ -14638,8 +14653,8 @@
       <c r="A546" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="B546" s="4" t="s">
-        <v>784</v>
+      <c r="B546" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>279</v>
@@ -14655,10 +14670,10 @@
     </row>
     <row r="547">
       <c r="A547" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B547" s="4" t="s">
         <v>785</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>279</v>
@@ -14674,10 +14689,10 @@
     </row>
     <row r="548">
       <c r="A548" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B548" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="B548" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>279</v>
@@ -14693,10 +14708,10 @@
     </row>
     <row r="549">
       <c r="A549" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B549" s="4" t="s">
         <v>789</v>
-      </c>
-      <c r="B549" s="4" t="s">
-        <v>790</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>279</v>
@@ -14712,10 +14727,10 @@
     </row>
     <row r="550">
       <c r="A550" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B550" s="4" t="s">
         <v>791</v>
-      </c>
-      <c r="B550" s="4" t="s">
-        <v>792</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>279</v>
@@ -14731,10 +14746,10 @@
     </row>
     <row r="551">
       <c r="A551" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B551" s="4" t="s">
         <v>793</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>279</v>
@@ -14752,8 +14767,8 @@
       <c r="A552" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B552" s="3" t="s">
-        <v>795</v>
+      <c r="B552" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>279</v>
@@ -14769,10 +14784,10 @@
     </row>
     <row r="553">
       <c r="A553" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B553" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="B553" s="4" t="s">
-        <v>797</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>279</v>
@@ -14788,10 +14803,10 @@
     </row>
     <row r="554">
       <c r="A554" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B554" s="4" t="s">
         <v>798</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>279</v>
@@ -14807,10 +14822,10 @@
     </row>
     <row r="555">
       <c r="A555" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="B555" s="4" t="s">
-        <v>801</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>279</v>
@@ -14826,10 +14841,10 @@
     </row>
     <row r="556">
       <c r="A556" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B556" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="B556" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>279</v>
@@ -14845,10 +14860,10 @@
     </row>
     <row r="557">
       <c r="A557" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B557" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>279</v>
@@ -14864,10 +14879,10 @@
     </row>
     <row r="558">
       <c r="A558" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B558" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>807</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>279</v>
@@ -14883,10 +14898,10 @@
     </row>
     <row r="559">
       <c r="A559" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B559" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>279</v>
@@ -14902,10 +14917,10 @@
     </row>
     <row r="560">
       <c r="A560" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B560" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="B560" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>279</v>
@@ -14924,7 +14939,7 @@
         <v>811</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>812</v>
+        <v>440</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>279</v>
@@ -14939,11 +14954,11 @@
       <c r="K561" s="4"/>
     </row>
     <row r="562">
-      <c r="A562" s="3" t="s">
+      <c r="A562" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B562" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>814</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>279</v>
@@ -14958,11 +14973,11 @@
       <c r="K562" s="4"/>
     </row>
     <row r="563">
-      <c r="A563" s="4" t="s">
+      <c r="A563" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B563" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="B563" s="4" t="s">
-        <v>816</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>279</v>
@@ -14978,10 +14993,10 @@
     </row>
     <row r="564">
       <c r="A564" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B564" s="4" t="s">
         <v>817</v>
-      </c>
-      <c r="B564" s="4" t="s">
-        <v>818</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>279</v>
@@ -14997,10 +15012,10 @@
     </row>
     <row r="565">
       <c r="A565" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B565" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="B565" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>279</v>
@@ -15019,7 +15034,7 @@
         <v>820</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>626</v>
+        <v>363</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>279</v>
@@ -15034,11 +15049,11 @@
       <c r="K566" s="4"/>
     </row>
     <row r="567">
-      <c r="A567" s="3" t="s">
+      <c r="A567" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="B567" s="1" t="s">
-        <v>822</v>
+      <c r="B567" s="4" t="s">
+        <v>627</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>279</v>
@@ -15053,11 +15068,11 @@
       <c r="K567" s="4"/>
     </row>
     <row r="568">
-      <c r="A568" s="4" t="s">
+      <c r="A568" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B568" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>279</v>
@@ -15073,10 +15088,10 @@
     </row>
     <row r="569">
       <c r="A569" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B569" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="B569" s="4" t="s">
-        <v>826</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>279</v>
@@ -15092,10 +15107,10 @@
     </row>
     <row r="570">
       <c r="A570" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B570" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="B570" s="4" t="s">
-        <v>828</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>279</v>
@@ -15110,11 +15125,11 @@
       <c r="K570" s="4"/>
     </row>
     <row r="571">
-      <c r="A571" s="3" t="s">
+      <c r="A571" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B571" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="B571" s="3" t="s">
-        <v>830</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>279</v>
@@ -15130,10 +15145,10 @@
     </row>
     <row r="572">
       <c r="A572" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B572" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="B572" s="3" t="s">
-        <v>832</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>279</v>
@@ -15149,10 +15164,10 @@
     </row>
     <row r="573">
       <c r="A573" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B573" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="B573" s="3" t="s">
-        <v>834</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>279</v>
@@ -15168,10 +15183,10 @@
     </row>
     <row r="574">
       <c r="A574" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B574" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="B574" s="3" t="s">
-        <v>836</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>279</v>
@@ -15187,10 +15202,10 @@
     </row>
     <row r="575">
       <c r="A575" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B575" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="B575" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>279</v>
@@ -15205,11 +15220,11 @@
       <c r="K575" s="4"/>
     </row>
     <row r="576">
-      <c r="A576" s="4" t="s">
+      <c r="A576" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="B576" s="4" t="s">
-        <v>286</v>
+      <c r="B576" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>279</v>
@@ -15227,8 +15242,8 @@
       <c r="A577" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="B577" s="1" t="s">
-        <v>105</v>
+      <c r="B577" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>279</v>
@@ -15265,7 +15280,7 @@
       <c r="A579" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B579" s="4" t="s">
+      <c r="B579" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C579" s="2" t="s">
@@ -15303,7 +15318,7 @@
       <c r="A581" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B581" s="2" t="s">
+      <c r="B581" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C581" s="2" t="s">
@@ -15322,7 +15337,7 @@
       <c r="A582" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="B582" s="1" t="s">
+      <c r="B582" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C582" s="2" t="s">
@@ -15348,9 +15363,7 @@
         <v>279</v>
       </c>
       <c r="D583" s="4"/>
-      <c r="E583" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E583" s="3"/>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
@@ -15360,16 +15373,18 @@
     </row>
     <row r="584">
       <c r="A584" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B584" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B584" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D584" s="4"/>
-      <c r="E584" s="3"/>
+      <c r="E584" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
@@ -15379,7 +15394,7 @@
     </row>
     <row r="585">
       <c r="A585" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>105</v>
@@ -15419,7 +15434,7 @@
       <c r="A587" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="B587" s="1" t="s">
+      <c r="B587" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C587" s="2" t="s">
@@ -15454,7 +15469,7 @@
       <c r="K588" s="4"/>
     </row>
     <row r="589">
-      <c r="A589" s="3" t="s">
+      <c r="A589" s="4" t="s">
         <v>850</v>
       </c>
       <c r="B589" s="1" t="s">
@@ -15463,7 +15478,7 @@
       <c r="C589" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D589" s="3"/>
+      <c r="D589" s="4"/>
       <c r="E589" s="3"/>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
@@ -15473,16 +15488,16 @@
       <c r="K589" s="4"/>
     </row>
     <row r="590">
-      <c r="A590" s="4" t="s">
+      <c r="A590" s="3" t="s">
         <v>851</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>353</v>
+        <v>105</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D590" s="4"/>
+      <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
@@ -15495,7 +15510,7 @@
       <c r="A591" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B591" s="4" t="s">
+      <c r="B591" s="1" t="s">
         <v>353</v>
       </c>
       <c r="C591" s="2" t="s">
@@ -15514,7 +15529,7 @@
       <c r="A592" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="B592" s="1" t="s">
+      <c r="B592" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C592" s="2" t="s">
@@ -15534,7 +15549,7 @@
         <v>854</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>279</v>
@@ -15552,7 +15567,7 @@
       <c r="A594" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="B594" s="4" t="s">
+      <c r="B594" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C594" s="2" t="s">
@@ -15571,7 +15586,7 @@
       <c r="A595" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="B595" s="1" t="s">
+      <c r="B595" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C595" s="2" t="s">
@@ -15591,7 +15606,7 @@
         <v>857</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>485</v>
+        <v>313</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>279</v>
@@ -15610,7 +15625,7 @@
         <v>858</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>279</v>
@@ -15629,7 +15644,7 @@
         <v>859</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>279</v>
@@ -15647,8 +15662,8 @@
       <c r="A599" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B599" s="4" t="s">
-        <v>463</v>
+      <c r="B599" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>279</v>
@@ -15666,8 +15681,8 @@
       <c r="A600" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B600" s="1" t="s">
-        <v>463</v>
+      <c r="B600" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>279</v>
@@ -15682,11 +15697,11 @@
       <c r="K600" s="4"/>
     </row>
     <row r="601">
-      <c r="A601" s="3" t="s">
+      <c r="A601" s="4" t="s">
         <v>862</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>279</v>
@@ -15701,11 +15716,11 @@
       <c r="K601" s="4"/>
     </row>
     <row r="602">
-      <c r="A602" s="4" t="s">
+      <c r="A602" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="B602" s="4" t="s">
-        <v>370</v>
+      <c r="B602" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>279</v>
@@ -15720,7 +15735,7 @@
       <c r="K602" s="4"/>
     </row>
     <row r="603">
-      <c r="A603" s="3" t="s">
+      <c r="A603" s="4" t="s">
         <v>864</v>
       </c>
       <c r="B603" s="4" t="s">
@@ -15738,14 +15753,14 @@
       <c r="J603" s="4"/>
       <c r="K603" s="4"/>
     </row>
-    <row r="604" ht="18.0" customHeight="true">
-      <c r="A604" s="7" t="s">
+    <row r="604">
+      <c r="A604" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B604" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="C604" s="8" t="s">
+      <c r="B604" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C604" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D604" s="4"/>
@@ -15757,14 +15772,14 @@
       <c r="J604" s="4"/>
       <c r="K604" s="4"/>
     </row>
-    <row r="605">
-      <c r="A605" s="4" t="s">
+    <row r="605" ht="18.0" customHeight="true">
+      <c r="A605" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="B605" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="B605" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C605" s="2" t="s">
+      <c r="C605" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D605" s="4"/>
@@ -15777,7 +15792,7 @@
       <c r="K605" s="4"/>
     </row>
     <row r="606">
-      <c r="A606" s="3" t="s">
+      <c r="A606" s="4" t="s">
         <v>868</v>
       </c>
       <c r="B606" s="1" t="s">
@@ -15796,11 +15811,11 @@
       <c r="K606" s="4"/>
     </row>
     <row r="607">
-      <c r="A607" s="4" t="s">
+      <c r="A607" s="3" t="s">
         <v>869</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>279</v>
@@ -15815,7 +15830,7 @@
       <c r="K607" s="4"/>
     </row>
     <row r="608">
-      <c r="A608" s="3" t="s">
+      <c r="A608" s="4" t="s">
         <v>870</v>
       </c>
       <c r="B608" s="1" t="s">
@@ -15824,7 +15839,7 @@
       <c r="C608" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D608" s="3"/>
+      <c r="D608" s="4"/>
       <c r="E608" s="3"/>
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
@@ -15834,16 +15849,16 @@
       <c r="K608" s="4"/>
     </row>
     <row r="609">
-      <c r="A609" s="4" t="s">
+      <c r="A609" s="3" t="s">
         <v>871</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>467</v>
+        <v>335</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D609" s="4"/>
+      <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
@@ -15857,7 +15872,7 @@
         <v>872</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>279</v>
@@ -15875,8 +15890,8 @@
       <c r="A611" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="B611" s="4" t="s">
-        <v>874</v>
+      <c r="B611" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>279</v>
@@ -15892,10 +15907,10 @@
     </row>
     <row r="612">
       <c r="A612" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B612" s="4" t="s">
         <v>875</v>
-      </c>
-      <c r="B612" s="4" t="s">
-        <v>876</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>279</v>
@@ -15911,10 +15926,10 @@
     </row>
     <row r="613">
       <c r="A613" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B613" s="4" t="s">
         <v>877</v>
-      </c>
-      <c r="B613" s="4" t="s">
-        <v>878</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>279</v>
@@ -15930,10 +15945,10 @@
     </row>
     <row r="614">
       <c r="A614" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B614" s="4" t="s">
         <v>879</v>
-      </c>
-      <c r="B614" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>279</v>
@@ -15952,7 +15967,7 @@
         <v>880</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>747</v>
+        <v>235</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>279</v>
@@ -15970,8 +15985,8 @@
       <c r="A616" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="B616" s="1" t="s">
-        <v>882</v>
+      <c r="B616" s="4" t="s">
+        <v>748</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>279</v>
@@ -15987,10 +16002,10 @@
     </row>
     <row r="617">
       <c r="A617" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B617" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B617" s="4" t="s">
-        <v>884</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>279</v>
@@ -16006,10 +16021,10 @@
     </row>
     <row r="618">
       <c r="A618" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B618" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>279</v>
@@ -16028,7 +16043,7 @@
         <v>886</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>120</v>
+        <v>523</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>279</v>
@@ -16047,7 +16062,7 @@
         <v>887</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>888</v>
+        <v>120</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>279</v>
@@ -16063,10 +16078,10 @@
     </row>
     <row r="621">
       <c r="A621" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B621" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B621" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>279</v>
@@ -16085,7 +16100,7 @@
         <v>890</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>780</v>
+        <v>154</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>279</v>
@@ -16103,8 +16118,8 @@
       <c r="A623" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="B623" s="3" t="s">
-        <v>892</v>
+      <c r="B623" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>279</v>
@@ -16120,10 +16135,10 @@
     </row>
     <row r="624">
       <c r="A624" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B624" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>279</v>
@@ -16139,10 +16154,10 @@
     </row>
     <row r="625">
       <c r="A625" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B625" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B625" s="4" t="s">
-        <v>896</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>279</v>
@@ -16158,10 +16173,10 @@
     </row>
     <row r="626">
       <c r="A626" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B626" s="4" t="s">
         <v>897</v>
-      </c>
-      <c r="B626" s="4" t="s">
-        <v>898</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>279</v>
@@ -16177,10 +16192,10 @@
     </row>
     <row r="627">
       <c r="A627" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B627" s="4" t="s">
         <v>899</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>279</v>
@@ -16199,7 +16214,7 @@
         <v>900</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>901</v>
+        <v>359</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>279</v>
@@ -16215,10 +16230,10 @@
     </row>
     <row r="629">
       <c r="A629" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="B629" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B629" s="4" t="s">
-        <v>903</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>279</v>
@@ -16234,10 +16249,10 @@
     </row>
     <row r="630">
       <c r="A630" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B630" s="4" t="s">
         <v>904</v>
-      </c>
-      <c r="B630" s="4" t="s">
-        <v>905</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>279</v>
@@ -16253,10 +16268,10 @@
     </row>
     <row r="631">
       <c r="A631" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B631" s="4" t="s">
         <v>906</v>
-      </c>
-      <c r="B631" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>279</v>
@@ -16275,7 +16290,7 @@
         <v>907</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>908</v>
+        <v>380</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>279</v>
@@ -16291,10 +16306,10 @@
     </row>
     <row r="633">
       <c r="A633" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B633" s="4" t="s">
         <v>909</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>279</v>
@@ -16310,10 +16325,10 @@
     </row>
     <row r="634">
       <c r="A634" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B634" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>279</v>
@@ -16329,10 +16344,10 @@
     </row>
     <row r="635">
       <c r="A635" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B635" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="B635" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>279</v>
@@ -16350,8 +16365,8 @@
       <c r="A636" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="B636" s="1" t="s">
-        <v>427</v>
+      <c r="B636" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>279</v>
@@ -16370,7 +16385,7 @@
         <v>915</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>916</v>
+        <v>428</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>279</v>
@@ -16386,10 +16401,10 @@
     </row>
     <row r="638">
       <c r="A638" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B638" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>279</v>
@@ -16405,10 +16420,10 @@
     </row>
     <row r="639">
       <c r="A639" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B639" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>279</v>
@@ -16426,8 +16441,8 @@
       <c r="A640" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B640" s="4" t="s">
-        <v>324</v>
+      <c r="B640" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>279</v>
@@ -16445,8 +16460,8 @@
       <c r="A641" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="B641" s="1" t="s">
-        <v>489</v>
+      <c r="B641" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>279</v>
@@ -16464,8 +16479,8 @@
       <c r="A642" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="B642" s="4" t="s">
-        <v>341</v>
+      <c r="B642" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>279</v>
@@ -16484,7 +16499,7 @@
         <v>923</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>805</v>
+        <v>341</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>279</v>
@@ -16503,7 +16518,7 @@
         <v>924</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>878</v>
+        <v>806</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>279</v>
@@ -16518,16 +16533,16 @@
       <c r="K644" s="4"/>
     </row>
     <row r="645">
-      <c r="A645" s="3" t="s">
+      <c r="A645" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="B645" s="3" t="s">
-        <v>926</v>
+      <c r="B645" s="4" t="s">
+        <v>879</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D645" s="3"/>
+      <c r="D645" s="4"/>
       <c r="E645" s="3"/>
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
@@ -16536,17 +16551,17 @@
       <c r="J645" s="4"/>
       <c r="K645" s="4"/>
     </row>
-    <row r="646" ht="18.0" customHeight="true">
-      <c r="A646" s="7" t="s">
+    <row r="646">
+      <c r="A646" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B646" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="B646" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C646" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D646" s="4"/>
+      <c r="C646" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
@@ -16560,7 +16575,7 @@
         <v>928</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>501</v>
+        <v>389</v>
       </c>
       <c r="C647" s="8" t="s">
         <v>279</v>
@@ -16579,15 +16594,13 @@
         <v>929</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>930</v>
+        <v>502</v>
       </c>
       <c r="C648" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D648" s="4"/>
-      <c r="E648" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E648" s="3"/>
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
@@ -16595,18 +16608,20 @@
       <c r="J648" s="4"/>
       <c r="K648" s="4"/>
     </row>
-    <row r="649">
-      <c r="A649" s="4" t="s">
+    <row r="649" ht="18.0" customHeight="true">
+      <c r="A649" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="B649" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="B649" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C649" s="2" t="s">
+      <c r="C649" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D649" s="4"/>
-      <c r="E649" s="3"/>
+      <c r="E649" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
@@ -16614,14 +16629,14 @@
       <c r="J649" s="4"/>
       <c r="K649" s="4"/>
     </row>
-    <row r="650">
-      <c r="A650" s="4" t="s">
+    <row r="650" ht="18.0" customHeight="true">
+      <c r="A650" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="B650" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C650" s="2" t="s">
+      <c r="B650" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C650" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D650" s="4"/>
@@ -16638,7 +16653,7 @@
         <v>933</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>105</v>
+        <v>606</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>279</v>
@@ -16656,7 +16671,7 @@
       <c r="A652" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="B652" s="4" t="s">
+      <c r="B652" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C652" s="2" t="s">
@@ -16691,7 +16706,7 @@
       <c r="K653" s="4"/>
     </row>
     <row r="654">
-      <c r="A654" s="3" t="s">
+      <c r="A654" s="4" t="s">
         <v>936</v>
       </c>
       <c r="B654" s="4" t="s">
@@ -16729,7 +16744,7 @@
       <c r="K655" s="4"/>
     </row>
     <row r="656">
-      <c r="A656" s="7" t="s">
+      <c r="A656" s="3" t="s">
         <v>938</v>
       </c>
       <c r="B656" s="4" t="s">
@@ -16751,8 +16766,8 @@
       <c r="A657" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="B657" s="1" t="s">
-        <v>346</v>
+      <c r="B657" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>279</v>
@@ -16767,19 +16782,17 @@
       <c r="K657" s="4"/>
     </row>
     <row r="658">
-      <c r="A658" s="4" t="s">
+      <c r="A658" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="B658" s="1" t="s">
-        <v>346</v>
+      <c r="B658" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D658" s="4"/>
-      <c r="E658" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E658" s="3"/>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
@@ -16792,7 +16805,7 @@
         <v>941</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>279</v>
@@ -16807,11 +16820,11 @@
       <c r="K659" s="4"/>
     </row>
     <row r="660">
-      <c r="A660" s="3" t="s">
+      <c r="A660" s="4" t="s">
         <v>942</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>943</v>
+        <v>346</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>279</v>
@@ -16829,10 +16842,10 @@
     </row>
     <row r="661">
       <c r="A661" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="B661" s="4" t="s">
-        <v>359</v>
+        <v>943</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>279</v>
@@ -16848,16 +16861,18 @@
     </row>
     <row r="662">
       <c r="A662" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B662" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B662" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="C662" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D662" s="4"/>
-      <c r="E662" s="3"/>
+      <c r="E662" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
@@ -16870,7 +16885,7 @@
         <v>946</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>279</v>
@@ -16885,11 +16900,11 @@
       <c r="K663" s="4"/>
     </row>
     <row r="664">
-      <c r="A664" s="4" t="s">
+      <c r="A664" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="B664" s="4" t="s">
-        <v>884</v>
+      <c r="B664" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>279</v>
@@ -16907,8 +16922,8 @@
       <c r="A665" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="B665" s="1" t="s">
-        <v>949</v>
+      <c r="B665" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>279</v>
@@ -16924,10 +16939,10 @@
     </row>
     <row r="666">
       <c r="A666" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>951</v>
+        <v>885</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>279</v>
@@ -16943,10 +16958,10 @@
     </row>
     <row r="667">
       <c r="A667" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>514</v>
+        <v>951</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>279</v>
@@ -16960,12 +16975,12 @@
       <c r="J667" s="4"/>
       <c r="K667" s="4"/>
     </row>
-    <row r="668" ht="18.0" customHeight="true">
+    <row r="668">
       <c r="A668" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B668" s="4" t="s">
         <v>953</v>
-      </c>
-      <c r="B668" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>279</v>
@@ -16981,10 +16996,10 @@
     </row>
     <row r="669">
       <c r="A669" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>279</v>
@@ -16998,12 +17013,12 @@
       <c r="J669" s="4"/>
       <c r="K669" s="4"/>
     </row>
-    <row r="670">
+    <row r="670" ht="18.0" customHeight="true">
       <c r="A670" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="B670" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>279</v>
@@ -17022,7 +17037,7 @@
         <v>957</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>363</v>
+        <v>492</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>279</v>
@@ -17041,7 +17056,7 @@
         <v>958</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>279</v>
@@ -17056,11 +17071,11 @@
       <c r="K672" s="4"/>
     </row>
     <row r="673">
-      <c r="A673" s="3" t="s">
+      <c r="A673" s="4" t="s">
         <v>959</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>279</v>
@@ -17078,8 +17093,8 @@
       <c r="A674" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="B674" s="4" t="s">
-        <v>479</v>
+      <c r="B674" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>279</v>
@@ -17094,11 +17109,11 @@
       <c r="K674" s="4"/>
     </row>
     <row r="675">
-      <c r="A675" s="4" t="s">
+      <c r="A675" s="3" t="s">
         <v>961</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>795</v>
+        <v>397</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>279</v>
@@ -17116,16 +17131,14 @@
       <c r="A676" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="B676" s="1" t="s">
-        <v>910</v>
+      <c r="B676" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D676" s="4"/>
-      <c r="E676" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E676" s="3"/>
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
@@ -17134,11 +17147,11 @@
       <c r="K676" s="4"/>
     </row>
     <row r="677">
-      <c r="A677" s="3" t="s">
+      <c r="A677" s="4" t="s">
         <v>963</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>403</v>
+        <v>796</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>279</v>
@@ -17153,17 +17166,19 @@
       <c r="K677" s="4"/>
     </row>
     <row r="678">
-      <c r="A678" s="3" t="s">
+      <c r="A678" s="4" t="s">
         <v>964</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>708</v>
+        <v>911</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D678" s="4"/>
-      <c r="E678" s="3"/>
+      <c r="E678" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
@@ -17172,11 +17187,11 @@
       <c r="K678" s="4"/>
     </row>
     <row r="679">
-      <c r="A679" s="4" t="s">
+      <c r="A679" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="B679" s="4" t="s">
-        <v>503</v>
+      <c r="B679" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>279</v>
@@ -17191,11 +17206,11 @@
       <c r="K679" s="4"/>
     </row>
     <row r="680">
-      <c r="A680" s="4" t="s">
+      <c r="A680" s="3" t="s">
         <v>966</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>105</v>
+        <v>709</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>279</v>
@@ -17213,16 +17228,14 @@
       <c r="A681" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="B681" s="1" t="s">
-        <v>105</v>
+      <c r="B681" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D681" s="4"/>
-      <c r="E681" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E681" s="3"/>
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
@@ -17234,8 +17247,8 @@
       <c r="A682" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="B682" s="4" t="s">
-        <v>969</v>
+      <c r="B682" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>279</v>
@@ -17251,16 +17264,18 @@
     </row>
     <row r="683">
       <c r="A683" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>758</v>
+        <v>105</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D683" s="4"/>
-      <c r="E683" s="3"/>
+      <c r="E683" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
@@ -17270,10 +17285,10 @@
     </row>
     <row r="684">
       <c r="A684" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B684" s="4" t="s">
         <v>971</v>
-      </c>
-      <c r="B684" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>279</v>
@@ -17291,8 +17306,8 @@
       <c r="A685" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="B685" s="4" t="s">
-        <v>951</v>
+      <c r="B685" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>279</v>
@@ -17310,8 +17325,8 @@
       <c r="A686" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="B686" s="4" t="s">
-        <v>290</v>
+      <c r="B686" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>279</v>
@@ -17329,8 +17344,8 @@
       <c r="A687" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="B687" s="1" t="s">
-        <v>313</v>
+      <c r="B687" s="4" t="s">
+        <v>953</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>279</v>
@@ -17348,8 +17363,8 @@
       <c r="A688" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B688" s="1" t="s">
-        <v>503</v>
+      <c r="B688" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>279</v>
@@ -17367,8 +17382,8 @@
       <c r="A689" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="B689" s="4" t="s">
-        <v>353</v>
+      <c r="B689" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>279</v>
@@ -17386,8 +17401,8 @@
       <c r="A690" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="B690" s="4" t="s">
-        <v>978</v>
+      <c r="B690" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>279</v>
@@ -17403,10 +17418,10 @@
     </row>
     <row r="691">
       <c r="A691" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="B691" s="3" t="s">
-        <v>473</v>
+        <v>978</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>279</v>
@@ -17422,10 +17437,10 @@
     </row>
     <row r="692">
       <c r="A692" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B692" s="4" t="s">
         <v>980</v>
-      </c>
-      <c r="B692" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>279</v>
@@ -17443,8 +17458,8 @@
       <c r="A693" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B693" s="4" t="s">
-        <v>982</v>
+      <c r="B693" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>279</v>
@@ -17460,15 +17475,15 @@
     </row>
     <row r="694">
       <c r="A694" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="B694" s="3" t="s">
-        <v>761</v>
+        <v>982</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D694" s="3"/>
+      <c r="D694" s="4"/>
       <c r="E694" s="3"/>
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
@@ -17479,15 +17494,15 @@
     </row>
     <row r="695">
       <c r="A695" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B695" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="B695" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="C695" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D695" s="3"/>
+      <c r="D695" s="4"/>
       <c r="E695" s="3"/>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
@@ -17501,7 +17516,7 @@
         <v>985</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>388</v>
+        <v>762</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>279</v>
@@ -17516,11 +17531,11 @@
       <c r="K696" s="4"/>
     </row>
     <row r="697">
-      <c r="A697" s="3" t="s">
+      <c r="A697" s="4" t="s">
         <v>986</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>987</v>
+        <v>359</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>279</v>
@@ -17536,15 +17551,15 @@
     </row>
     <row r="698">
       <c r="A698" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="B698" s="4" t="s">
-        <v>105</v>
+        <v>987</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D698" s="4"/>
+      <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
@@ -17554,16 +17569,16 @@
       <c r="K698" s="4"/>
     </row>
     <row r="699">
-      <c r="A699" s="4" t="s">
+      <c r="A699" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B699" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B699" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C699" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D699" s="4"/>
+      <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
@@ -17577,7 +17592,7 @@
         <v>990</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>884</v>
+        <v>105</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>279</v>
@@ -17596,7 +17611,7 @@
         <v>991</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>455</v>
+        <v>105</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>279</v>
@@ -17614,8 +17629,8 @@
       <c r="A702" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="B702" s="3" t="s">
-        <v>31</v>
+      <c r="B702" s="4" t="s">
+        <v>885</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>279</v>
@@ -17633,8 +17648,8 @@
       <c r="A703" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="B703" s="1" t="s">
-        <v>353</v>
+      <c r="B703" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>279</v>
@@ -17652,8 +17667,8 @@
       <c r="A704" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="B704" s="1" t="s">
-        <v>795</v>
+      <c r="B704" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>279</v>
@@ -17671,8 +17686,8 @@
       <c r="A705" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B705" s="5" t="s">
-        <v>422</v>
+      <c r="B705" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>279</v>
@@ -17690,8 +17705,8 @@
       <c r="A706" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="B706" s="3" t="s">
-        <v>997</v>
+      <c r="B706" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>279</v>
@@ -17707,10 +17722,10 @@
     </row>
     <row r="707">
       <c r="A707" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="B707" s="4" t="s">
-        <v>363</v>
+        <v>997</v>
+      </c>
+      <c r="B707" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>279</v>
@@ -17726,10 +17741,10 @@
     </row>
     <row r="708">
       <c r="A708" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B708" s="3" t="s">
         <v>999</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>279</v>
@@ -17745,10 +17760,10 @@
     </row>
     <row r="709">
       <c r="A709" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B709" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>279</v>
@@ -17764,10 +17779,10 @@
     </row>
     <row r="710">
       <c r="A710" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B710" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1002</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>279</v>
@@ -17783,10 +17798,10 @@
     </row>
     <row r="711">
       <c r="A711" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B711" s="5" t="s">
-        <v>235</v>
+        <v>1003</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1004</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>279</v>
@@ -17802,10 +17817,10 @@
     </row>
     <row r="712">
       <c r="A712" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B712" s="3" t="s">
         <v>1006</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>279</v>
@@ -17823,13 +17838,13 @@
       <c r="A713" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B713" s="1" t="s">
-        <v>1008</v>
+      <c r="B713" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D713" s="3"/>
+      <c r="D713" s="4"/>
       <c r="E713" s="3"/>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
@@ -17840,15 +17855,15 @@
     </row>
     <row r="714">
       <c r="A714" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>335</v>
+        <v>650</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D714" s="3"/>
+      <c r="D714" s="4"/>
       <c r="E714" s="3"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
@@ -17859,10 +17874,10 @@
     </row>
     <row r="715">
       <c r="A715" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B715" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="B715" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>279</v>
@@ -17880,13 +17895,13 @@
       <c r="A716" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B716" s="4" t="s">
-        <v>1012</v>
+      <c r="B716" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D716" s="4"/>
+      <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
@@ -17897,15 +17912,15 @@
     </row>
     <row r="717">
       <c r="A717" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B717" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D717" s="4"/>
+      <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
@@ -17916,10 +17931,10 @@
     </row>
     <row r="718">
       <c r="A718" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>279</v>
@@ -17935,10 +17950,10 @@
     </row>
     <row r="719">
       <c r="A719" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>431</v>
+        <v>1016</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>279</v>
@@ -17954,10 +17969,10 @@
     </row>
     <row r="720">
       <c r="A720" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B720" s="4" t="s">
         <v>1018</v>
-      </c>
-      <c r="B720" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>279</v>
@@ -17973,10 +17988,10 @@
     </row>
     <row r="721">
       <c r="A721" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>286</v>
+        <v>432</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>279</v>
@@ -17992,10 +18007,10 @@
     </row>
     <row r="722">
       <c r="A722" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B722" s="3" t="s">
         <v>1021</v>
-      </c>
-      <c r="B722" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>279</v>
@@ -18014,7 +18029,7 @@
         <v>1022</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1023</v>
+        <v>286</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>279</v>
@@ -18030,10 +18045,10 @@
     </row>
     <row r="724">
       <c r="A724" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>485</v>
+        <v>120</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>279</v>
@@ -18049,10 +18064,10 @@
     </row>
     <row r="725">
       <c r="A725" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B725" s="4" t="s">
         <v>1025</v>
-      </c>
-      <c r="B725" s="9" t="s">
-        <v>1026</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>279</v>
@@ -18068,15 +18083,15 @@
     </row>
     <row r="726">
       <c r="A726" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B726" s="9" t="s">
-        <v>516</v>
+        <v>1026</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D726" s="3"/>
+      <c r="D726" s="4"/>
       <c r="E726" s="3"/>
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
@@ -18087,15 +18102,15 @@
     </row>
     <row r="727">
       <c r="A727" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B727" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="B727" s="9" t="s">
-        <v>485</v>
-      </c>
       <c r="C727" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D727" s="3"/>
+      <c r="D727" s="4"/>
       <c r="E727" s="3"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
@@ -18108,13 +18123,13 @@
       <c r="A728" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="B728" s="4" t="s">
-        <v>1030</v>
+      <c r="B728" s="9" t="s">
+        <v>517</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D728" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
@@ -18125,15 +18140,15 @@
     </row>
     <row r="729">
       <c r="A729" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B729" s="4" t="s">
         <v>1030</v>
       </c>
+      <c r="B729" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="C729" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D729" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
@@ -18144,13 +18159,13 @@
     </row>
     <row r="730">
       <c r="A730" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C730" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="B730" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C730" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="D730" s="4"/>
       <c r="E730" s="3"/>
@@ -18163,13 +18178,13 @@
     </row>
     <row r="731">
       <c r="A731" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>465</v>
+        <v>1032</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D731" s="4"/>
       <c r="E731" s="3"/>
@@ -18182,13 +18197,13 @@
     </row>
     <row r="732">
       <c r="A732" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B732" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="B732" s="4" t="s">
-        <v>1037</v>
-      </c>
       <c r="C732" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D732" s="4"/>
       <c r="E732" s="3"/>
@@ -18201,13 +18216,13 @@
     </row>
     <row r="733">
       <c r="A733" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>1039</v>
+        <v>466</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D733" s="4"/>
       <c r="E733" s="3"/>
@@ -18220,13 +18235,13 @@
     </row>
     <row r="734">
       <c r="A734" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B734" s="4" t="s">
         <v>1039</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D734" s="4"/>
       <c r="E734" s="3"/>
@@ -18239,13 +18254,13 @@
     </row>
     <row r="735">
       <c r="A735" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B735" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="B735" s="4" t="s">
-        <v>1030</v>
-      </c>
       <c r="C735" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D735" s="4"/>
       <c r="E735" s="3"/>
@@ -18260,11 +18275,11 @@
       <c r="A736" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="B736" s="5" t="s">
-        <v>1043</v>
+      <c r="B736" s="4" t="s">
+        <v>1041</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D736" s="4"/>
       <c r="E736" s="3"/>
@@ -18277,13 +18292,13 @@
     </row>
     <row r="737">
       <c r="A737" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B737" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>1032</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D737" s="4"/>
       <c r="E737" s="3"/>
@@ -18296,13 +18311,13 @@
     </row>
     <row r="738">
       <c r="A738" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B738" s="4" t="s">
-        <v>1047</v>
+        <v>1044</v>
+      </c>
+      <c r="B738" s="5" t="s">
+        <v>1045</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D738" s="4"/>
       <c r="E738" s="3"/>
@@ -18314,14 +18329,14 @@
       <c r="K738" s="4"/>
     </row>
     <row r="739">
-      <c r="A739" s="3" t="s">
-        <v>1048</v>
+      <c r="A739" s="4" t="s">
+        <v>1046</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>105</v>
+        <v>1047</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D739" s="4"/>
       <c r="E739" s="3"/>
@@ -18333,14 +18348,14 @@
       <c r="K739" s="4"/>
     </row>
     <row r="740">
-      <c r="A740" s="3" t="s">
+      <c r="A740" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B740" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="B740" s="3" t="s">
-        <v>747</v>
-      </c>
       <c r="C740" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D740" s="4"/>
       <c r="E740" s="3"/>
@@ -18356,10 +18371,10 @@
         <v>1050</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D741" s="4"/>
       <c r="E741" s="3"/>
@@ -18371,14 +18386,14 @@
       <c r="K741" s="4"/>
     </row>
     <row r="742">
-      <c r="A742" s="4" t="s">
+      <c r="A742" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="B742" s="4" t="s">
-        <v>463</v>
+      <c r="B742" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D742" s="4"/>
       <c r="E742" s="3"/>
@@ -18390,14 +18405,14 @@
       <c r="K742" s="4"/>
     </row>
     <row r="743">
-      <c r="A743" s="4" t="s">
+      <c r="A743" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="B743" s="4" t="s">
-        <v>1053</v>
+      <c r="B743" s="3" t="s">
+        <v>748</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D743" s="4"/>
       <c r="E743" s="3"/>
@@ -18409,14 +18424,14 @@
       <c r="K743" s="4"/>
     </row>
     <row r="744">
-      <c r="A744" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B744" s="4" t="s">
-        <v>1055</v>
+      <c r="A744" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D744" s="4"/>
       <c r="E744" s="3"/>
@@ -18429,13 +18444,13 @@
     </row>
     <row r="745">
       <c r="A745" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>978</v>
+        <v>464</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745" s="3"/>
@@ -18447,16 +18462,16 @@
       <c r="K745" s="4"/>
     </row>
     <row r="746">
-      <c r="A746" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B746" s="3" t="s">
-        <v>1058</v>
+      <c r="A746" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>1056</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D746" s="3"/>
+        <v>1033</v>
+      </c>
+      <c r="D746" s="4"/>
       <c r="E746" s="3"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
@@ -18466,16 +18481,16 @@
       <c r="K746" s="4"/>
     </row>
     <row r="747">
-      <c r="A747" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B747" s="3" t="s">
-        <v>1060</v>
+      <c r="A747" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>1058</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D747" s="3"/>
+        <v>1033</v>
+      </c>
+      <c r="D747" s="4"/>
       <c r="E747" s="3"/>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
@@ -18485,16 +18500,16 @@
       <c r="K747" s="4"/>
     </row>
     <row r="748">
-      <c r="A748" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B748" s="3" t="s">
-        <v>1062</v>
+      <c r="A748" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>980</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D748" s="3"/>
+        <v>1033</v>
+      </c>
+      <c r="D748" s="4"/>
       <c r="E748" s="3"/>
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
@@ -18504,16 +18519,16 @@
       <c r="K748" s="4"/>
     </row>
     <row r="749">
-      <c r="A749" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B749" s="4" t="s">
-        <v>1030</v>
+      <c r="A749" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>1061</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D749" s="4"/>
+        <v>1033</v>
+      </c>
+      <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
@@ -18523,16 +18538,16 @@
       <c r="K749" s="4"/>
     </row>
     <row r="750">
-      <c r="A750" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B750" s="4" t="s">
-        <v>1039</v>
+      <c r="A750" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>1063</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D750" s="4"/>
+        <v>1033</v>
+      </c>
+      <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
@@ -18542,16 +18557,16 @@
       <c r="K750" s="4"/>
     </row>
     <row r="751">
-      <c r="A751" s="4" t="s">
+      <c r="A751" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B751" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="B751" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="C751" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D751" s="4"/>
+        <v>1033</v>
+      </c>
+      <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
@@ -18561,16 +18576,16 @@
       <c r="K751" s="4"/>
     </row>
     <row r="752">
-      <c r="A752" s="4" t="s">
+      <c r="A752" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B752" s="4" t="s">
-        <v>1039</v>
+      <c r="B752" s="3" t="s">
+        <v>1067</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D752" s="4"/>
+        <v>1033</v>
+      </c>
+      <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
@@ -18580,14 +18595,14 @@
       <c r="K752" s="4"/>
     </row>
     <row r="753">
-      <c r="A753" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B753" s="3" t="s">
-        <v>1060</v>
+      <c r="A753" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>1032</v>
       </c>
       <c r="C753" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D753" s="4"/>
       <c r="E753" s="3"/>
@@ -18599,14 +18614,14 @@
       <c r="K753" s="4"/>
     </row>
     <row r="754">
-      <c r="A754" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B754" s="3" t="s">
-        <v>422</v>
+      <c r="A754" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>1041</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D754" s="4"/>
       <c r="E754" s="3"/>
@@ -18618,14 +18633,14 @@
       <c r="K754" s="4"/>
     </row>
     <row r="755">
-      <c r="A755" s="3" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="B755" s="3" t="s">
-        <v>1069</v>
+      <c r="A755" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="C755" s="2" t="s">
-        <v>1070</v>
+        <v>1033</v>
       </c>
       <c r="D755" s="4"/>
       <c r="E755" s="3"/>
@@ -18641,10 +18656,10 @@
         <v>1071</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1072</v>
+        <v>1041</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>1070</v>
+        <v>1033</v>
       </c>
       <c r="D756" s="4"/>
       <c r="E756" s="3"/>
@@ -18656,14 +18671,14 @@
       <c r="K756" s="4"/>
     </row>
     <row r="757">
-      <c r="A757" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B757" s="4" t="s">
-        <v>1074</v>
+      <c r="A757" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>1063</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>1070</v>
+        <v>1033</v>
       </c>
       <c r="D757" s="4"/>
       <c r="E757" s="3"/>
@@ -18675,14 +18690,14 @@
       <c r="K757" s="4"/>
     </row>
     <row r="758">
-      <c r="A758" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B758" s="4" t="s">
-        <v>1076</v>
+      <c r="A758" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1070</v>
+        <v>1033</v>
       </c>
       <c r="D758" s="4"/>
       <c r="E758" s="3"/>
@@ -18694,14 +18709,14 @@
       <c r="K758" s="4"/>
     </row>
     <row r="759">
-      <c r="A759" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B759" s="4" t="s">
-        <v>1078</v>
+      <c r="A759" s="3" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>1074</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D759" s="4"/>
       <c r="E759" s="3"/>
@@ -18713,14 +18728,14 @@
       <c r="K759" s="4"/>
     </row>
     <row r="760">
-      <c r="A760" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B760" s="3" t="s">
-        <v>1080</v>
+      <c r="A760" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>1077</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D760" s="4"/>
       <c r="E760" s="3"/>
@@ -18733,13 +18748,13 @@
     </row>
     <row r="761">
       <c r="A761" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D761" s="4"/>
       <c r="E761" s="3"/>
@@ -18751,14 +18766,14 @@
       <c r="K761" s="4"/>
     </row>
     <row r="762">
-      <c r="A762" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B762" s="1" t="s">
-        <v>1084</v>
+      <c r="A762" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>1081</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D762" s="4"/>
       <c r="E762" s="3"/>
@@ -18770,14 +18785,14 @@
       <c r="K762" s="4"/>
     </row>
     <row r="763">
-      <c r="A763" s="3" t="s">
-        <v>1085</v>
+      <c r="A763" s="4" t="s">
+        <v>1082</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D763" s="4"/>
       <c r="E763" s="3"/>
@@ -18789,14 +18804,14 @@
       <c r="K763" s="4"/>
     </row>
     <row r="764">
-      <c r="A764" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>1087</v>
+      <c r="A764" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>1085</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D764" s="4"/>
       <c r="E764" s="3"/>
@@ -18809,13 +18824,13 @@
     </row>
     <row r="765">
       <c r="A765" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D765" s="4"/>
       <c r="E765" s="3"/>
@@ -18828,13 +18843,13 @@
     </row>
     <row r="766">
       <c r="A766" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B766" s="3" t="s">
-        <v>1091</v>
+        <v>1088</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1089</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D766" s="4"/>
       <c r="E766" s="3"/>
@@ -18846,14 +18861,14 @@
       <c r="K766" s="4"/>
     </row>
     <row r="767">
-      <c r="A767" s="10" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B767" s="3" t="s">
-        <v>1093</v>
+      <c r="A767" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>1087</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D767" s="4"/>
       <c r="E767" s="3"/>
@@ -18865,14 +18880,14 @@
       <c r="K767" s="4"/>
     </row>
     <row r="768">
-      <c r="A768" s="10" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B768" s="3" t="s">
-        <v>1095</v>
+      <c r="A768" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1092</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D768" s="4"/>
       <c r="E768" s="3"/>
@@ -18885,13 +18900,13 @@
     </row>
     <row r="769">
       <c r="A769" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B769" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D769" s="4"/>
       <c r="E769" s="3"/>
@@ -18902,6 +18917,82 @@
       <c r="J769" s="4"/>
       <c r="K769" s="4"/>
     </row>
+    <row r="770">
+      <c r="A770" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D770" s="4"/>
+      <c r="E770" s="3"/>
+      <c r="F770" s="4"/>
+      <c r="G770" s="4"/>
+      <c r="H770" s="4"/>
+      <c r="I770" s="4"/>
+      <c r="J770" s="4"/>
+      <c r="K770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D771" s="4"/>
+      <c r="E771" s="3"/>
+      <c r="F771" s="4"/>
+      <c r="G771" s="4"/>
+      <c r="H771" s="4"/>
+      <c r="I771" s="4"/>
+      <c r="J771" s="4"/>
+      <c r="K771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D772" s="4"/>
+      <c r="E772" s="3"/>
+      <c r="F772" s="4"/>
+      <c r="G772" s="4"/>
+      <c r="H772" s="4"/>
+      <c r="I772" s="4"/>
+      <c r="J772" s="4"/>
+      <c r="K772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D773" s="4"/>
+      <c r="E773" s="3"/>
+      <c r="F773" s="4"/>
+      <c r="G773" s="4"/>
+      <c r="H773" s="4"/>
+      <c r="I773" s="4"/>
+      <c r="J773" s="4"/>
+      <c r="K773" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/music_list_610.xlsx
+++ b/music_list_610.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1145" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1160" uniqueCount="1160">
   <si>
     <t>歌名</t>
   </si>
@@ -1049,6 +1049,21 @@
     <t>暗涌</t>
   </si>
   <si>
+    <t>星空</t>
+  </si>
+  <si>
+    <t>五月天</t>
+  </si>
+  <si>
+    <t>干杯</t>
+  </si>
+  <si>
+    <t>知足</t>
+  </si>
+  <si>
+    <t>步步</t>
+  </si>
+  <si>
     <t>人质</t>
   </si>
   <si>
@@ -1121,18 +1136,6 @@
     <t>旋木</t>
   </si>
   <si>
-    <t>星空</t>
-  </si>
-  <si>
-    <t>五月天</t>
-  </si>
-  <si>
-    <t>干杯</t>
-  </si>
-  <si>
-    <t>知足</t>
-  </si>
-  <si>
     <t>戒烟</t>
   </si>
   <si>
@@ -1253,6 +1256,15 @@
     <t>中毒</t>
   </si>
   <si>
+    <t>走马</t>
+  </si>
+  <si>
+    <t>陈粒</t>
+  </si>
+  <si>
+    <t>小半</t>
+  </si>
+  <si>
     <t>天后</t>
   </si>
   <si>
@@ -1415,12 +1427,6 @@
     <t>容祖儿</t>
   </si>
   <si>
-    <t>走马</t>
-  </si>
-  <si>
-    <t>陈粒</t>
-  </si>
-  <si>
     <t>左耳</t>
   </si>
   <si>
@@ -1598,6 +1604,12 @@
     <t>告五人</t>
   </si>
   <si>
+    <t>无赖</t>
+  </si>
+  <si>
+    <t>戴佩妮</t>
+  </si>
+  <si>
     <t>七里香</t>
   </si>
   <si>
@@ -2093,6 +2105,18 @@
     <t>林俊杰、韩红</t>
   </si>
   <si>
+    <t>失落沙洲</t>
+  </si>
+  <si>
+    <t>身骑白马</t>
+  </si>
+  <si>
+    <t>寻人启事</t>
+  </si>
+  <si>
+    <t>行走的鱼</t>
+  </si>
+  <si>
     <t>黑色柳丁</t>
   </si>
   <si>
@@ -2117,15 +2141,6 @@
     <t>白马非马</t>
   </si>
   <si>
-    <t>失落沙洲</t>
-  </si>
-  <si>
-    <t>身骑白马</t>
-  </si>
-  <si>
-    <t>寻人启事</t>
-  </si>
-  <si>
     <t>云烟成雨</t>
   </si>
   <si>
@@ -2309,9 +2324,6 @@
     <t>你要的爱</t>
   </si>
   <si>
-    <t>戴佩妮</t>
-  </si>
-  <si>
     <t>让她降落</t>
   </si>
   <si>
@@ -2531,6 +2543,15 @@
     <t>你的珍藏</t>
   </si>
   <si>
+    <t>提拉米苏</t>
+  </si>
+  <si>
+    <t>新乐尘符、李思雨</t>
+  </si>
+  <si>
+    <t>失联星球</t>
+  </si>
+  <si>
     <t>self</t>
   </si>
   <si>
@@ -2624,6 +2645,12 @@
     <t>还是会寂寞</t>
   </si>
   <si>
+    <t>爱我还是他</t>
+  </si>
+  <si>
+    <t>讨厌红楼梦</t>
+  </si>
+  <si>
     <t>尚好的青春</t>
   </si>
   <si>
@@ -2714,9 +2741,6 @@
     <t>J.Sheon</t>
   </si>
   <si>
-    <t>爱我还是他</t>
-  </si>
-  <si>
     <t>其实都没有</t>
   </si>
   <si>
@@ -3134,6 +3158,12 @@
     <t>Beyond</t>
   </si>
   <si>
+    <t>孤雏</t>
+  </si>
+  <si>
+    <t>AGA</t>
+  </si>
+  <si>
     <t>处处吻</t>
   </si>
   <si>
@@ -3170,6 +3200,12 @@
     <t>搜神记</t>
   </si>
   <si>
+    <t>小手术</t>
+  </si>
+  <si>
+    <t>王菀之</t>
+  </si>
+  <si>
     <t>再见悲哀</t>
   </si>
   <si>
@@ -3233,6 +3269,9 @@
     <t>不呼不吸几多秒</t>
   </si>
   <si>
+    <t>一分钟稀客一分钟色诱</t>
+  </si>
+  <si>
     <t>lonely Christmas</t>
   </si>
   <si>
@@ -3291,6 +3330,12 @@
   </si>
   <si>
     <t>米津玄师，DAOKO</t>
+  </si>
+  <si>
+    <t>我爱你上海蟹</t>
+  </si>
+  <si>
+    <t>カニ研究会</t>
   </si>
   <si>
     <t>planet</t>
@@ -3916,7 +3961,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8505,7 +8550,7 @@
       <c r="A224" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -8521,16 +8566,16 @@
       <c r="K224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D225" s="3"/>
+      <c r="D225" s="4"/>
       <c r="E225" s="3"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -8540,16 +8585,16 @@
       <c r="K225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D226" s="3"/>
+      <c r="D226" s="4"/>
       <c r="E226" s="3"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -8562,13 +8607,13 @@
       <c r="A227" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D227" s="3"/>
+      <c r="D227" s="4"/>
       <c r="E227" s="3"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -8597,16 +8642,16 @@
       <c r="K228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>353</v>
+      <c r="B229" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D229" s="4"/>
+      <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
@@ -8616,16 +8661,16 @@
       <c r="K229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="4" t="s">
-        <v>354</v>
+      <c r="A230" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D230" s="4"/>
+      <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -8635,16 +8680,16 @@
       <c r="K230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="4" t="s">
-        <v>355</v>
+      <c r="A231" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D231" s="4"/>
+      <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -8655,10 +8700,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>279</v>
@@ -8676,16 +8721,14 @@
       <c r="A233" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>290</v>
+      <c r="B233" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D233" s="4"/>
-      <c r="E233" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E233" s="3"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
@@ -8694,16 +8737,16 @@
       <c r="K233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="C234" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D234" s="3"/>
+      <c r="D234" s="4"/>
       <c r="E234" s="3"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -8713,16 +8756,16 @@
       <c r="K234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>359</v>
+      <c r="B235" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D235" s="3"/>
+      <c r="D235" s="4"/>
       <c r="E235" s="3"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -8732,16 +8775,16 @@
       <c r="K235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>359</v>
+      <c r="B236" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D236" s="3"/>
+      <c r="D236" s="4"/>
       <c r="E236" s="3"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -8754,14 +8797,16 @@
       <c r="A237" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>363</v>
+      <c r="B237" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D237" s="4"/>
-      <c r="E237" s="3"/>
+      <c r="E237" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
@@ -8770,16 +8815,16 @@
       <c r="K237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B238" s="2" t="s">
+      <c r="A238" s="3" t="s">
         <v>363</v>
       </c>
+      <c r="B238" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="C238" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D238" s="4"/>
+      <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
@@ -8789,16 +8834,16 @@
       <c r="K238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="C239" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D239" s="4"/>
+      <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
@@ -8808,16 +8853,16 @@
       <c r="K239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B240" s="4" t="s">
+      <c r="A240" s="3" t="s">
         <v>366</v>
       </c>
+      <c r="B240" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="C240" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D240" s="4"/>
+      <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
@@ -8830,8 +8875,8 @@
       <c r="A241" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>366</v>
+      <c r="B241" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>279</v>
@@ -8847,10 +8892,10 @@
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>279</v>
@@ -8868,8 +8913,8 @@
       <c r="A243" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>370</v>
+      <c r="B243" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>279</v>
@@ -8885,10 +8930,10 @@
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>279</v>
@@ -8906,8 +8951,8 @@
       <c r="A245" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>370</v>
+      <c r="B245" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>279</v>
@@ -8925,8 +8970,8 @@
       <c r="A246" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>374</v>
+      <c r="B246" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>279</v>
@@ -8941,11 +8986,11 @@
       <c r="K246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>279</v>
@@ -8964,7 +9009,7 @@
         <v>376</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>279</v>
@@ -8979,11 +9024,11 @@
       <c r="K248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B249" s="5" t="s">
-        <v>17</v>
+      <c r="B249" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>279</v>
@@ -9001,8 +9046,8 @@
       <c r="A250" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>11</v>
+      <c r="B250" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>279</v>
@@ -9021,7 +9066,7 @@
         <v>379</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>279</v>
@@ -9037,10 +9082,10 @@
     </row>
     <row r="252">
       <c r="A252" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>279</v>
@@ -9058,8 +9103,8 @@
       <c r="A253" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>383</v>
+      <c r="B253" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>279</v>
@@ -9075,10 +9120,10 @@
     </row>
     <row r="254">
       <c r="A254" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>279</v>
@@ -9096,8 +9141,8 @@
       <c r="A255" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>386</v>
+      <c r="B255" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>279</v>
@@ -9112,11 +9157,11 @@
       <c r="K255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>279</v>
@@ -9131,11 +9176,11 @@
       <c r="K256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>389</v>
+      <c r="B257" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>279</v>
@@ -9151,10 +9196,10 @@
     </row>
     <row r="258">
       <c r="A258" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>279</v>
@@ -9173,7 +9218,7 @@
         <v>391</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>279</v>
@@ -9191,8 +9236,8 @@
       <c r="A260" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>393</v>
+      <c r="B260" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>279</v>
@@ -9208,10 +9253,10 @@
     </row>
     <row r="261">
       <c r="A261" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>279</v>
@@ -9229,7 +9274,7 @@
       <c r="A262" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B262" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -9248,8 +9293,8 @@
       <c r="A263" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>397</v>
+      <c r="B263" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>279</v>
@@ -9264,16 +9309,16 @@
       <c r="K263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="C264" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D264" s="3"/>
+      <c r="D264" s="4"/>
       <c r="E264" s="3"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -9283,16 +9328,16 @@
       <c r="K264" s="4"/>
     </row>
     <row r="265">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>400</v>
+      <c r="B265" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D265" s="4"/>
+      <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
@@ -9303,10 +9348,10 @@
     </row>
     <row r="266">
       <c r="A266" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>279</v>
@@ -9321,16 +9366,16 @@
       <c r="K266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="C267" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D267" s="3"/>
+      <c r="D267" s="4"/>
       <c r="E267" s="3"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -9341,15 +9386,15 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="C268" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D268" s="4"/>
+      <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -9359,11 +9404,11 @@
       <c r="K268" s="4"/>
     </row>
     <row r="269">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>279</v>
@@ -9379,10 +9424,10 @@
     </row>
     <row r="270">
       <c r="A270" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>279</v>
@@ -9398,18 +9443,16 @@
     </row>
     <row r="271">
       <c r="A271" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="C271" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D271" s="4"/>
-      <c r="E271" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E271" s="3"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
@@ -9419,16 +9462,18 @@
     </row>
     <row r="272">
       <c r="A272" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="C272" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D272" s="4"/>
-      <c r="E272" s="3"/>
+      <c r="E272" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -9441,7 +9486,7 @@
         <v>413</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>279</v>
@@ -9457,10 +9502,10 @@
     </row>
     <row r="274">
       <c r="A274" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>279</v>
@@ -9476,14 +9521,12 @@
     </row>
     <row r="275">
       <c r="A275" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>279</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C275" s="2"/>
       <c r="D275" s="4"/>
       <c r="E275" s="3"/>
       <c r="F275" s="4"/>
@@ -9495,10 +9538,10 @@
     </row>
     <row r="276">
       <c r="A276" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>279</v>
@@ -9514,10 +9557,10 @@
     </row>
     <row r="277">
       <c r="A277" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B277" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>279</v>
@@ -9532,11 +9575,11 @@
       <c r="K277" s="4"/>
     </row>
     <row r="278">
-      <c r="A278" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>423</v>
+      <c r="A278" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>279</v>
@@ -9552,18 +9595,16 @@
     </row>
     <row r="279">
       <c r="A279" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D279" s="4"/>
-      <c r="E279" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E279" s="3"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
@@ -9573,10 +9614,10 @@
     </row>
     <row r="280">
       <c r="A280" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>286</v>
+        <v>424</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>279</v>
@@ -9592,10 +9633,10 @@
     </row>
     <row r="281">
       <c r="A281" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>279</v>
@@ -9611,16 +9652,18 @@
     </row>
     <row r="282">
       <c r="A282" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C282" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D282" s="4"/>
-      <c r="E282" s="3"/>
+      <c r="E282" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
@@ -9630,10 +9673,10 @@
     </row>
     <row r="283">
       <c r="A283" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>279</v>
@@ -9649,10 +9692,10 @@
     </row>
     <row r="284">
       <c r="A284" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>279</v>
@@ -9668,10 +9711,10 @@
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>279</v>
@@ -9687,7 +9730,7 @@
     </row>
     <row r="286">
       <c r="A286" s="4" t="s">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>436</v>
@@ -9709,15 +9752,13 @@
         <v>437</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>438</v>
+        <v>220</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D287" s="4"/>
-      <c r="E287" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E287" s="3"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
@@ -9727,10 +9768,10 @@
     </row>
     <row r="288">
       <c r="A288" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>279</v>
@@ -9746,10 +9787,10 @@
     </row>
     <row r="289">
       <c r="A289" s="4" t="s">
-        <v>441</v>
+        <v>319</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>279</v>
@@ -9765,16 +9806,18 @@
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D290" s="4"/>
-      <c r="E290" s="3"/>
+      <c r="E290" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
@@ -9784,10 +9827,10 @@
     </row>
     <row r="291">
       <c r="A291" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>279</v>
@@ -9803,10 +9846,10 @@
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>279</v>
@@ -9822,10 +9865,10 @@
     </row>
     <row r="293">
       <c r="A293" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>279</v>
@@ -9841,18 +9884,16 @@
     </row>
     <row r="294">
       <c r="A294" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>261</v>
+        <v>450</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D294" s="4"/>
-      <c r="E294" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E294" s="3"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
@@ -9862,10 +9903,10 @@
     </row>
     <row r="295">
       <c r="A295" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>279</v>
@@ -9880,11 +9921,11 @@
       <c r="K295" s="4"/>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>279</v>
@@ -9903,13 +9944,15 @@
         <v>455</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>456</v>
+        <v>261</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D297" s="4"/>
-      <c r="E297" s="3"/>
+      <c r="E297" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
@@ -9919,10 +9962,10 @@
     </row>
     <row r="298">
       <c r="A298" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>458</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>279</v>
@@ -9937,11 +9980,11 @@
       <c r="K298" s="4"/>
     </row>
     <row r="299">
-      <c r="A299" s="4" t="s">
-        <v>459</v>
+      <c r="A299" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>460</v>
+        <v>112</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>279</v>
@@ -9957,10 +10000,10 @@
     </row>
     <row r="300">
       <c r="A300" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>279</v>
@@ -9976,10 +10019,10 @@
     </row>
     <row r="301">
       <c r="A301" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>279</v>
@@ -9995,18 +10038,16 @@
     </row>
     <row r="302">
       <c r="A302" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D302" s="4"/>
-      <c r="E302" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E302" s="3"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
@@ -10016,10 +10057,10 @@
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>279</v>
@@ -10035,10 +10076,10 @@
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>279</v>
@@ -10054,16 +10095,18 @@
     </row>
     <row r="305">
       <c r="A305" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D305" s="4"/>
-      <c r="E305" s="3"/>
+      <c r="E305" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
@@ -10073,10 +10116,10 @@
     </row>
     <row r="306">
       <c r="A306" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>279</v>
@@ -10092,10 +10135,10 @@
     </row>
     <row r="307">
       <c r="A307" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>279</v>
@@ -10111,10 +10154,10 @@
     </row>
     <row r="308">
       <c r="A308" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>279</v>
@@ -10130,10 +10173,10 @@
     </row>
     <row r="309">
       <c r="A309" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>279</v>
@@ -10149,10 +10192,10 @@
     </row>
     <row r="310">
       <c r="A310" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>279</v>
@@ -10168,18 +10211,16 @@
     </row>
     <row r="311">
       <c r="A311" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D311" s="4"/>
-      <c r="E311" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E311" s="3"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
@@ -10189,10 +10230,10 @@
     </row>
     <row r="312">
       <c r="A312" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>279</v>
@@ -10208,16 +10249,18 @@
     </row>
     <row r="313">
       <c r="A313" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D313" s="4"/>
-      <c r="E313" s="3"/>
+      <c r="E313" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
@@ -10227,10 +10270,10 @@
     </row>
     <row r="314">
       <c r="A314" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>279</v>
@@ -10246,10 +10289,10 @@
     </row>
     <row r="315">
       <c r="A315" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>279</v>
@@ -10265,10 +10308,10 @@
     </row>
     <row r="316">
       <c r="A316" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>279</v>
@@ -10284,10 +10327,10 @@
     </row>
     <row r="317">
       <c r="A317" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>279</v>
@@ -10303,10 +10346,10 @@
     </row>
     <row r="318">
       <c r="A318" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>279</v>
@@ -10322,18 +10365,16 @@
     </row>
     <row r="319">
       <c r="A319" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D319" s="4"/>
-      <c r="E319" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E319" s="3"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
@@ -10343,10 +10384,10 @@
     </row>
     <row r="320">
       <c r="A320" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>279</v>
@@ -10362,16 +10403,18 @@
     </row>
     <row r="321">
       <c r="A321" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D321" s="4"/>
-      <c r="E321" s="3"/>
+      <c r="E321" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
@@ -10381,10 +10424,10 @@
     </row>
     <row r="322">
       <c r="A322" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>504</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>279</v>
@@ -10400,10 +10443,10 @@
     </row>
     <row r="323">
       <c r="A323" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1103</v>
+        <v>506</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>279</v>
@@ -10419,10 +10462,10 @@
     </row>
     <row r="324">
       <c r="A324" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B324" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>279</v>
@@ -10438,10 +10481,10 @@
     </row>
     <row r="325">
       <c r="A325" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>1118</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>279</v>
@@ -10457,10 +10500,10 @@
     </row>
     <row r="326">
       <c r="A326" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>1104</v>
+        <v>511</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>279</v>
@@ -10475,11 +10518,11 @@
       <c r="K326" s="4"/>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B327" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>279</v>
@@ -10494,16 +10537,16 @@
       <c r="K327" s="4"/>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B328" s="3" t="s">
-        <v>515</v>
+      <c r="B328" s="4" t="s">
+        <v>1119</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D328" s="3"/>
+      <c r="D328" s="4"/>
       <c r="E328" s="3"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
@@ -10514,15 +10557,15 @@
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>517</v>
+        <v>120</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D329" s="3"/>
+      <c r="D329" s="4"/>
       <c r="E329" s="3"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -10533,10 +10576,10 @@
     </row>
     <row r="330">
       <c r="A330" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>279</v>
@@ -10552,10 +10595,10 @@
     </row>
     <row r="331">
       <c r="A331" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>279</v>
@@ -10571,10 +10614,10 @@
     </row>
     <row r="332">
       <c r="A332" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>279</v>
@@ -10590,10 +10633,10 @@
     </row>
     <row r="333">
       <c r="A333" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>279</v>
@@ -10609,10 +10652,10 @@
     </row>
     <row r="334">
       <c r="A334" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>279</v>
@@ -10627,16 +10670,16 @@
       <c r="K334" s="4"/>
     </row>
     <row r="335">
-      <c r="A335" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>105</v>
+      <c r="A335" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D335" s="4"/>
+      <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -10646,16 +10689,16 @@
       <c r="K335" s="4"/>
     </row>
     <row r="336">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B336" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B336" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C336" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D336" s="4"/>
+      <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
@@ -10665,16 +10708,16 @@
       <c r="K336" s="4"/>
     </row>
     <row r="337">
-      <c r="A337" s="4" t="s">
+      <c r="A337" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B337" s="4" t="s">
-        <v>105</v>
+      <c r="B337" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D337" s="4"/>
+      <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
@@ -10685,7 +10728,7 @@
     </row>
     <row r="338">
       <c r="A338" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>105</v>
@@ -10704,7 +10747,7 @@
     </row>
     <row r="339">
       <c r="A339" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>105</v>
@@ -10723,7 +10766,7 @@
     </row>
     <row r="340">
       <c r="A340" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>105</v>
@@ -10741,8 +10784,8 @@
       <c r="K340" s="4"/>
     </row>
     <row r="341">
-      <c r="A341" s="3" t="s">
-        <v>534</v>
+      <c r="A341" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>105</v>
@@ -10761,7 +10804,7 @@
     </row>
     <row r="342">
       <c r="A342" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>105</v>
@@ -10780,10 +10823,10 @@
     </row>
     <row r="343">
       <c r="A343" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1105</v>
+        <v>105</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>279</v>
@@ -10798,8 +10841,8 @@
       <c r="K343" s="4"/>
     </row>
     <row r="344">
-      <c r="A344" s="4" t="s">
-        <v>537</v>
+      <c r="A344" s="3" t="s">
+        <v>538</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>105</v>
@@ -10818,7 +10861,7 @@
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>105</v>
@@ -10837,10 +10880,10 @@
     </row>
     <row r="346">
       <c r="A346" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1106</v>
+        <v>1120</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>279</v>
@@ -10856,10 +10899,10 @@
     </row>
     <row r="347">
       <c r="A347" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1107</v>
+        <v>105</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>279</v>
@@ -10875,10 +10918,10 @@
     </row>
     <row r="348">
       <c r="A348" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1108</v>
+        <v>105</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>279</v>
@@ -10894,10 +10937,10 @@
     </row>
     <row r="349">
       <c r="A349" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>279</v>
@@ -10913,10 +10956,10 @@
     </row>
     <row r="350">
       <c r="A350" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1110</v>
+        <v>1122</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>279</v>
@@ -10932,10 +10975,10 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>105</v>
+        <v>1123</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>279</v>
@@ -10951,10 +10994,10 @@
     </row>
     <row r="352">
       <c r="A352" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>279</v>
@@ -10970,10 +11013,10 @@
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>547</v>
+        <v>1125</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>279</v>
@@ -10991,8 +11034,8 @@
       <c r="A354" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B354" s="3" t="s">
-        <v>549</v>
+      <c r="B354" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>279</v>
@@ -11008,10 +11051,10 @@
     </row>
     <row r="355">
       <c r="A355" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>551</v>
+        <v>1126</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>279</v>
@@ -11027,10 +11070,10 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1112</v>
+        <v>551</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>279</v>
@@ -11046,10 +11089,10 @@
     </row>
     <row r="357">
       <c r="A357" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>279</v>
@@ -11067,8 +11110,8 @@
       <c r="A358" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B358" s="3" t="s">
-        <v>353</v>
+      <c r="B358" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>279</v>
@@ -11084,10 +11127,10 @@
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1113</v>
+        <v>1127</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>279</v>
@@ -11103,10 +11146,10 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>1114</v>
+        <v>557</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>279</v>
@@ -11122,10 +11165,10 @@
     </row>
     <row r="361">
       <c r="A361" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>279</v>
@@ -11141,10 +11184,10 @@
     </row>
     <row r="362">
       <c r="A362" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>335</v>
+        <v>1128</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>279</v>
@@ -11160,10 +11203,10 @@
     </row>
     <row r="363">
       <c r="A363" s="4" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1115</v>
+        <v>1129</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>279</v>
@@ -11178,16 +11221,16 @@
       <c r="K363" s="4"/>
     </row>
     <row r="364">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>335</v>
+        <v>561</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D364" s="3"/>
+      <c r="D364" s="4"/>
       <c r="E364" s="3"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
@@ -11198,10 +11241,10 @@
     </row>
     <row r="365">
       <c r="A365" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1116</v>
+        <v>335</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>279</v>
@@ -11217,10 +11260,10 @@
     </row>
     <row r="366">
       <c r="A366" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>279</v>
@@ -11235,16 +11278,16 @@
       <c r="K366" s="4"/>
     </row>
     <row r="367">
-      <c r="A367" s="4" t="s">
-        <v>563</v>
+      <c r="A367" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1118</v>
+        <v>335</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D367" s="4"/>
+      <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -11255,10 +11298,10 @@
     </row>
     <row r="368">
       <c r="A368" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>279</v>
@@ -11274,10 +11317,10 @@
     </row>
     <row r="369">
       <c r="A369" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>279</v>
@@ -11293,10 +11336,10 @@
     </row>
     <row r="370">
       <c r="A370" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>567</v>
+        <v>1133</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>279</v>
@@ -11315,7 +11358,7 @@
         <v>568</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>486</v>
+        <v>1134</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>279</v>
@@ -11334,7 +11377,7 @@
         <v>569</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>486</v>
+        <v>1135</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>279</v>
@@ -11353,7 +11396,7 @@
         <v>570</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>486</v>
+        <v>571</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>279</v>
@@ -11368,16 +11411,16 @@
       <c r="K373" s="4"/>
     </row>
     <row r="374">
-      <c r="A374" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B374" s="3" t="s">
+      <c r="A374" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B374" s="4" t="s">
         <v>488</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D374" s="3"/>
+      <c r="D374" s="4"/>
       <c r="E374" s="3"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
@@ -11388,7 +11431,7 @@
     </row>
     <row r="375">
       <c r="A375" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>488</v>
@@ -11407,10 +11450,10 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1121</v>
+        <v>488</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>279</v>
@@ -11425,16 +11468,16 @@
       <c r="K376" s="4"/>
     </row>
     <row r="377">
-      <c r="A377" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>1122</v>
+      <c r="A377" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D377" s="4"/>
+      <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
@@ -11445,10 +11488,10 @@
     </row>
     <row r="378">
       <c r="A378" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>341</v>
+        <v>490</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>279</v>
@@ -11464,10 +11507,10 @@
     </row>
     <row r="379">
       <c r="A379" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>577</v>
+        <v>1136</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>279</v>
@@ -11485,8 +11528,8 @@
       <c r="A380" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>577</v>
+      <c r="B380" s="4" t="s">
+        <v>1137</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>279</v>
@@ -11505,7 +11548,7 @@
         <v>579</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1123</v>
+        <v>341</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>279</v>
@@ -11524,7 +11567,7 @@
         <v>580</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>279</v>
@@ -11540,10 +11583,10 @@
     </row>
     <row r="383">
       <c r="A383" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>1124</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>279</v>
@@ -11559,10 +11602,10 @@
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>583</v>
+        <v>1138</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>279</v>
@@ -11581,15 +11624,13 @@
         <v>584</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>585</v>
+        <v>80</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D385" s="4"/>
-      <c r="E385" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E385" s="3"/>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
@@ -11598,11 +11639,11 @@
       <c r="K385" s="4"/>
     </row>
     <row r="386">
-      <c r="A386" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>587</v>
+      <c r="A386" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>1139</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>279</v>
@@ -11618,10 +11659,10 @@
     </row>
     <row r="387">
       <c r="A387" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>279</v>
@@ -11637,16 +11678,18 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1125</v>
+        <v>589</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D388" s="4"/>
-      <c r="E388" s="3"/>
+      <c r="E388" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
@@ -11655,11 +11698,11 @@
       <c r="K388" s="4"/>
     </row>
     <row r="389">
-      <c r="A389" s="4" t="s">
+      <c r="A389" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B389" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>1126</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>279</v>
@@ -11678,7 +11721,7 @@
         <v>592</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1127</v>
+        <v>593</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>279</v>
@@ -11694,10 +11737,10 @@
     </row>
     <row r="391">
       <c r="A391" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>594</v>
+        <v>1140</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>279</v>
@@ -11716,7 +11759,7 @@
         <v>595</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>596</v>
+        <v>1141</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>279</v>
@@ -11732,10 +11775,10 @@
     </row>
     <row r="393">
       <c r="A393" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>598</v>
+        <v>1142</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>279</v>
@@ -11751,10 +11794,10 @@
     </row>
     <row r="394">
       <c r="A394" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1128</v>
+        <v>598</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>279</v>
@@ -11770,10 +11813,10 @@
     </row>
     <row r="395">
       <c r="A395" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B395" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>279</v>
@@ -11811,7 +11854,7 @@
         <v>603</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1129</v>
+        <v>1143</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>279</v>
@@ -11829,8 +11872,8 @@
       <c r="A398" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B398" s="4" t="s">
-        <v>1130</v>
+      <c r="B398" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>279</v>
@@ -11868,7 +11911,7 @@
         <v>607</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>608</v>
+        <v>1144</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>279</v>
@@ -11884,10 +11927,10 @@
     </row>
     <row r="401">
       <c r="A401" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1131</v>
+        <v>1145</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>279</v>
@@ -11903,10 +11946,10 @@
     </row>
     <row r="402">
       <c r="A402" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B402" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>1132</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>279</v>
@@ -11925,7 +11968,7 @@
         <v>611</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>324</v>
+        <v>612</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>279</v>
@@ -11941,10 +11984,10 @@
     </row>
     <row r="404">
       <c r="A404" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>613</v>
+        <v>1146</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>279</v>
@@ -11963,7 +12006,7 @@
         <v>614</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1133</v>
+        <v>1147</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>279</v>
@@ -11982,7 +12025,7 @@
         <v>615</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1134</v>
+        <v>324</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>279</v>
@@ -12001,7 +12044,7 @@
         <v>616</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1135</v>
+        <v>617</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>279</v>
@@ -12017,10 +12060,10 @@
     </row>
     <row r="408">
       <c r="A408" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1136</v>
+        <v>1148</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>279</v>
@@ -12036,10 +12079,10 @@
     </row>
     <row r="409">
       <c r="A409" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1137</v>
+        <v>1149</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>279</v>
@@ -12055,10 +12098,10 @@
     </row>
     <row r="410">
       <c r="A410" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>279</v>
@@ -12074,10 +12117,10 @@
     </row>
     <row r="411">
       <c r="A411" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1139</v>
+        <v>1151</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>279</v>
@@ -12093,10 +12136,10 @@
     </row>
     <row r="412">
       <c r="A412" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>622</v>
+        <v>1152</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>279</v>
@@ -12115,7 +12158,7 @@
         <v>623</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>624</v>
+        <v>1153</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>279</v>
@@ -12131,10 +12174,10 @@
     </row>
     <row r="414">
       <c r="A414" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>494</v>
+        <v>1154</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>279</v>
@@ -12150,10 +12193,10 @@
     </row>
     <row r="415">
       <c r="A415" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B415" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>279</v>
@@ -12169,10 +12212,10 @@
     </row>
     <row r="416">
       <c r="A416" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B416" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="B416" s="4" t="s">
-        <v>1140</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>279</v>
@@ -12190,8 +12233,8 @@
       <c r="A417" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="B417" s="1" t="s">
-        <v>97</v>
+      <c r="B417" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>279</v>
@@ -12229,7 +12272,7 @@
         <v>632</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1141</v>
+        <v>1155</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>279</v>
@@ -12247,8 +12290,8 @@
       <c r="A420" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B420" s="4" t="s">
-        <v>634</v>
+      <c r="B420" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>279</v>
@@ -12263,16 +12306,16 @@
       <c r="K420" s="4"/>
     </row>
     <row r="421">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="B421" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="C421" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D421" s="3"/>
+      <c r="D421" s="4"/>
       <c r="E421" s="3"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
@@ -12282,16 +12325,16 @@
       <c r="K421" s="4"/>
     </row>
     <row r="422">
-      <c r="A422" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>397</v>
+      <c r="A422" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>1156</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D422" s="3"/>
+      <c r="D422" s="4"/>
       <c r="E422" s="3"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
@@ -12301,16 +12344,16 @@
       <c r="K422" s="4"/>
     </row>
     <row r="423">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B423" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="B423" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="C423" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D423" s="3"/>
+      <c r="D423" s="4"/>
       <c r="E423" s="3"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
@@ -12321,10 +12364,10 @@
     </row>
     <row r="424">
       <c r="A424" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B424" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>279</v>
@@ -12340,10 +12383,10 @@
     </row>
     <row r="425">
       <c r="A425" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>517</v>
+        <v>398</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>279</v>
@@ -12359,10 +12402,10 @@
     </row>
     <row r="426">
       <c r="A426" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B426" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>279</v>
@@ -12378,10 +12421,10 @@
     </row>
     <row r="427">
       <c r="A427" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B427" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>279</v>
@@ -12400,7 +12443,7 @@
         <v>646</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>39</v>
+        <v>519</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>279</v>
@@ -12425,9 +12468,7 @@
         <v>279</v>
       </c>
       <c r="D429" s="3"/>
-      <c r="E429" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E429" s="3"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
@@ -12440,7 +12481,7 @@
         <v>649</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>650</v>
+        <v>368</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>279</v>
@@ -12455,16 +12496,16 @@
       <c r="K430" s="4"/>
     </row>
     <row r="431">
-      <c r="A431" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B431" s="4" t="s">
-        <v>652</v>
+      <c r="A431" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D431" s="4"/>
+      <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
@@ -12474,17 +12515,19 @@
       <c r="K431" s="4"/>
     </row>
     <row r="432">
-      <c r="A432" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B432" s="4" t="s">
-        <v>105</v>
+      <c r="A432" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D432" s="4"/>
-      <c r="E432" s="3"/>
+      <c r="D432" s="3"/>
+      <c r="E432" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
@@ -12493,16 +12536,16 @@
       <c r="K432" s="4"/>
     </row>
     <row r="433">
-      <c r="A433" s="4" t="s">
+      <c r="A433" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B433" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C433" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D433" s="4"/>
+      <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
@@ -12516,7 +12559,7 @@
         <v>655</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1142</v>
+        <v>656</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>279</v>
@@ -12532,7 +12575,7 @@
     </row>
     <row r="435">
       <c r="A435" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>105</v>
@@ -12541,9 +12584,7 @@
         <v>279</v>
       </c>
       <c r="D435" s="4"/>
-      <c r="E435" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E435" s="3"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
@@ -12553,9 +12594,9 @@
     </row>
     <row r="436">
       <c r="A436" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="B436" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B436" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C436" s="2" t="s">
@@ -12572,10 +12613,10 @@
     </row>
     <row r="437">
       <c r="A437" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>105</v>
+        <v>659</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>1157</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>279</v>
@@ -12591,16 +12632,18 @@
     </row>
     <row r="438">
       <c r="A438" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B438" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B438" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D438" s="4"/>
-      <c r="E438" s="3"/>
+      <c r="E438" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
@@ -12610,9 +12653,9 @@
     </row>
     <row r="439">
       <c r="A439" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="B439" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C439" s="2" t="s">
@@ -12629,7 +12672,7 @@
     </row>
     <row r="440">
       <c r="A440" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>105</v>
@@ -12648,9 +12691,9 @@
     </row>
     <row r="441">
       <c r="A441" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B441" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C441" s="2" t="s">
@@ -12667,7 +12710,7 @@
     </row>
     <row r="442">
       <c r="A442" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>105</v>
@@ -12686,9 +12729,9 @@
     </row>
     <row r="443">
       <c r="A443" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="B443" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C443" s="2" t="s">
@@ -12705,7 +12748,7 @@
     </row>
     <row r="444">
       <c r="A444" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>105</v>
@@ -12724,7 +12767,7 @@
     </row>
     <row r="445">
       <c r="A445" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>105</v>
@@ -12743,7 +12786,7 @@
     </row>
     <row r="446">
       <c r="A446" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>105</v>
@@ -12762,7 +12805,7 @@
     </row>
     <row r="447">
       <c r="A447" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>105</v>
@@ -12781,7 +12824,7 @@
     </row>
     <row r="448">
       <c r="A448" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>105</v>
@@ -12800,7 +12843,7 @@
     </row>
     <row r="449">
       <c r="A449" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B449" s="4" t="s">
         <v>105</v>
@@ -12819,9 +12862,9 @@
     </row>
     <row r="450">
       <c r="A450" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B450" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B450" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C450" s="2" t="s">
@@ -12838,9 +12881,9 @@
     </row>
     <row r="451">
       <c r="A451" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="B451" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B451" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C451" s="2" t="s">
@@ -12857,7 +12900,7 @@
     </row>
     <row r="452">
       <c r="A452" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>105</v>
@@ -12876,9 +12919,9 @@
     </row>
     <row r="453">
       <c r="A453" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="B453" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C453" s="2" t="s">
@@ -12895,7 +12938,7 @@
     </row>
     <row r="454">
       <c r="A454" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>105</v>
@@ -12914,7 +12957,7 @@
     </row>
     <row r="455">
       <c r="A455" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>105</v>
@@ -12922,7 +12965,7 @@
       <c r="C455" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D455" s="3"/>
+      <c r="D455" s="4"/>
       <c r="E455" s="3"/>
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
@@ -12933,10 +12976,10 @@
     </row>
     <row r="456">
       <c r="A456" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>279</v>
@@ -12952,10 +12995,10 @@
     </row>
     <row r="457">
       <c r="A457" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>335</v>
+        <v>679</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>279</v>
@@ -12971,15 +13014,15 @@
     </row>
     <row r="458">
       <c r="A458" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D458" s="4"/>
+      <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
@@ -12990,9 +13033,9 @@
     </row>
     <row r="459">
       <c r="A459" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B459" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B459" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C459" s="2" t="s">
@@ -13008,8 +13051,8 @@
       <c r="K459" s="4"/>
     </row>
     <row r="460">
-      <c r="A460" s="3" t="s">
-        <v>681</v>
+      <c r="A460" s="4" t="s">
+        <v>682</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>335</v>
@@ -13028,7 +13071,7 @@
     </row>
     <row r="461">
       <c r="A461" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>335</v>
@@ -13047,10 +13090,10 @@
     </row>
     <row r="462">
       <c r="A462" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="B462" s="4" t="s">
-        <v>290</v>
+        <v>684</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>279</v>
@@ -13065,11 +13108,11 @@
       <c r="K462" s="4"/>
     </row>
     <row r="463">
-      <c r="A463" s="4" t="s">
-        <v>684</v>
+      <c r="A463" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>279</v>
@@ -13085,10 +13128,10 @@
     </row>
     <row r="464">
       <c r="A464" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>279</v>
@@ -13104,9 +13147,9 @@
     </row>
     <row r="465">
       <c r="A465" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B465" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B465" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C465" s="2" t="s">
@@ -13123,10 +13166,10 @@
     </row>
     <row r="466">
       <c r="A466" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>279</v>
@@ -13142,10 +13185,10 @@
     </row>
     <row r="467">
       <c r="A467" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>353</v>
+        <v>689</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>279</v>
@@ -13160,16 +13203,16 @@
       <c r="K467" s="4"/>
     </row>
     <row r="468">
-      <c r="A468" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="B468" s="4" t="s">
-        <v>353</v>
+      <c r="A468" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D468" s="3"/>
+      <c r="D468" s="4"/>
       <c r="E468" s="3"/>
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
@@ -13179,16 +13222,16 @@
       <c r="K468" s="4"/>
     </row>
     <row r="469">
-      <c r="A469" s="3" t="s">
-        <v>690</v>
+      <c r="A469" s="4" t="s">
+        <v>691</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D469" s="3"/>
+      <c r="D469" s="4"/>
       <c r="E469" s="3"/>
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
@@ -13199,10 +13242,10 @@
     </row>
     <row r="470">
       <c r="A470" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="B470" s="4" t="s">
         <v>692</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>279</v>
@@ -13217,16 +13260,16 @@
       <c r="K470" s="4"/>
     </row>
     <row r="471">
-      <c r="A471" s="4" t="s">
+      <c r="A471" s="3" t="s">
         <v>693</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D471" s="4"/>
+      <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
@@ -13236,16 +13279,16 @@
       <c r="K471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="4" t="s">
+      <c r="A472" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>359</v>
+      <c r="B472" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D472" s="4"/>
+      <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
@@ -13255,11 +13298,11 @@
       <c r="K472" s="4"/>
     </row>
     <row r="473">
-      <c r="A473" s="3" t="s">
+      <c r="A473" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>359</v>
+      <c r="B473" s="4" t="s">
+        <v>696</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>279</v>
@@ -13275,10 +13318,10 @@
     </row>
     <row r="474">
       <c r="A474" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>697</v>
+        <v>525</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>279</v>
@@ -13293,17 +13336,19 @@
       <c r="K474" s="4"/>
     </row>
     <row r="475">
-      <c r="A475" s="3" t="s">
+      <c r="A475" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B475" s="3" t="s">
-        <v>187</v>
+      <c r="B475" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D475" s="4"/>
-      <c r="E475" s="3"/>
+      <c r="E475" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
@@ -13315,8 +13360,8 @@
       <c r="A476" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B476" s="3" t="s">
-        <v>187</v>
+      <c r="B476" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>279</v>
@@ -13334,8 +13379,8 @@
       <c r="A477" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B477" s="3" t="s">
-        <v>187</v>
+      <c r="B477" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>279</v>
@@ -13353,8 +13398,8 @@
       <c r="A478" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>523</v>
+      <c r="B478" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>279</v>
@@ -13373,15 +13418,13 @@
         <v>702</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>523</v>
+        <v>364</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D479" s="4"/>
-      <c r="E479" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E479" s="3"/>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
@@ -13394,7 +13437,7 @@
         <v>703</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>523</v>
+        <v>364</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>279</v>
@@ -13428,11 +13471,11 @@
       <c r="K481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="4" t="s">
+      <c r="A482" s="3" t="s">
         <v>706</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>705</v>
+        <v>187</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>279</v>
@@ -13451,12 +13494,12 @@
         <v>707</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>705</v>
+        <v>187</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D483" s="3"/>
+      <c r="D483" s="4"/>
       <c r="E483" s="3"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
@@ -13466,11 +13509,11 @@
       <c r="K483" s="4"/>
     </row>
     <row r="484">
-      <c r="A484" s="4" t="s">
+      <c r="A484" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>709</v>
+      <c r="B484" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>279</v>
@@ -13486,10 +13529,10 @@
     </row>
     <row r="485">
       <c r="A485" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>279</v>
@@ -13507,8 +13550,8 @@
       <c r="A486" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>709</v>
+      <c r="B486" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>279</v>
@@ -13523,16 +13566,16 @@
       <c r="K486" s="4"/>
     </row>
     <row r="487">
-      <c r="A487" s="4" t="s">
+      <c r="A487" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>313</v>
+      <c r="B487" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D487" s="4"/>
+      <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
@@ -13546,12 +13589,12 @@
         <v>713</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>313</v>
+        <v>714</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D488" s="3"/>
+      <c r="D488" s="4"/>
       <c r="E488" s="3"/>
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
@@ -13562,15 +13605,15 @@
     </row>
     <row r="489">
       <c r="A489" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="C489" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D489" s="3"/>
+      <c r="D489" s="4"/>
       <c r="E489" s="3"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
@@ -13581,10 +13624,10 @@
     </row>
     <row r="490">
       <c r="A490" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>324</v>
+        <v>714</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>279</v>
@@ -13599,11 +13642,11 @@
       <c r="K490" s="4"/>
     </row>
     <row r="491">
-      <c r="A491" s="3" t="s">
-        <v>716</v>
+      <c r="A491" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>279</v>
@@ -13618,16 +13661,16 @@
       <c r="K491" s="4"/>
     </row>
     <row r="492">
-      <c r="A492" s="3" t="s">
-        <v>717</v>
+      <c r="A492" s="4" t="s">
+        <v>718</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D492" s="4"/>
+      <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
@@ -13638,15 +13681,15 @@
     </row>
     <row r="493">
       <c r="A493" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>719</v>
+        <v>313</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D493" s="4"/>
+      <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
@@ -13659,8 +13702,8 @@
       <c r="A494" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B494" s="3" t="s">
-        <v>719</v>
+      <c r="B494" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>279</v>
@@ -13679,12 +13722,12 @@
         <v>721</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>719</v>
+        <v>324</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D495" s="3"/>
+      <c r="D495" s="4"/>
       <c r="E495" s="3"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
@@ -13694,11 +13737,11 @@
       <c r="K495" s="4"/>
     </row>
     <row r="496">
-      <c r="A496" s="4" t="s">
+      <c r="A496" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B496" s="4" t="s">
-        <v>1143</v>
+      <c r="B496" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>279</v>
@@ -13716,8 +13759,8 @@
       <c r="A497" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B497" s="4" t="s">
-        <v>346</v>
+      <c r="B497" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>279</v>
@@ -13733,10 +13776,10 @@
     </row>
     <row r="498">
       <c r="A498" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B498" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>279</v>
@@ -13751,16 +13794,16 @@
       <c r="K498" s="4"/>
     </row>
     <row r="499">
-      <c r="A499" s="4" t="s">
-        <v>725</v>
+      <c r="A499" s="3" t="s">
+        <v>726</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>139</v>
+        <v>724</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D499" s="4"/>
+      <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
@@ -13771,10 +13814,10 @@
     </row>
     <row r="500">
       <c r="A500" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1144</v>
+        <v>1158</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>279</v>
@@ -13790,10 +13833,10 @@
     </row>
     <row r="501">
       <c r="A501" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>366</v>
+        <v>728</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>279</v>
@@ -13809,10 +13852,10 @@
     </row>
     <row r="502">
       <c r="A502" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="B502" s="4" t="s">
-        <v>480</v>
+        <v>729</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>279</v>
@@ -13828,10 +13871,10 @@
     </row>
     <row r="503">
       <c r="A503" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B503" s="4" t="s">
-        <v>480</v>
+        <v>730</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>279</v>
@@ -13847,10 +13890,10 @@
     </row>
     <row r="504">
       <c r="A504" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>608</v>
+        <v>731</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>1159</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>279</v>
@@ -13866,10 +13909,10 @@
     </row>
     <row r="505">
       <c r="A505" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>608</v>
+        <v>371</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>279</v>
@@ -13885,10 +13928,10 @@
     </row>
     <row r="506">
       <c r="A506" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>120</v>
+        <v>733</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>482</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>279</v>
@@ -13904,10 +13947,10 @@
     </row>
     <row r="507">
       <c r="A507" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>120</v>
+        <v>482</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>279</v>
@@ -13923,10 +13966,10 @@
     </row>
     <row r="508">
       <c r="A508" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="B508" s="3" t="s">
         <v>735</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>279</v>
@@ -13945,7 +13988,7 @@
         <v>736</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>735</v>
+        <v>612</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>279</v>
@@ -13964,7 +14007,7 @@
         <v>737</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>606</v>
+        <v>120</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>279</v>
@@ -13982,16 +14025,14 @@
       <c r="A511" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="B511" s="1" t="s">
-        <v>606</v>
+      <c r="B511" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D511" s="4"/>
-      <c r="E511" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E511" s="3"/>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
@@ -14003,8 +14044,8 @@
       <c r="A512" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B512" s="1" t="s">
-        <v>464</v>
+      <c r="B512" s="3" t="s">
+        <v>740</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>279</v>
@@ -14020,10 +14061,10 @@
     </row>
     <row r="513">
       <c r="A513" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B513" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="B513" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>279</v>
@@ -14039,10 +14080,10 @@
     </row>
     <row r="514">
       <c r="A514" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>279</v>
@@ -14057,17 +14098,19 @@
       <c r="K514" s="4"/>
     </row>
     <row r="515">
-      <c r="A515" s="3" t="s">
-        <v>742</v>
+      <c r="A515" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D515" s="4"/>
-      <c r="E515" s="3"/>
+      <c r="E515" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
@@ -14077,10 +14120,10 @@
     </row>
     <row r="516">
       <c r="A516" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B516" s="4" t="s">
-        <v>374</v>
+        <v>744</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>279</v>
@@ -14096,10 +14139,10 @@
     </row>
     <row r="517">
       <c r="A517" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>279</v>
@@ -14115,10 +14158,10 @@
     </row>
     <row r="518">
       <c r="A518" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="B518" s="4" t="s">
-        <v>235</v>
+        <v>746</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>279</v>
@@ -14134,18 +14177,16 @@
     </row>
     <row r="519">
       <c r="A519" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B519" s="4" t="s">
-        <v>235</v>
+        <v>747</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D519" s="4"/>
-      <c r="E519" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E519" s="3"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
@@ -14155,10 +14196,10 @@
     </row>
     <row r="520">
       <c r="A520" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="B520" s="5" t="s">
         <v>748</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>279</v>
@@ -14173,11 +14214,11 @@
       <c r="K520" s="4"/>
     </row>
     <row r="521">
-      <c r="A521" s="3" t="s">
+      <c r="A521" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="B521" s="5" t="s">
-        <v>748</v>
+      <c r="B521" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>279</v>
@@ -14196,7 +14237,7 @@
         <v>750</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>279</v>
@@ -14214,14 +14255,16 @@
       <c r="A523" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B523" s="3" t="s">
-        <v>144</v>
+      <c r="B523" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D523" s="3"/>
-      <c r="E523" s="3"/>
+      <c r="D523" s="4"/>
+      <c r="E523" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
@@ -14234,7 +14277,7 @@
         <v>752</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>432</v>
+        <v>753</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>279</v>
@@ -14250,9 +14293,9 @@
     </row>
     <row r="525">
       <c r="A525" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B525" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B525" s="5" t="s">
         <v>753</v>
       </c>
       <c r="C525" s="2" t="s">
@@ -14269,18 +14312,16 @@
     </row>
     <row r="526">
       <c r="A526" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>346</v>
+        <v>144</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D526" s="4"/>
-      <c r="E526" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E526" s="3"/>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
@@ -14289,16 +14330,16 @@
       <c r="K526" s="4"/>
     </row>
     <row r="527">
-      <c r="A527" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B527" s="1" t="s">
+      <c r="A527" s="3" t="s">
         <v>756</v>
       </c>
+      <c r="B527" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="C527" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D527" s="4"/>
+      <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
@@ -14311,8 +14352,8 @@
       <c r="A528" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B528" s="4" t="s">
-        <v>567</v>
+      <c r="B528" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>279</v>
@@ -14327,11 +14368,11 @@
       <c r="K528" s="4"/>
     </row>
     <row r="529">
-      <c r="A529" s="4" t="s">
+      <c r="A529" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B529" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="B529" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>279</v>
@@ -14347,16 +14388,18 @@
     </row>
     <row r="530">
       <c r="A530" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>287</v>
+        <v>759</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D530" s="4"/>
-      <c r="E530" s="3"/>
+      <c r="E530" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
@@ -14366,10 +14409,10 @@
     </row>
     <row r="531">
       <c r="A531" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B531" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>762</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>279</v>
@@ -14385,10 +14428,10 @@
     </row>
     <row r="532">
       <c r="A532" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>423</v>
+        <v>762</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>279</v>
@@ -14403,16 +14446,16 @@
       <c r="K532" s="4"/>
     </row>
     <row r="533">
-      <c r="A533" s="3" t="s">
+      <c r="A533" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B533" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="C533" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D533" s="3"/>
+      <c r="D533" s="4"/>
       <c r="E533" s="3"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
@@ -14423,10 +14466,10 @@
     </row>
     <row r="534">
       <c r="A534" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B534" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>279</v>
@@ -14442,10 +14485,10 @@
     </row>
     <row r="535">
       <c r="A535" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>112</v>
+        <v>767</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>279</v>
@@ -14461,10 +14504,10 @@
     </row>
     <row r="536">
       <c r="A536" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B536" s="4" t="s">
-        <v>444</v>
+        <v>768</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>279</v>
@@ -14479,16 +14522,16 @@
       <c r="K536" s="4"/>
     </row>
     <row r="537">
-      <c r="A537" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B537" s="5" t="s">
-        <v>170</v>
+      <c r="A537" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D537" s="4"/>
+      <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
@@ -14499,10 +14542,10 @@
     </row>
     <row r="538">
       <c r="A538" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B538" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>279</v>
@@ -14518,10 +14561,10 @@
     </row>
     <row r="539">
       <c r="A539" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="B539" s="4" t="s">
-        <v>486</v>
+        <v>772</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>279</v>
@@ -14537,10 +14580,10 @@
     </row>
     <row r="540">
       <c r="A540" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>504</v>
+        <v>773</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>279</v>
@@ -14556,10 +14599,10 @@
     </row>
     <row r="541">
       <c r="A541" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>279</v>
@@ -14575,10 +14618,10 @@
     </row>
     <row r="542">
       <c r="A542" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>631</v>
+        <v>776</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>279</v>
@@ -14594,10 +14637,10 @@
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>279</v>
@@ -14613,10 +14656,10 @@
     </row>
     <row r="544">
       <c r="A544" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>781</v>
+        <v>506</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>279</v>
@@ -14632,10 +14675,10 @@
     </row>
     <row r="545">
       <c r="A545" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B545" s="3" t="s">
-        <v>269</v>
+        <v>779</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>279</v>
@@ -14651,10 +14694,10 @@
     </row>
     <row r="546">
       <c r="A546" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>139</v>
+        <v>635</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>279</v>
@@ -14670,10 +14713,10 @@
     </row>
     <row r="547">
       <c r="A547" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="B547" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>279</v>
@@ -14689,10 +14732,10 @@
     </row>
     <row r="548">
       <c r="A548" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>279</v>
@@ -14708,10 +14751,10 @@
     </row>
     <row r="549">
       <c r="A549" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B549" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>279</v>
@@ -14727,10 +14770,10 @@
     </row>
     <row r="550">
       <c r="A550" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B550" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>279</v>
@@ -14746,10 +14789,10 @@
     </row>
     <row r="551">
       <c r="A551" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>279</v>
@@ -14765,10 +14808,10 @@
     </row>
     <row r="552">
       <c r="A552" s="4" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>6</v>
+        <v>791</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>279</v>
@@ -14784,10 +14827,10 @@
     </row>
     <row r="553">
       <c r="A553" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>793</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>279</v>
@@ -14803,10 +14846,10 @@
     </row>
     <row r="554">
       <c r="A554" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>279</v>
@@ -14822,10 +14865,10 @@
     </row>
     <row r="555">
       <c r="A555" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>797</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>279</v>
@@ -14841,10 +14884,10 @@
     </row>
     <row r="556">
       <c r="A556" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="B556" s="4" t="s">
-        <v>802</v>
+        <v>798</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>279</v>
@@ -14860,10 +14903,10 @@
     </row>
     <row r="557">
       <c r="A557" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="B557" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>800</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>279</v>
@@ -14879,10 +14922,10 @@
     </row>
     <row r="558">
       <c r="A558" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>802</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>279</v>
@@ -14898,10 +14941,10 @@
     </row>
     <row r="559">
       <c r="A559" s="4" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>279</v>
@@ -14917,10 +14960,10 @@
     </row>
     <row r="560">
       <c r="A560" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>806</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>279</v>
@@ -14936,10 +14979,10 @@
     </row>
     <row r="561">
       <c r="A561" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>440</v>
+        <v>808</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>279</v>
@@ -14955,10 +14998,10 @@
     </row>
     <row r="562">
       <c r="A562" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B562" s="4" t="s">
-        <v>813</v>
+        <v>809</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>810</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>279</v>
@@ -14973,11 +15016,11 @@
       <c r="K562" s="4"/>
     </row>
     <row r="563">
-      <c r="A563" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>815</v>
+      <c r="A563" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>279</v>
@@ -14993,10 +15036,10 @@
     </row>
     <row r="564">
       <c r="A564" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="B564" s="4" t="s">
-        <v>817</v>
+        <v>813</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>279</v>
@@ -15012,10 +15055,10 @@
     </row>
     <row r="565">
       <c r="A565" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>819</v>
+        <v>444</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>279</v>
@@ -15031,10 +15074,10 @@
     </row>
     <row r="566">
       <c r="A566" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>363</v>
+        <v>817</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>279</v>
@@ -15049,11 +15092,11 @@
       <c r="K566" s="4"/>
     </row>
     <row r="567">
-      <c r="A567" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="B567" s="4" t="s">
-        <v>627</v>
+      <c r="A567" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>819</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>279</v>
@@ -15068,11 +15111,11 @@
       <c r="K567" s="4"/>
     </row>
     <row r="568">
-      <c r="A568" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>823</v>
+      <c r="A568" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>279</v>
@@ -15088,10 +15131,10 @@
     </row>
     <row r="569">
       <c r="A569" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>279</v>
@@ -15107,10 +15150,10 @@
     </row>
     <row r="570">
       <c r="A570" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>827</v>
+        <v>368</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>279</v>
@@ -15126,10 +15169,10 @@
     </row>
     <row r="571">
       <c r="A571" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>829</v>
+        <v>631</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>279</v>
@@ -15145,10 +15188,10 @@
     </row>
     <row r="572">
       <c r="A572" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="B572" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>279</v>
@@ -15163,11 +15206,11 @@
       <c r="K572" s="4"/>
     </row>
     <row r="573">
-      <c r="A573" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="B573" s="3" t="s">
-        <v>833</v>
+      <c r="A573" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>279</v>
@@ -15182,11 +15225,11 @@
       <c r="K573" s="4"/>
     </row>
     <row r="574">
-      <c r="A574" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="B574" s="3" t="s">
-        <v>835</v>
+      <c r="A574" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>279</v>
@@ -15201,11 +15244,11 @@
       <c r="K574" s="4"/>
     </row>
     <row r="575">
-      <c r="A575" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B575" s="3" t="s">
-        <v>837</v>
+      <c r="A575" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>833</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>279</v>
@@ -15221,10 +15264,10 @@
     </row>
     <row r="576">
       <c r="A576" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>490</v>
+        <v>835</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>279</v>
@@ -15239,11 +15282,11 @@
       <c r="K576" s="4"/>
     </row>
     <row r="577">
-      <c r="A577" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="B577" s="4" t="s">
-        <v>286</v>
+      <c r="A577" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>279</v>
@@ -15258,11 +15301,11 @@
       <c r="K577" s="4"/>
     </row>
     <row r="578">
-      <c r="A578" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>105</v>
+      <c r="A578" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>839</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>279</v>
@@ -15277,11 +15320,11 @@
       <c r="K578" s="4"/>
     </row>
     <row r="579">
-      <c r="A579" s="4" t="s">
+      <c r="A579" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B579" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>279</v>
@@ -15296,11 +15339,11 @@
       <c r="K579" s="4"/>
     </row>
     <row r="580">
-      <c r="A580" s="4" t="s">
+      <c r="A580" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B580" s="4" t="s">
-        <v>105</v>
+      <c r="B580" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>279</v>
@@ -15315,15 +15358,13 @@
       <c r="K580" s="4"/>
     </row>
     <row r="581">
-      <c r="A581" s="4" t="s">
+      <c r="A581" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B581" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C581" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="B581" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C581" s="2"/>
       <c r="D581" s="4"/>
       <c r="E581" s="3"/>
       <c r="F581" s="4"/>
@@ -15334,15 +15375,13 @@
       <c r="K581" s="4"/>
     </row>
     <row r="582">
-      <c r="A582" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B582" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C582" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="A582" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C582" s="2"/>
       <c r="D582" s="4"/>
       <c r="E582" s="3"/>
       <c r="F582" s="4"/>
@@ -15354,10 +15393,10 @@
     </row>
     <row r="583">
       <c r="A583" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>105</v>
+        <v>846</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>279</v>
@@ -15373,7 +15412,7 @@
     </row>
     <row r="584">
       <c r="A584" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>105</v>
@@ -15382,9 +15421,7 @@
         <v>279</v>
       </c>
       <c r="D584" s="4"/>
-      <c r="E584" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E584" s="3"/>
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
@@ -15394,9 +15431,9 @@
     </row>
     <row r="585">
       <c r="A585" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B585" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B585" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C585" s="2" t="s">
@@ -15413,7 +15450,7 @@
     </row>
     <row r="586">
       <c r="A586" s="4" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B586" s="4" t="s">
         <v>105</v>
@@ -15432,7 +15469,7 @@
     </row>
     <row r="587">
       <c r="A587" s="4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B587" s="4" t="s">
         <v>105</v>
@@ -15451,9 +15488,9 @@
     </row>
     <row r="588">
       <c r="A588" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="B588" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B588" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C588" s="2" t="s">
@@ -15470,7 +15507,7 @@
     </row>
     <row r="589">
       <c r="A589" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>105</v>
@@ -15488,8 +15525,8 @@
       <c r="K589" s="4"/>
     </row>
     <row r="590">
-      <c r="A590" s="3" t="s">
-        <v>851</v>
+      <c r="A590" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>105</v>
@@ -15497,8 +15534,10 @@
       <c r="C590" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D590" s="3"/>
-      <c r="E590" s="3"/>
+      <c r="D590" s="4"/>
+      <c r="E590" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
       <c r="H590" s="4"/>
@@ -15508,10 +15547,10 @@
     </row>
     <row r="591">
       <c r="A591" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>353</v>
+        <v>851</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>279</v>
@@ -15527,10 +15566,10 @@
     </row>
     <row r="592">
       <c r="A592" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>353</v>
+        <v>105</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>279</v>
@@ -15546,10 +15585,10 @@
     </row>
     <row r="593">
       <c r="A593" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>353</v>
+        <v>855</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>279</v>
@@ -15565,10 +15604,10 @@
     </row>
     <row r="594">
       <c r="A594" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>279</v>
@@ -15584,10 +15623,10 @@
     </row>
     <row r="595">
       <c r="A595" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="B595" s="4" t="s">
-        <v>313</v>
+        <v>857</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>279</v>
@@ -15602,16 +15641,16 @@
       <c r="K595" s="4"/>
     </row>
     <row r="596">
-      <c r="A596" s="4" t="s">
-        <v>857</v>
+      <c r="A596" s="3" t="s">
+        <v>858</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D596" s="4"/>
+      <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
@@ -15622,10 +15661,10 @@
     </row>
     <row r="597">
       <c r="A597" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>486</v>
+        <v>358</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>279</v>
@@ -15641,10 +15680,10 @@
     </row>
     <row r="598">
       <c r="A598" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="B598" s="1" t="s">
-        <v>486</v>
+        <v>860</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>279</v>
@@ -15660,10 +15699,10 @@
     </row>
     <row r="599">
       <c r="A599" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>486</v>
+        <v>358</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>279</v>
@@ -15679,10 +15718,10 @@
     </row>
     <row r="600">
       <c r="A600" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B600" s="4" t="s">
-        <v>464</v>
+        <v>862</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>279</v>
@@ -15698,10 +15737,10 @@
     </row>
     <row r="601">
       <c r="A601" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>464</v>
+        <v>863</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>279</v>
@@ -15716,11 +15755,11 @@
       <c r="K601" s="4"/>
     </row>
     <row r="602">
-      <c r="A602" s="3" t="s">
-        <v>863</v>
+      <c r="A602" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>464</v>
+        <v>313</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>279</v>
@@ -15736,10 +15775,10 @@
     </row>
     <row r="603">
       <c r="A603" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="B603" s="4" t="s">
-        <v>370</v>
+        <v>865</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>279</v>
@@ -15754,11 +15793,11 @@
       <c r="K603" s="4"/>
     </row>
     <row r="604">
-      <c r="A604" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B604" s="4" t="s">
-        <v>370</v>
+      <c r="A604" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>279</v>
@@ -15772,14 +15811,14 @@
       <c r="J604" s="4"/>
       <c r="K604" s="4"/>
     </row>
-    <row r="605" ht="18.0" customHeight="true">
-      <c r="A605" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="B605" s="7" t="s">
+    <row r="605">
+      <c r="A605" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="C605" s="8" t="s">
+      <c r="B605" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C605" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D605" s="4"/>
@@ -15795,8 +15834,8 @@
       <c r="A606" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="B606" s="1" t="s">
-        <v>286</v>
+      <c r="B606" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>279</v>
@@ -15811,11 +15850,11 @@
       <c r="K606" s="4"/>
     </row>
     <row r="607">
-      <c r="A607" s="3" t="s">
+      <c r="A607" s="4" t="s">
         <v>869</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>286</v>
+        <v>468</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>279</v>
@@ -15830,11 +15869,11 @@
       <c r="K607" s="4"/>
     </row>
     <row r="608">
-      <c r="A608" s="4" t="s">
+      <c r="A608" s="3" t="s">
         <v>870</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>279</v>
@@ -15849,16 +15888,16 @@
       <c r="K608" s="4"/>
     </row>
     <row r="609">
-      <c r="A609" s="3" t="s">
+      <c r="A609" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="B609" s="1" t="s">
-        <v>335</v>
+      <c r="B609" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D609" s="3"/>
+      <c r="D609" s="4"/>
       <c r="E609" s="3"/>
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
@@ -15868,11 +15907,11 @@
       <c r="K609" s="4"/>
     </row>
     <row r="610">
-      <c r="A610" s="4" t="s">
+      <c r="A610" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="B610" s="1" t="s">
-        <v>468</v>
+      <c r="B610" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>279</v>
@@ -15886,14 +15925,14 @@
       <c r="J610" s="4"/>
       <c r="K610" s="4"/>
     </row>
-    <row r="611">
-      <c r="A611" s="4" t="s">
+    <row r="611" ht="18.0" customHeight="true">
+      <c r="A611" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="B611" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C611" s="2" t="s">
+      <c r="B611" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="C611" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D611" s="4"/>
@@ -15907,10 +15946,10 @@
     </row>
     <row r="612">
       <c r="A612" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="B612" s="4" t="s">
         <v>875</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>279</v>
@@ -15925,11 +15964,11 @@
       <c r="K612" s="4"/>
     </row>
     <row r="613">
-      <c r="A613" s="4" t="s">
+      <c r="A613" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="B613" s="4" t="s">
-        <v>877</v>
+      <c r="B613" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>279</v>
@@ -15945,10 +15984,10 @@
     </row>
     <row r="614">
       <c r="A614" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="B614" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>279</v>
@@ -15963,11 +16002,11 @@
       <c r="K614" s="4"/>
     </row>
     <row r="615">
-      <c r="A615" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="B615" s="4" t="s">
-        <v>235</v>
+      <c r="A615" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>279</v>
@@ -15983,10 +16022,10 @@
     </row>
     <row r="616">
       <c r="A616" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="B616" s="4" t="s">
-        <v>748</v>
+        <v>879</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>279</v>
@@ -16001,16 +16040,16 @@
       <c r="K616" s="4"/>
     </row>
     <row r="617">
-      <c r="A617" s="4" t="s">
-        <v>882</v>
+      <c r="A617" s="3" t="s">
+        <v>880</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>883</v>
+        <v>335</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D617" s="4"/>
+      <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
@@ -16021,10 +16060,10 @@
     </row>
     <row r="618">
       <c r="A618" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="B618" s="4" t="s">
-        <v>885</v>
+        <v>881</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>279</v>
@@ -16040,10 +16079,10 @@
     </row>
     <row r="619">
       <c r="A619" s="4" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>523</v>
+        <v>415</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>279</v>
@@ -16059,10 +16098,10 @@
     </row>
     <row r="620">
       <c r="A620" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>120</v>
+        <v>883</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>884</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>279</v>
@@ -16078,10 +16117,10 @@
     </row>
     <row r="621">
       <c r="A621" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>886</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>279</v>
@@ -16097,10 +16136,10 @@
     </row>
     <row r="622">
       <c r="A622" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>154</v>
+        <v>888</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>279</v>
@@ -16116,10 +16155,10 @@
     </row>
     <row r="623">
       <c r="A623" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>781</v>
+        <v>235</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>279</v>
@@ -16135,10 +16174,10 @@
     </row>
     <row r="624">
       <c r="A624" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>753</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>279</v>
@@ -16154,10 +16193,10 @@
     </row>
     <row r="625">
       <c r="A625" s="4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>279</v>
@@ -16173,10 +16212,10 @@
     </row>
     <row r="626">
       <c r="A626" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>279</v>
@@ -16192,10 +16231,10 @@
     </row>
     <row r="627">
       <c r="A627" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="B627" s="4" t="s">
-        <v>899</v>
+        <v>895</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>279</v>
@@ -16211,10 +16250,10 @@
     </row>
     <row r="628">
       <c r="A628" s="4" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>359</v>
+        <v>120</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>279</v>
@@ -16230,10 +16269,10 @@
     </row>
     <row r="629">
       <c r="A629" s="4" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>279</v>
@@ -16249,10 +16288,10 @@
     </row>
     <row r="630">
       <c r="A630" s="4" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>904</v>
+        <v>154</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>279</v>
@@ -16268,10 +16307,10 @@
     </row>
     <row r="631">
       <c r="A631" s="4" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>906</v>
+        <v>785</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>279</v>
@@ -16287,10 +16326,10 @@
     </row>
     <row r="632">
       <c r="A632" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="B632" s="4" t="s">
-        <v>380</v>
+        <v>901</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>902</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>279</v>
@@ -16306,10 +16345,10 @@
     </row>
     <row r="633">
       <c r="A633" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="B633" s="4" t="s">
-        <v>909</v>
+        <v>903</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>279</v>
@@ -16325,10 +16364,10 @@
     </row>
     <row r="634">
       <c r="A634" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>906</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>279</v>
@@ -16344,10 +16383,10 @@
     </row>
     <row r="635">
       <c r="A635" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>279</v>
@@ -16363,10 +16402,10 @@
     </row>
     <row r="636">
       <c r="A636" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="B636" s="4" t="s">
-        <v>346</v>
+        <v>909</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>279</v>
@@ -16382,10 +16421,10 @@
     </row>
     <row r="637">
       <c r="A637" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>428</v>
+        <v>911</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>912</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>279</v>
@@ -16401,10 +16440,10 @@
     </row>
     <row r="638">
       <c r="A638" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>914</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>279</v>
@@ -16420,10 +16459,10 @@
     </row>
     <row r="639">
       <c r="A639" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>279</v>
@@ -16439,10 +16478,10 @@
     </row>
     <row r="640">
       <c r="A640" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>650</v>
+        <v>916</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>917</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>279</v>
@@ -16458,10 +16497,10 @@
     </row>
     <row r="641">
       <c r="A641" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B641" s="4" t="s">
-        <v>324</v>
+        <v>918</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>279</v>
@@ -16477,10 +16516,10 @@
     </row>
     <row r="642">
       <c r="A642" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>490</v>
+        <v>921</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>279</v>
@@ -16496,10 +16535,10 @@
     </row>
     <row r="643">
       <c r="A643" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>279</v>
@@ -16515,10 +16554,10 @@
     </row>
     <row r="644">
       <c r="A644" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B644" s="4" t="s">
-        <v>806</v>
+        <v>923</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>279</v>
@@ -16534,10 +16573,10 @@
     </row>
     <row r="645">
       <c r="A645" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B645" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="B645" s="4" t="s">
-        <v>879</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>279</v>
@@ -16552,16 +16591,16 @@
       <c r="K645" s="4"/>
     </row>
     <row r="646">
-      <c r="A646" s="3" t="s">
+      <c r="A646" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="B646" s="3" t="s">
+      <c r="B646" s="1" t="s">
         <v>927</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D646" s="3"/>
+      <c r="D646" s="4"/>
       <c r="E646" s="3"/>
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
@@ -16570,14 +16609,14 @@
       <c r="J646" s="4"/>
       <c r="K646" s="4"/>
     </row>
-    <row r="647" ht="18.0" customHeight="true">
-      <c r="A647" s="7" t="s">
+    <row r="647">
+      <c r="A647" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B647" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C647" s="8" t="s">
+      <c r="B647" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C647" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D647" s="4"/>
@@ -16589,14 +16628,14 @@
       <c r="J647" s="4"/>
       <c r="K647" s="4"/>
     </row>
-    <row r="648" ht="18.0" customHeight="true">
-      <c r="A648" s="7" t="s">
+    <row r="648">
+      <c r="A648" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="B648" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="C648" s="8" t="s">
+      <c r="B648" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C648" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D648" s="4"/>
@@ -16608,20 +16647,18 @@
       <c r="J648" s="4"/>
       <c r="K648" s="4"/>
     </row>
-    <row r="649" ht="18.0" customHeight="true">
-      <c r="A649" s="7" t="s">
+    <row r="649">
+      <c r="A649" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="B649" s="7" t="s">
-        <v>931</v>
-      </c>
-      <c r="C649" s="8" t="s">
+      <c r="B649" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C649" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D649" s="4"/>
-      <c r="E649" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E649" s="3"/>
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
@@ -16629,14 +16666,14 @@
       <c r="J649" s="4"/>
       <c r="K649" s="4"/>
     </row>
-    <row r="650" ht="18.0" customHeight="true">
-      <c r="A650" s="7" t="s">
-        <v>932</v>
-      </c>
-      <c r="B650" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C650" s="8" t="s">
+    <row r="650">
+      <c r="A650" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C650" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D650" s="4"/>
@@ -16650,10 +16687,10 @@
     </row>
     <row r="651">
       <c r="A651" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>606</v>
+        <v>810</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>279</v>
@@ -16669,10 +16706,10 @@
     </row>
     <row r="652">
       <c r="A652" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>105</v>
+        <v>933</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>888</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>279</v>
@@ -16687,16 +16724,16 @@
       <c r="K652" s="4"/>
     </row>
     <row r="653">
-      <c r="A653" s="4" t="s">
+      <c r="A653" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B653" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B653" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C653" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D653" s="4"/>
+      <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
@@ -16705,14 +16742,14 @@
       <c r="J653" s="4"/>
       <c r="K653" s="4"/>
     </row>
-    <row r="654">
-      <c r="A654" s="4" t="s">
+    <row r="654" ht="18.0" customHeight="true">
+      <c r="A654" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="B654" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C654" s="2" t="s">
+      <c r="B654" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C654" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D654" s="4"/>
@@ -16724,14 +16761,14 @@
       <c r="J654" s="4"/>
       <c r="K654" s="4"/>
     </row>
-    <row r="655">
-      <c r="A655" s="4" t="s">
+    <row r="655" ht="18.0" customHeight="true">
+      <c r="A655" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="B655" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C655" s="2" t="s">
+      <c r="B655" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C655" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D655" s="4"/>
@@ -16743,18 +16780,20 @@
       <c r="J655" s="4"/>
       <c r="K655" s="4"/>
     </row>
-    <row r="656">
-      <c r="A656" s="3" t="s">
+    <row r="656" ht="18.0" customHeight="true">
+      <c r="A656" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="B656" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C656" s="2" t="s">
+      <c r="B656" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="C656" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D656" s="4"/>
-      <c r="E656" s="3"/>
+      <c r="E656" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
@@ -16762,14 +16801,14 @@
       <c r="J656" s="4"/>
       <c r="K656" s="4"/>
     </row>
-    <row r="657">
-      <c r="A657" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B657" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C657" s="2" t="s">
+    <row r="657" ht="18.0" customHeight="true">
+      <c r="A657" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C657" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D657" s="4"/>
@@ -16782,11 +16821,11 @@
       <c r="K657" s="4"/>
     </row>
     <row r="658">
-      <c r="A658" s="7" t="s">
-        <v>940</v>
+      <c r="A658" s="4" t="s">
+        <v>941</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>105</v>
+        <v>610</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>279</v>
@@ -16802,10 +16841,10 @@
     </row>
     <row r="659">
       <c r="A659" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>279</v>
@@ -16821,18 +16860,16 @@
     </row>
     <row r="660">
       <c r="A660" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="B660" s="1" t="s">
-        <v>346</v>
+        <v>943</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D660" s="4"/>
-      <c r="E660" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E660" s="3"/>
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
@@ -16842,10 +16879,10 @@
     </row>
     <row r="661">
       <c r="A661" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>60</v>
+        <v>944</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>279</v>
@@ -16860,19 +16897,17 @@
       <c r="K661" s="4"/>
     </row>
     <row r="662">
-      <c r="A662" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="B662" s="1" t="s">
+      <c r="A662" s="4" t="s">
         <v>945</v>
       </c>
+      <c r="B662" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="C662" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D662" s="4"/>
-      <c r="E662" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E662" s="3"/>
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
@@ -16881,11 +16916,11 @@
       <c r="K662" s="4"/>
     </row>
     <row r="663">
-      <c r="A663" s="4" t="s">
+      <c r="A663" s="3" t="s">
         <v>946</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>359</v>
+        <v>105</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>279</v>
@@ -16900,11 +16935,11 @@
       <c r="K663" s="4"/>
     </row>
     <row r="664">
-      <c r="A664" s="3" t="s">
+      <c r="A664" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="B664" s="3" t="s">
-        <v>359</v>
+      <c r="B664" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>279</v>
@@ -16919,11 +16954,11 @@
       <c r="K664" s="4"/>
     </row>
     <row r="665">
-      <c r="A665" s="4" t="s">
+      <c r="A665" s="7" t="s">
         <v>948</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>432</v>
+        <v>105</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>279</v>
@@ -16941,8 +16976,8 @@
       <c r="A666" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="B666" s="4" t="s">
-        <v>885</v>
+      <c r="B666" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>279</v>
@@ -16961,13 +16996,15 @@
         <v>950</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>951</v>
+        <v>351</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D667" s="4"/>
-      <c r="E667" s="3"/>
+      <c r="E667" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
@@ -16977,10 +17014,10 @@
     </row>
     <row r="668">
       <c r="A668" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="B668" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>279</v>
@@ -16995,17 +17032,19 @@
       <c r="K668" s="4"/>
     </row>
     <row r="669">
-      <c r="A669" s="4" t="s">
-        <v>954</v>
+      <c r="A669" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>515</v>
+        <v>953</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D669" s="4"/>
-      <c r="E669" s="3"/>
+      <c r="E669" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
@@ -17013,12 +17052,12 @@
       <c r="J669" s="4"/>
       <c r="K669" s="4"/>
     </row>
-    <row r="670" ht="18.0" customHeight="true">
+    <row r="670">
       <c r="A670" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>279</v>
@@ -17033,11 +17072,11 @@
       <c r="K670" s="4"/>
     </row>
     <row r="671">
-      <c r="A671" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="B671" s="1" t="s">
-        <v>492</v>
+      <c r="A671" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>279</v>
@@ -17053,10 +17092,10 @@
     </row>
     <row r="672">
       <c r="A672" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>235</v>
+        <v>956</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>279</v>
@@ -17072,10 +17111,10 @@
     </row>
     <row r="673">
       <c r="A673" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="B673" s="1" t="s">
-        <v>363</v>
+        <v>957</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>279</v>
@@ -17091,10 +17130,10 @@
     </row>
     <row r="674">
       <c r="A674" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>54</v>
+        <v>959</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>279</v>
@@ -17109,11 +17148,11 @@
       <c r="K674" s="4"/>
     </row>
     <row r="675">
-      <c r="A675" s="3" t="s">
+      <c r="A675" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B675" s="4" t="s">
         <v>961</v>
-      </c>
-      <c r="B675" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>279</v>
@@ -17131,8 +17170,8 @@
       <c r="A676" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="B676" s="4" t="s">
-        <v>480</v>
+      <c r="B676" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>279</v>
@@ -17146,12 +17185,12 @@
       <c r="J676" s="4"/>
       <c r="K676" s="4"/>
     </row>
-    <row r="677">
+    <row r="677" ht="18.0" customHeight="true">
       <c r="A677" s="4" t="s">
         <v>963</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>796</v>
+        <v>964</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>279</v>
@@ -17167,18 +17206,16 @@
     </row>
     <row r="678">
       <c r="A678" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>911</v>
+        <v>494</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D678" s="4"/>
-      <c r="E678" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E678" s="3"/>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
@@ -17187,11 +17224,11 @@
       <c r="K678" s="4"/>
     </row>
     <row r="679">
-      <c r="A679" s="3" t="s">
-        <v>965</v>
+      <c r="A679" s="4" t="s">
+        <v>966</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>404</v>
+        <v>235</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>279</v>
@@ -17206,11 +17243,11 @@
       <c r="K679" s="4"/>
     </row>
     <row r="680">
-      <c r="A680" s="3" t="s">
-        <v>966</v>
+      <c r="A680" s="4" t="s">
+        <v>967</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>709</v>
+        <v>368</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>279</v>
@@ -17226,10 +17263,10 @@
     </row>
     <row r="681">
       <c r="A681" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="B681" s="4" t="s">
-        <v>504</v>
+        <v>968</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>279</v>
@@ -17244,11 +17281,11 @@
       <c r="K681" s="4"/>
     </row>
     <row r="682">
-      <c r="A682" s="4" t="s">
-        <v>968</v>
+      <c r="A682" s="3" t="s">
+        <v>969</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>279</v>
@@ -17264,18 +17301,16 @@
     </row>
     <row r="683">
       <c r="A683" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="B683" s="1" t="s">
-        <v>105</v>
+        <v>970</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>482</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D683" s="4"/>
-      <c r="E683" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E683" s="3"/>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
@@ -17285,10 +17320,10 @@
     </row>
     <row r="684">
       <c r="A684" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="B684" s="4" t="s">
         <v>971</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>279</v>
@@ -17307,13 +17342,15 @@
         <v>972</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>759</v>
+        <v>919</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D685" s="4"/>
-      <c r="E685" s="3"/>
+      <c r="E685" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
@@ -17322,11 +17359,11 @@
       <c r="K685" s="4"/>
     </row>
     <row r="686">
-      <c r="A686" s="4" t="s">
+      <c r="A686" s="3" t="s">
         <v>973</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>279</v>
@@ -17341,11 +17378,11 @@
       <c r="K686" s="4"/>
     </row>
     <row r="687">
-      <c r="A687" s="4" t="s">
+      <c r="A687" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="B687" s="4" t="s">
-        <v>953</v>
+      <c r="B687" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>279</v>
@@ -17364,7 +17401,7 @@
         <v>975</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>290</v>
+        <v>506</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>279</v>
@@ -17383,7 +17420,7 @@
         <v>976</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>279</v>
@@ -17402,13 +17439,15 @@
         <v>977</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>504</v>
+        <v>105</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D690" s="4"/>
-      <c r="E690" s="3"/>
+      <c r="E690" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
@@ -17421,7 +17460,7 @@
         <v>978</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>353</v>
+        <v>979</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>279</v>
@@ -17437,10 +17476,10 @@
     </row>
     <row r="692">
       <c r="A692" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="B692" s="4" t="s">
         <v>980</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>279</v>
@@ -17458,8 +17497,8 @@
       <c r="A693" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B693" s="3" t="s">
-        <v>474</v>
+      <c r="B693" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>279</v>
@@ -17478,7 +17517,7 @@
         <v>982</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>39</v>
+        <v>961</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>279</v>
@@ -17497,7 +17536,7 @@
         <v>983</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>984</v>
+        <v>290</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>279</v>
@@ -17513,15 +17552,15 @@
     </row>
     <row r="696">
       <c r="A696" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="B696" s="3" t="s">
-        <v>762</v>
+        <v>984</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D696" s="3"/>
+      <c r="D696" s="4"/>
       <c r="E696" s="3"/>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
@@ -17532,15 +17571,15 @@
     </row>
     <row r="697">
       <c r="A697" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="B697" s="3" t="s">
-        <v>359</v>
+        <v>985</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D697" s="3"/>
+      <c r="D697" s="4"/>
       <c r="E697" s="3"/>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
@@ -17551,15 +17590,15 @@
     </row>
     <row r="698">
       <c r="A698" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="B698" s="3" t="s">
-        <v>389</v>
+        <v>986</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D698" s="3"/>
+      <c r="D698" s="4"/>
       <c r="E698" s="3"/>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
@@ -17569,16 +17608,16 @@
       <c r="K698" s="4"/>
     </row>
     <row r="699">
-      <c r="A699" s="3" t="s">
+      <c r="A699" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B699" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="B699" s="3" t="s">
-        <v>989</v>
-      </c>
       <c r="C699" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D699" s="3"/>
+      <c r="D699" s="4"/>
       <c r="E699" s="3"/>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
@@ -17589,10 +17628,10 @@
     </row>
     <row r="700">
       <c r="A700" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="B700" s="4" t="s">
-        <v>105</v>
+        <v>989</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>279</v>
@@ -17608,10 +17647,10 @@
     </row>
     <row r="701">
       <c r="A701" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>279</v>
@@ -17627,10 +17666,10 @@
     </row>
     <row r="702">
       <c r="A702" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B702" s="4" t="s">
         <v>992</v>
-      </c>
-      <c r="B702" s="4" t="s">
-        <v>885</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>279</v>
@@ -17648,13 +17687,13 @@
       <c r="A703" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="B703" s="4" t="s">
-        <v>456</v>
+      <c r="B703" s="3" t="s">
+        <v>767</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D703" s="4"/>
+      <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
@@ -17668,12 +17707,12 @@
         <v>994</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>31</v>
+        <v>364</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D704" s="4"/>
+      <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
@@ -17686,13 +17725,13 @@
       <c r="A705" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B705" s="1" t="s">
-        <v>353</v>
+      <c r="B705" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D705" s="4"/>
+      <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
@@ -17702,16 +17741,16 @@
       <c r="K705" s="4"/>
     </row>
     <row r="706">
-      <c r="A706" s="4" t="s">
+      <c r="A706" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="B706" s="1" t="s">
-        <v>796</v>
+      <c r="B706" s="3" t="s">
+        <v>997</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D706" s="4"/>
+      <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
@@ -17722,10 +17761,10 @@
     </row>
     <row r="707">
       <c r="A707" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="B707" s="5" t="s">
-        <v>423</v>
+        <v>998</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>279</v>
@@ -17741,10 +17780,10 @@
     </row>
     <row r="708">
       <c r="A708" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="B708" s="3" t="s">
         <v>999</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>279</v>
@@ -17763,7 +17802,7 @@
         <v>1000</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>363</v>
+        <v>894</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>279</v>
@@ -17781,8 +17820,8 @@
       <c r="A710" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="B710" s="1" t="s">
-        <v>1002</v>
+      <c r="B710" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>279</v>
@@ -17798,10 +17837,10 @@
     </row>
     <row r="711">
       <c r="A711" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>1004</v>
+        <v>31</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>279</v>
@@ -17817,10 +17856,10 @@
     </row>
     <row r="712">
       <c r="A712" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B712" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>279</v>
@@ -17836,10 +17875,10 @@
     </row>
     <row r="713">
       <c r="A713" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B713" s="5" t="s">
-        <v>235</v>
+        <v>1004</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>279</v>
@@ -17855,10 +17894,10 @@
     </row>
     <row r="714">
       <c r="A714" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B714" s="1" t="s">
-        <v>650</v>
+        <v>1005</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>279</v>
@@ -17874,15 +17913,15 @@
     </row>
     <row r="715">
       <c r="A715" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B715" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D715" s="3"/>
+      <c r="D715" s="4"/>
       <c r="E715" s="3"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
@@ -17893,15 +17932,15 @@
     </row>
     <row r="716">
       <c r="A716" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B716" s="1" t="s">
-        <v>335</v>
+        <v>1008</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D716" s="3"/>
+      <c r="D716" s="4"/>
       <c r="E716" s="3"/>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
@@ -17912,15 +17951,15 @@
     </row>
     <row r="717">
       <c r="A717" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>397</v>
+        <v>1010</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D717" s="3"/>
+      <c r="D717" s="4"/>
       <c r="E717" s="3"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
@@ -17931,10 +17970,10 @@
     </row>
     <row r="718">
       <c r="A718" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B718" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1012</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>279</v>
@@ -17950,10 +17989,10 @@
     </row>
     <row r="719">
       <c r="A719" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B719" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1014</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>279</v>
@@ -17969,10 +18008,10 @@
     </row>
     <row r="720">
       <c r="A720" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B720" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
+      </c>
+      <c r="B720" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>279</v>
@@ -17988,10 +18027,10 @@
     </row>
     <row r="721">
       <c r="A721" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B721" s="4" t="s">
-        <v>432</v>
+        <v>1016</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>279</v>
@@ -18007,15 +18046,15 @@
     </row>
     <row r="722">
       <c r="A722" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B722" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>1018</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D722" s="4"/>
+      <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
@@ -18026,15 +18065,15 @@
     </row>
     <row r="723">
       <c r="A723" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B723" s="4" t="s">
-        <v>286</v>
+        <v>1019</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D723" s="4"/>
+      <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
@@ -18045,15 +18084,15 @@
     </row>
     <row r="724">
       <c r="A724" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B724" s="4" t="s">
-        <v>120</v>
+        <v>1020</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D724" s="4"/>
+      <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
@@ -18064,10 +18103,10 @@
     </row>
     <row r="725">
       <c r="A725" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>279</v>
@@ -18083,10 +18122,10 @@
     </row>
     <row r="726">
       <c r="A726" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>486</v>
+        <v>1024</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>279</v>
@@ -18102,10 +18141,10 @@
     </row>
     <row r="727">
       <c r="A727" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B727" s="9" t="s">
-        <v>1028</v>
+        <v>1025</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>279</v>
@@ -18121,15 +18160,15 @@
     </row>
     <row r="728">
       <c r="A728" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B728" s="9" t="s">
-        <v>517</v>
+        <v>1027</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D728" s="3"/>
+      <c r="D728" s="4"/>
       <c r="E728" s="3"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
@@ -18140,15 +18179,15 @@
     </row>
     <row r="729">
       <c r="A729" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B729" s="9" t="s">
-        <v>486</v>
+        <v>1028</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1029</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D729" s="3"/>
+      <c r="D729" s="4"/>
       <c r="E729" s="3"/>
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
@@ -18159,13 +18198,13 @@
     </row>
     <row r="730">
       <c r="A730" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1032</v>
+        <v>286</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>1033</v>
+        <v>279</v>
       </c>
       <c r="D730" s="4"/>
       <c r="E730" s="3"/>
@@ -18178,13 +18217,13 @@
     </row>
     <row r="731">
       <c r="A731" s="4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1032</v>
+        <v>120</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>1033</v>
+        <v>279</v>
       </c>
       <c r="D731" s="4"/>
       <c r="E731" s="3"/>
@@ -18197,13 +18236,13 @@
     </row>
     <row r="732">
       <c r="A732" s="4" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>1033</v>
+        <v>279</v>
       </c>
       <c r="D732" s="4"/>
       <c r="E732" s="3"/>
@@ -18216,13 +18255,13 @@
     </row>
     <row r="733">
       <c r="A733" s="4" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>1033</v>
+        <v>279</v>
       </c>
       <c r="D733" s="4"/>
       <c r="E733" s="3"/>
@@ -18235,13 +18274,13 @@
     </row>
     <row r="734">
       <c r="A734" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B734" s="4" t="s">
-        <v>1039</v>
+        <v>1035</v>
+      </c>
+      <c r="B734" s="9" t="s">
+        <v>1036</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>1033</v>
+        <v>279</v>
       </c>
       <c r="D734" s="4"/>
       <c r="E734" s="3"/>
@@ -18254,15 +18293,15 @@
     </row>
     <row r="735">
       <c r="A735" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B735" s="4" t="s">
-        <v>1041</v>
+        <v>1037</v>
+      </c>
+      <c r="B735" s="9" t="s">
+        <v>519</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D735" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
@@ -18273,15 +18312,15 @@
     </row>
     <row r="736">
       <c r="A736" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B736" s="4" t="s">
-        <v>1041</v>
+        <v>1038</v>
+      </c>
+      <c r="B736" s="9" t="s">
+        <v>488</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D736" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
@@ -18292,13 +18331,13 @@
     </row>
     <row r="737">
       <c r="A737" s="4" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D737" s="4"/>
       <c r="E737" s="3"/>
@@ -18311,13 +18350,13 @@
     </row>
     <row r="738">
       <c r="A738" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B738" s="5" t="s">
-        <v>1045</v>
+        <v>1042</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D738" s="4"/>
       <c r="E738" s="3"/>
@@ -18330,13 +18369,13 @@
     </row>
     <row r="739">
       <c r="A739" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B739" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>1044</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D739" s="4"/>
       <c r="E739" s="3"/>
@@ -18349,13 +18388,13 @@
     </row>
     <row r="740">
       <c r="A740" s="4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>1049</v>
+        <v>470</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D740" s="4"/>
       <c r="E740" s="3"/>
@@ -18367,14 +18406,14 @@
       <c r="K740" s="4"/>
     </row>
     <row r="741">
-      <c r="A741" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B741" s="3" t="s">
-        <v>105</v>
+      <c r="A741" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D741" s="4"/>
       <c r="E741" s="3"/>
@@ -18387,13 +18426,13 @@
     </row>
     <row r="742">
       <c r="A742" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>466</v>
+        <v>1049</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D742" s="4"/>
       <c r="E742" s="3"/>
@@ -18405,14 +18444,14 @@
       <c r="K742" s="4"/>
     </row>
     <row r="743">
-      <c r="A743" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B743" s="3" t="s">
-        <v>748</v>
+      <c r="A743" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>1051</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D743" s="4"/>
       <c r="E743" s="3"/>
@@ -18424,14 +18463,14 @@
       <c r="K743" s="4"/>
     </row>
     <row r="744">
-      <c r="A744" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B744" s="3" t="s">
-        <v>466</v>
+      <c r="A744" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>1051</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D744" s="4"/>
       <c r="E744" s="3"/>
@@ -18444,13 +18483,13 @@
     </row>
     <row r="745">
       <c r="A745" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>464</v>
+        <v>1040</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745" s="3"/>
@@ -18463,13 +18502,13 @@
     </row>
     <row r="746">
       <c r="A746" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B746" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="B746" s="4" t="s">
-        <v>1056</v>
-      </c>
       <c r="C746" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D746" s="4"/>
       <c r="E746" s="3"/>
@@ -18482,13 +18521,13 @@
     </row>
     <row r="747">
       <c r="A747" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B747" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B747" s="4" t="s">
-        <v>1058</v>
-      </c>
       <c r="C747" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D747" s="4"/>
       <c r="E747" s="3"/>
@@ -18501,13 +18540,13 @@
     </row>
     <row r="748">
       <c r="A748" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B748" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="B748" s="4" t="s">
-        <v>980</v>
-      </c>
       <c r="C748" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D748" s="4"/>
       <c r="E748" s="3"/>
@@ -18523,12 +18562,12 @@
         <v>1060</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1061</v>
+        <v>105</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D749" s="3"/>
+        <v>1041</v>
+      </c>
+      <c r="D749" s="4"/>
       <c r="E749" s="3"/>
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
@@ -18539,15 +18578,15 @@
     </row>
     <row r="750">
       <c r="A750" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1063</v>
+        <v>470</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D750" s="3"/>
+        <v>1041</v>
+      </c>
+      <c r="D750" s="4"/>
       <c r="E750" s="3"/>
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
@@ -18558,15 +18597,15 @@
     </row>
     <row r="751">
       <c r="A751" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C751" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D751" s="3"/>
+        <v>1041</v>
+      </c>
+      <c r="D751" s="4"/>
       <c r="E751" s="3"/>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
@@ -18577,15 +18616,15 @@
     </row>
     <row r="752">
       <c r="A752" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>1067</v>
+        <v>753</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D752" s="3"/>
+        <v>1041</v>
+      </c>
+      <c r="D752" s="4"/>
       <c r="E752" s="3"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
@@ -18595,14 +18634,14 @@
       <c r="K752" s="4"/>
     </row>
     <row r="753">
-      <c r="A753" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B753" s="4" t="s">
-        <v>1032</v>
+      <c r="A753" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="C753" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D753" s="4"/>
       <c r="E753" s="3"/>
@@ -18615,13 +18654,13 @@
     </row>
     <row r="754">
       <c r="A754" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B754" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C754" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="C754" s="2" t="s">
-        <v>1033</v>
       </c>
       <c r="D754" s="4"/>
       <c r="E754" s="3"/>
@@ -18634,13 +18673,13 @@
     </row>
     <row r="755">
       <c r="A755" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>748</v>
+        <v>1067</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>1068</v>
       </c>
       <c r="C755" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D755" s="4"/>
       <c r="E755" s="3"/>
@@ -18653,13 +18692,13 @@
     </row>
     <row r="756">
       <c r="A756" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B756" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C756" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="C756" s="2" t="s">
-        <v>1033</v>
       </c>
       <c r="D756" s="4"/>
       <c r="E756" s="3"/>
@@ -18671,14 +18710,14 @@
       <c r="K756" s="4"/>
     </row>
     <row r="757">
-      <c r="A757" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B757" s="3" t="s">
-        <v>1063</v>
+      <c r="A757" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>988</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D757" s="4"/>
       <c r="E757" s="3"/>
@@ -18691,15 +18730,15 @@
     </row>
     <row r="758">
       <c r="A758" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B758" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="B758" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="C758" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D758" s="4"/>
+        <v>1041</v>
+      </c>
+      <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
@@ -18709,16 +18748,16 @@
       <c r="K758" s="4"/>
     </row>
     <row r="759">
-      <c r="A759" s="3" t="n">
-        <v>8.8</v>
+      <c r="A759" s="3" t="s">
+        <v>1074</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D759" s="4"/>
+        <v>1041</v>
+      </c>
+      <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
@@ -18728,16 +18767,16 @@
       <c r="K759" s="4"/>
     </row>
     <row r="760">
-      <c r="A760" s="4" t="s">
+      <c r="A760" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="B760" s="4" t="s">
+      <c r="B760" s="3" t="s">
         <v>1077</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D760" s="4"/>
+        <v>1041</v>
+      </c>
+      <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
@@ -18747,16 +18786,16 @@
       <c r="K760" s="4"/>
     </row>
     <row r="761">
-      <c r="A761" s="4" t="s">
+      <c r="A761" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B761" s="4" t="s">
+      <c r="B761" s="3" t="s">
         <v>1079</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D761" s="4"/>
+        <v>1041</v>
+      </c>
+      <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
@@ -18770,10 +18809,10 @@
         <v>1080</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>1081</v>
+        <v>1040</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="D762" s="4"/>
       <c r="E762" s="3"/>
@@ -18786,13 +18825,13 @@
     </row>
     <row r="763">
       <c r="A763" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="D763" s="4"/>
       <c r="E763" s="3"/>
@@ -18804,14 +18843,14 @@
       <c r="K763" s="4"/>
     </row>
     <row r="764">
-      <c r="A764" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B764" s="3" t="s">
-        <v>1085</v>
+      <c r="A764" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="D764" s="4"/>
       <c r="E764" s="3"/>
@@ -18824,13 +18863,13 @@
     </row>
     <row r="765">
       <c r="A765" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="D765" s="4"/>
       <c r="E765" s="3"/>
@@ -18843,13 +18882,13 @@
     </row>
     <row r="766">
       <c r="A766" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B766" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1075</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="D766" s="4"/>
       <c r="E766" s="3"/>
@@ -18862,13 +18901,13 @@
     </row>
     <row r="767">
       <c r="A767" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B767" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1077</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="D767" s="4"/>
       <c r="E767" s="3"/>
@@ -18880,14 +18919,14 @@
       <c r="K767" s="4"/>
     </row>
     <row r="768">
-      <c r="A768" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B768" s="1" t="s">
-        <v>1092</v>
+      <c r="A768" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="D768" s="4"/>
       <c r="E768" s="3"/>
@@ -18899,14 +18938,14 @@
       <c r="K768" s="4"/>
     </row>
     <row r="769">
-      <c r="A769" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B769" s="4" t="s">
-        <v>1094</v>
+      <c r="A769" s="3" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>1087</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="D769" s="4"/>
       <c r="E769" s="3"/>
@@ -18918,14 +18957,14 @@
       <c r="K769" s="4"/>
     </row>
     <row r="770">
-      <c r="A770" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B770" s="3" t="s">
-        <v>1096</v>
+      <c r="A770" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>1090</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="D770" s="4"/>
       <c r="E770" s="3"/>
@@ -18937,14 +18976,14 @@
       <c r="K770" s="4"/>
     </row>
     <row r="771">
-      <c r="A771" s="10" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B771" s="3" t="s">
-        <v>1098</v>
+      <c r="A771" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>1092</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="D771" s="4"/>
       <c r="E771" s="3"/>
@@ -18956,14 +18995,14 @@
       <c r="K771" s="4"/>
     </row>
     <row r="772">
-      <c r="A772" s="10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B772" s="3" t="s">
-        <v>1100</v>
+      <c r="A772" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="D772" s="4"/>
       <c r="E772" s="3"/>
@@ -18976,13 +19015,13 @@
     </row>
     <row r="773">
       <c r="A773" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B773" s="1" t="s">
-        <v>1102</v>
+        <v>1095</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="D773" s="4"/>
       <c r="E773" s="3"/>
@@ -18993,6 +19032,215 @@
       <c r="J773" s="4"/>
       <c r="K773" s="4"/>
     </row>
+    <row r="774">
+      <c r="A774" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D774" s="4"/>
+      <c r="E774" s="3"/>
+      <c r="F774" s="4"/>
+      <c r="G774" s="4"/>
+      <c r="H774" s="4"/>
+      <c r="I774" s="4"/>
+      <c r="J774" s="4"/>
+      <c r="K774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D775" s="4"/>
+      <c r="E775" s="3"/>
+      <c r="F775" s="4"/>
+      <c r="G775" s="4"/>
+      <c r="H775" s="4"/>
+      <c r="I775" s="4"/>
+      <c r="J775" s="4"/>
+      <c r="K775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D776" s="4"/>
+      <c r="E776" s="3"/>
+      <c r="F776" s="4"/>
+      <c r="G776" s="4"/>
+      <c r="H776" s="4"/>
+      <c r="I776" s="4"/>
+      <c r="J776" s="4"/>
+      <c r="K776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D777" s="4"/>
+      <c r="E777" s="3"/>
+      <c r="F777" s="4"/>
+      <c r="G777" s="4"/>
+      <c r="H777" s="4"/>
+      <c r="I777" s="4"/>
+      <c r="J777" s="4"/>
+      <c r="K777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D778" s="4"/>
+      <c r="E778" s="3"/>
+      <c r="F778" s="4"/>
+      <c r="G778" s="4"/>
+      <c r="H778" s="4"/>
+      <c r="I778" s="4"/>
+      <c r="J778" s="4"/>
+      <c r="K778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B779" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D779" s="4"/>
+      <c r="E779" s="3"/>
+      <c r="F779" s="4"/>
+      <c r="G779" s="4"/>
+      <c r="H779" s="4"/>
+      <c r="I779" s="4"/>
+      <c r="J779" s="4"/>
+      <c r="K779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D780" s="4"/>
+      <c r="E780" s="3"/>
+      <c r="F780" s="4"/>
+      <c r="G780" s="4"/>
+      <c r="H780" s="4"/>
+      <c r="I780" s="4"/>
+      <c r="J780" s="4"/>
+      <c r="K780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D781" s="4"/>
+      <c r="E781" s="3"/>
+      <c r="F781" s="4"/>
+      <c r="G781" s="4"/>
+      <c r="H781" s="4"/>
+      <c r="I781" s="4"/>
+      <c r="J781" s="4"/>
+      <c r="K781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D782" s="4"/>
+      <c r="E782" s="3"/>
+      <c r="F782" s="4"/>
+      <c r="G782" s="4"/>
+      <c r="H782" s="4"/>
+      <c r="I782" s="4"/>
+      <c r="J782" s="4"/>
+      <c r="K782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D783" s="4"/>
+      <c r="E783" s="3"/>
+      <c r="F783" s="4"/>
+      <c r="G783" s="4"/>
+      <c r="H783" s="4"/>
+      <c r="I783" s="4"/>
+      <c r="J783" s="4"/>
+      <c r="K783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D784" s="4"/>
+      <c r="E784" s="3"/>
+      <c r="F784" s="4"/>
+      <c r="G784" s="4"/>
+      <c r="H784" s="4"/>
+      <c r="I784" s="4"/>
+      <c r="J784" s="4"/>
+      <c r="K784" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/music_list_610.xlsx
+++ b/music_list_610.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1160" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1168" uniqueCount="1168">
   <si>
     <t>歌名</t>
   </si>
@@ -1433,12 +1433,6 @@
     <t>赵薇</t>
   </si>
   <si>
-    <t>暗香</t>
-  </si>
-  <si>
-    <t>沙宝亮</t>
-  </si>
-  <si>
     <t>洋葱</t>
   </si>
   <si>
@@ -1610,6 +1604,24 @@
     <t>戴佩妮</t>
   </si>
   <si>
+    <t>借我</t>
+  </si>
+  <si>
+    <t>谢春花</t>
+  </si>
+  <si>
+    <t>表白</t>
+  </si>
+  <si>
+    <t>周星星</t>
+  </si>
+  <si>
+    <t>梦返</t>
+  </si>
+  <si>
+    <t>黄霄云</t>
+  </si>
+  <si>
     <t>七里香</t>
   </si>
   <si>
@@ -2405,9 +2417,6 @@
     <t>星辰大海</t>
   </si>
   <si>
-    <t>黄霄云</t>
-  </si>
-  <si>
     <t>错位时空</t>
   </si>
   <si>
@@ -2504,12 +2513,6 @@
     <t>温奕心</t>
   </si>
   <si>
-    <t>小城夏天</t>
-  </si>
-  <si>
-    <t>LBI利比</t>
-  </si>
-  <si>
     <t>恋爱频率</t>
   </si>
   <si>
@@ -2600,6 +2603,9 @@
     <t>可惜没如果</t>
   </si>
   <si>
+    <t>背对背拥抱</t>
+  </si>
+  <si>
     <t>会呼吸的痛</t>
   </si>
   <si>
@@ -2939,6 +2945,9 @@
     <t>想淋雨就别走</t>
   </si>
   <si>
+    <t>我也不想这样</t>
+  </si>
+  <si>
     <t>My Love</t>
   </si>
   <si>
@@ -3071,6 +3080,12 @@
     <t>苏打绿、ella</t>
   </si>
   <si>
+    <t>我对自己开了一枪</t>
+  </si>
+  <si>
+    <t>佛跳墙乐队</t>
+  </si>
+  <si>
     <t>原来你什么都不要</t>
   </si>
   <si>
@@ -3095,6 +3110,9 @@
     <t>音阙诗听、泠鸢yousa、王梓钰</t>
   </si>
   <si>
+    <t>就让这大雨全部落下</t>
+  </si>
+  <si>
     <t>你怎么连话都说不清楚</t>
   </si>
   <si>
@@ -3206,19 +3224,25 @@
     <t>王菀之</t>
   </si>
   <si>
+    <t>你瞒我瞒</t>
+  </si>
+  <si>
+    <t>陈柏宇</t>
+  </si>
+  <si>
+    <t>拍一半拖</t>
+  </si>
+  <si>
+    <t>心之科学</t>
+  </si>
+  <si>
+    <t>呼吸有害</t>
+  </si>
+  <si>
     <t>再见悲哀</t>
   </si>
   <si>
     <t>东京人寿</t>
-  </si>
-  <si>
-    <t>呼吸有害</t>
-  </si>
-  <si>
-    <t>你瞒我瞒</t>
-  </si>
-  <si>
-    <t>陈柏宇</t>
   </si>
   <si>
     <t>身体健康</t>
@@ -3961,7 +3985,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10175,7 +10199,7 @@
       <c r="A309" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B309" s="2" t="s">
         <v>478</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -10239,7 +10263,9 @@
         <v>279</v>
       </c>
       <c r="D312" s="4"/>
-      <c r="E312" s="3"/>
+      <c r="E312" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
@@ -10258,9 +10284,7 @@
         <v>279</v>
       </c>
       <c r="D313" s="4"/>
-      <c r="E313" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E313" s="3"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
@@ -10291,7 +10315,7 @@
       <c r="A315" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="3" t="s">
         <v>490</v>
       </c>
       <c r="C315" s="2" t="s">
@@ -10310,7 +10334,7 @@
       <c r="A316" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -10348,7 +10372,7 @@
       <c r="A318" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" s="2" t="s">
         <v>496</v>
       </c>
       <c r="C318" s="2" t="s">
@@ -10367,7 +10391,7 @@
       <c r="A319" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="1" t="s">
         <v>498</v>
       </c>
       <c r="C319" s="2" t="s">
@@ -10386,14 +10410,16 @@
       <c r="A320" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" s="5" t="s">
         <v>500</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D320" s="4"/>
-      <c r="E320" s="3"/>
+      <c r="E320" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
@@ -10405,16 +10431,14 @@
       <c r="A321" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="B321" s="3" t="s">
         <v>502</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D321" s="4"/>
-      <c r="E321" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E321" s="3"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
@@ -10426,7 +10450,7 @@
       <c r="A322" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="4" t="s">
         <v>504</v>
       </c>
       <c r="C322" s="2" t="s">
@@ -10465,7 +10489,7 @@
         <v>507</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>508</v>
+        <v>1126</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>279</v>
@@ -10481,10 +10505,10 @@
     </row>
     <row r="325">
       <c r="A325" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B325" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>1118</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>279</v>
@@ -10502,7 +10526,7 @@
       <c r="A326" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B326" s="3" t="s">
         <v>511</v>
       </c>
       <c r="C326" s="2" t="s">
@@ -10521,8 +10545,8 @@
       <c r="A327" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B327" s="3" t="s">
-        <v>513</v>
+      <c r="B327" s="4" t="s">
+        <v>1127</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>279</v>
@@ -10537,11 +10561,11 @@
       <c r="K327" s="4"/>
     </row>
     <row r="328">
-      <c r="A328" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>1119</v>
+      <c r="A328" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>279</v>
@@ -10557,15 +10581,15 @@
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B329" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C329" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D329" s="4"/>
+      <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -10727,16 +10751,16 @@
       <c r="K337" s="4"/>
     </row>
     <row r="338">
-      <c r="A338" s="4" t="s">
+      <c r="A338" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B338" s="4" t="s">
-        <v>105</v>
+      <c r="B338" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D338" s="4"/>
+      <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
@@ -10746,16 +10770,16 @@
       <c r="K338" s="4"/>
     </row>
     <row r="339">
-      <c r="A339" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>105</v>
+      <c r="A339" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D339" s="4"/>
+      <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
@@ -10766,7 +10790,7 @@
     </row>
     <row r="340">
       <c r="A340" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>105</v>
@@ -10785,7 +10809,7 @@
     </row>
     <row r="341">
       <c r="A341" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>105</v>
@@ -10804,7 +10828,7 @@
     </row>
     <row r="342">
       <c r="A342" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>105</v>
@@ -10823,7 +10847,7 @@
     </row>
     <row r="343">
       <c r="A343" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>105</v>
@@ -10841,8 +10865,8 @@
       <c r="K343" s="4"/>
     </row>
     <row r="344">
-      <c r="A344" s="3" t="s">
-        <v>538</v>
+      <c r="A344" s="4" t="s">
+        <v>540</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>105</v>
@@ -10861,7 +10885,7 @@
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>105</v>
@@ -10879,11 +10903,11 @@
       <c r="K345" s="4"/>
     </row>
     <row r="346">
-      <c r="A346" s="4" t="s">
-        <v>540</v>
+      <c r="A346" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1120</v>
+        <v>105</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>279</v>
@@ -10899,7 +10923,7 @@
     </row>
     <row r="347">
       <c r="A347" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>105</v>
@@ -10918,10 +10942,10 @@
     </row>
     <row r="348">
       <c r="A348" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>105</v>
+        <v>1128</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>279</v>
@@ -10937,10 +10961,10 @@
     </row>
     <row r="349">
       <c r="A349" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1121</v>
+        <v>105</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>279</v>
@@ -10956,10 +10980,10 @@
     </row>
     <row r="350">
       <c r="A350" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1122</v>
+        <v>105</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>279</v>
@@ -10975,10 +10999,10 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>279</v>
@@ -10994,10 +11018,10 @@
     </row>
     <row r="352">
       <c r="A352" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>279</v>
@@ -11013,10 +11037,10 @@
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>279</v>
@@ -11032,10 +11056,10 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>105</v>
+        <v>1132</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>279</v>
@@ -11051,10 +11075,10 @@
     </row>
     <row r="355">
       <c r="A355" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>279</v>
@@ -11070,10 +11094,10 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>551</v>
+        <v>105</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>279</v>
@@ -11089,10 +11113,10 @@
     </row>
     <row r="357">
       <c r="A357" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="B357" s="3" t="s">
         <v>553</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>1134</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>279</v>
@@ -11129,8 +11153,8 @@
       <c r="A359" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B359" s="4" t="s">
-        <v>1127</v>
+      <c r="B359" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>279</v>
@@ -11146,10 +11170,10 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>358</v>
+        <v>558</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>279</v>
@@ -11165,10 +11189,10 @@
     </row>
     <row r="361">
       <c r="A361" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>358</v>
+        <v>560</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>1135</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>279</v>
@@ -11184,10 +11208,10 @@
     </row>
     <row r="362">
       <c r="A362" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>1128</v>
+        <v>561</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>279</v>
@@ -11203,10 +11227,10 @@
     </row>
     <row r="363">
       <c r="A363" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>1129</v>
+        <v>562</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>279</v>
@@ -11222,10 +11246,10 @@
     </row>
     <row r="364">
       <c r="A364" s="4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>561</v>
+        <v>1136</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>279</v>
@@ -11241,10 +11265,10 @@
     </row>
     <row r="365">
       <c r="A365" s="4" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>335</v>
+        <v>1137</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>279</v>
@@ -11260,10 +11284,10 @@
     </row>
     <row r="366">
       <c r="A366" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1130</v>
+        <v>565</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>279</v>
@@ -11278,8 +11302,8 @@
       <c r="K366" s="4"/>
     </row>
     <row r="367">
-      <c r="A367" s="3" t="s">
-        <v>564</v>
+      <c r="A367" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>335</v>
@@ -11287,7 +11311,7 @@
       <c r="C367" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D367" s="3"/>
+      <c r="D367" s="4"/>
       <c r="E367" s="3"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -11298,10 +11322,10 @@
     </row>
     <row r="368">
       <c r="A368" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>279</v>
@@ -11316,16 +11340,16 @@
       <c r="K368" s="4"/>
     </row>
     <row r="369">
-      <c r="A369" s="4" t="s">
-        <v>566</v>
+      <c r="A369" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1132</v>
+        <v>335</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D369" s="4"/>
+      <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
@@ -11336,10 +11360,10 @@
     </row>
     <row r="370">
       <c r="A370" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>279</v>
@@ -11355,10 +11379,10 @@
     </row>
     <row r="371">
       <c r="A371" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>279</v>
@@ -11374,10 +11398,10 @@
     </row>
     <row r="372">
       <c r="A372" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>279</v>
@@ -11393,10 +11417,10 @@
     </row>
     <row r="373">
       <c r="A373" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>571</v>
+        <v>1142</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>279</v>
@@ -11412,10 +11436,10 @@
     </row>
     <row r="374">
       <c r="A374" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>488</v>
+        <v>1143</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>279</v>
@@ -11431,10 +11455,10 @@
     </row>
     <row r="375">
       <c r="A375" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>279</v>
@@ -11450,10 +11474,10 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>279</v>
@@ -11468,16 +11492,16 @@
       <c r="K376" s="4"/>
     </row>
     <row r="377">
-      <c r="A377" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>490</v>
+      <c r="A377" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D377" s="3"/>
+      <c r="D377" s="4"/>
       <c r="E377" s="3"/>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
@@ -11488,10 +11512,10 @@
     </row>
     <row r="378">
       <c r="A378" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>279</v>
@@ -11506,16 +11530,16 @@
       <c r="K378" s="4"/>
     </row>
     <row r="379">
-      <c r="A379" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>1136</v>
+      <c r="A379" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D379" s="4"/>
+      <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
@@ -11526,10 +11550,10 @@
     </row>
     <row r="380">
       <c r="A380" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1137</v>
+        <v>488</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>279</v>
@@ -11545,10 +11569,10 @@
     </row>
     <row r="381">
       <c r="A381" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>341</v>
+        <v>1144</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>279</v>
@@ -11564,10 +11588,10 @@
     </row>
     <row r="382">
       <c r="A382" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>581</v>
+        <v>1145</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>279</v>
@@ -11583,10 +11607,10 @@
     </row>
     <row r="383">
       <c r="A383" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>279</v>
@@ -11602,10 +11626,10 @@
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1138</v>
+        <v>585</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>279</v>
@@ -11621,10 +11645,10 @@
     </row>
     <row r="385">
       <c r="A385" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>80</v>
+        <v>586</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>279</v>
@@ -11640,10 +11664,10 @@
     </row>
     <row r="386">
       <c r="A386" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>279</v>
@@ -11659,10 +11683,10 @@
     </row>
     <row r="387">
       <c r="A387" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>279</v>
@@ -11678,18 +11702,16 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>589</v>
+        <v>1147</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D388" s="4"/>
-      <c r="E388" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E388" s="3"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
@@ -11698,10 +11720,10 @@
       <c r="K388" s="4"/>
     </row>
     <row r="389">
-      <c r="A389" s="3" t="s">
+      <c r="A389" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C389" s="2" t="s">
@@ -11727,7 +11749,9 @@
         <v>279</v>
       </c>
       <c r="D390" s="4"/>
-      <c r="E390" s="3"/>
+      <c r="E390" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
@@ -11736,11 +11760,11 @@
       <c r="K390" s="4"/>
     </row>
     <row r="391">
-      <c r="A391" s="4" t="s">
+      <c r="A391" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B391" s="4" t="s">
-        <v>1140</v>
+      <c r="B391" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>279</v>
@@ -11756,10 +11780,10 @@
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1141</v>
+        <v>597</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>279</v>
@@ -11775,10 +11799,10 @@
     </row>
     <row r="393">
       <c r="A393" s="4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>279</v>
@@ -11794,10 +11818,10 @@
     </row>
     <row r="394">
       <c r="A394" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>598</v>
+        <v>1149</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>279</v>
@@ -11813,10 +11837,10 @@
     </row>
     <row r="395">
       <c r="A395" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>279</v>
@@ -11854,7 +11878,7 @@
         <v>603</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1143</v>
+        <v>604</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>279</v>
@@ -11870,10 +11894,10 @@
     </row>
     <row r="398">
       <c r="A398" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>150</v>
+        <v>605</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>279</v>
@@ -11889,10 +11913,10 @@
     </row>
     <row r="399">
       <c r="A399" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>606</v>
+        <v>1151</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>279</v>
@@ -11908,10 +11932,10 @@
     </row>
     <row r="400">
       <c r="A400" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B400" s="4" t="s">
-        <v>1144</v>
+        <v>608</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>279</v>
@@ -11927,10 +11951,10 @@
     </row>
     <row r="401">
       <c r="A401" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1145</v>
+        <v>610</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>279</v>
@@ -11946,10 +11970,10 @@
     </row>
     <row r="402">
       <c r="A402" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>610</v>
+        <v>1152</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>279</v>
@@ -11965,10 +11989,10 @@
     </row>
     <row r="403">
       <c r="A403" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>612</v>
+        <v>1153</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>279</v>
@@ -11987,7 +12011,7 @@
         <v>613</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1146</v>
+        <v>614</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>279</v>
@@ -12003,10 +12027,10 @@
     </row>
     <row r="405">
       <c r="A405" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1147</v>
+        <v>616</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>279</v>
@@ -12022,10 +12046,10 @@
     </row>
     <row r="406">
       <c r="A406" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>324</v>
+        <v>1154</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>279</v>
@@ -12041,10 +12065,10 @@
     </row>
     <row r="407">
       <c r="A407" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>617</v>
+        <v>1155</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>279</v>
@@ -12060,10 +12084,10 @@
     </row>
     <row r="408">
       <c r="A408" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1148</v>
+        <v>324</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>279</v>
@@ -12079,10 +12103,10 @@
     </row>
     <row r="409">
       <c r="A409" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1149</v>
+        <v>621</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>279</v>
@@ -12098,10 +12122,10 @@
     </row>
     <row r="410">
       <c r="A410" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>279</v>
@@ -12117,10 +12141,10 @@
     </row>
     <row r="411">
       <c r="A411" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>279</v>
@@ -12136,10 +12160,10 @@
     </row>
     <row r="412">
       <c r="A412" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>279</v>
@@ -12155,10 +12179,10 @@
     </row>
     <row r="413">
       <c r="A413" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>279</v>
@@ -12174,10 +12198,10 @@
     </row>
     <row r="414">
       <c r="A414" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>279</v>
@@ -12193,10 +12217,10 @@
     </row>
     <row r="415">
       <c r="A415" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>626</v>
+        <v>1161</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>279</v>
@@ -12212,10 +12236,10 @@
     </row>
     <row r="416">
       <c r="A416" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>628</v>
+        <v>1162</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>279</v>
@@ -12234,7 +12258,7 @@
         <v>629</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>496</v>
+        <v>630</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>279</v>
@@ -12250,10 +12274,10 @@
     </row>
     <row r="418">
       <c r="A418" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>279</v>
@@ -12269,10 +12293,10 @@
     </row>
     <row r="419">
       <c r="A419" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1155</v>
+        <v>494</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>279</v>
@@ -12288,10 +12312,10 @@
     </row>
     <row r="420">
       <c r="A420" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>97</v>
+        <v>634</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>635</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>279</v>
@@ -12307,10 +12331,10 @@
     </row>
     <row r="421">
       <c r="A421" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>635</v>
+        <v>1163</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>279</v>
@@ -12326,10 +12350,10 @@
     </row>
     <row r="422">
       <c r="A422" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B422" s="4" t="s">
-        <v>1156</v>
+        <v>637</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>279</v>
@@ -12345,10 +12369,10 @@
     </row>
     <row r="423">
       <c r="A423" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>279</v>
@@ -12363,16 +12387,16 @@
       <c r="K423" s="4"/>
     </row>
     <row r="424">
-      <c r="A424" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B424" s="3" t="s">
+      <c r="A424" s="4" t="s">
         <v>640</v>
       </c>
+      <c r="B424" s="4" t="s">
+        <v>1164</v>
+      </c>
       <c r="C424" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D424" s="3"/>
+      <c r="D424" s="4"/>
       <c r="E424" s="3"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
@@ -12382,16 +12406,16 @@
       <c r="K424" s="4"/>
     </row>
     <row r="425">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="B425" s="3" t="s">
-        <v>398</v>
+      <c r="B425" s="4" t="s">
+        <v>642</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D425" s="3"/>
+      <c r="D425" s="4"/>
       <c r="E425" s="3"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
@@ -12402,10 +12426,10 @@
     </row>
     <row r="426">
       <c r="A426" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>279</v>
@@ -12421,10 +12445,10 @@
     </row>
     <row r="427">
       <c r="A427" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>645</v>
+        <v>398</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>279</v>
@@ -12443,7 +12467,7 @@
         <v>646</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>519</v>
+        <v>647</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>279</v>
@@ -12459,10 +12483,10 @@
     </row>
     <row r="429">
       <c r="A429" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>279</v>
@@ -12478,10 +12502,10 @@
     </row>
     <row r="430">
       <c r="A430" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>368</v>
+        <v>517</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>279</v>
@@ -12497,10 +12521,10 @@
     </row>
     <row r="431">
       <c r="A431" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>39</v>
+        <v>652</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>279</v>
@@ -12516,18 +12540,16 @@
     </row>
     <row r="432">
       <c r="A432" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>652</v>
+        <v>368</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D432" s="3"/>
-      <c r="E432" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E432" s="3"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
@@ -12537,10 +12559,10 @@
     </row>
     <row r="433">
       <c r="A433" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>654</v>
+        <v>39</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>279</v>
@@ -12555,17 +12577,19 @@
       <c r="K433" s="4"/>
     </row>
     <row r="434">
-      <c r="A434" s="4" t="s">
+      <c r="A434" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B434" s="4" t="s">
+      <c r="B434" s="3" t="s">
         <v>656</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D434" s="4"/>
-      <c r="E434" s="3"/>
+      <c r="D434" s="3"/>
+      <c r="E434" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
@@ -12574,16 +12598,16 @@
       <c r="K434" s="4"/>
     </row>
     <row r="435">
-      <c r="A435" s="4" t="s">
+      <c r="A435" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>105</v>
+      <c r="B435" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D435" s="4"/>
+      <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
@@ -12594,10 +12618,10 @@
     </row>
     <row r="436">
       <c r="A436" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>105</v>
+        <v>660</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>279</v>
@@ -12613,10 +12637,10 @@
     </row>
     <row r="437">
       <c r="A437" s="4" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1157</v>
+        <v>105</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>279</v>
@@ -12632,7 +12656,7 @@
     </row>
     <row r="438">
       <c r="A438" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>105</v>
@@ -12641,9 +12665,7 @@
         <v>279</v>
       </c>
       <c r="D438" s="4"/>
-      <c r="E438" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E438" s="3"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
@@ -12653,10 +12675,10 @@
     </row>
     <row r="439">
       <c r="A439" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>105</v>
+        <v>663</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>1165</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>279</v>
@@ -12672,16 +12694,18 @@
     </row>
     <row r="440">
       <c r="A440" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B440" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B440" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D440" s="4"/>
-      <c r="E440" s="3"/>
+      <c r="E440" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
@@ -12691,7 +12715,7 @@
     </row>
     <row r="441">
       <c r="A441" s="4" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>105</v>
@@ -12710,9 +12734,9 @@
     </row>
     <row r="442">
       <c r="A442" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="B442" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C442" s="2" t="s">
@@ -12729,7 +12753,7 @@
     </row>
     <row r="443">
       <c r="A443" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>105</v>
@@ -12748,7 +12772,7 @@
     </row>
     <row r="444">
       <c r="A444" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>105</v>
@@ -12767,9 +12791,9 @@
     </row>
     <row r="445">
       <c r="A445" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="B445" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C445" s="2" t="s">
@@ -12786,7 +12810,7 @@
     </row>
     <row r="446">
       <c r="A446" s="4" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>105</v>
@@ -12805,7 +12829,7 @@
     </row>
     <row r="447">
       <c r="A447" s="4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>105</v>
@@ -12824,7 +12848,7 @@
     </row>
     <row r="448">
       <c r="A448" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>105</v>
@@ -12843,7 +12867,7 @@
     </row>
     <row r="449">
       <c r="A449" s="4" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B449" s="4" t="s">
         <v>105</v>
@@ -12862,7 +12886,7 @@
     </row>
     <row r="450">
       <c r="A450" s="4" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B450" s="4" t="s">
         <v>105</v>
@@ -12881,7 +12905,7 @@
     </row>
     <row r="451">
       <c r="A451" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>105</v>
@@ -12900,7 +12924,7 @@
     </row>
     <row r="452">
       <c r="A452" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>105</v>
@@ -12919,9 +12943,9 @@
     </row>
     <row r="453">
       <c r="A453" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="B453" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B453" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C453" s="2" t="s">
@@ -12938,9 +12962,9 @@
     </row>
     <row r="454">
       <c r="A454" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="B454" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B454" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C454" s="2" t="s">
@@ -12957,9 +12981,9 @@
     </row>
     <row r="455">
       <c r="A455" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="B455" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B455" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C455" s="2" t="s">
@@ -12976,9 +13000,9 @@
     </row>
     <row r="456">
       <c r="A456" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="B456" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C456" s="2" t="s">
@@ -12995,9 +13019,9 @@
     </row>
     <row r="457">
       <c r="A457" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="B457" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B457" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C457" s="2" t="s">
@@ -13014,7 +13038,7 @@
     </row>
     <row r="458">
       <c r="A458" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>105</v>
@@ -13022,7 +13046,7 @@
       <c r="C458" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D458" s="3"/>
+      <c r="D458" s="4"/>
       <c r="E458" s="3"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
@@ -13033,10 +13057,10 @@
     </row>
     <row r="459">
       <c r="A459" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="B459" s="4" t="s">
-        <v>335</v>
+        <v>683</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>279</v>
@@ -13052,15 +13076,15 @@
     </row>
     <row r="460">
       <c r="A460" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D460" s="4"/>
+      <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
@@ -13071,7 +13095,7 @@
     </row>
     <row r="461">
       <c r="A461" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>335</v>
@@ -13090,9 +13114,9 @@
     </row>
     <row r="462">
       <c r="A462" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B462" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B462" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C462" s="2" t="s">
@@ -13108,8 +13132,8 @@
       <c r="K462" s="4"/>
     </row>
     <row r="463">
-      <c r="A463" s="3" t="s">
-        <v>685</v>
+      <c r="A463" s="4" t="s">
+        <v>687</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>335</v>
@@ -13128,9 +13152,9 @@
     </row>
     <row r="464">
       <c r="A464" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B464" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B464" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C464" s="2" t="s">
@@ -13146,11 +13170,11 @@
       <c r="K464" s="4"/>
     </row>
     <row r="465">
-      <c r="A465" s="4" t="s">
-        <v>687</v>
+      <c r="A465" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>279</v>
@@ -13166,10 +13190,10 @@
     </row>
     <row r="466">
       <c r="A466" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>279</v>
@@ -13185,7 +13209,7 @@
     </row>
     <row r="467">
       <c r="A467" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>290</v>
@@ -13204,9 +13228,9 @@
     </row>
     <row r="468">
       <c r="A468" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="B468" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B468" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C468" s="2" t="s">
@@ -13223,10 +13247,10 @@
     </row>
     <row r="469">
       <c r="A469" s="4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>279</v>
@@ -13242,10 +13266,10 @@
     </row>
     <row r="470">
       <c r="A470" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>358</v>
+        <v>694</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>279</v>
@@ -13260,8 +13284,8 @@
       <c r="K470" s="4"/>
     </row>
     <row r="471">
-      <c r="A471" s="3" t="s">
-        <v>693</v>
+      <c r="A471" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>358</v>
@@ -13269,7 +13293,7 @@
       <c r="C471" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D471" s="3"/>
+      <c r="D471" s="4"/>
       <c r="E471" s="3"/>
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
@@ -13279,16 +13303,16 @@
       <c r="K471" s="4"/>
     </row>
     <row r="472">
-      <c r="A472" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B472" s="4" t="s">
+      <c r="A472" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B472" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D472" s="3"/>
+      <c r="D472" s="4"/>
       <c r="E472" s="3"/>
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
@@ -13298,16 +13322,16 @@
       <c r="K472" s="4"/>
     </row>
     <row r="473">
-      <c r="A473" s="4" t="s">
-        <v>695</v>
+      <c r="A473" s="3" t="s">
+        <v>697</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>696</v>
+        <v>358</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D473" s="4"/>
+      <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
@@ -13317,16 +13341,16 @@
       <c r="K473" s="4"/>
     </row>
     <row r="474">
-      <c r="A474" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>525</v>
+      <c r="A474" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D474" s="4"/>
+      <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
@@ -13337,18 +13361,16 @@
     </row>
     <row r="475">
       <c r="A475" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>525</v>
+        <v>699</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>700</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D475" s="4"/>
-      <c r="E475" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E475" s="3"/>
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
@@ -13357,11 +13379,11 @@
       <c r="K475" s="4"/>
     </row>
     <row r="476">
-      <c r="A476" s="3" t="s">
-        <v>699</v>
+      <c r="A476" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>279</v>
@@ -13376,17 +13398,19 @@
       <c r="K476" s="4"/>
     </row>
     <row r="477">
-      <c r="A477" s="3" t="s">
-        <v>700</v>
+      <c r="A477" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D477" s="4"/>
-      <c r="E477" s="3"/>
+      <c r="E477" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
@@ -13395,11 +13419,11 @@
       <c r="K477" s="4"/>
     </row>
     <row r="478">
-      <c r="A478" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="B478" s="4" t="s">
-        <v>364</v>
+      <c r="A478" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>279</v>
@@ -13414,11 +13438,11 @@
       <c r="K478" s="4"/>
     </row>
     <row r="479">
-      <c r="A479" s="4" t="s">
-        <v>702</v>
+      <c r="A479" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>364</v>
+        <v>523</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>279</v>
@@ -13433,10 +13457,10 @@
       <c r="K479" s="4"/>
     </row>
     <row r="480">
-      <c r="A480" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="B480" s="1" t="s">
+      <c r="A480" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B480" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C480" s="2" t="s">
@@ -13453,10 +13477,10 @@
     </row>
     <row r="481">
       <c r="A481" s="4" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>705</v>
+        <v>364</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>279</v>
@@ -13472,10 +13496,10 @@
     </row>
     <row r="482">
       <c r="A482" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>187</v>
+        <v>707</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>279</v>
@@ -13490,11 +13514,11 @@
       <c r="K482" s="4"/>
     </row>
     <row r="483">
-      <c r="A483" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>187</v>
+      <c r="A483" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>279</v>
@@ -13510,7 +13534,7 @@
     </row>
     <row r="484">
       <c r="A484" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>187</v>
@@ -13528,11 +13552,11 @@
       <c r="K484" s="4"/>
     </row>
     <row r="485">
-      <c r="A485" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>710</v>
+      <c r="A485" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>279</v>
@@ -13547,11 +13571,11 @@
       <c r="K485" s="4"/>
     </row>
     <row r="486">
-      <c r="A486" s="4" t="s">
-        <v>711</v>
+      <c r="A486" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>710</v>
+        <v>187</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>279</v>
@@ -13566,16 +13590,16 @@
       <c r="K486" s="4"/>
     </row>
     <row r="487">
-      <c r="A487" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>710</v>
+      <c r="A487" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D487" s="3"/>
+      <c r="D487" s="4"/>
       <c r="E487" s="3"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
@@ -13586,9 +13610,9 @@
     </row>
     <row r="488">
       <c r="A488" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B488" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B488" s="3" t="s">
         <v>714</v>
       </c>
       <c r="C488" s="2" t="s">
@@ -13604,16 +13628,16 @@
       <c r="K488" s="4"/>
     </row>
     <row r="489">
-      <c r="A489" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="B489" s="1" t="s">
+      <c r="A489" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B489" s="3" t="s">
         <v>714</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D489" s="4"/>
+      <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
@@ -13624,10 +13648,10 @@
     </row>
     <row r="490">
       <c r="A490" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>279</v>
@@ -13643,10 +13667,10 @@
     </row>
     <row r="491">
       <c r="A491" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>313</v>
+        <v>718</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>279</v>
@@ -13662,15 +13686,15 @@
     </row>
     <row r="492">
       <c r="A492" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B492" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="C492" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D492" s="3"/>
+      <c r="D492" s="4"/>
       <c r="E492" s="3"/>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
@@ -13681,7 +13705,7 @@
     </row>
     <row r="493">
       <c r="A493" s="4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>313</v>
@@ -13689,7 +13713,7 @@
       <c r="C493" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D493" s="3"/>
+      <c r="D493" s="4"/>
       <c r="E493" s="3"/>
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
@@ -13700,15 +13724,15 @@
     </row>
     <row r="494">
       <c r="A494" s="4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D494" s="4"/>
+      <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
@@ -13718,16 +13742,16 @@
       <c r="K494" s="4"/>
     </row>
     <row r="495">
-      <c r="A495" s="3" t="s">
-        <v>721</v>
+      <c r="A495" s="4" t="s">
+        <v>723</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D495" s="4"/>
+      <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
@@ -13737,8 +13761,8 @@
       <c r="K495" s="4"/>
     </row>
     <row r="496">
-      <c r="A496" s="3" t="s">
-        <v>722</v>
+      <c r="A496" s="4" t="s">
+        <v>724</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>324</v>
@@ -13756,11 +13780,11 @@
       <c r="K496" s="4"/>
     </row>
     <row r="497">
-      <c r="A497" s="4" t="s">
-        <v>723</v>
+      <c r="A497" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>724</v>
+        <v>324</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>279</v>
@@ -13775,11 +13799,11 @@
       <c r="K497" s="4"/>
     </row>
     <row r="498">
-      <c r="A498" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>724</v>
+      <c r="A498" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>279</v>
@@ -13794,16 +13818,16 @@
       <c r="K498" s="4"/>
     </row>
     <row r="499">
-      <c r="A499" s="3" t="s">
-        <v>726</v>
+      <c r="A499" s="4" t="s">
+        <v>727</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D499" s="3"/>
+      <c r="D499" s="4"/>
       <c r="E499" s="3"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
@@ -13814,10 +13838,10 @@
     </row>
     <row r="500">
       <c r="A500" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B500" s="4" t="s">
-        <v>1158</v>
+        <v>729</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>279</v>
@@ -13832,16 +13856,16 @@
       <c r="K500" s="4"/>
     </row>
     <row r="501">
-      <c r="A501" s="4" t="s">
+      <c r="A501" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B501" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="C501" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D501" s="4"/>
+      <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
@@ -13852,10 +13876,10 @@
     </row>
     <row r="502">
       <c r="A502" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>139</v>
+        <v>731</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>1166</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>279</v>
@@ -13871,10 +13895,10 @@
     </row>
     <row r="503">
       <c r="A503" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>139</v>
+        <v>732</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>279</v>
@@ -13890,10 +13914,10 @@
     </row>
     <row r="504">
       <c r="A504" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>1159</v>
+        <v>733</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>279</v>
@@ -13909,10 +13933,10 @@
     </row>
     <row r="505">
       <c r="A505" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>371</v>
+        <v>139</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>279</v>
@@ -13928,10 +13952,10 @@
     </row>
     <row r="506">
       <c r="A506" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>482</v>
+        <v>1167</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>279</v>
@@ -13947,10 +13971,10 @@
     </row>
     <row r="507">
       <c r="A507" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="B507" s="4" t="s">
-        <v>482</v>
+        <v>736</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>279</v>
@@ -13966,10 +13990,10 @@
     </row>
     <row r="508">
       <c r="A508" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>612</v>
+        <v>737</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>279</v>
@@ -13985,10 +14009,10 @@
     </row>
     <row r="509">
       <c r="A509" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>612</v>
+        <v>738</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>279</v>
@@ -14004,10 +14028,10 @@
     </row>
     <row r="510">
       <c r="A510" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>120</v>
+        <v>616</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>279</v>
@@ -14023,10 +14047,10 @@
     </row>
     <row r="511">
       <c r="A511" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="B511" s="4" t="s">
-        <v>120</v>
+        <v>740</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>279</v>
@@ -14042,10 +14066,10 @@
     </row>
     <row r="512">
       <c r="A512" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>279</v>
@@ -14061,10 +14085,10 @@
     </row>
     <row r="513">
       <c r="A513" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>279</v>
@@ -14080,10 +14104,10 @@
     </row>
     <row r="514">
       <c r="A514" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>610</v>
+        <v>743</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>744</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>279</v>
@@ -14099,18 +14123,16 @@
     </row>
     <row r="515">
       <c r="A515" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>610</v>
+        <v>744</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D515" s="4"/>
-      <c r="E515" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E515" s="3"/>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
@@ -14120,10 +14142,10 @@
     </row>
     <row r="516">
       <c r="A516" s="4" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>468</v>
+        <v>614</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>279</v>
@@ -14139,16 +14161,18 @@
     </row>
     <row r="517">
       <c r="A517" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="B517" s="4" t="s">
-        <v>468</v>
+        <v>747</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D517" s="4"/>
-      <c r="E517" s="3"/>
+      <c r="E517" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
@@ -14158,10 +14182,10 @@
     </row>
     <row r="518">
       <c r="A518" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>591</v>
+        <v>468</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>279</v>
@@ -14176,11 +14200,11 @@
       <c r="K518" s="4"/>
     </row>
     <row r="519">
-      <c r="A519" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>591</v>
+      <c r="A519" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>279</v>
@@ -14196,10 +14220,10 @@
     </row>
     <row r="520">
       <c r="A520" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="B520" s="4" t="s">
-        <v>375</v>
+        <v>750</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>279</v>
@@ -14214,11 +14238,11 @@
       <c r="K520" s="4"/>
     </row>
     <row r="521">
-      <c r="A521" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B521" s="4" t="s">
-        <v>375</v>
+      <c r="A521" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>279</v>
@@ -14234,10 +14258,10 @@
     </row>
     <row r="522">
       <c r="A522" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>279</v>
@@ -14252,19 +14276,17 @@
       <c r="K522" s="4"/>
     </row>
     <row r="523">
-      <c r="A523" s="3" t="s">
-        <v>751</v>
+      <c r="A523" s="4" t="s">
+        <v>753</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D523" s="4"/>
-      <c r="E523" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E523" s="3"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
@@ -14274,10 +14296,10 @@
     </row>
     <row r="524">
       <c r="A524" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="B524" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>279</v>
@@ -14293,16 +14315,18 @@
     </row>
     <row r="525">
       <c r="A525" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="B525" s="5" t="s">
-        <v>753</v>
+        <v>755</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D525" s="4"/>
-      <c r="E525" s="3"/>
+      <c r="E525" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
@@ -14312,10 +14336,10 @@
     </row>
     <row r="526">
       <c r="A526" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B526" s="4" t="s">
-        <v>144</v>
+        <v>756</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>279</v>
@@ -14331,15 +14355,15 @@
     </row>
     <row r="527">
       <c r="A527" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>144</v>
+        <v>758</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D527" s="3"/>
+      <c r="D527" s="4"/>
       <c r="E527" s="3"/>
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
@@ -14350,10 +14374,10 @@
     </row>
     <row r="528">
       <c r="A528" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="B528" s="5" t="s">
-        <v>436</v>
+        <v>759</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>279</v>
@@ -14369,15 +14393,15 @@
     </row>
     <row r="529">
       <c r="A529" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D529" s="4"/>
+      <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
@@ -14388,18 +14412,16 @@
     </row>
     <row r="530">
       <c r="A530" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="B530" s="4" t="s">
-        <v>351</v>
+        <v>761</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D530" s="4"/>
-      <c r="E530" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E530" s="3"/>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
@@ -14408,11 +14430,11 @@
       <c r="K530" s="4"/>
     </row>
     <row r="531">
-      <c r="A531" s="4" t="s">
-        <v>760</v>
+      <c r="A531" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>279</v>
@@ -14428,16 +14450,18 @@
     </row>
     <row r="532">
       <c r="A532" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>571</v>
+        <v>351</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D532" s="4"/>
-      <c r="E532" s="3"/>
+      <c r="E532" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
@@ -14447,10 +14471,10 @@
     </row>
     <row r="533">
       <c r="A533" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B533" s="4" t="s">
         <v>764</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>279</v>
@@ -14466,10 +14490,10 @@
     </row>
     <row r="534">
       <c r="A534" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>287</v>
+        <v>766</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>279</v>
@@ -14485,10 +14509,10 @@
     </row>
     <row r="535">
       <c r="A535" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B535" s="3" t="s">
         <v>767</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>279</v>
@@ -14504,10 +14528,10 @@
     </row>
     <row r="536">
       <c r="A536" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>427</v>
+        <v>287</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>279</v>
@@ -14522,16 +14546,16 @@
       <c r="K536" s="4"/>
     </row>
     <row r="537">
-      <c r="A537" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>531</v>
+      <c r="A537" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D537" s="3"/>
+      <c r="D537" s="4"/>
       <c r="E537" s="3"/>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
@@ -14542,10 +14566,10 @@
     </row>
     <row r="538">
       <c r="A538" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B538" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>279</v>
@@ -14560,16 +14584,16 @@
       <c r="K538" s="4"/>
     </row>
     <row r="539">
-      <c r="A539" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B539" s="3" t="s">
-        <v>112</v>
+      <c r="A539" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D539" s="4"/>
+      <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
@@ -14580,10 +14604,10 @@
     </row>
     <row r="540">
       <c r="A540" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>448</v>
+        <v>775</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>279</v>
@@ -14599,10 +14623,10 @@
     </row>
     <row r="541">
       <c r="A541" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="B541" s="5" t="s">
-        <v>170</v>
+        <v>776</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>279</v>
@@ -14618,10 +14642,10 @@
     </row>
     <row r="542">
       <c r="A542" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>279</v>
@@ -14637,10 +14661,10 @@
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="B543" s="4" t="s">
-        <v>488</v>
+        <v>778</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>279</v>
@@ -14656,10 +14680,10 @@
     </row>
     <row r="544">
       <c r="A544" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>506</v>
+        <v>780</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>279</v>
@@ -14675,10 +14699,10 @@
     </row>
     <row r="545">
       <c r="A545" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>279</v>
@@ -14694,10 +14718,10 @@
     </row>
     <row r="546">
       <c r="A546" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>635</v>
+        <v>504</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>279</v>
@@ -14713,10 +14737,10 @@
     </row>
     <row r="547">
       <c r="A547" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>279</v>
@@ -14732,10 +14756,10 @@
     </row>
     <row r="548">
       <c r="A548" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>785</v>
+        <v>639</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>279</v>
@@ -14753,8 +14777,8 @@
       <c r="A549" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="B549" s="3" t="s">
-        <v>269</v>
+      <c r="B549" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>279</v>
@@ -14770,10 +14794,10 @@
     </row>
     <row r="550">
       <c r="A550" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>139</v>
+        <v>789</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>279</v>
@@ -14789,10 +14813,10 @@
     </row>
     <row r="551">
       <c r="A551" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B551" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>279</v>
@@ -14808,10 +14832,10 @@
     </row>
     <row r="552">
       <c r="A552" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>791</v>
+        <v>139</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>279</v>
@@ -14848,7 +14872,7 @@
       <c r="A554" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B554" s="4" t="s">
+      <c r="B554" s="1" t="s">
         <v>795</v>
       </c>
       <c r="C554" s="2" t="s">
@@ -14886,8 +14910,8 @@
       <c r="A556" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B556" s="1" t="s">
-        <v>6</v>
+      <c r="B556" s="4" t="s">
+        <v>799</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>279</v>
@@ -14903,10 +14927,10 @@
     </row>
     <row r="557">
       <c r="A557" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="B557" s="3" t="s">
         <v>800</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>279</v>
@@ -14924,8 +14948,8 @@
       <c r="A558" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B558" s="4" t="s">
-        <v>802</v>
+      <c r="B558" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>279</v>
@@ -14941,10 +14965,10 @@
     </row>
     <row r="559">
       <c r="A559" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B559" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>279</v>
@@ -14960,10 +14984,10 @@
     </row>
     <row r="560">
       <c r="A560" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B560" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="B560" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>279</v>
@@ -14979,10 +15003,10 @@
     </row>
     <row r="561">
       <c r="A561" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B561" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="B561" s="4" t="s">
-        <v>808</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>279</v>
@@ -14998,10 +15022,10 @@
     </row>
     <row r="562">
       <c r="A562" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B562" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>810</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>279</v>
@@ -15017,10 +15041,10 @@
     </row>
     <row r="563">
       <c r="A563" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B563" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>279</v>
@@ -15036,10 +15060,10 @@
     </row>
     <row r="564">
       <c r="A564" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>279</v>
@@ -15055,10 +15079,10 @@
     </row>
     <row r="565">
       <c r="A565" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B565" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="B565" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>279</v>
@@ -15076,7 +15100,7 @@
       <c r="A566" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="B566" s="4" t="s">
+      <c r="B566" s="1" t="s">
         <v>817</v>
       </c>
       <c r="C566" s="2" t="s">
@@ -15092,11 +15116,11 @@
       <c r="K566" s="4"/>
     </row>
     <row r="567">
-      <c r="A567" s="3" t="s">
+      <c r="A567" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="B567" s="3" t="s">
-        <v>819</v>
+      <c r="B567" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>279</v>
@@ -15112,10 +15136,10 @@
     </row>
     <row r="568">
       <c r="A568" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B568" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="B568" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>279</v>
@@ -15130,11 +15154,11 @@
       <c r="K568" s="4"/>
     </row>
     <row r="569">
-      <c r="A569" s="4" t="s">
+      <c r="A569" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B569" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="B569" s="4" t="s">
-        <v>823</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>279</v>
@@ -15150,10 +15174,10 @@
     </row>
     <row r="570">
       <c r="A570" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B570" s="4" t="s">
         <v>824</v>
-      </c>
-      <c r="B570" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>279</v>
@@ -15172,7 +15196,7 @@
         <v>825</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>631</v>
+        <v>826</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>279</v>
@@ -15187,11 +15211,11 @@
       <c r="K571" s="4"/>
     </row>
     <row r="572">
-      <c r="A572" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="B572" s="1" t="s">
+      <c r="A572" s="4" t="s">
         <v>827</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>279</v>
@@ -15209,8 +15233,8 @@
       <c r="A573" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B573" s="1" t="s">
-        <v>829</v>
+      <c r="B573" s="4" t="s">
+        <v>635</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>279</v>
@@ -15225,11 +15249,11 @@
       <c r="K573" s="4"/>
     </row>
     <row r="574">
-      <c r="A574" s="4" t="s">
+      <c r="A574" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B574" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="B574" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>279</v>
@@ -15245,10 +15269,10 @@
     </row>
     <row r="575">
       <c r="A575" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B575" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="B575" s="4" t="s">
-        <v>833</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>279</v>
@@ -15263,11 +15287,11 @@
       <c r="K575" s="4"/>
     </row>
     <row r="576">
-      <c r="A576" s="3" t="s">
+      <c r="A576" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B576" s="4" t="s">
         <v>834</v>
-      </c>
-      <c r="B576" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>279</v>
@@ -15283,10 +15307,10 @@
     </row>
     <row r="577">
       <c r="A577" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B577" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="B577" s="3" t="s">
-        <v>837</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>279</v>
@@ -15302,10 +15326,10 @@
     </row>
     <row r="578">
       <c r="A578" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B578" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="B578" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>279</v>
@@ -15321,10 +15345,10 @@
     </row>
     <row r="579">
       <c r="A579" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B579" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="B579" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>279</v>
@@ -15340,10 +15364,10 @@
     </row>
     <row r="580">
       <c r="A580" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B580" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="B580" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>279</v>
@@ -15362,9 +15386,11 @@
         <v>843</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="C581" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="D581" s="4"/>
       <c r="E581" s="3"/>
       <c r="F581" s="4"/>
@@ -15376,10 +15402,10 @@
     </row>
     <row r="582">
       <c r="A582" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B582" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="B582" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="4"/>
@@ -15392,15 +15418,13 @@
       <c r="K582" s="4"/>
     </row>
     <row r="583">
-      <c r="A583" s="4" t="s">
+      <c r="A583" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="B583" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="B583" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C583" s="2"/>
       <c r="D583" s="4"/>
       <c r="E583" s="3"/>
       <c r="F583" s="4"/>
@@ -15414,8 +15438,8 @@
       <c r="A584" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="B584" s="1" t="s">
-        <v>105</v>
+      <c r="B584" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>279</v>
@@ -15452,7 +15476,7 @@
       <c r="A586" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="B586" s="4" t="s">
+      <c r="B586" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C586" s="2" t="s">
@@ -15490,7 +15514,7 @@
       <c r="A588" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B588" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C588" s="2" t="s">
@@ -15509,7 +15533,7 @@
       <c r="A589" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B589" s="1" t="s">
+      <c r="B589" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C589" s="2" t="s">
@@ -15535,9 +15559,7 @@
         <v>279</v>
       </c>
       <c r="D590" s="4"/>
-      <c r="E590" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E590" s="3"/>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
       <c r="H590" s="4"/>
@@ -15547,16 +15569,18 @@
     </row>
     <row r="591">
       <c r="A591" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="B591" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B591" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D591" s="4"/>
-      <c r="E591" s="3"/>
+      <c r="E591" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
@@ -15566,7 +15590,7 @@
     </row>
     <row r="592">
       <c r="A592" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B592" s="4" t="s">
         <v>105</v>
@@ -15606,7 +15630,7 @@
       <c r="A594" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="B594" s="1" t="s">
+      <c r="B594" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C594" s="2" t="s">
@@ -15641,7 +15665,7 @@
       <c r="K595" s="4"/>
     </row>
     <row r="596">
-      <c r="A596" s="3" t="s">
+      <c r="A596" s="4" t="s">
         <v>858</v>
       </c>
       <c r="B596" s="1" t="s">
@@ -15650,7 +15674,7 @@
       <c r="C596" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D596" s="3"/>
+      <c r="D596" s="4"/>
       <c r="E596" s="3"/>
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
@@ -15660,16 +15684,16 @@
       <c r="K596" s="4"/>
     </row>
     <row r="597">
-      <c r="A597" s="4" t="s">
+      <c r="A597" s="3" t="s">
         <v>859</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D597" s="4"/>
+      <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
@@ -15682,7 +15706,7 @@
       <c r="A598" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B598" s="4" t="s">
+      <c r="B598" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C598" s="2" t="s">
@@ -15701,7 +15725,7 @@
       <c r="A599" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B599" s="1" t="s">
+      <c r="B599" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C599" s="2" t="s">
@@ -15721,7 +15745,7 @@
         <v>862</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>279</v>
@@ -15736,11 +15760,11 @@
       <c r="K600" s="4"/>
     </row>
     <row r="601">
-      <c r="A601" s="4" t="s">
+      <c r="A601" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="B601" s="4" t="s">
-        <v>313</v>
+      <c r="B601" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>279</v>
@@ -15777,8 +15801,8 @@
       <c r="A603" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="B603" s="1" t="s">
-        <v>488</v>
+      <c r="B603" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>279</v>
@@ -15797,7 +15821,7 @@
         <v>866</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>488</v>
+        <v>313</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>279</v>
@@ -15816,7 +15840,7 @@
         <v>867</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>279</v>
@@ -15834,8 +15858,8 @@
       <c r="A606" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="B606" s="4" t="s">
-        <v>468</v>
+      <c r="B606" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>279</v>
@@ -15854,7 +15878,7 @@
         <v>869</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>279</v>
@@ -15869,10 +15893,10 @@
       <c r="K607" s="4"/>
     </row>
     <row r="608">
-      <c r="A608" s="3" t="s">
+      <c r="A608" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="B608" s="1" t="s">
+      <c r="B608" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C608" s="2" t="s">
@@ -15891,8 +15915,8 @@
       <c r="A609" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="B609" s="4" t="s">
-        <v>346</v>
+      <c r="B609" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>279</v>
@@ -15910,8 +15934,8 @@
       <c r="A610" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="B610" s="4" t="s">
-        <v>346</v>
+      <c r="B610" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>279</v>
@@ -15925,14 +15949,14 @@
       <c r="J610" s="4"/>
       <c r="K610" s="4"/>
     </row>
-    <row r="611" ht="18.0" customHeight="true">
-      <c r="A611" s="7" t="s">
+    <row r="611">
+      <c r="A611" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="B611" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="C611" s="8" t="s">
+      <c r="B611" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C611" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D611" s="4"/>
@@ -15945,11 +15969,11 @@
       <c r="K611" s="4"/>
     </row>
     <row r="612">
-      <c r="A612" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="B612" s="1" t="s">
-        <v>286</v>
+      <c r="A612" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>279</v>
@@ -15963,14 +15987,14 @@
       <c r="J612" s="4"/>
       <c r="K612" s="4"/>
     </row>
-    <row r="613">
-      <c r="A613" s="3" t="s">
+    <row r="613" ht="18.0" customHeight="true">
+      <c r="A613" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B613" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="B613" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C613" s="2" t="s">
+      <c r="C613" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D613" s="4"/>
@@ -15987,7 +16011,7 @@
         <v>877</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>279</v>
@@ -16006,7 +16030,7 @@
         <v>878</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>279</v>
@@ -16025,7 +16049,7 @@
         <v>879</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>279</v>
@@ -16044,12 +16068,12 @@
         <v>880</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D617" s="3"/>
+      <c r="D617" s="4"/>
       <c r="E617" s="3"/>
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
@@ -16063,7 +16087,7 @@
         <v>881</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>279</v>
@@ -16078,16 +16102,16 @@
       <c r="K618" s="4"/>
     </row>
     <row r="619">
-      <c r="A619" s="4" t="s">
+      <c r="A619" s="3" t="s">
         <v>882</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D619" s="4"/>
+      <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
@@ -16100,8 +16124,8 @@
       <c r="A620" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="B620" s="4" t="s">
-        <v>884</v>
+      <c r="B620" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>279</v>
@@ -16117,10 +16141,10 @@
     </row>
     <row r="621">
       <c r="A621" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="B621" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>279</v>
@@ -16136,10 +16160,10 @@
     </row>
     <row r="622">
       <c r="A622" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>279</v>
@@ -16155,10 +16179,10 @@
     </row>
     <row r="623">
       <c r="A623" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>235</v>
+        <v>888</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>279</v>
@@ -16174,10 +16198,10 @@
     </row>
     <row r="624">
       <c r="A624" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B624" s="4" t="s">
         <v>890</v>
-      </c>
-      <c r="B624" s="4" t="s">
-        <v>753</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>279</v>
@@ -16195,8 +16219,8 @@
       <c r="A625" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="B625" s="1" t="s">
-        <v>892</v>
+      <c r="B625" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>279</v>
@@ -16212,10 +16236,10 @@
     </row>
     <row r="626">
       <c r="A626" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>894</v>
+        <v>757</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>279</v>
@@ -16231,10 +16255,10 @@
     </row>
     <row r="627">
       <c r="A627" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>525</v>
+        <v>894</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>279</v>
@@ -16250,10 +16274,10 @@
     </row>
     <row r="628">
       <c r="A628" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B628" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>279</v>
@@ -16272,7 +16296,7 @@
         <v>897</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>898</v>
+        <v>523</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>279</v>
@@ -16288,10 +16312,10 @@
     </row>
     <row r="630">
       <c r="A630" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="B630" s="4" t="s">
-        <v>154</v>
+        <v>898</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>279</v>
@@ -16307,10 +16331,10 @@
     </row>
     <row r="631">
       <c r="A631" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B631" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B631" s="4" t="s">
-        <v>785</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>279</v>
@@ -16328,8 +16352,8 @@
       <c r="A632" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="B632" s="3" t="s">
-        <v>902</v>
+      <c r="B632" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>279</v>
@@ -16345,10 +16369,10 @@
     </row>
     <row r="633">
       <c r="A633" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>789</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>279</v>
@@ -16364,10 +16388,10 @@
     </row>
     <row r="634">
       <c r="A634" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="B634" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>904</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>279</v>
@@ -16383,10 +16407,10 @@
     </row>
     <row r="635">
       <c r="A635" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="B635" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>279</v>
@@ -16402,10 +16426,10 @@
     </row>
     <row r="636">
       <c r="A636" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>279</v>
@@ -16421,10 +16445,10 @@
     </row>
     <row r="637">
       <c r="A637" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>279</v>
@@ -16440,10 +16464,10 @@
     </row>
     <row r="638">
       <c r="A638" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="B638" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>279</v>
@@ -16459,10 +16483,10 @@
     </row>
     <row r="639">
       <c r="A639" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>381</v>
+        <v>914</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>279</v>
@@ -16478,10 +16502,10 @@
     </row>
     <row r="640">
       <c r="A640" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B640" s="4" t="s">
         <v>916</v>
-      </c>
-      <c r="B640" s="4" t="s">
-        <v>917</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>279</v>
@@ -16497,10 +16521,10 @@
     </row>
     <row r="641">
       <c r="A641" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>279</v>
@@ -16516,10 +16540,10 @@
     </row>
     <row r="642">
       <c r="A642" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>919</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>279</v>
@@ -16535,10 +16559,10 @@
     </row>
     <row r="643">
       <c r="A643" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B643" s="4" t="s">
-        <v>351</v>
+        <v>920</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>279</v>
@@ -16554,10 +16578,10 @@
     </row>
     <row r="644">
       <c r="A644" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B644" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>279</v>
@@ -16575,8 +16599,8 @@
       <c r="A645" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="B645" s="1" t="s">
-        <v>925</v>
+      <c r="B645" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>279</v>
@@ -16592,10 +16616,10 @@
     </row>
     <row r="646">
       <c r="A646" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>927</v>
+        <v>432</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>279</v>
@@ -16611,10 +16635,10 @@
     </row>
     <row r="647">
       <c r="A647" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>654</v>
+        <v>927</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>279</v>
@@ -16630,10 +16654,10 @@
     </row>
     <row r="648">
       <c r="A648" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B648" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B648" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>279</v>
@@ -16652,7 +16676,7 @@
         <v>930</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>492</v>
+        <v>658</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>279</v>
@@ -16671,7 +16695,7 @@
         <v>931</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>279</v>
@@ -16689,8 +16713,8 @@
       <c r="A651" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="B651" s="4" t="s">
-        <v>810</v>
+      <c r="B651" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>279</v>
@@ -16709,7 +16733,7 @@
         <v>933</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>888</v>
+        <v>341</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>279</v>
@@ -16724,16 +16748,16 @@
       <c r="K652" s="4"/>
     </row>
     <row r="653">
-      <c r="A653" s="3" t="s">
+      <c r="A653" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="B653" s="3" t="s">
-        <v>935</v>
+      <c r="B653" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D653" s="3"/>
+      <c r="D653" s="4"/>
       <c r="E653" s="3"/>
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
@@ -16742,14 +16766,14 @@
       <c r="J653" s="4"/>
       <c r="K653" s="4"/>
     </row>
-    <row r="654" ht="18.0" customHeight="true">
-      <c r="A654" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="B654" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C654" s="8" t="s">
+    <row r="654">
+      <c r="A654" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C654" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D654" s="4"/>
@@ -16761,17 +16785,17 @@
       <c r="J654" s="4"/>
       <c r="K654" s="4"/>
     </row>
-    <row r="655" ht="18.0" customHeight="true">
-      <c r="A655" s="7" t="s">
+    <row r="655">
+      <c r="A655" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B655" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="B655" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C655" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D655" s="4"/>
+      <c r="C655" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
@@ -16785,15 +16809,13 @@
         <v>938</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>939</v>
+        <v>390</v>
       </c>
       <c r="C656" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D656" s="4"/>
-      <c r="E656" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E656" s="3"/>
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
@@ -16803,10 +16825,10 @@
     </row>
     <row r="657" ht="18.0" customHeight="true">
       <c r="A657" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B657" s="7" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="C657" s="8" t="s">
         <v>279</v>
@@ -16820,18 +16842,20 @@
       <c r="J657" s="4"/>
       <c r="K657" s="4"/>
     </row>
-    <row r="658">
-      <c r="A658" s="4" t="s">
+    <row r="658" ht="18.0" customHeight="true">
+      <c r="A658" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="B658" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="B658" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C658" s="2" t="s">
+      <c r="C658" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D658" s="4"/>
-      <c r="E658" s="3"/>
+      <c r="E658" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
@@ -16839,14 +16863,14 @@
       <c r="J658" s="4"/>
       <c r="K658" s="4"/>
     </row>
-    <row r="659">
-      <c r="A659" s="4" t="s">
+    <row r="659" ht="18.0" customHeight="true">
+      <c r="A659" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="B659" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C659" s="2" t="s">
+      <c r="B659" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C659" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D659" s="4"/>
@@ -16863,7 +16887,7 @@
         <v>943</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>105</v>
+        <v>614</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>279</v>
@@ -16881,7 +16905,7 @@
       <c r="A661" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="B661" s="4" t="s">
+      <c r="B661" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C661" s="2" t="s">
@@ -16916,7 +16940,7 @@
       <c r="K662" s="4"/>
     </row>
     <row r="663">
-      <c r="A663" s="3" t="s">
+      <c r="A663" s="4" t="s">
         <v>946</v>
       </c>
       <c r="B663" s="4" t="s">
@@ -16954,7 +16978,7 @@
       <c r="K664" s="4"/>
     </row>
     <row r="665">
-      <c r="A665" s="7" t="s">
+      <c r="A665" s="3" t="s">
         <v>948</v>
       </c>
       <c r="B665" s="4" t="s">
@@ -16976,8 +17000,8 @@
       <c r="A666" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="B666" s="1" t="s">
-        <v>351</v>
+      <c r="B666" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>279</v>
@@ -16992,19 +17016,17 @@
       <c r="K666" s="4"/>
     </row>
     <row r="667">
-      <c r="A667" s="4" t="s">
+      <c r="A667" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="B667" s="1" t="s">
-        <v>351</v>
+      <c r="B667" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D667" s="4"/>
-      <c r="E667" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E667" s="3"/>
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
@@ -17017,7 +17039,7 @@
         <v>951</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>279</v>
@@ -17032,11 +17054,11 @@
       <c r="K668" s="4"/>
     </row>
     <row r="669">
-      <c r="A669" s="3" t="s">
+      <c r="A669" s="4" t="s">
         <v>952</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>953</v>
+        <v>351</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>279</v>
@@ -17054,10 +17076,10 @@
     </row>
     <row r="670">
       <c r="A670" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="B670" s="4" t="s">
-        <v>364</v>
+        <v>953</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>279</v>
@@ -17073,16 +17095,18 @@
     </row>
     <row r="671">
       <c r="A671" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B671" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B671" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="C671" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D671" s="4"/>
-      <c r="E671" s="3"/>
+      <c r="E671" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
@@ -17095,7 +17119,7 @@
         <v>956</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>279</v>
@@ -17110,11 +17134,11 @@
       <c r="K672" s="4"/>
     </row>
     <row r="673">
-      <c r="A673" s="4" t="s">
+      <c r="A673" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="B673" s="4" t="s">
-        <v>894</v>
+      <c r="B673" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>279</v>
@@ -17132,8 +17156,8 @@
       <c r="A674" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="B674" s="1" t="s">
-        <v>959</v>
+      <c r="B674" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>279</v>
@@ -17149,10 +17173,10 @@
     </row>
     <row r="675">
       <c r="A675" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>961</v>
+        <v>896</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>279</v>
@@ -17168,10 +17192,10 @@
     </row>
     <row r="676">
       <c r="A676" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>517</v>
+        <v>961</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>279</v>
@@ -17185,12 +17209,12 @@
       <c r="J676" s="4"/>
       <c r="K676" s="4"/>
     </row>
-    <row r="677" ht="18.0" customHeight="true">
+    <row r="677">
       <c r="A677" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B677" s="4" t="s">
         <v>963</v>
-      </c>
-      <c r="B677" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>279</v>
@@ -17206,10 +17230,10 @@
     </row>
     <row r="678">
       <c r="A678" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>279</v>
@@ -17223,12 +17247,12 @@
       <c r="J678" s="4"/>
       <c r="K678" s="4"/>
     </row>
-    <row r="679">
+    <row r="679" ht="18.0" customHeight="true">
       <c r="A679" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B679" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>279</v>
@@ -17247,7 +17271,7 @@
         <v>967</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>368</v>
+        <v>492</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>279</v>
@@ -17266,7 +17290,7 @@
         <v>968</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>279</v>
@@ -17281,11 +17305,11 @@
       <c r="K681" s="4"/>
     </row>
     <row r="682">
-      <c r="A682" s="3" t="s">
+      <c r="A682" s="4" t="s">
         <v>969</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>279</v>
@@ -17303,8 +17327,8 @@
       <c r="A683" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="B683" s="4" t="s">
-        <v>482</v>
+      <c r="B683" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>279</v>
@@ -17319,11 +17343,11 @@
       <c r="K683" s="4"/>
     </row>
     <row r="684">
-      <c r="A684" s="4" t="s">
+      <c r="A684" s="3" t="s">
         <v>971</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>800</v>
+        <v>398</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>279</v>
@@ -17341,16 +17365,14 @@
       <c r="A685" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="B685" s="1" t="s">
-        <v>919</v>
+      <c r="B685" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D685" s="4"/>
-      <c r="E685" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E685" s="3"/>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
@@ -17359,11 +17381,11 @@
       <c r="K685" s="4"/>
     </row>
     <row r="686">
-      <c r="A686" s="3" t="s">
+      <c r="A686" s="4" t="s">
         <v>973</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>405</v>
+        <v>803</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>279</v>
@@ -17378,17 +17400,19 @@
       <c r="K686" s="4"/>
     </row>
     <row r="687">
-      <c r="A687" s="3" t="s">
+      <c r="A687" s="4" t="s">
         <v>974</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>714</v>
+        <v>921</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D687" s="4"/>
-      <c r="E687" s="3"/>
+      <c r="E687" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>
@@ -17397,11 +17421,11 @@
       <c r="K687" s="4"/>
     </row>
     <row r="688">
-      <c r="A688" s="4" t="s">
+      <c r="A688" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="B688" s="4" t="s">
-        <v>506</v>
+      <c r="B688" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>279</v>
@@ -17416,11 +17440,11 @@
       <c r="K688" s="4"/>
     </row>
     <row r="689">
-      <c r="A689" s="4" t="s">
+      <c r="A689" s="3" t="s">
         <v>976</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>105</v>
+        <v>718</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>279</v>
@@ -17435,19 +17459,17 @@
       <c r="K689" s="4"/>
     </row>
     <row r="690">
-      <c r="A690" s="4" t="s">
+      <c r="A690" s="3" t="s">
         <v>977</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D690" s="4"/>
-      <c r="E690" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E690" s="3"/>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
@@ -17460,7 +17482,7 @@
         <v>978</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>979</v>
+        <v>504</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>279</v>
@@ -17476,10 +17498,10 @@
     </row>
     <row r="692">
       <c r="A692" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>764</v>
+        <v>105</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>279</v>
@@ -17495,16 +17517,18 @@
     </row>
     <row r="693">
       <c r="A693" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>468</v>
+        <v>105</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D693" s="4"/>
-      <c r="E693" s="3"/>
+      <c r="E693" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
       <c r="H693" s="4"/>
@@ -17514,10 +17538,10 @@
     </row>
     <row r="694">
       <c r="A694" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B694" s="4" t="s">
         <v>982</v>
-      </c>
-      <c r="B694" s="4" t="s">
-        <v>961</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>279</v>
@@ -17535,8 +17559,8 @@
       <c r="A695" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="B695" s="4" t="s">
-        <v>290</v>
+      <c r="B695" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>279</v>
@@ -17555,7 +17579,7 @@
         <v>984</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>313</v>
+        <v>468</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>279</v>
@@ -17573,8 +17597,8 @@
       <c r="A697" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="B697" s="1" t="s">
-        <v>506</v>
+      <c r="B697" s="4" t="s">
+        <v>963</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>279</v>
@@ -17593,7 +17617,7 @@
         <v>986</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>279</v>
@@ -17611,8 +17635,8 @@
       <c r="A699" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="B699" s="4" t="s">
-        <v>988</v>
+      <c r="B699" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>279</v>
@@ -17628,10 +17652,10 @@
     </row>
     <row r="700">
       <c r="A700" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="B700" s="3" t="s">
-        <v>476</v>
+        <v>988</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>279</v>
@@ -17647,10 +17671,10 @@
     </row>
     <row r="701">
       <c r="A701" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>39</v>
+        <v>358</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>279</v>
@@ -17666,10 +17690,10 @@
     </row>
     <row r="702">
       <c r="A702" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B702" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="B702" s="4" t="s">
-        <v>992</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>279</v>
@@ -17685,15 +17709,15 @@
     </row>
     <row r="703">
       <c r="A703" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>767</v>
+        <v>474</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D703" s="3"/>
+      <c r="D703" s="4"/>
       <c r="E703" s="3"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
@@ -17704,15 +17728,15 @@
     </row>
     <row r="704">
       <c r="A704" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="B704" s="3" t="s">
-        <v>364</v>
+        <v>993</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D704" s="3"/>
+      <c r="D704" s="4"/>
       <c r="E704" s="3"/>
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
@@ -17723,15 +17747,15 @@
     </row>
     <row r="705">
       <c r="A705" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B705" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B705" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="C705" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D705" s="3"/>
+      <c r="D705" s="4"/>
       <c r="E705" s="3"/>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
@@ -17741,11 +17765,11 @@
       <c r="K705" s="4"/>
     </row>
     <row r="706">
-      <c r="A706" s="3" t="s">
+      <c r="A706" s="4" t="s">
         <v>996</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>997</v>
+        <v>771</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>279</v>
@@ -17761,15 +17785,15 @@
     </row>
     <row r="707">
       <c r="A707" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="B707" s="4" t="s">
-        <v>105</v>
+        <v>997</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D707" s="4"/>
+      <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
@@ -17780,15 +17804,15 @@
     </row>
     <row r="708">
       <c r="A708" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="B708" s="4" t="s">
-        <v>105</v>
+        <v>998</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D708" s="4"/>
+      <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
@@ -17798,16 +17822,16 @@
       <c r="K708" s="4"/>
     </row>
     <row r="709">
-      <c r="A709" s="4" t="s">
+      <c r="A709" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B709" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="B709" s="4" t="s">
-        <v>894</v>
-      </c>
       <c r="C709" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D709" s="4"/>
+      <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
@@ -17821,7 +17845,7 @@
         <v>1001</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>460</v>
+        <v>105</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>279</v>
@@ -17839,8 +17863,8 @@
       <c r="A711" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B711" s="3" t="s">
-        <v>31</v>
+      <c r="B711" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>279</v>
@@ -17858,8 +17882,8 @@
       <c r="A712" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="B712" s="1" t="s">
-        <v>358</v>
+      <c r="B712" s="4" t="s">
+        <v>896</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>279</v>
@@ -17877,8 +17901,8 @@
       <c r="A713" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B713" s="1" t="s">
-        <v>800</v>
+      <c r="B713" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>279</v>
@@ -17896,8 +17920,8 @@
       <c r="A714" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="B714" s="5" t="s">
-        <v>427</v>
+      <c r="B714" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>279</v>
@@ -17915,8 +17939,8 @@
       <c r="A715" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="B715" s="3" t="s">
-        <v>1007</v>
+      <c r="B715" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>279</v>
@@ -17932,10 +17956,10 @@
     </row>
     <row r="716">
       <c r="A716" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B716" s="4" t="s">
-        <v>368</v>
+        <v>1007</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>803</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>279</v>
@@ -17951,10 +17975,10 @@
     </row>
     <row r="717">
       <c r="A717" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B717" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
+      </c>
+      <c r="B717" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>279</v>
@@ -17970,10 +17994,10 @@
     </row>
     <row r="718">
       <c r="A718" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>279</v>
@@ -17989,10 +18013,10 @@
     </row>
     <row r="719">
       <c r="A719" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B719" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>279</v>
@@ -18008,10 +18032,10 @@
     </row>
     <row r="720">
       <c r="A720" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B720" s="5" t="s">
-        <v>235</v>
+        <v>1012</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1013</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>279</v>
@@ -18027,10 +18051,10 @@
     </row>
     <row r="721">
       <c r="A721" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>654</v>
+        <v>1014</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>279</v>
@@ -18046,15 +18070,15 @@
     </row>
     <row r="722">
       <c r="A722" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B722" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="B722" s="1" t="s">
-        <v>1018</v>
-      </c>
       <c r="C722" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D722" s="3"/>
+      <c r="D722" s="4"/>
       <c r="E722" s="3"/>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
@@ -18065,15 +18089,15 @@
     </row>
     <row r="723">
       <c r="A723" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B723" s="1" t="s">
-        <v>335</v>
+        <v>1018</v>
+      </c>
+      <c r="B723" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D723" s="3"/>
+      <c r="D723" s="4"/>
       <c r="E723" s="3"/>
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
@@ -18084,15 +18108,15 @@
     </row>
     <row r="724">
       <c r="A724" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>398</v>
+        <v>658</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D724" s="3"/>
+      <c r="D724" s="4"/>
       <c r="E724" s="3"/>
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
@@ -18103,15 +18127,15 @@
     </row>
     <row r="725">
       <c r="A725" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B725" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B725" s="4" t="s">
-        <v>1022</v>
-      </c>
       <c r="C725" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D725" s="4"/>
+      <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
@@ -18121,16 +18145,16 @@
       <c r="K725" s="4"/>
     </row>
     <row r="726">
-      <c r="A726" s="4" t="s">
+      <c r="A726" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B726" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B726" s="4" t="s">
-        <v>1024</v>
-      </c>
       <c r="C726" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D726" s="4"/>
+      <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
@@ -18141,15 +18165,15 @@
     </row>
     <row r="727">
       <c r="A727" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B727" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D727" s="4"/>
+      <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
@@ -18160,15 +18184,15 @@
     </row>
     <row r="728">
       <c r="A728" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B728" s="4" t="s">
-        <v>436</v>
+        <v>1025</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D728" s="4"/>
+      <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
@@ -18179,10 +18203,10 @@
     </row>
     <row r="729">
       <c r="A729" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B729" s="3" t="s">
-        <v>1029</v>
+        <v>1026</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>1027</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>279</v>
@@ -18198,10 +18222,10 @@
     </row>
     <row r="730">
       <c r="A730" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>286</v>
+        <v>1029</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>279</v>
@@ -18217,10 +18241,10 @@
     </row>
     <row r="731">
       <c r="A731" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B731" s="4" t="s">
         <v>1031</v>
-      </c>
-      <c r="B731" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>279</v>
@@ -18238,8 +18262,8 @@
       <c r="A732" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B732" s="4" t="s">
-        <v>1033</v>
+      <c r="B732" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>279</v>
@@ -18255,10 +18279,10 @@
     </row>
     <row r="733">
       <c r="A733" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>279</v>
@@ -18274,10 +18298,10 @@
     </row>
     <row r="734">
       <c r="A734" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B734" s="3" t="s">
         <v>1035</v>
-      </c>
-      <c r="B734" s="9" t="s">
-        <v>1036</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>279</v>
@@ -18293,15 +18317,15 @@
     </row>
     <row r="735">
       <c r="A735" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B735" s="9" t="s">
-        <v>519</v>
+        <v>1036</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D735" s="3"/>
+      <c r="D735" s="4"/>
       <c r="E735" s="3"/>
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
@@ -18312,15 +18336,15 @@
     </row>
     <row r="736">
       <c r="A736" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B736" s="9" t="s">
-        <v>488</v>
+        <v>1037</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D736" s="3"/>
+      <c r="D736" s="4"/>
       <c r="E736" s="3"/>
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
@@ -18331,13 +18355,13 @@
     </row>
     <row r="737">
       <c r="A737" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B737" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="B737" s="4" t="s">
-        <v>1040</v>
-      </c>
       <c r="C737" s="2" t="s">
-        <v>1041</v>
+        <v>279</v>
       </c>
       <c r="D737" s="4"/>
       <c r="E737" s="3"/>
@@ -18350,13 +18374,13 @@
     </row>
     <row r="738">
       <c r="A738" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>1040</v>
+        <v>486</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>1041</v>
+        <v>279</v>
       </c>
       <c r="D738" s="4"/>
       <c r="E738" s="3"/>
@@ -18369,13 +18393,13 @@
     </row>
     <row r="739">
       <c r="A739" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B739" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
+      </c>
+      <c r="B739" s="9" t="s">
+        <v>1042</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1041</v>
+        <v>279</v>
       </c>
       <c r="D739" s="4"/>
       <c r="E739" s="3"/>
@@ -18388,15 +18412,15 @@
     </row>
     <row r="740">
       <c r="A740" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B740" s="4" t="s">
-        <v>470</v>
+        <v>1043</v>
+      </c>
+      <c r="B740" s="9" t="s">
+        <v>517</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D740" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
@@ -18407,15 +18431,15 @@
     </row>
     <row r="741">
       <c r="A741" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B741" s="4" t="s">
-        <v>1047</v>
+        <v>1044</v>
+      </c>
+      <c r="B741" s="9" t="s">
+        <v>486</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D741" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
@@ -18425,14 +18449,14 @@
       <c r="K741" s="4"/>
     </row>
     <row r="742">
-      <c r="A742" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B742" s="3" t="s">
-        <v>1049</v>
+      <c r="A742" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>1046</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D742" s="4"/>
       <c r="E742" s="3"/>
@@ -18445,13 +18469,13 @@
     </row>
     <row r="743">
       <c r="A743" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D743" s="4"/>
       <c r="E743" s="3"/>
@@ -18464,13 +18488,13 @@
     </row>
     <row r="744">
       <c r="A744" s="4" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D744" s="4"/>
       <c r="E744" s="3"/>
@@ -18483,13 +18507,13 @@
     </row>
     <row r="745">
       <c r="A745" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1040</v>
+        <v>470</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745" s="3"/>
@@ -18502,13 +18526,13 @@
     </row>
     <row r="746">
       <c r="A746" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B746" s="5" t="s">
-        <v>1055</v>
+        <v>1052</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>1053</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D746" s="4"/>
       <c r="E746" s="3"/>
@@ -18520,14 +18544,14 @@
       <c r="K746" s="4"/>
     </row>
     <row r="747">
-      <c r="A747" s="4" t="s">
-        <v>1056</v>
+      <c r="A747" s="3" t="s">
+        <v>1054</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D747" s="4"/>
       <c r="E747" s="3"/>
@@ -18540,13 +18564,13 @@
     </row>
     <row r="748">
       <c r="A748" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D748" s="4"/>
       <c r="E748" s="3"/>
@@ -18558,14 +18582,14 @@
       <c r="K748" s="4"/>
     </row>
     <row r="749">
-      <c r="A749" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B749" s="3" t="s">
-        <v>105</v>
+      <c r="A749" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>1057</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D749" s="4"/>
       <c r="E749" s="3"/>
@@ -18577,14 +18601,14 @@
       <c r="K749" s="4"/>
     </row>
     <row r="750">
-      <c r="A750" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B750" s="3" t="s">
-        <v>470</v>
+      <c r="A750" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>1046</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D750" s="4"/>
       <c r="E750" s="3"/>
@@ -18596,14 +18620,14 @@
       <c r="K750" s="4"/>
     </row>
     <row r="751">
-      <c r="A751" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B751" s="3" t="s">
-        <v>1063</v>
+      <c r="A751" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>1061</v>
       </c>
       <c r="C751" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D751" s="4"/>
       <c r="E751" s="3"/>
@@ -18615,14 +18639,14 @@
       <c r="K751" s="4"/>
     </row>
     <row r="752">
-      <c r="A752" s="3" t="s">
-        <v>1064</v>
+      <c r="A752" s="4" t="s">
+        <v>1062</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>753</v>
+        <v>1063</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D752" s="4"/>
       <c r="E752" s="3"/>
@@ -18634,14 +18658,14 @@
       <c r="K752" s="4"/>
     </row>
     <row r="753">
-      <c r="A753" s="3" t="s">
+      <c r="A753" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B753" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="B753" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="C753" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D753" s="4"/>
       <c r="E753" s="3"/>
@@ -18653,14 +18677,14 @@
       <c r="K753" s="4"/>
     </row>
     <row r="754">
-      <c r="A754" s="4" t="s">
+      <c r="A754" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B754" s="4" t="s">
-        <v>468</v>
+      <c r="B754" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D754" s="4"/>
       <c r="E754" s="3"/>
@@ -18672,14 +18696,14 @@
       <c r="K754" s="4"/>
     </row>
     <row r="755">
-      <c r="A755" s="4" t="s">
+      <c r="A755" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B755" s="4" t="s">
-        <v>1068</v>
+      <c r="B755" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="C755" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D755" s="4"/>
       <c r="E755" s="3"/>
@@ -18691,14 +18715,14 @@
       <c r="K755" s="4"/>
     </row>
     <row r="756">
-      <c r="A756" s="4" t="s">
+      <c r="A756" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B756" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="B756" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="C756" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D756" s="4"/>
       <c r="E756" s="3"/>
@@ -18711,13 +18735,13 @@
     </row>
     <row r="757">
       <c r="A757" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B757" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="B757" s="4" t="s">
-        <v>988</v>
-      </c>
       <c r="C757" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D757" s="4"/>
       <c r="E757" s="3"/>
@@ -18732,13 +18756,13 @@
       <c r="A758" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="B758" s="3" t="s">
-        <v>1073</v>
+      <c r="B758" s="4" t="s">
+        <v>1071</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D758" s="3"/>
+        <v>1047</v>
+      </c>
+      <c r="D758" s="4"/>
       <c r="E758" s="3"/>
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
@@ -18749,15 +18773,15 @@
     </row>
     <row r="759">
       <c r="A759" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>1075</v>
+        <v>470</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D759" s="3"/>
+        <v>1047</v>
+      </c>
+      <c r="D759" s="4"/>
       <c r="E759" s="3"/>
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
@@ -18767,16 +18791,16 @@
       <c r="K759" s="4"/>
     </row>
     <row r="760">
-      <c r="A760" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B760" s="3" t="s">
-        <v>1077</v>
+      <c r="A760" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D760" s="3"/>
+        <v>1047</v>
+      </c>
+      <c r="D760" s="4"/>
       <c r="E760" s="3"/>
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
@@ -18787,15 +18811,15 @@
     </row>
     <row r="761">
       <c r="A761" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>1079</v>
+        <v>757</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D761" s="3"/>
+        <v>1047</v>
+      </c>
+      <c r="D761" s="4"/>
       <c r="E761" s="3"/>
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
@@ -18805,14 +18829,14 @@
       <c r="K761" s="4"/>
     </row>
     <row r="762">
-      <c r="A762" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B762" s="4" t="s">
-        <v>1040</v>
+      <c r="A762" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D762" s="4"/>
       <c r="E762" s="3"/>
@@ -18825,13 +18849,13 @@
     </row>
     <row r="763">
       <c r="A763" s="4" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1051</v>
+        <v>1078</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D763" s="4"/>
       <c r="E763" s="3"/>
@@ -18844,13 +18868,13 @@
     </row>
     <row r="764">
       <c r="A764" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>753</v>
+        <v>1079</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>991</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D764" s="4"/>
       <c r="E764" s="3"/>
@@ -18862,16 +18886,16 @@
       <c r="K764" s="4"/>
     </row>
     <row r="765">
-      <c r="A765" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B765" s="4" t="s">
-        <v>1051</v>
+      <c r="A765" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>1081</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D765" s="4"/>
+        <v>1047</v>
+      </c>
+      <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
@@ -18882,15 +18906,15 @@
     </row>
     <row r="766">
       <c r="A766" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D766" s="4"/>
+        <v>1047</v>
+      </c>
+      <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
@@ -18901,15 +18925,15 @@
     </row>
     <row r="767">
       <c r="A767" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B767" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="B767" s="3" t="s">
-        <v>1077</v>
-      </c>
       <c r="C767" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D767" s="4"/>
+        <v>1047</v>
+      </c>
+      <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
@@ -18923,12 +18947,12 @@
         <v>1086</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>427</v>
+        <v>1087</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D768" s="4"/>
+        <v>1047</v>
+      </c>
+      <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
@@ -18938,14 +18962,14 @@
       <c r="K768" s="4"/>
     </row>
     <row r="769">
-      <c r="A769" s="3" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="B769" s="3" t="s">
-        <v>1087</v>
+      <c r="A769" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>1046</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="D769" s="4"/>
       <c r="E769" s="3"/>
@@ -18961,10 +18985,10 @@
         <v>1089</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1090</v>
+        <v>1057</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="D770" s="4"/>
       <c r="E770" s="3"/>
@@ -18977,13 +19001,13 @@
     </row>
     <row r="771">
       <c r="A771" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B771" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="D771" s="4"/>
       <c r="E771" s="3"/>
@@ -18996,13 +19020,13 @@
     </row>
     <row r="772">
       <c r="A772" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1094</v>
+        <v>1057</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="D772" s="4"/>
       <c r="E772" s="3"/>
@@ -19014,14 +19038,14 @@
       <c r="K772" s="4"/>
     </row>
     <row r="773">
-      <c r="A773" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B773" s="4" t="s">
-        <v>1096</v>
+      <c r="A773" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1083</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="D773" s="4"/>
       <c r="E773" s="3"/>
@@ -19034,13 +19058,13 @@
     </row>
     <row r="774">
       <c r="A774" s="3" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="C774" s="2" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="D774" s="4"/>
       <c r="E774" s="3"/>
@@ -19052,14 +19076,14 @@
       <c r="K774" s="4"/>
     </row>
     <row r="775">
-      <c r="A775" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B775" s="4" t="s">
-        <v>1100</v>
+      <c r="A775" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="D775" s="4"/>
       <c r="E775" s="3"/>
@@ -19071,14 +19095,14 @@
       <c r="K775" s="4"/>
     </row>
     <row r="776">
-      <c r="A776" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>1102</v>
+      <c r="A776" s="3" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1095</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D776" s="4"/>
       <c r="E776" s="3"/>
@@ -19090,14 +19114,14 @@
       <c r="K776" s="4"/>
     </row>
     <row r="777">
-      <c r="A777" s="3" t="s">
-        <v>1103</v>
+      <c r="A777" s="4" t="s">
+        <v>1097</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D777" s="4"/>
       <c r="E777" s="3"/>
@@ -19110,13 +19134,13 @@
     </row>
     <row r="778">
       <c r="A778" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B778" s="1" t="s">
-        <v>1105</v>
+        <v>1099</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>1100</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D778" s="4"/>
       <c r="E778" s="3"/>
@@ -19129,13 +19153,13 @@
     </row>
     <row r="779">
       <c r="A779" s="4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B779" s="6" t="s">
-        <v>1107</v>
+        <v>1101</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D779" s="4"/>
       <c r="E779" s="3"/>
@@ -19148,13 +19172,13 @@
     </row>
     <row r="780">
       <c r="A780" s="4" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D780" s="4"/>
       <c r="E780" s="3"/>
@@ -19167,13 +19191,13 @@
     </row>
     <row r="781">
       <c r="A781" s="3" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D781" s="4"/>
       <c r="E781" s="3"/>
@@ -19185,14 +19209,14 @@
       <c r="K781" s="4"/>
     </row>
     <row r="782">
-      <c r="A782" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B782" s="3" t="s">
-        <v>1113</v>
+      <c r="A782" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>1108</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D782" s="4"/>
       <c r="E782" s="3"/>
@@ -19204,14 +19228,14 @@
       <c r="K782" s="4"/>
     </row>
     <row r="783">
-      <c r="A783" s="10" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B783" s="3" t="s">
-        <v>1115</v>
+      <c r="A783" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1110</v>
       </c>
       <c r="C783" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D783" s="4"/>
       <c r="E783" s="3"/>
@@ -19223,14 +19247,14 @@
       <c r="K783" s="4"/>
     </row>
     <row r="784">
-      <c r="A784" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B784" s="1" t="s">
-        <v>1117</v>
+      <c r="A784" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>1108</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D784" s="4"/>
       <c r="E784" s="3"/>
@@ -19241,6 +19265,139 @@
       <c r="J784" s="4"/>
       <c r="K784" s="4"/>
     </row>
+    <row r="785">
+      <c r="A785" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D785" s="4"/>
+      <c r="E785" s="3"/>
+      <c r="F785" s="4"/>
+      <c r="G785" s="4"/>
+      <c r="H785" s="4"/>
+      <c r="I785" s="4"/>
+      <c r="J785" s="4"/>
+      <c r="K785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B786" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D786" s="4"/>
+      <c r="E786" s="3"/>
+      <c r="F786" s="4"/>
+      <c r="G786" s="4"/>
+      <c r="H786" s="4"/>
+      <c r="I786" s="4"/>
+      <c r="J786" s="4"/>
+      <c r="K786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D787" s="4"/>
+      <c r="E787" s="3"/>
+      <c r="F787" s="4"/>
+      <c r="G787" s="4"/>
+      <c r="H787" s="4"/>
+      <c r="I787" s="4"/>
+      <c r="J787" s="4"/>
+      <c r="K787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D788" s="4"/>
+      <c r="E788" s="3"/>
+      <c r="F788" s="4"/>
+      <c r="G788" s="4"/>
+      <c r="H788" s="4"/>
+      <c r="I788" s="4"/>
+      <c r="J788" s="4"/>
+      <c r="K788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D789" s="4"/>
+      <c r="E789" s="3"/>
+      <c r="F789" s="4"/>
+      <c r="G789" s="4"/>
+      <c r="H789" s="4"/>
+      <c r="I789" s="4"/>
+      <c r="J789" s="4"/>
+      <c r="K789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D790" s="4"/>
+      <c r="E790" s="3"/>
+      <c r="F790" s="4"/>
+      <c r="G790" s="4"/>
+      <c r="H790" s="4"/>
+      <c r="I790" s="4"/>
+      <c r="J790" s="4"/>
+      <c r="K790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D791" s="4"/>
+      <c r="E791" s="3"/>
+      <c r="F791" s="4"/>
+      <c r="G791" s="4"/>
+      <c r="H791" s="4"/>
+      <c r="I791" s="4"/>
+      <c r="J791" s="4"/>
+      <c r="K791" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/music_list_610.xlsx
+++ b/music_list_610.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1178" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="1186" uniqueCount="1186">
   <si>
     <t>歌名</t>
   </si>
@@ -899,6 +899,12 @@
     <t>单依纯</t>
   </si>
   <si>
+    <t>她</t>
+  </si>
+  <si>
+    <t>斯琴mia</t>
+  </si>
+  <si>
     <t>彩虹</t>
   </si>
   <si>
@@ -1631,6 +1637,12 @@
     <t>黄霄云</t>
   </si>
   <si>
+    <t>叶子</t>
+  </si>
+  <si>
+    <t>阿桑</t>
+  </si>
+  <si>
     <t>七里香</t>
   </si>
   <si>
@@ -2573,6 +2585,15 @@
     <t>彭佳慧</t>
   </si>
   <si>
+    <t>我的美丽</t>
+  </si>
+  <si>
+    <t>霓虹泡泡</t>
+  </si>
+  <si>
+    <t>吉诺尔Kino</t>
+  </si>
+  <si>
     <t>self</t>
   </si>
   <si>
@@ -2714,9 +2735,6 @@
     <t>一直很安静</t>
   </si>
   <si>
-    <t>阿桑</t>
-  </si>
-  <si>
     <t>有一种悲伤</t>
   </si>
   <si>
@@ -2859,6 +2877,12 @@
   </si>
   <si>
     <t>Lydia</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>周菲戈</t>
   </si>
   <si>
     <t>蒲公英的约定</t>
@@ -4015,7 +4039,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7727,11 +7751,11 @@
       <c r="K177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>105</v>
+      <c r="B178" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>281</v>
@@ -7747,7 +7771,7 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>105</v>
@@ -7766,9 +7790,9 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B180" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -7785,7 +7809,7 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>105</v>
@@ -7804,7 +7828,7 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>105</v>
@@ -7823,9 +7847,9 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B183" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -7842,9 +7866,9 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B184" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -7861,9 +7885,9 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B185" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -7880,7 +7904,7 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>105</v>
@@ -7899,9 +7923,9 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B187" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -7918,9 +7942,9 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B188" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -7936,8 +7960,8 @@
       <c r="K188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="s">
-        <v>305</v>
+      <c r="A189" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>105</v>
@@ -7956,7 +7980,7 @@
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>105</v>
@@ -7975,7 +7999,7 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>105</v>
@@ -7993,8 +8017,8 @@
       <c r="K191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="4" t="s">
-        <v>308</v>
+      <c r="A192" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>105</v>
@@ -8013,7 +8037,7 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>105</v>
@@ -8032,10 +8056,10 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>281</v>
@@ -8053,7 +8077,7 @@
       <c r="A195" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="2" t="s">
         <v>313</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -8072,7 +8096,7 @@
       <c r="A196" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="5" t="s">
         <v>315</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -8091,7 +8115,7 @@
       <c r="A197" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>317</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -8111,7 +8135,7 @@
         <v>318</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>281</v>
@@ -8127,10 +8151,10 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>281</v>
@@ -8146,10 +8170,10 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>281</v>
@@ -8165,10 +8189,10 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>281</v>
@@ -8184,10 +8208,10 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>281</v>
@@ -8203,10 +8227,10 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>281</v>
@@ -8221,16 +8245,16 @@
       <c r="K203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="s">
-        <v>324</v>
+      <c r="A204" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D204" s="3"/>
+      <c r="D204" s="4"/>
       <c r="E204" s="3"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -8241,10 +8265,10 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>281</v>
@@ -8260,10 +8284,10 @@
     </row>
     <row r="206">
       <c r="A206" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>281</v>
@@ -8278,16 +8302,16 @@
       <c r="K206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="4" t="s">
-        <v>327</v>
+      <c r="A207" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D207" s="4"/>
+      <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -8300,8 +8324,8 @@
       <c r="A208" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>328</v>
+      <c r="B208" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>281</v>
@@ -8317,10 +8341,10 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>281</v>
@@ -8336,10 +8360,10 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>281</v>
@@ -8354,16 +8378,16 @@
       <c r="K210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="s">
-        <v>332</v>
+      <c r="A211" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D211" s="3"/>
+      <c r="D211" s="4"/>
       <c r="E211" s="3"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -8373,16 +8397,16 @@
       <c r="K211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>139</v>
+      <c r="A212" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D212" s="4"/>
+      <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
@@ -8393,7 +8417,7 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>139</v>
@@ -8412,9 +8436,9 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B214" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -8430,8 +8454,8 @@
       <c r="K214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="s">
-        <v>336</v>
+      <c r="A215" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>139</v>
@@ -8449,16 +8473,16 @@
       <c r="K215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="A216" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D216" s="3"/>
+      <c r="D216" s="4"/>
       <c r="E216" s="3"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
@@ -8469,15 +8493,15 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D217" s="4"/>
+      <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -8490,8 +8514,8 @@
       <c r="A218" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>339</v>
+      <c r="B218" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>281</v>
@@ -8507,10 +8531,10 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>281</v>
@@ -8526,15 +8550,15 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D220" s="3"/>
+      <c r="D220" s="4"/>
       <c r="E220" s="3"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -8544,11 +8568,11 @@
       <c r="K220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>339</v>
+      <c r="A221" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>281</v>
@@ -8563,16 +8587,16 @@
       <c r="K221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B222" s="1" t="s">
+      <c r="A222" s="3" t="s">
         <v>345</v>
       </c>
+      <c r="B222" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="C222" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="4"/>
+      <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -8582,11 +8606,11 @@
       <c r="K222" s="4"/>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="4" t="s">
         <v>346</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>281</v>
@@ -8601,19 +8625,17 @@
       <c r="K223" s="4"/>
     </row>
     <row r="224">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="C224" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D224" s="4"/>
-      <c r="E224" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E224" s="3"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
@@ -8622,17 +8644,19 @@
       <c r="K224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="s">
-        <v>348</v>
+      <c r="A225" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D225" s="4"/>
-      <c r="E225" s="3"/>
+      <c r="E225" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
@@ -8641,11 +8665,11 @@
       <c r="K225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="4" t="s">
-        <v>349</v>
+      <c r="A226" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>281</v>
@@ -8664,7 +8688,7 @@
         <v>351</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>281</v>
@@ -8680,10 +8704,10 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>281</v>
@@ -8698,11 +8722,11 @@
       <c r="K228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="s">
-        <v>353</v>
+      <c r="A229" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>281</v>
@@ -8717,11 +8741,11 @@
       <c r="K229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B230" s="1" t="s">
+      <c r="A230" s="3" t="s">
         <v>355</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>281</v>
@@ -8736,16 +8760,16 @@
       <c r="K230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="4" t="s">
         <v>356</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D231" s="3"/>
+      <c r="D231" s="4"/>
       <c r="E231" s="3"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -8756,10 +8780,10 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>281</v>
@@ -8775,10 +8799,10 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>281</v>
@@ -8793,16 +8817,16 @@
       <c r="K233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="4" t="s">
-        <v>359</v>
+      <c r="A234" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D234" s="4"/>
+      <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -8815,7 +8839,7 @@
       <c r="A235" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -8834,8 +8858,8 @@
       <c r="A236" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>362</v>
+      <c r="B236" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>281</v>
@@ -8851,10 +8875,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>281</v>
@@ -8870,9 +8894,9 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B238" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -8889,18 +8913,16 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B239" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D239" s="4"/>
-      <c r="E239" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E239" s="3"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
@@ -8909,17 +8931,19 @@
       <c r="K239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B240" s="3" t="s">
+      <c r="A240" s="4" t="s">
         <v>368</v>
       </c>
+      <c r="B240" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="C240" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
@@ -8932,7 +8956,7 @@
         <v>369</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>281</v>
@@ -8948,10 +8972,10 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>281</v>
@@ -8966,16 +8990,16 @@
       <c r="K242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B243" s="2" t="s">
+      <c r="A243" s="3" t="s">
         <v>372</v>
       </c>
+      <c r="B243" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="C243" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D243" s="4"/>
+      <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
@@ -8986,10 +9010,10 @@
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>53</v>
+        <v>373</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>281</v>
@@ -9005,10 +9029,10 @@
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>372</v>
+        <v>53</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>281</v>
@@ -9024,10 +9048,10 @@
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>281</v>
@@ -9045,8 +9069,8 @@
       <c r="A247" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>375</v>
+      <c r="B247" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>281</v>
@@ -9062,10 +9086,10 @@
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>281</v>
@@ -9081,10 +9105,10 @@
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B249" s="1" t="s">
         <v>379</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>281</v>
@@ -9099,11 +9123,11 @@
       <c r="K249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>281</v>
@@ -9119,10 +9143,10 @@
     </row>
     <row r="251">
       <c r="A251" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>281</v>
@@ -9137,11 +9161,11 @@
       <c r="K251" s="4"/>
     </row>
     <row r="252">
-      <c r="A252" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>17</v>
+      <c r="A252" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>281</v>
@@ -9157,10 +9181,10 @@
     </row>
     <row r="253">
       <c r="A253" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>11</v>
+        <v>384</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>281</v>
@@ -9176,10 +9200,10 @@
     </row>
     <row r="254">
       <c r="A254" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>281</v>
@@ -9198,7 +9222,7 @@
         <v>386</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>281</v>
@@ -9214,10 +9238,10 @@
     </row>
     <row r="256">
       <c r="A256" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>281</v>
@@ -9236,7 +9260,7 @@
         <v>389</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>281</v>
@@ -9252,10 +9276,10 @@
     </row>
     <row r="258">
       <c r="A258" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>281</v>
@@ -9270,11 +9294,11 @@
       <c r="K258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B259" s="3" t="s">
-        <v>391</v>
+      <c r="B259" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>281</v>
@@ -9289,11 +9313,11 @@
       <c r="K259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>281</v>
@@ -9311,8 +9335,8 @@
       <c r="A261" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>394</v>
+      <c r="B261" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>281</v>
@@ -9328,10 +9352,10 @@
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>281</v>
@@ -9347,10 +9371,10 @@
     </row>
     <row r="263">
       <c r="A263" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B263" s="4" t="s">
         <v>398</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>281</v>
@@ -9368,8 +9392,8 @@
       <c r="A264" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>93</v>
+      <c r="B264" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>281</v>
@@ -9385,9 +9409,9 @@
     </row>
     <row r="265">
       <c r="A265" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B265" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -9404,10 +9428,10 @@
     </row>
     <row r="266">
       <c r="A266" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B266" s="1" t="s">
         <v>402</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>281</v>
@@ -9422,16 +9446,16 @@
       <c r="K266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="4" t="s">
         <v>403</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D267" s="3"/>
+      <c r="D267" s="4"/>
       <c r="E267" s="3"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -9441,16 +9465,16 @@
       <c r="K267" s="4"/>
     </row>
     <row r="268">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="C268" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D268" s="4"/>
+      <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -9463,7 +9487,7 @@
       <c r="A269" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="2" t="s">
         <v>407</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -9479,16 +9503,16 @@
       <c r="K269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D270" s="3"/>
+      <c r="D270" s="4"/>
       <c r="E270" s="3"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
@@ -9501,13 +9525,13 @@
       <c r="A271" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>409</v>
+      <c r="B271" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D271" s="4"/>
+      <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -9517,11 +9541,11 @@
       <c r="K271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>281</v>
@@ -9565,9 +9589,7 @@
         <v>281</v>
       </c>
       <c r="D274" s="4"/>
-      <c r="E274" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E274" s="3"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
@@ -9580,13 +9602,15 @@
         <v>417</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D275" s="4"/>
-      <c r="E275" s="3"/>
+      <c r="E275" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
@@ -9596,10 +9620,10 @@
     </row>
     <row r="276">
       <c r="A276" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>281</v>
@@ -9614,11 +9638,11 @@
       <c r="K276" s="4"/>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="4" t="s">
         <v>420</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>281</v>
@@ -9633,11 +9657,11 @@
       <c r="K277" s="4"/>
     </row>
     <row r="278">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>281</v>
@@ -9655,7 +9679,7 @@
       <c r="A279" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -9671,11 +9695,11 @@
       <c r="K279" s="4"/>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B280" s="2" t="s">
+      <c r="A280" s="4" t="s">
         <v>425</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>281</v>
@@ -9690,10 +9714,10 @@
       <c r="K280" s="4"/>
     </row>
     <row r="281">
-      <c r="A281" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B281" s="4" t="s">
+      <c r="A281" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -9712,7 +9736,7 @@
       <c r="A282" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -9750,16 +9774,14 @@
       <c r="A284" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" s="1" t="s">
         <v>433</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D284" s="4"/>
-      <c r="E284" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E284" s="3"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
@@ -9772,13 +9794,15 @@
         <v>434</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>288</v>
+        <v>435</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D285" s="4"/>
-      <c r="E285" s="3"/>
+      <c r="E285" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
@@ -9788,10 +9812,10 @@
     </row>
     <row r="286">
       <c r="A286" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B286" s="1" t="s">
         <v>436</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>281</v>
@@ -9848,7 +9872,7 @@
         <v>441</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>281</v>
@@ -9864,10 +9888,10 @@
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B290" s="2" t="s">
         <v>443</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>281</v>
@@ -9883,10 +9907,10 @@
     </row>
     <row r="291">
       <c r="A291" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B291" s="1" t="s">
         <v>444</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>281</v>
@@ -9902,7 +9926,7 @@
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>446</v>
@@ -9911,9 +9935,7 @@
         <v>281</v>
       </c>
       <c r="D292" s="4"/>
-      <c r="E292" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E292" s="3"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
@@ -9925,14 +9947,16 @@
       <c r="A293" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B293" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D293" s="4"/>
-      <c r="E293" s="3"/>
+      <c r="E293" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
@@ -9941,7 +9965,7 @@
       <c r="K293" s="4"/>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="4" t="s">
         <v>449</v>
       </c>
       <c r="B294" s="5" t="s">
@@ -9960,10 +9984,10 @@
       <c r="K294" s="4"/>
     </row>
     <row r="295">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B295" s="5" t="s">
         <v>452</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -9982,7 +10006,7 @@
       <c r="A296" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -10001,7 +10025,7 @@
       <c r="A297" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" s="2" t="s">
         <v>456</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -10059,15 +10083,13 @@
         <v>461</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>263</v>
+        <v>462</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D300" s="4"/>
-      <c r="E300" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E300" s="3"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
@@ -10077,16 +10099,18 @@
     </row>
     <row r="301">
       <c r="A301" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>463</v>
+        <v>263</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D301" s="4"/>
-      <c r="E301" s="3"/>
+      <c r="E301" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
@@ -10095,11 +10119,11 @@
       <c r="K301" s="4"/>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="4" t="s">
         <v>464</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>112</v>
+        <v>465</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>281</v>
@@ -10114,11 +10138,11 @@
       <c r="K302" s="4"/>
     </row>
     <row r="303">
-      <c r="A303" s="4" t="s">
-        <v>465</v>
+      <c r="A303" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>466</v>
+        <v>112</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>281</v>
@@ -10136,7 +10160,7 @@
       <c r="A304" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="B304" s="1" t="s">
         <v>468</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -10155,7 +10179,7 @@
       <c r="A305" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" s="5" t="s">
         <v>470</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -10219,9 +10243,7 @@
         <v>281</v>
       </c>
       <c r="D308" s="4"/>
-      <c r="E308" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E308" s="3"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
@@ -10240,7 +10262,9 @@
         <v>281</v>
       </c>
       <c r="D309" s="4"/>
-      <c r="E309" s="3"/>
+      <c r="E309" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
@@ -10290,7 +10314,7 @@
       <c r="A312" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="1" t="s">
         <v>484</v>
       </c>
       <c r="C312" s="2" t="s">
@@ -10354,9 +10378,7 @@
         <v>281</v>
       </c>
       <c r="D315" s="4"/>
-      <c r="E315" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E315" s="3"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
@@ -10375,7 +10397,9 @@
         <v>281</v>
       </c>
       <c r="D316" s="4"/>
-      <c r="E316" s="3"/>
+      <c r="E316" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
@@ -10406,8 +10430,8 @@
       <c r="A318" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B318" s="3" t="s">
-        <v>294</v>
+      <c r="B318" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>281</v>
@@ -10423,10 +10447,10 @@
     </row>
     <row r="319">
       <c r="A319" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B319" s="1" t="s">
         <v>497</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>281</v>
@@ -10463,7 +10487,7 @@
       <c r="A321" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C321" s="2" t="s">
@@ -10482,7 +10506,7 @@
       <c r="A322" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" s="2" t="s">
         <v>503</v>
       </c>
       <c r="C322" s="2" t="s">
@@ -10501,16 +10525,14 @@
       <c r="A323" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B323" s="5" t="s">
+      <c r="B323" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D323" s="4"/>
-      <c r="E323" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E323" s="3"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
@@ -10522,14 +10544,16 @@
       <c r="A324" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="5" t="s">
         <v>507</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D324" s="4"/>
-      <c r="E324" s="3"/>
+      <c r="E324" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
@@ -10541,7 +10565,7 @@
       <c r="A325" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" s="3" t="s">
         <v>509</v>
       </c>
       <c r="C325" s="2" t="s">
@@ -10580,7 +10604,7 @@
         <v>512</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>1136</v>
+        <v>513</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>281</v>
@@ -10596,10 +10620,10 @@
     </row>
     <row r="328">
       <c r="A328" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>514</v>
+        <v>1144</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>281</v>
@@ -10617,7 +10641,7 @@
       <c r="A329" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="4" t="s">
         <v>516</v>
       </c>
       <c r="C329" s="2" t="s">
@@ -10636,8 +10660,8 @@
       <c r="A330" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B330" s="4" t="s">
-        <v>1137</v>
+      <c r="B330" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>281</v>
@@ -10652,11 +10676,11 @@
       <c r="K330" s="4"/>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>120</v>
+      <c r="A331" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>1145</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>281</v>
@@ -10672,15 +10696,15 @@
     </row>
     <row r="332">
       <c r="A332" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>520</v>
+        <v>120</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D332" s="3"/>
+      <c r="D332" s="4"/>
       <c r="E332" s="3"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
@@ -10782,7 +10806,7 @@
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="K337" s="3"/>
+      <c r="K337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="3" t="s">
@@ -10801,7 +10825,7 @@
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="K338" s="4"/>
+      <c r="K338" s="3"/>
     </row>
     <row r="339">
       <c r="A339" s="3" t="s">
@@ -10861,16 +10885,16 @@
       <c r="K341" s="4"/>
     </row>
     <row r="342">
-      <c r="A342" s="4" t="s">
+      <c r="A342" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B342" s="4" t="s">
-        <v>105</v>
+      <c r="B342" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D342" s="4"/>
+      <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -10880,16 +10904,16 @@
       <c r="K342" s="4"/>
     </row>
     <row r="343">
-      <c r="A343" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>105</v>
+      <c r="A343" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D343" s="4"/>
+      <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -10900,7 +10924,7 @@
     </row>
     <row r="344">
       <c r="A344" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>105</v>
@@ -10919,7 +10943,7 @@
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>105</v>
@@ -10938,7 +10962,7 @@
     </row>
     <row r="346">
       <c r="A346" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>105</v>
@@ -10957,7 +10981,7 @@
     </row>
     <row r="347">
       <c r="A347" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>105</v>
@@ -10975,8 +10999,8 @@
       <c r="K347" s="4"/>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="s">
-        <v>545</v>
+      <c r="A348" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>105</v>
@@ -10995,7 +11019,7 @@
     </row>
     <row r="349">
       <c r="A349" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>105</v>
@@ -11013,11 +11037,11 @@
       <c r="K349" s="4"/>
     </row>
     <row r="350">
-      <c r="A350" s="4" t="s">
-        <v>547</v>
+      <c r="A350" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1138</v>
+        <v>105</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>281</v>
@@ -11033,7 +11057,7 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>105</v>
@@ -11052,10 +11076,10 @@
     </row>
     <row r="352">
       <c r="A352" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>105</v>
+        <v>1146</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>281</v>
@@ -11071,10 +11095,10 @@
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1139</v>
+        <v>105</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>281</v>
@@ -11090,10 +11114,10 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1140</v>
+        <v>105</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>281</v>
@@ -11109,10 +11133,10 @@
     </row>
     <row r="355">
       <c r="A355" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>281</v>
@@ -11128,10 +11152,10 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>281</v>
@@ -11147,10 +11171,10 @@
     </row>
     <row r="357">
       <c r="A357" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>281</v>
@@ -11166,10 +11190,10 @@
     </row>
     <row r="358">
       <c r="A358" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>105</v>
+        <v>1150</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>281</v>
@@ -11185,10 +11209,10 @@
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>281</v>
@@ -11204,10 +11228,10 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>558</v>
+        <v>105</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>281</v>
@@ -11223,10 +11247,10 @@
     </row>
     <row r="361">
       <c r="A361" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="B361" s="3" t="s">
         <v>560</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>1152</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>281</v>
@@ -11263,8 +11287,8 @@
       <c r="A363" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B363" s="4" t="s">
-        <v>1145</v>
+      <c r="B363" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>281</v>
@@ -11280,10 +11304,10 @@
     </row>
     <row r="364">
       <c r="A364" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>362</v>
+        <v>565</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>281</v>
@@ -11299,10 +11323,10 @@
     </row>
     <row r="365">
       <c r="A365" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>362</v>
+        <v>567</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>1153</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>281</v>
@@ -11318,10 +11342,10 @@
     </row>
     <row r="366">
       <c r="A366" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>1146</v>
+        <v>568</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>281</v>
@@ -11337,10 +11361,10 @@
     </row>
     <row r="367">
       <c r="A367" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>1147</v>
+        <v>569</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>281</v>
@@ -11356,10 +11380,10 @@
     </row>
     <row r="368">
       <c r="A368" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>568</v>
+        <v>1154</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>281</v>
@@ -11375,10 +11399,10 @@
     </row>
     <row r="369">
       <c r="A369" s="4" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>339</v>
+        <v>1155</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>281</v>
@@ -11394,10 +11418,10 @@
     </row>
     <row r="370">
       <c r="A370" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1148</v>
+        <v>572</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>281</v>
@@ -11412,16 +11436,16 @@
       <c r="K370" s="4"/>
     </row>
     <row r="371">
-      <c r="A371" s="3" t="s">
-        <v>571</v>
+      <c r="A371" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D371" s="3"/>
+      <c r="D371" s="4"/>
       <c r="E371" s="3"/>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
@@ -11432,10 +11456,10 @@
     </row>
     <row r="372">
       <c r="A372" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1149</v>
+        <v>1156</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>281</v>
@@ -11450,16 +11474,16 @@
       <c r="K372" s="4"/>
     </row>
     <row r="373">
-      <c r="A373" s="4" t="s">
-        <v>573</v>
+      <c r="A373" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1150</v>
+        <v>341</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D373" s="4"/>
+      <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
@@ -11470,10 +11494,10 @@
     </row>
     <row r="374">
       <c r="A374" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>281</v>
@@ -11489,10 +11513,10 @@
     </row>
     <row r="375">
       <c r="A375" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>281</v>
@@ -11508,10 +11532,10 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>281</v>
@@ -11527,10 +11551,10 @@
     </row>
     <row r="377">
       <c r="A377" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>578</v>
+        <v>1160</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>281</v>
@@ -11546,10 +11570,10 @@
     </row>
     <row r="378">
       <c r="A378" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>492</v>
+        <v>1161</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>281</v>
@@ -11565,10 +11589,10 @@
     </row>
     <row r="379">
       <c r="A379" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>281</v>
@@ -11584,10 +11608,10 @@
     </row>
     <row r="380">
       <c r="A380" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>281</v>
@@ -11602,16 +11626,16 @@
       <c r="K380" s="4"/>
     </row>
     <row r="381">
-      <c r="A381" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B381" s="3" t="s">
+      <c r="A381" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B381" s="4" t="s">
         <v>494</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D381" s="3"/>
+      <c r="D381" s="4"/>
       <c r="E381" s="3"/>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
@@ -11622,7 +11646,7 @@
     </row>
     <row r="382">
       <c r="A382" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>494</v>
@@ -11640,16 +11664,16 @@
       <c r="K382" s="4"/>
     </row>
     <row r="383">
-      <c r="A383" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>1154</v>
+      <c r="A383" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D383" s="4"/>
+      <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
@@ -11660,10 +11684,10 @@
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1155</v>
+        <v>496</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>281</v>
@@ -11679,10 +11703,10 @@
     </row>
     <row r="385">
       <c r="A385" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>345</v>
+        <v>1162</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>281</v>
@@ -11698,10 +11722,10 @@
     </row>
     <row r="386">
       <c r="A386" s="4" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>588</v>
+        <v>1163</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>281</v>
@@ -11717,10 +11741,10 @@
     </row>
     <row r="387">
       <c r="A387" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>281</v>
@@ -11736,10 +11760,10 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1156</v>
+        <v>592</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>281</v>
@@ -11755,10 +11779,10 @@
     </row>
     <row r="389">
       <c r="A389" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>80</v>
+        <v>593</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>281</v>
@@ -11774,10 +11798,10 @@
     </row>
     <row r="390">
       <c r="A390" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>281</v>
@@ -11793,10 +11817,10 @@
     </row>
     <row r="391">
       <c r="A391" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>594</v>
+        <v>80</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>281</v>
@@ -11812,18 +11836,16 @@
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>596</v>
+        <v>1165</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D392" s="4"/>
-      <c r="E392" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E392" s="3"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
@@ -11832,10 +11854,10 @@
       <c r="K392" s="4"/>
     </row>
     <row r="393">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C393" s="2" t="s">
@@ -11861,7 +11883,9 @@
         <v>281</v>
       </c>
       <c r="D394" s="4"/>
-      <c r="E394" s="3"/>
+      <c r="E394" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
@@ -11870,11 +11894,11 @@
       <c r="K394" s="4"/>
     </row>
     <row r="395">
-      <c r="A395" s="4" t="s">
+      <c r="A395" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B395" s="4" t="s">
-        <v>1158</v>
+      <c r="B395" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>281</v>
@@ -11890,10 +11914,10 @@
     </row>
     <row r="396">
       <c r="A396" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1159</v>
+        <v>604</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>281</v>
@@ -11909,10 +11933,10 @@
     </row>
     <row r="397">
       <c r="A397" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>281</v>
@@ -11928,10 +11952,10 @@
     </row>
     <row r="398">
       <c r="A398" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>605</v>
+        <v>1167</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>281</v>
@@ -11947,10 +11971,10 @@
     </row>
     <row r="399">
       <c r="A399" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>607</v>
+        <v>1168</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>281</v>
@@ -11988,7 +12012,7 @@
         <v>610</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1161</v>
+        <v>611</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>281</v>
@@ -12004,10 +12028,10 @@
     </row>
     <row r="402">
       <c r="A402" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>150</v>
+        <v>612</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>281</v>
@@ -12023,10 +12047,10 @@
     </row>
     <row r="403">
       <c r="A403" s="4" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>613</v>
+        <v>1169</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>281</v>
@@ -12042,10 +12066,10 @@
     </row>
     <row r="404">
       <c r="A404" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>1162</v>
+        <v>615</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>281</v>
@@ -12061,10 +12085,10 @@
     </row>
     <row r="405">
       <c r="A405" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1163</v>
+        <v>617</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>281</v>
@@ -12080,10 +12104,10 @@
     </row>
     <row r="406">
       <c r="A406" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>617</v>
+        <v>1170</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>281</v>
@@ -12099,10 +12123,10 @@
     </row>
     <row r="407">
       <c r="A407" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>619</v>
+        <v>1171</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>281</v>
@@ -12121,7 +12145,7 @@
         <v>620</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1164</v>
+        <v>621</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>281</v>
@@ -12137,10 +12161,10 @@
     </row>
     <row r="409">
       <c r="A409" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1165</v>
+        <v>623</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>281</v>
@@ -12156,10 +12180,10 @@
     </row>
     <row r="410">
       <c r="A410" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>328</v>
+        <v>1172</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>281</v>
@@ -12175,10 +12199,10 @@
     </row>
     <row r="411">
       <c r="A411" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>624</v>
+        <v>1173</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>281</v>
@@ -12194,10 +12218,10 @@
     </row>
     <row r="412">
       <c r="A412" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1166</v>
+        <v>330</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>281</v>
@@ -12213,10 +12237,10 @@
     </row>
     <row r="413">
       <c r="A413" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1167</v>
+        <v>628</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>281</v>
@@ -12232,10 +12256,10 @@
     </row>
     <row r="414">
       <c r="A414" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>281</v>
@@ -12251,10 +12275,10 @@
     </row>
     <row r="415">
       <c r="A415" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>281</v>
@@ -12270,10 +12294,10 @@
     </row>
     <row r="416">
       <c r="A416" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>281</v>
@@ -12289,10 +12313,10 @@
     </row>
     <row r="417">
       <c r="A417" s="4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>281</v>
@@ -12308,10 +12332,10 @@
     </row>
     <row r="418">
       <c r="A418" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>281</v>
@@ -12327,10 +12351,10 @@
     </row>
     <row r="419">
       <c r="A419" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>633</v>
+        <v>1179</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>281</v>
@@ -12346,10 +12370,10 @@
     </row>
     <row r="420">
       <c r="A420" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>635</v>
+        <v>1180</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>281</v>
@@ -12368,7 +12392,7 @@
         <v>636</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>499</v>
+        <v>637</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>281</v>
@@ -12384,10 +12408,10 @@
     </row>
     <row r="422">
       <c r="A422" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>281</v>
@@ -12403,10 +12427,10 @@
     </row>
     <row r="423">
       <c r="A423" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>1173</v>
+        <v>501</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>281</v>
@@ -12422,10 +12446,10 @@
     </row>
     <row r="424">
       <c r="A424" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>97</v>
+        <v>641</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>642</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>281</v>
@@ -12441,10 +12465,10 @@
     </row>
     <row r="425">
       <c r="A425" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>642</v>
+        <v>1181</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>281</v>
@@ -12460,10 +12484,10 @@
     </row>
     <row r="426">
       <c r="A426" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>1174</v>
+        <v>644</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>281</v>
@@ -12479,10 +12503,10 @@
     </row>
     <row r="427">
       <c r="A427" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>281</v>
@@ -12497,16 +12521,16 @@
       <c r="K427" s="4"/>
     </row>
     <row r="428">
-      <c r="A428" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B428" s="3" t="s">
+      <c r="A428" s="4" t="s">
         <v>647</v>
       </c>
+      <c r="B428" s="4" t="s">
+        <v>1182</v>
+      </c>
       <c r="C428" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D428" s="3"/>
+      <c r="D428" s="4"/>
       <c r="E428" s="3"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
@@ -12516,16 +12540,16 @@
       <c r="K428" s="4"/>
     </row>
     <row r="429">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="B429" s="3" t="s">
-        <v>402</v>
+      <c r="B429" s="4" t="s">
+        <v>649</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D429" s="3"/>
+      <c r="D429" s="4"/>
       <c r="E429" s="3"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
@@ -12536,10 +12560,10 @@
     </row>
     <row r="430">
       <c r="A430" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>281</v>
@@ -12555,10 +12579,10 @@
     </row>
     <row r="431">
       <c r="A431" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>281</v>
@@ -12574,10 +12598,10 @@
     </row>
     <row r="432">
       <c r="A432" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>281</v>
@@ -12593,10 +12617,10 @@
     </row>
     <row r="433">
       <c r="A433" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>655</v>
+        <v>189</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>281</v>
@@ -12615,7 +12639,7 @@
         <v>656</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>372</v>
+        <v>657</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>281</v>
@@ -12631,10 +12655,10 @@
     </row>
     <row r="435">
       <c r="A435" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>39</v>
+        <v>659</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>281</v>
@@ -12650,18 +12674,16 @@
     </row>
     <row r="436">
       <c r="A436" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>659</v>
+        <v>374</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D436" s="3"/>
-      <c r="E436" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E436" s="3"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
@@ -12671,10 +12693,10 @@
     </row>
     <row r="437">
       <c r="A437" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>661</v>
+        <v>39</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>281</v>
@@ -12689,17 +12711,19 @@
       <c r="K437" s="4"/>
     </row>
     <row r="438">
-      <c r="A438" s="4" t="s">
+      <c r="A438" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" s="3" t="s">
         <v>663</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D438" s="4"/>
-      <c r="E438" s="3"/>
+      <c r="D438" s="3"/>
+      <c r="E438" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
@@ -12708,16 +12732,16 @@
       <c r="K438" s="4"/>
     </row>
     <row r="439">
-      <c r="A439" s="4" t="s">
+      <c r="A439" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B439" s="4" t="s">
-        <v>105</v>
+      <c r="B439" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D439" s="4"/>
+      <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
@@ -12728,10 +12752,10 @@
     </row>
     <row r="440">
       <c r="A440" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>105</v>
+        <v>667</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>281</v>
@@ -12747,10 +12771,10 @@
     </row>
     <row r="441">
       <c r="A441" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1175</v>
+        <v>105</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>281</v>
@@ -12766,7 +12790,7 @@
     </row>
     <row r="442">
       <c r="A442" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>105</v>
@@ -12775,9 +12799,7 @@
         <v>281</v>
       </c>
       <c r="D442" s="4"/>
-      <c r="E442" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E442" s="3"/>
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
@@ -12787,10 +12809,10 @@
     </row>
     <row r="443">
       <c r="A443" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>105</v>
+        <v>670</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>1183</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>281</v>
@@ -12806,16 +12828,18 @@
     </row>
     <row r="444">
       <c r="A444" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B444" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B444" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D444" s="4"/>
-      <c r="E444" s="3"/>
+      <c r="E444" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
@@ -12825,7 +12849,7 @@
     </row>
     <row r="445">
       <c r="A445" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>105</v>
@@ -12844,9 +12868,9 @@
     </row>
     <row r="446">
       <c r="A446" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B446" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C446" s="2" t="s">
@@ -12863,7 +12887,7 @@
     </row>
     <row r="447">
       <c r="A447" s="4" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>105</v>
@@ -12882,7 +12906,7 @@
     </row>
     <row r="448">
       <c r="A448" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>105</v>
@@ -12901,9 +12925,9 @@
     </row>
     <row r="449">
       <c r="A449" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="B449" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C449" s="2" t="s">
@@ -12920,7 +12944,7 @@
     </row>
     <row r="450">
       <c r="A450" s="4" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B450" s="4" t="s">
         <v>105</v>
@@ -12939,7 +12963,7 @@
     </row>
     <row r="451">
       <c r="A451" s="4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>105</v>
@@ -12958,7 +12982,7 @@
     </row>
     <row r="452">
       <c r="A452" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>105</v>
@@ -12977,7 +13001,7 @@
     </row>
     <row r="453">
       <c r="A453" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>105</v>
@@ -12996,7 +13020,7 @@
     </row>
     <row r="454">
       <c r="A454" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>105</v>
@@ -13015,7 +13039,7 @@
     </row>
     <row r="455">
       <c r="A455" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>105</v>
@@ -13034,7 +13058,7 @@
     </row>
     <row r="456">
       <c r="A456" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>105</v>
@@ -13053,9 +13077,9 @@
     </row>
     <row r="457">
       <c r="A457" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="B457" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B457" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C457" s="2" t="s">
@@ -13072,9 +13096,9 @@
     </row>
     <row r="458">
       <c r="A458" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="B458" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B458" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C458" s="2" t="s">
@@ -13091,9 +13115,9 @@
     </row>
     <row r="459">
       <c r="A459" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B459" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C459" s="2" t="s">
@@ -13110,9 +13134,9 @@
     </row>
     <row r="460">
       <c r="A460" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="B460" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C460" s="2" t="s">
@@ -13129,9 +13153,9 @@
     </row>
     <row r="461">
       <c r="A461" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B461" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B461" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C461" s="2" t="s">
@@ -13148,7 +13172,7 @@
     </row>
     <row r="462">
       <c r="A462" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B462" s="4" t="s">
         <v>105</v>
@@ -13156,7 +13180,7 @@
       <c r="C462" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D462" s="3"/>
+      <c r="D462" s="4"/>
       <c r="E462" s="3"/>
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
@@ -13167,10 +13191,10 @@
     </row>
     <row r="463">
       <c r="A463" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="B463" s="4" t="s">
-        <v>339</v>
+        <v>690</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>281</v>
@@ -13186,15 +13210,15 @@
     </row>
     <row r="464">
       <c r="A464" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D464" s="4"/>
+      <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
@@ -13205,10 +13229,10 @@
     </row>
     <row r="465">
       <c r="A465" s="4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>281</v>
@@ -13224,10 +13248,10 @@
     </row>
     <row r="466">
       <c r="A466" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>339</v>
+        <v>693</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>281</v>
@@ -13242,11 +13266,11 @@
       <c r="K466" s="4"/>
     </row>
     <row r="467">
-      <c r="A467" s="3" t="s">
-        <v>692</v>
+      <c r="A467" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>281</v>
@@ -13262,10 +13286,10 @@
     </row>
     <row r="468">
       <c r="A468" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="B468" s="4" t="s">
-        <v>339</v>
+        <v>695</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>281</v>
@@ -13280,11 +13304,11 @@
       <c r="K468" s="4"/>
     </row>
     <row r="469">
-      <c r="A469" s="4" t="s">
-        <v>694</v>
+      <c r="A469" s="3" t="s">
+        <v>696</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>281</v>
@@ -13300,10 +13324,10 @@
     </row>
     <row r="470">
       <c r="A470" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>281</v>
@@ -13319,7 +13343,7 @@
     </row>
     <row r="471">
       <c r="A471" s="4" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>292</v>
@@ -13338,9 +13362,9 @@
     </row>
     <row r="472">
       <c r="A472" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B472" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B472" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C472" s="2" t="s">
@@ -13357,10 +13381,10 @@
     </row>
     <row r="473">
       <c r="A473" s="4" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>281</v>
@@ -13376,10 +13400,10 @@
     </row>
     <row r="474">
       <c r="A474" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>362</v>
+        <v>701</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>281</v>
@@ -13394,16 +13418,16 @@
       <c r="K474" s="4"/>
     </row>
     <row r="475">
-      <c r="A475" s="3" t="s">
-        <v>700</v>
+      <c r="A475" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D475" s="3"/>
+      <c r="D475" s="4"/>
       <c r="E475" s="3"/>
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
@@ -13413,16 +13437,16 @@
       <c r="K475" s="4"/>
     </row>
     <row r="476">
-      <c r="A476" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B476" s="4" t="s">
-        <v>362</v>
+      <c r="A476" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D476" s="3"/>
+      <c r="D476" s="4"/>
       <c r="E476" s="3"/>
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
@@ -13432,16 +13456,16 @@
       <c r="K476" s="4"/>
     </row>
     <row r="477">
-      <c r="A477" s="4" t="s">
-        <v>702</v>
+      <c r="A477" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>703</v>
+        <v>364</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D477" s="4"/>
+      <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
@@ -13451,16 +13475,16 @@
       <c r="K477" s="4"/>
     </row>
     <row r="478">
-      <c r="A478" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>526</v>
+      <c r="A478" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D478" s="4"/>
+      <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
@@ -13471,18 +13495,16 @@
     </row>
     <row r="479">
       <c r="A479" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>526</v>
+        <v>706</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D479" s="4"/>
-      <c r="E479" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E479" s="3"/>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
@@ -13491,11 +13513,11 @@
       <c r="K479" s="4"/>
     </row>
     <row r="480">
-      <c r="A480" s="3" t="s">
-        <v>706</v>
+      <c r="A480" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>281</v>
@@ -13510,17 +13532,19 @@
       <c r="K480" s="4"/>
     </row>
     <row r="481">
-      <c r="A481" s="3" t="s">
-        <v>707</v>
+      <c r="A481" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D481" s="4"/>
-      <c r="E481" s="3"/>
+      <c r="E481" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
@@ -13529,11 +13553,11 @@
       <c r="K481" s="4"/>
     </row>
     <row r="482">
-      <c r="A482" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B482" s="4" t="s">
-        <v>368</v>
+      <c r="A482" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>281</v>
@@ -13548,11 +13572,11 @@
       <c r="K482" s="4"/>
     </row>
     <row r="483">
-      <c r="A483" s="4" t="s">
-        <v>709</v>
+      <c r="A483" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>368</v>
+        <v>528</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>281</v>
@@ -13567,11 +13591,11 @@
       <c r="K483" s="4"/>
     </row>
     <row r="484">
-      <c r="A484" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>368</v>
+      <c r="A484" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>281</v>
@@ -13586,11 +13610,11 @@
       <c r="K484" s="4"/>
     </row>
     <row r="485">
-      <c r="A485" s="3" t="s">
-        <v>711</v>
+      <c r="A485" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>281</v>
@@ -13605,11 +13629,11 @@
       <c r="K485" s="4"/>
     </row>
     <row r="486">
-      <c r="A486" s="4" t="s">
-        <v>712</v>
+      <c r="A486" s="3" t="s">
+        <v>714</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>713</v>
+        <v>370</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>281</v>
@@ -13625,10 +13649,10 @@
     </row>
     <row r="487">
       <c r="A487" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>187</v>
+        <v>715</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>281</v>
@@ -13643,11 +13667,11 @@
       <c r="K487" s="4"/>
     </row>
     <row r="488">
-      <c r="A488" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>187</v>
+      <c r="A488" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>281</v>
@@ -13663,7 +13687,7 @@
     </row>
     <row r="489">
       <c r="A489" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>187</v>
@@ -13681,11 +13705,11 @@
       <c r="K489" s="4"/>
     </row>
     <row r="490">
-      <c r="A490" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>718</v>
+      <c r="A490" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>281</v>
@@ -13700,11 +13724,11 @@
       <c r="K490" s="4"/>
     </row>
     <row r="491">
-      <c r="A491" s="4" t="s">
-        <v>719</v>
+      <c r="A491" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>718</v>
+        <v>187</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>281</v>
@@ -13719,16 +13743,16 @@
       <c r="K491" s="4"/>
     </row>
     <row r="492">
-      <c r="A492" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>718</v>
+      <c r="A492" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D492" s="3"/>
+      <c r="D492" s="4"/>
       <c r="E492" s="3"/>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
@@ -13739,9 +13763,9 @@
     </row>
     <row r="493">
       <c r="A493" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="B493" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B493" s="3" t="s">
         <v>722</v>
       </c>
       <c r="C493" s="2" t="s">
@@ -13757,16 +13781,16 @@
       <c r="K493" s="4"/>
     </row>
     <row r="494">
-      <c r="A494" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B494" s="1" t="s">
+      <c r="A494" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B494" s="3" t="s">
         <v>722</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D494" s="4"/>
+      <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
@@ -13777,10 +13801,10 @@
     </row>
     <row r="495">
       <c r="A495" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>281</v>
@@ -13796,10 +13820,10 @@
     </row>
     <row r="496">
       <c r="A496" s="4" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>317</v>
+        <v>726</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>281</v>
@@ -13815,15 +13839,15 @@
     </row>
     <row r="497">
       <c r="A497" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B497" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="C497" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D497" s="3"/>
+      <c r="D497" s="4"/>
       <c r="E497" s="3"/>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
@@ -13834,15 +13858,15 @@
     </row>
     <row r="498">
       <c r="A498" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D498" s="3"/>
+      <c r="D498" s="4"/>
       <c r="E498" s="3"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
@@ -13853,15 +13877,15 @@
     </row>
     <row r="499">
       <c r="A499" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D499" s="4"/>
+      <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
@@ -13871,16 +13895,16 @@
       <c r="K499" s="4"/>
     </row>
     <row r="500">
-      <c r="A500" s="3" t="s">
-        <v>729</v>
+      <c r="A500" s="4" t="s">
+        <v>731</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D500" s="4"/>
+      <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
@@ -13890,11 +13914,11 @@
       <c r="K500" s="4"/>
     </row>
     <row r="501">
-      <c r="A501" s="3" t="s">
-        <v>730</v>
+      <c r="A501" s="4" t="s">
+        <v>732</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>281</v>
@@ -13909,11 +13933,11 @@
       <c r="K501" s="4"/>
     </row>
     <row r="502">
-      <c r="A502" s="4" t="s">
-        <v>731</v>
+      <c r="A502" s="3" t="s">
+        <v>733</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>732</v>
+        <v>330</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>281</v>
@@ -13928,11 +13952,11 @@
       <c r="K502" s="4"/>
     </row>
     <row r="503">
-      <c r="A503" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="B503" s="3" t="s">
-        <v>732</v>
+      <c r="A503" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>281</v>
@@ -13947,16 +13971,16 @@
       <c r="K503" s="4"/>
     </row>
     <row r="504">
-      <c r="A504" s="3" t="s">
-        <v>734</v>
+      <c r="A504" s="4" t="s">
+        <v>735</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D504" s="3"/>
+      <c r="D504" s="4"/>
       <c r="E504" s="3"/>
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
@@ -13967,10 +13991,10 @@
     </row>
     <row r="505">
       <c r="A505" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="B505" s="4" t="s">
-        <v>1176</v>
+        <v>737</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>736</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>281</v>
@@ -13985,16 +14009,16 @@
       <c r="K505" s="4"/>
     </row>
     <row r="506">
-      <c r="A506" s="4" t="s">
+      <c r="A506" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B506" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B506" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="C506" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D506" s="4"/>
+      <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
@@ -14005,10 +14029,10 @@
     </row>
     <row r="507">
       <c r="A507" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>139</v>
+        <v>739</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>1184</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>281</v>
@@ -14024,10 +14048,10 @@
     </row>
     <row r="508">
       <c r="A508" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>139</v>
+        <v>740</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>281</v>
@@ -14043,10 +14067,10 @@
     </row>
     <row r="509">
       <c r="A509" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="B509" s="4" t="s">
-        <v>1177</v>
+        <v>741</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>281</v>
@@ -14062,10 +14086,10 @@
     </row>
     <row r="510">
       <c r="A510" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>375</v>
+        <v>139</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>281</v>
@@ -14081,10 +14105,10 @@
     </row>
     <row r="511">
       <c r="A511" s="4" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>486</v>
+        <v>1185</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>281</v>
@@ -14100,10 +14124,10 @@
     </row>
     <row r="512">
       <c r="A512" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B512" s="4" t="s">
-        <v>486</v>
+        <v>744</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>281</v>
@@ -14119,10 +14143,10 @@
     </row>
     <row r="513">
       <c r="A513" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>619</v>
+        <v>745</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>281</v>
@@ -14138,10 +14162,10 @@
     </row>
     <row r="514">
       <c r="A514" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>619</v>
+        <v>746</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>281</v>
@@ -14157,10 +14181,10 @@
     </row>
     <row r="515">
       <c r="A515" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>120</v>
+        <v>623</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>281</v>
@@ -14176,10 +14200,10 @@
     </row>
     <row r="516">
       <c r="A516" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="B516" s="4" t="s">
-        <v>120</v>
+        <v>748</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>281</v>
@@ -14195,10 +14219,10 @@
     </row>
     <row r="517">
       <c r="A517" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="B517" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>281</v>
@@ -14214,10 +14238,10 @@
     </row>
     <row r="518">
       <c r="A518" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>281</v>
@@ -14233,10 +14257,10 @@
     </row>
     <row r="519">
       <c r="A519" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>617</v>
+        <v>751</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>752</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>281</v>
@@ -14252,18 +14276,16 @@
     </row>
     <row r="520">
       <c r="A520" s="4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>617</v>
+        <v>752</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D520" s="4"/>
-      <c r="E520" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E520" s="3"/>
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
@@ -14273,10 +14295,10 @@
     </row>
     <row r="521">
       <c r="A521" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>474</v>
+        <v>621</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>281</v>
@@ -14292,16 +14314,18 @@
     </row>
     <row r="522">
       <c r="A522" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="B522" s="4" t="s">
-        <v>474</v>
+        <v>755</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D522" s="4"/>
-      <c r="E522" s="3"/>
+      <c r="E522" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
@@ -14311,10 +14335,10 @@
     </row>
     <row r="523">
       <c r="A523" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>598</v>
+        <v>476</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>281</v>
@@ -14329,11 +14353,11 @@
       <c r="K523" s="4"/>
     </row>
     <row r="524">
-      <c r="A524" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>598</v>
+      <c r="A524" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>281</v>
@@ -14349,10 +14373,10 @@
     </row>
     <row r="525">
       <c r="A525" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="B525" s="4" t="s">
-        <v>379</v>
+        <v>758</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>281</v>
@@ -14367,11 +14391,11 @@
       <c r="K525" s="4"/>
     </row>
     <row r="526">
-      <c r="A526" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="B526" s="4" t="s">
-        <v>379</v>
+      <c r="A526" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>281</v>
@@ -14387,10 +14411,10 @@
     </row>
     <row r="527">
       <c r="A527" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>237</v>
+        <v>381</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>281</v>
@@ -14405,19 +14429,17 @@
       <c r="K527" s="4"/>
     </row>
     <row r="528">
-      <c r="A528" s="3" t="s">
-        <v>759</v>
+      <c r="A528" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>237</v>
+        <v>381</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D528" s="4"/>
-      <c r="E528" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E528" s="3"/>
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
@@ -14427,10 +14449,10 @@
     </row>
     <row r="529">
       <c r="A529" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="B529" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>281</v>
@@ -14446,16 +14468,18 @@
     </row>
     <row r="530">
       <c r="A530" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="B530" s="5" t="s">
-        <v>761</v>
+        <v>763</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D530" s="4"/>
-      <c r="E530" s="3"/>
+      <c r="E530" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
@@ -14465,10 +14489,10 @@
     </row>
     <row r="531">
       <c r="A531" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="B531" s="4" t="s">
-        <v>144</v>
+        <v>764</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>765</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>281</v>
@@ -14484,15 +14508,15 @@
     </row>
     <row r="532">
       <c r="A532" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>144</v>
+        <v>766</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>765</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D532" s="3"/>
+      <c r="D532" s="4"/>
       <c r="E532" s="3"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
@@ -14503,10 +14527,10 @@
     </row>
     <row r="533">
       <c r="A533" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B533" s="5" t="s">
-        <v>440</v>
+        <v>767</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>281</v>
@@ -14522,15 +14546,15 @@
     </row>
     <row r="534">
       <c r="A534" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D534" s="4"/>
+      <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
@@ -14541,18 +14565,16 @@
     </row>
     <row r="535">
       <c r="A535" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B535" s="4" t="s">
-        <v>355</v>
+        <v>769</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D535" s="4"/>
-      <c r="E535" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E535" s="3"/>
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
@@ -14561,11 +14583,11 @@
       <c r="K535" s="4"/>
     </row>
     <row r="536">
-      <c r="A536" s="4" t="s">
-        <v>768</v>
+      <c r="A536" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>281</v>
@@ -14581,16 +14603,18 @@
     </row>
     <row r="537">
       <c r="A537" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>578</v>
+        <v>357</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D537" s="4"/>
-      <c r="E537" s="3"/>
+      <c r="E537" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
       <c r="H537" s="4"/>
@@ -14600,10 +14624,10 @@
     </row>
     <row r="538">
       <c r="A538" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B538" s="4" t="s">
         <v>772</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>281</v>
@@ -14619,10 +14643,10 @@
     </row>
     <row r="539">
       <c r="A539" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>289</v>
+        <v>774</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>281</v>
@@ -14638,10 +14662,10 @@
     </row>
     <row r="540">
       <c r="A540" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="B540" s="3" t="s">
         <v>775</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>281</v>
@@ -14657,10 +14681,10 @@
     </row>
     <row r="541">
       <c r="A541" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>431</v>
+        <v>289</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>281</v>
@@ -14675,16 +14699,16 @@
       <c r="K541" s="4"/>
     </row>
     <row r="542">
-      <c r="A542" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>532</v>
+      <c r="A542" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D542" s="3"/>
+      <c r="D542" s="4"/>
       <c r="E542" s="3"/>
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
@@ -14695,10 +14719,10 @@
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B543" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>281</v>
@@ -14713,16 +14737,16 @@
       <c r="K543" s="4"/>
     </row>
     <row r="544">
-      <c r="A544" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="B544" s="3" t="s">
-        <v>112</v>
+      <c r="A544" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D544" s="4"/>
+      <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
@@ -14733,10 +14757,10 @@
     </row>
     <row r="545">
       <c r="A545" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>454</v>
+        <v>783</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>281</v>
@@ -14752,10 +14776,10 @@
     </row>
     <row r="546">
       <c r="A546" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B546" s="5" t="s">
-        <v>170</v>
+        <v>784</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>281</v>
@@ -14771,10 +14795,10 @@
     </row>
     <row r="547">
       <c r="A547" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>281</v>
@@ -14790,10 +14814,10 @@
     </row>
     <row r="548">
       <c r="A548" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B548" s="4" t="s">
-        <v>492</v>
+        <v>786</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>281</v>
@@ -14809,10 +14833,10 @@
     </row>
     <row r="549">
       <c r="A549" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>509</v>
+        <v>788</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>281</v>
@@ -14828,10 +14852,10 @@
     </row>
     <row r="550">
       <c r="A550" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>281</v>
@@ -14847,10 +14871,10 @@
     </row>
     <row r="551">
       <c r="A551" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>642</v>
+        <v>511</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>281</v>
@@ -14866,10 +14890,10 @@
     </row>
     <row r="552">
       <c r="A552" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>281</v>
@@ -14885,10 +14909,10 @@
     </row>
     <row r="553">
       <c r="A553" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>793</v>
+        <v>646</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>281</v>
@@ -14906,8 +14930,8 @@
       <c r="A554" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B554" s="3" t="s">
-        <v>271</v>
+      <c r="B554" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>281</v>
@@ -14923,10 +14947,10 @@
     </row>
     <row r="555">
       <c r="A555" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>139</v>
+        <v>797</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>281</v>
@@ -14942,10 +14966,10 @@
     </row>
     <row r="556">
       <c r="A556" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="B556" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>281</v>
@@ -14961,10 +14985,10 @@
     </row>
     <row r="557">
       <c r="A557" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>799</v>
+        <v>139</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>281</v>
@@ -15001,7 +15025,7 @@
       <c r="A559" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="B559" s="4" t="s">
+      <c r="B559" s="1" t="s">
         <v>803</v>
       </c>
       <c r="C559" s="2" t="s">
@@ -15021,7 +15045,7 @@
         <v>804</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>538</v>
+        <v>805</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>281</v>
@@ -15037,10 +15061,10 @@
     </row>
     <row r="561">
       <c r="A561" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>6</v>
+        <v>806</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>807</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>281</v>
@@ -15056,10 +15080,10 @@
     </row>
     <row r="562">
       <c r="A562" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>540</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>281</v>
@@ -15075,10 +15099,10 @@
     </row>
     <row r="563">
       <c r="A563" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B563" s="4" t="s">
         <v>809</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>281</v>
@@ -15096,7 +15120,7 @@
       <c r="A564" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="B564" s="1" t="s">
+      <c r="B564" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C564" s="2" t="s">
@@ -15134,7 +15158,7 @@
       <c r="A566" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B566" s="4" t="s">
+      <c r="B566" s="1" t="s">
         <v>815</v>
       </c>
       <c r="C566" s="2" t="s">
@@ -15153,7 +15177,7 @@
       <c r="A567" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="B567" s="3" t="s">
+      <c r="B567" s="4" t="s">
         <v>817</v>
       </c>
       <c r="C567" s="2" t="s">
@@ -15172,7 +15196,7 @@
       <c r="A568" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="B568" s="1" t="s">
+      <c r="B568" s="4" t="s">
         <v>819</v>
       </c>
       <c r="C568" s="2" t="s">
@@ -15191,7 +15215,7 @@
       <c r="A569" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="B569" s="3" t="s">
         <v>821</v>
       </c>
       <c r="C569" s="2" t="s">
@@ -15210,8 +15234,8 @@
       <c r="A570" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B570" s="4" t="s">
-        <v>448</v>
+      <c r="B570" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>281</v>
@@ -15227,10 +15251,10 @@
     </row>
     <row r="571">
       <c r="A571" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="B571" s="4" t="s">
         <v>824</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>281</v>
@@ -15245,11 +15269,11 @@
       <c r="K571" s="4"/>
     </row>
     <row r="572">
-      <c r="A572" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="B572" s="3" t="s">
+      <c r="A572" s="4" t="s">
         <v>826</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>281</v>
@@ -15283,10 +15307,10 @@
       <c r="K573" s="4"/>
     </row>
     <row r="574">
-      <c r="A574" s="4" t="s">
+      <c r="A574" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="B574" s="4" t="s">
+      <c r="B574" s="3" t="s">
         <v>830</v>
       </c>
       <c r="C574" s="2" t="s">
@@ -15306,7 +15330,7 @@
         <v>831</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>372</v>
+        <v>832</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>281</v>
@@ -15322,10 +15346,10 @@
     </row>
     <row r="576">
       <c r="A576" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>638</v>
+        <v>834</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>281</v>
@@ -15340,11 +15364,11 @@
       <c r="K576" s="4"/>
     </row>
     <row r="577">
-      <c r="A577" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>834</v>
+      <c r="A577" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>281</v>
@@ -15360,10 +15384,10 @@
     </row>
     <row r="578">
       <c r="A578" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B578" s="1" t="s">
         <v>836</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>642</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>281</v>
@@ -15378,10 +15402,10 @@
       <c r="K578" s="4"/>
     </row>
     <row r="579">
-      <c r="A579" s="4" t="s">
+      <c r="A579" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="B579" s="4" t="s">
+      <c r="B579" s="1" t="s">
         <v>838</v>
       </c>
       <c r="C579" s="2" t="s">
@@ -15397,10 +15421,10 @@
       <c r="K579" s="4"/>
     </row>
     <row r="580">
-      <c r="A580" s="3" t="s">
+      <c r="A580" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="B580" s="3" t="s">
+      <c r="B580" s="1" t="s">
         <v>840</v>
       </c>
       <c r="C580" s="2" t="s">
@@ -15416,10 +15440,10 @@
       <c r="K580" s="4"/>
     </row>
     <row r="581">
-      <c r="A581" s="3" t="s">
+      <c r="A581" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B581" s="3" t="s">
+      <c r="B581" s="4" t="s">
         <v>842</v>
       </c>
       <c r="C581" s="2" t="s">
@@ -15477,7 +15501,7 @@
         <v>847</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>294</v>
+        <v>848</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>281</v>
@@ -15493,10 +15517,10 @@
     </row>
     <row r="585">
       <c r="A585" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>281</v>
@@ -15512,10 +15536,10 @@
     </row>
     <row r="586">
       <c r="A586" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>281</v>
@@ -15531,18 +15555,16 @@
     </row>
     <row r="587">
       <c r="A587" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D587" s="4"/>
-      <c r="E587" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E587" s="3"/>
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
       <c r="H587" s="4"/>
@@ -15551,11 +15573,11 @@
       <c r="K587" s="4"/>
     </row>
     <row r="588">
-      <c r="A588" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="B588" s="4" t="s">
-        <v>288</v>
+      <c r="A588" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>281</v>
@@ -15570,17 +15592,19 @@
       <c r="K588" s="4"/>
     </row>
     <row r="589">
-      <c r="A589" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>105</v>
+      <c r="A589" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D589" s="4"/>
-      <c r="E589" s="3"/>
+      <c r="E589" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
       <c r="H589" s="4"/>
@@ -15589,11 +15613,11 @@
       <c r="K589" s="4"/>
     </row>
     <row r="590">
-      <c r="A590" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>105</v>
+      <c r="A590" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>281</v>
@@ -15608,11 +15632,11 @@
       <c r="K590" s="4"/>
     </row>
     <row r="591">
-      <c r="A591" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="B591" s="4" t="s">
-        <v>105</v>
+      <c r="A591" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>859</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>281</v>
@@ -15628,10 +15652,10 @@
     </row>
     <row r="592">
       <c r="A592" s="4" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>281</v>
@@ -15647,9 +15671,9 @@
     </row>
     <row r="593">
       <c r="A593" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="B593" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B593" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C593" s="2" t="s">
@@ -15666,7 +15690,7 @@
     </row>
     <row r="594">
       <c r="A594" s="4" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>105</v>
@@ -15685,18 +15709,16 @@
     </row>
     <row r="595">
       <c r="A595" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="B595" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B595" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D595" s="4"/>
-      <c r="E595" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E595" s="3"/>
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
       <c r="H595" s="4"/>
@@ -15706,7 +15728,7 @@
     </row>
     <row r="596">
       <c r="A596" s="4" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B596" s="4" t="s">
         <v>105</v>
@@ -15725,9 +15747,9 @@
     </row>
     <row r="597">
       <c r="A597" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B597" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B597" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C597" s="2" t="s">
@@ -15744,9 +15766,9 @@
     </row>
     <row r="598">
       <c r="A598" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B598" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B598" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C598" s="2" t="s">
@@ -15763,7 +15785,7 @@
     </row>
     <row r="599">
       <c r="A599" s="4" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>105</v>
@@ -15772,7 +15794,9 @@
         <v>281</v>
       </c>
       <c r="D599" s="4"/>
-      <c r="E599" s="3"/>
+      <c r="E599" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
       <c r="H599" s="4"/>
@@ -15782,9 +15806,9 @@
     </row>
     <row r="600">
       <c r="A600" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="B600" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B600" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C600" s="2" t="s">
@@ -15800,16 +15824,16 @@
       <c r="K600" s="4"/>
     </row>
     <row r="601">
-      <c r="A601" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B601" s="1" t="s">
+      <c r="A601" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="B601" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D601" s="3"/>
+      <c r="D601" s="4"/>
       <c r="E601" s="3"/>
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
@@ -15820,10 +15844,10 @@
     </row>
     <row r="602">
       <c r="A602" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>362</v>
+        <v>869</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>281</v>
@@ -15839,10 +15863,10 @@
     </row>
     <row r="603">
       <c r="A603" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="B603" s="4" t="s">
-        <v>362</v>
+        <v>870</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>281</v>
@@ -15858,10 +15882,10 @@
     </row>
     <row r="604">
       <c r="A604" s="4" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>362</v>
+        <v>105</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>281</v>
@@ -15877,15 +15901,15 @@
     </row>
     <row r="605">
       <c r="A605" s="3" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>362</v>
+        <v>105</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D605" s="4"/>
+      <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
@@ -15896,10 +15920,10 @@
     </row>
     <row r="606">
       <c r="A606" s="4" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>281</v>
@@ -15915,10 +15939,10 @@
     </row>
     <row r="607">
       <c r="A607" s="4" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>281</v>
@@ -15934,10 +15958,10 @@
     </row>
     <row r="608">
       <c r="A608" s="4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>281</v>
@@ -15952,11 +15976,11 @@
       <c r="K608" s="4"/>
     </row>
     <row r="609">
-      <c r="A609" s="4" t="s">
-        <v>873</v>
+      <c r="A609" s="3" t="s">
+        <v>876</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>492</v>
+        <v>364</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>281</v>
@@ -15972,10 +15996,10 @@
     </row>
     <row r="610">
       <c r="A610" s="4" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>492</v>
+        <v>319</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>281</v>
@@ -15991,10 +16015,10 @@
     </row>
     <row r="611">
       <c r="A611" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="B611" s="1" t="s">
-        <v>492</v>
+        <v>878</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>281</v>
@@ -16010,10 +16034,10 @@
     </row>
     <row r="612">
       <c r="A612" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="B612" s="4" t="s">
-        <v>474</v>
+        <v>879</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>281</v>
@@ -16029,10 +16053,10 @@
     </row>
     <row r="613">
       <c r="A613" s="4" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>281</v>
@@ -16047,11 +16071,11 @@
       <c r="K613" s="4"/>
     </row>
     <row r="614">
-      <c r="A614" s="3" t="s">
-        <v>878</v>
+      <c r="A614" s="4" t="s">
+        <v>881</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>281</v>
@@ -16067,10 +16091,10 @@
     </row>
     <row r="615">
       <c r="A615" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="B615" s="4" t="s">
-        <v>350</v>
+        <v>882</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>281</v>
@@ -16085,11 +16109,11 @@
       <c r="K615" s="4"/>
     </row>
     <row r="616">
-      <c r="A616" s="3" t="s">
-        <v>880</v>
+      <c r="A616" s="4" t="s">
+        <v>883</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>281</v>
@@ -16103,14 +16127,14 @@
       <c r="J616" s="4"/>
       <c r="K616" s="4"/>
     </row>
-    <row r="617" ht="18.0" customHeight="true">
-      <c r="A617" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="B617" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="C617" s="8" t="s">
+    <row r="617">
+      <c r="A617" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C617" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D617" s="4"/>
@@ -16123,11 +16147,11 @@
       <c r="K617" s="4"/>
     </row>
     <row r="618">
-      <c r="A618" s="4" t="s">
-        <v>883</v>
+      <c r="A618" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>288</v>
+        <v>476</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>281</v>
@@ -16142,11 +16166,11 @@
       <c r="K618" s="4"/>
     </row>
     <row r="619">
-      <c r="A619" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="B619" s="1" t="s">
-        <v>288</v>
+      <c r="A619" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>281</v>
@@ -16161,11 +16185,11 @@
       <c r="K619" s="4"/>
     </row>
     <row r="620">
-      <c r="A620" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>368</v>
+      <c r="A620" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>281</v>
@@ -16179,14 +16203,14 @@
       <c r="J620" s="4"/>
       <c r="K620" s="4"/>
     </row>
-    <row r="621">
-      <c r="A621" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C621" s="2" t="s">
+    <row r="621" ht="18.0" customHeight="true">
+      <c r="A621" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="C621" s="8" t="s">
         <v>281</v>
       </c>
       <c r="D621" s="4"/>
@@ -16200,10 +16224,10 @@
     </row>
     <row r="622">
       <c r="A622" s="4" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>281</v>
@@ -16219,15 +16243,15 @@
     </row>
     <row r="623">
       <c r="A623" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D623" s="3"/>
+      <c r="D623" s="4"/>
       <c r="E623" s="3"/>
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
@@ -16238,10 +16262,10 @@
     </row>
     <row r="624">
       <c r="A624" s="4" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>281</v>
@@ -16256,11 +16280,11 @@
       <c r="K624" s="4"/>
     </row>
     <row r="625">
-      <c r="A625" s="4" t="s">
-        <v>890</v>
+      <c r="A625" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>281</v>
@@ -16276,10 +16300,10 @@
     </row>
     <row r="626">
       <c r="A626" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="B626" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>281</v>
@@ -16294,16 +16318,16 @@
       <c r="K626" s="4"/>
     </row>
     <row r="627">
-      <c r="A627" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="B627" s="4" t="s">
-        <v>894</v>
+      <c r="A627" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D627" s="4"/>
+      <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
@@ -16314,10 +16338,10 @@
     </row>
     <row r="628">
       <c r="A628" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="B628" s="4" t="s">
         <v>896</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>281</v>
@@ -16335,8 +16359,8 @@
       <c r="A629" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="B629" s="4" t="s">
-        <v>237</v>
+      <c r="B629" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>281</v>
@@ -16355,7 +16379,7 @@
         <v>898</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>281</v>
@@ -16371,10 +16395,10 @@
     </row>
     <row r="631">
       <c r="A631" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="B631" s="1" t="s">
         <v>900</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>901</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>281</v>
@@ -16390,10 +16414,10 @@
     </row>
     <row r="632">
       <c r="A632" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>281</v>
@@ -16409,10 +16433,10 @@
     </row>
     <row r="633">
       <c r="A633" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>526</v>
+        <v>904</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>281</v>
@@ -16428,10 +16452,10 @@
     </row>
     <row r="634">
       <c r="A634" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>120</v>
+        <v>905</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>765</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>281</v>
@@ -16447,10 +16471,10 @@
     </row>
     <row r="635">
       <c r="A635" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>906</v>
+        <v>542</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>281</v>
@@ -16469,7 +16493,7 @@
         <v>907</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>154</v>
+        <v>908</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>281</v>
@@ -16485,10 +16509,10 @@
     </row>
     <row r="637">
       <c r="A637" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="B637" s="4" t="s">
-        <v>793</v>
+        <v>909</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>281</v>
@@ -16504,10 +16528,10 @@
     </row>
     <row r="638">
       <c r="A638" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="B638" s="3" t="s">
         <v>910</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>281</v>
@@ -16545,7 +16569,7 @@
         <v>913</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>914</v>
+        <v>154</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>281</v>
@@ -16561,10 +16585,10 @@
     </row>
     <row r="641">
       <c r="A641" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>916</v>
+        <v>797</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>281</v>
@@ -16580,10 +16604,10 @@
     </row>
     <row r="642">
       <c r="A642" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>281</v>
@@ -16599,10 +16623,10 @@
     </row>
     <row r="643">
       <c r="A643" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="B643" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>281</v>
@@ -16618,10 +16642,10 @@
     </row>
     <row r="644">
       <c r="A644" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>281</v>
@@ -16637,10 +16661,10 @@
     </row>
     <row r="645">
       <c r="A645" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>385</v>
+        <v>922</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>281</v>
@@ -16656,10 +16680,10 @@
     </row>
     <row r="646">
       <c r="A646" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B646" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="B646" s="4" t="s">
-        <v>925</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>281</v>
@@ -16675,10 +16699,10 @@
     </row>
     <row r="647">
       <c r="A647" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B647" s="4" t="s">
         <v>926</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>927</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>281</v>
@@ -16694,10 +16718,10 @@
     </row>
     <row r="648">
       <c r="A648" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B648" s="4" t="s">
         <v>928</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>281</v>
@@ -16713,10 +16737,10 @@
     </row>
     <row r="649">
       <c r="A649" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>281</v>
@@ -16732,10 +16756,10 @@
     </row>
     <row r="650">
       <c r="A650" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B650" s="4" t="s">
         <v>931</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>281</v>
@@ -16791,8 +16815,8 @@
       <c r="A653" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="B653" s="1" t="s">
-        <v>661</v>
+      <c r="B653" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>281</v>
@@ -16810,8 +16834,8 @@
       <c r="A654" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="B654" s="4" t="s">
-        <v>328</v>
+      <c r="B654" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>281</v>
@@ -16830,7 +16854,7 @@
         <v>938</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>294</v>
+        <v>939</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>281</v>
@@ -16846,10 +16870,10 @@
     </row>
     <row r="656">
       <c r="A656" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B656" s="4" t="s">
-        <v>345</v>
+        <v>940</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>281</v>
@@ -16865,10 +16889,10 @@
     </row>
     <row r="657">
       <c r="A657" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="B657" s="4" t="s">
-        <v>817</v>
+        <v>942</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>281</v>
@@ -16884,10 +16908,10 @@
     </row>
     <row r="658">
       <c r="A658" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>896</v>
+        <v>330</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>281</v>
@@ -16902,16 +16926,16 @@
       <c r="K658" s="4"/>
     </row>
     <row r="659">
-      <c r="A659" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="B659" s="3" t="s">
-        <v>943</v>
+      <c r="A659" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D659" s="3"/>
+      <c r="D659" s="4"/>
       <c r="E659" s="3"/>
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
@@ -16920,14 +16944,14 @@
       <c r="J659" s="4"/>
       <c r="K659" s="4"/>
     </row>
-    <row r="660" ht="18.0" customHeight="true">
-      <c r="A660" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="B660" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C660" s="8" t="s">
+    <row r="660">
+      <c r="A660" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C660" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D660" s="4"/>
@@ -16939,14 +16963,14 @@
       <c r="J660" s="4"/>
       <c r="K660" s="4"/>
     </row>
-    <row r="661" ht="18.0" customHeight="true">
-      <c r="A661" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="B661" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C661" s="8" t="s">
+    <row r="661">
+      <c r="A661" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C661" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D661" s="4"/>
@@ -16958,20 +16982,18 @@
       <c r="J661" s="4"/>
       <c r="K661" s="4"/>
     </row>
-    <row r="662" ht="18.0" customHeight="true">
-      <c r="A662" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="B662" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="C662" s="8" t="s">
+    <row r="662">
+      <c r="A662" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C662" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D662" s="4"/>
-      <c r="E662" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E662" s="3"/>
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
@@ -16979,17 +17001,17 @@
       <c r="J662" s="4"/>
       <c r="K662" s="4"/>
     </row>
-    <row r="663" ht="18.0" customHeight="true">
-      <c r="A663" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="B663" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C663" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D663" s="4"/>
+    <row r="663">
+      <c r="A663" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
@@ -16998,14 +17020,14 @@
       <c r="J663" s="4"/>
       <c r="K663" s="4"/>
     </row>
-    <row r="664">
-      <c r="A664" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="B664" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="C664" s="2" t="s">
+    <row r="664" ht="18.0" customHeight="true">
+      <c r="A664" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="B664" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C664" s="8" t="s">
         <v>281</v>
       </c>
       <c r="D664" s="4"/>
@@ -17017,14 +17039,14 @@
       <c r="J664" s="4"/>
       <c r="K664" s="4"/>
     </row>
-    <row r="665">
-      <c r="A665" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="B665" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C665" s="2" t="s">
+    <row r="665" ht="18.0" customHeight="true">
+      <c r="A665" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="B665" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C665" s="8" t="s">
         <v>281</v>
       </c>
       <c r="D665" s="4"/>
@@ -17036,18 +17058,20 @@
       <c r="J665" s="4"/>
       <c r="K665" s="4"/>
     </row>
-    <row r="666">
-      <c r="A666" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="B666" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C666" s="2" t="s">
+    <row r="666" ht="18.0" customHeight="true">
+      <c r="A666" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="B666" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="C666" s="8" t="s">
         <v>281</v>
       </c>
       <c r="D666" s="4"/>
-      <c r="E666" s="3"/>
+      <c r="E666" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
@@ -17055,14 +17079,14 @@
       <c r="J666" s="4"/>
       <c r="K666" s="4"/>
     </row>
-    <row r="667">
-      <c r="A667" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="B667" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C667" s="2" t="s">
+    <row r="667" ht="18.0" customHeight="true">
+      <c r="A667" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="B667" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C667" s="8" t="s">
         <v>281</v>
       </c>
       <c r="D667" s="4"/>
@@ -17076,10 +17100,10 @@
     </row>
     <row r="668">
       <c r="A668" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>105</v>
+        <v>621</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>281</v>
@@ -17095,16 +17119,18 @@
     </row>
     <row r="669">
       <c r="A669" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="B669" s="4" t="s">
-        <v>105</v>
+        <v>955</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>956</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D669" s="4"/>
-      <c r="E669" s="3"/>
+      <c r="E669" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
@@ -17114,9 +17140,9 @@
     </row>
     <row r="670">
       <c r="A670" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="B670" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B670" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C670" s="2" t="s">
@@ -17132,8 +17158,8 @@
       <c r="K670" s="4"/>
     </row>
     <row r="671">
-      <c r="A671" s="7" t="s">
-        <v>955</v>
+      <c r="A671" s="4" t="s">
+        <v>958</v>
       </c>
       <c r="B671" s="4" t="s">
         <v>105</v>
@@ -17152,10 +17178,10 @@
     </row>
     <row r="672">
       <c r="A672" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>355</v>
+        <v>959</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>281</v>
@@ -17171,18 +17197,16 @@
     </row>
     <row r="673">
       <c r="A673" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="B673" s="1" t="s">
-        <v>355</v>
+        <v>960</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D673" s="4"/>
-      <c r="E673" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E673" s="3"/>
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
@@ -17191,11 +17215,11 @@
       <c r="K673" s="4"/>
     </row>
     <row r="674">
-      <c r="A674" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B674" s="1" t="s">
-        <v>60</v>
+      <c r="A674" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>281</v>
@@ -17210,19 +17234,17 @@
       <c r="K674" s="4"/>
     </row>
     <row r="675">
-      <c r="A675" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="B675" s="1" t="s">
-        <v>960</v>
+      <c r="A675" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D675" s="4"/>
-      <c r="E675" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E675" s="3"/>
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
@@ -17231,11 +17253,11 @@
       <c r="K675" s="4"/>
     </row>
     <row r="676">
-      <c r="A676" s="4" t="s">
-        <v>961</v>
+      <c r="A676" s="7" t="s">
+        <v>963</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>281</v>
@@ -17250,11 +17272,11 @@
       <c r="K676" s="4"/>
     </row>
     <row r="677">
-      <c r="A677" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="B677" s="3" t="s">
-        <v>368</v>
+      <c r="A677" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>281</v>
@@ -17270,16 +17292,18 @@
     </row>
     <row r="678">
       <c r="A678" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="B678" s="4" t="s">
-        <v>440</v>
+        <v>965</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D678" s="4"/>
-      <c r="E678" s="3"/>
+      <c r="E678" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
@@ -17289,10 +17313,10 @@
     </row>
     <row r="679">
       <c r="A679" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="B679" s="4" t="s">
-        <v>902</v>
+        <v>966</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>281</v>
@@ -17307,17 +17331,19 @@
       <c r="K679" s="4"/>
     </row>
     <row r="680">
-      <c r="A680" s="4" t="s">
-        <v>965</v>
+      <c r="A680" s="3" t="s">
+        <v>967</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D680" s="4"/>
-      <c r="E680" s="3"/>
+      <c r="E680" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
       <c r="H680" s="4"/>
@@ -17327,10 +17353,10 @@
     </row>
     <row r="681">
       <c r="A681" s="4" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>968</v>
+        <v>370</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>281</v>
@@ -17345,11 +17371,11 @@
       <c r="K681" s="4"/>
     </row>
     <row r="682">
-      <c r="A682" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="B682" s="1" t="s">
-        <v>520</v>
+      <c r="A682" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>281</v>
@@ -17363,12 +17389,12 @@
       <c r="J682" s="4"/>
       <c r="K682" s="4"/>
     </row>
-    <row r="683" ht="18.0" customHeight="true">
+    <row r="683">
       <c r="A683" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="B683" s="1" t="s">
         <v>971</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>281</v>
@@ -17386,8 +17412,8 @@
       <c r="A684" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="B684" s="1" t="s">
-        <v>497</v>
+      <c r="B684" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>281</v>
@@ -17406,7 +17432,7 @@
         <v>973</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>237</v>
+        <v>974</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>281</v>
@@ -17422,10 +17448,10 @@
     </row>
     <row r="686">
       <c r="A686" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="B686" s="1" t="s">
-        <v>372</v>
+        <v>975</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>976</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>281</v>
@@ -17441,10 +17467,10 @@
     </row>
     <row r="687">
       <c r="A687" s="4" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>54</v>
+        <v>522</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>281</v>
@@ -17458,12 +17484,12 @@
       <c r="J687" s="4"/>
       <c r="K687" s="4"/>
     </row>
-    <row r="688">
-      <c r="A688" s="3" t="s">
-        <v>976</v>
+    <row r="688" ht="18.0" customHeight="true">
+      <c r="A688" s="4" t="s">
+        <v>978</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>402</v>
+        <v>979</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>281</v>
@@ -17479,10 +17505,10 @@
     </row>
     <row r="689">
       <c r="A689" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="B689" s="4" t="s">
-        <v>486</v>
+        <v>980</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>281</v>
@@ -17498,10 +17524,10 @@
     </row>
     <row r="690">
       <c r="A690" s="4" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>807</v>
+        <v>237</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>281</v>
@@ -17517,18 +17543,16 @@
     </row>
     <row r="691">
       <c r="A691" s="4" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>927</v>
+        <v>374</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D691" s="4"/>
-      <c r="E691" s="3" t="n">
-        <v>100.0</v>
-      </c>
+      <c r="E691" s="3"/>
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
@@ -17537,11 +17561,11 @@
       <c r="K691" s="4"/>
     </row>
     <row r="692">
-      <c r="A692" s="3" t="s">
-        <v>980</v>
+      <c r="A692" s="4" t="s">
+        <v>983</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>409</v>
+        <v>54</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>281</v>
@@ -17557,10 +17581,10 @@
     </row>
     <row r="693">
       <c r="A693" s="3" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>722</v>
+        <v>404</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>281</v>
@@ -17575,11 +17599,11 @@
       <c r="K693" s="4"/>
     </row>
     <row r="694">
-      <c r="A694" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="B694" s="1" t="s">
-        <v>375</v>
+      <c r="A694" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>281</v>
@@ -17594,11 +17618,11 @@
       <c r="K694" s="4"/>
     </row>
     <row r="695">
-      <c r="A695" s="3" t="s">
-        <v>983</v>
+      <c r="A695" s="4" t="s">
+        <v>986</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>281</v>
@@ -17614,16 +17638,18 @@
     </row>
     <row r="696">
       <c r="A696" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="B696" s="4" t="s">
-        <v>509</v>
+        <v>987</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D696" s="4"/>
-      <c r="E696" s="3"/>
+      <c r="E696" s="3" t="n">
+        <v>100.0</v>
+      </c>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
       <c r="H696" s="4"/>
@@ -17632,11 +17658,11 @@
       <c r="K696" s="4"/>
     </row>
     <row r="697">
-      <c r="A697" s="4" t="s">
-        <v>985</v>
+      <c r="A697" s="3" t="s">
+        <v>988</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>105</v>
+        <v>411</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>281</v>
@@ -17651,19 +17677,17 @@
       <c r="K697" s="4"/>
     </row>
     <row r="698">
-      <c r="A698" s="4" t="s">
-        <v>986</v>
+      <c r="A698" s="3" t="s">
+        <v>989</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>105</v>
+        <v>726</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D698" s="4"/>
-      <c r="E698" s="3" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E698" s="3"/>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
       <c r="H698" s="4"/>
@@ -17672,11 +17696,11 @@
       <c r="K698" s="4"/>
     </row>
     <row r="699">
-      <c r="A699" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="B699" s="4" t="s">
-        <v>988</v>
+      <c r="A699" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>281</v>
@@ -17691,11 +17715,11 @@
       <c r="K699" s="4"/>
     </row>
     <row r="700">
-      <c r="A700" s="4" t="s">
-        <v>989</v>
+      <c r="A700" s="3" t="s">
+        <v>991</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>281</v>
@@ -17711,10 +17735,10 @@
     </row>
     <row r="701">
       <c r="A701" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="B701" s="1" t="s">
-        <v>474</v>
+        <v>992</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>281</v>
@@ -17730,10 +17754,10 @@
     </row>
     <row r="702">
       <c r="A702" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="B702" s="4" t="s">
-        <v>968</v>
+        <v>993</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>281</v>
@@ -17749,16 +17773,18 @@
     </row>
     <row r="703">
       <c r="A703" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="B703" s="4" t="s">
-        <v>292</v>
+        <v>994</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D703" s="4"/>
-      <c r="E703" s="3"/>
+      <c r="E703" s="3" t="n">
+        <v>30.0</v>
+      </c>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
       <c r="H703" s="4"/>
@@ -17768,10 +17794,10 @@
     </row>
     <row r="704">
       <c r="A704" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="B704" s="1" t="s">
-        <v>317</v>
+        <v>995</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>996</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>281</v>
@@ -17787,10 +17813,10 @@
     </row>
     <row r="705">
       <c r="A705" s="4" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>509</v>
+        <v>776</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>281</v>
@@ -17806,10 +17832,10 @@
     </row>
     <row r="706">
       <c r="A706" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="B706" s="4" t="s">
-        <v>362</v>
+        <v>998</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>281</v>
@@ -17825,10 +17851,10 @@
     </row>
     <row r="707">
       <c r="A707" s="4" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>281</v>
@@ -17844,10 +17870,10 @@
     </row>
     <row r="708">
       <c r="A708" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="B708" s="3" t="s">
-        <v>480</v>
+        <v>1000</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>281</v>
@@ -17863,10 +17889,10 @@
     </row>
     <row r="709">
       <c r="A709" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="B709" s="4" t="s">
-        <v>39</v>
+        <v>1001</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>281</v>
@@ -17882,10 +17908,10 @@
     </row>
     <row r="710">
       <c r="A710" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B710" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>281</v>
@@ -17901,15 +17927,15 @@
     </row>
     <row r="711">
       <c r="A711" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B711" s="3" t="s">
-        <v>775</v>
+        <v>1003</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D711" s="3"/>
+      <c r="D711" s="4"/>
       <c r="E711" s="3"/>
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
@@ -17920,15 +17946,15 @@
     </row>
     <row r="712">
       <c r="A712" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B712" s="3" t="s">
-        <v>368</v>
+        <v>1004</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>1005</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D712" s="3"/>
+      <c r="D712" s="4"/>
       <c r="E712" s="3"/>
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
@@ -17939,15 +17965,15 @@
     </row>
     <row r="713">
       <c r="A713" s="4" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>394</v>
+        <v>482</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D713" s="3"/>
+      <c r="D713" s="4"/>
       <c r="E713" s="3"/>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
@@ -17957,16 +17983,16 @@
       <c r="K713" s="4"/>
     </row>
     <row r="714">
-      <c r="A714" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B714" s="3" t="s">
-        <v>1006</v>
+      <c r="A714" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D714" s="3"/>
+      <c r="D714" s="4"/>
       <c r="E714" s="3"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
@@ -17976,16 +18002,16 @@
       <c r="K714" s="4"/>
     </row>
     <row r="715">
-      <c r="A715" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B715" s="3" t="s">
+      <c r="A715" s="4" t="s">
         <v>1008</v>
       </c>
+      <c r="B715" s="4" t="s">
+        <v>1009</v>
+      </c>
       <c r="C715" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D715" s="3"/>
+      <c r="D715" s="4"/>
       <c r="E715" s="3"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
@@ -17996,15 +18022,15 @@
     </row>
     <row r="716">
       <c r="A716" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B716" s="4" t="s">
-        <v>105</v>
+        <v>1010</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D716" s="4"/>
+      <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
@@ -18015,15 +18041,15 @@
     </row>
     <row r="717">
       <c r="A717" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B717" s="4" t="s">
-        <v>105</v>
+        <v>1011</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D717" s="4"/>
+      <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
@@ -18034,15 +18060,15 @@
     </row>
     <row r="718">
       <c r="A718" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B718" s="4" t="s">
-        <v>902</v>
+        <v>1012</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D718" s="4"/>
+      <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
@@ -18052,16 +18078,16 @@
       <c r="K718" s="4"/>
     </row>
     <row r="719">
-      <c r="A719" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B719" s="4" t="s">
-        <v>466</v>
+      <c r="A719" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1014</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D719" s="4"/>
+      <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
@@ -18071,16 +18097,16 @@
       <c r="K719" s="4"/>
     </row>
     <row r="720">
-      <c r="A720" s="4" t="s">
-        <v>1013</v>
+      <c r="A720" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>31</v>
+        <v>1016</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D720" s="4"/>
+      <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
@@ -18091,10 +18117,10 @@
     </row>
     <row r="721">
       <c r="A721" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>362</v>
+        <v>1017</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>281</v>
@@ -18110,10 +18136,10 @@
     </row>
     <row r="722">
       <c r="A722" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B722" s="1" t="s">
-        <v>807</v>
+        <v>1018</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>281</v>
@@ -18129,10 +18155,10 @@
     </row>
     <row r="723">
       <c r="A723" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B723" s="5" t="s">
-        <v>431</v>
+        <v>1019</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>281</v>
@@ -18148,10 +18174,10 @@
     </row>
     <row r="724">
       <c r="A724" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B724" s="3" t="s">
-        <v>1018</v>
+        <v>1020</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>281</v>
@@ -18167,10 +18193,10 @@
     </row>
     <row r="725">
       <c r="A725" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B725" s="4" t="s">
-        <v>372</v>
+        <v>1021</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>281</v>
@@ -18186,10 +18212,10 @@
     </row>
     <row r="726">
       <c r="A726" s="4" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>1021</v>
+        <v>364</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>281</v>
@@ -18205,10 +18231,10 @@
     </row>
     <row r="727">
       <c r="A727" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B727" s="3" t="s">
         <v>1023</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>281</v>
@@ -18226,8 +18252,8 @@
       <c r="A728" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="B728" s="3" t="s">
-        <v>1025</v>
+      <c r="B728" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>281</v>
@@ -18243,10 +18269,10 @@
     </row>
     <row r="729">
       <c r="A729" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B729" s="3" t="s">
         <v>1026</v>
-      </c>
-      <c r="B729" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>281</v>
@@ -18264,8 +18290,8 @@
       <c r="A730" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="B730" s="1" t="s">
-        <v>661</v>
+      <c r="B730" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>281</v>
@@ -18289,7 +18315,7 @@
       <c r="C731" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D731" s="3"/>
+      <c r="D731" s="4"/>
       <c r="E731" s="3"/>
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
@@ -18299,16 +18325,16 @@
       <c r="K731" s="4"/>
     </row>
     <row r="732">
-      <c r="A732" s="3" t="s">
+      <c r="A732" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="B732" s="1" t="s">
+      <c r="B732" s="3" t="s">
         <v>1031</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D732" s="3"/>
+      <c r="D732" s="4"/>
       <c r="E732" s="3"/>
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
@@ -18321,13 +18347,13 @@
       <c r="A733" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B733" s="1" t="s">
-        <v>339</v>
+      <c r="B733" s="3" t="s">
+        <v>1033</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D733" s="3"/>
+      <c r="D733" s="4"/>
       <c r="E733" s="3"/>
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
@@ -18338,15 +18364,15 @@
     </row>
     <row r="734">
       <c r="A734" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B734" s="1" t="s">
-        <v>402</v>
+        <v>1034</v>
+      </c>
+      <c r="B734" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D734" s="3"/>
+      <c r="D734" s="4"/>
       <c r="E734" s="3"/>
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
@@ -18357,10 +18383,10 @@
     </row>
     <row r="735">
       <c r="A735" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B735" s="4" t="s">
         <v>1035</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>281</v>
@@ -18378,13 +18404,13 @@
       <c r="A736" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="B736" s="4" t="s">
+      <c r="B736" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D736" s="4"/>
+      <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
@@ -18394,16 +18420,16 @@
       <c r="K736" s="4"/>
     </row>
     <row r="737">
-      <c r="A737" s="4" t="s">
+      <c r="A737" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="B737" s="4" t="s">
+      <c r="B737" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D737" s="4"/>
+      <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
@@ -18416,13 +18442,13 @@
       <c r="A738" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="B738" s="3" t="s">
-        <v>476</v>
+      <c r="B738" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D738" s="4"/>
+      <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
@@ -18435,13 +18461,13 @@
       <c r="A739" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="B739" s="4" t="s">
-        <v>440</v>
+      <c r="B739" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D739" s="4"/>
+      <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
@@ -18454,7 +18480,7 @@
       <c r="A740" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="B740" s="3" t="s">
+      <c r="B740" s="4" t="s">
         <v>1043</v>
       </c>
       <c r="C740" s="2" t="s">
@@ -18474,7 +18500,7 @@
         <v>1044</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>288</v>
+        <v>1045</v>
       </c>
       <c r="C741" s="2" t="s">
         <v>281</v>
@@ -18490,10 +18516,10 @@
     </row>
     <row r="742">
       <c r="A742" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>120</v>
+        <v>1047</v>
       </c>
       <c r="C742" s="2" t="s">
         <v>281</v>
@@ -18509,10 +18535,10 @@
     </row>
     <row r="743">
       <c r="A743" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B743" s="4" t="s">
-        <v>1047</v>
+        <v>1048</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="C743" s="2" t="s">
         <v>281</v>
@@ -18528,10 +18554,10 @@
     </row>
     <row r="744">
       <c r="A744" s="4" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>281</v>
@@ -18547,10 +18573,10 @@
     </row>
     <row r="745">
       <c r="A745" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B745" s="9" t="s">
         <v>1050</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>1051</v>
       </c>
       <c r="C745" s="2" t="s">
         <v>281</v>
@@ -18566,15 +18592,15 @@
     </row>
     <row r="746">
       <c r="A746" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B746" s="9" t="s">
-        <v>653</v>
+        <v>1052</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="C746" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D746" s="3"/>
+      <c r="D746" s="4"/>
       <c r="E746" s="3"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
@@ -18585,15 +18611,15 @@
     </row>
     <row r="747">
       <c r="A747" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B747" s="9" t="s">
-        <v>492</v>
+        <v>1053</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D747" s="3"/>
+      <c r="D747" s="4"/>
       <c r="E747" s="3"/>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
@@ -18604,13 +18630,13 @@
     </row>
     <row r="748">
       <c r="A748" s="4" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>1055</v>
+        <v>281</v>
       </c>
       <c r="D748" s="4"/>
       <c r="E748" s="3"/>
@@ -18626,10 +18652,10 @@
         <v>1056</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>1054</v>
+        <v>494</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>1055</v>
+        <v>281</v>
       </c>
       <c r="D749" s="4"/>
       <c r="E749" s="3"/>
@@ -18644,11 +18670,11 @@
       <c r="A750" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="B750" s="4" t="s">
+      <c r="B750" s="9" t="s">
         <v>1058</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>1055</v>
+        <v>281</v>
       </c>
       <c r="D750" s="4"/>
       <c r="E750" s="3"/>
@@ -18663,13 +18689,13 @@
       <c r="A751" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="B751" s="4" t="s">
-        <v>476</v>
+      <c r="B751" s="9" t="s">
+        <v>657</v>
       </c>
       <c r="C751" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D751" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
@@ -18682,13 +18708,13 @@
       <c r="A752" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="B752" s="4" t="s">
-        <v>1061</v>
+      <c r="B752" s="9" t="s">
+        <v>494</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D752" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
@@ -18698,14 +18724,14 @@
       <c r="K752" s="4"/>
     </row>
     <row r="753">
-      <c r="A753" s="3" t="s">
+      <c r="A753" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B753" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="B753" s="3" t="s">
+      <c r="C753" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="C753" s="2" t="s">
-        <v>1055</v>
       </c>
       <c r="D753" s="4"/>
       <c r="E753" s="3"/>
@@ -18717,14 +18743,14 @@
       <c r="K753" s="4"/>
     </row>
     <row r="754">
-      <c r="A754" s="3" t="s">
+      <c r="A754" s="4" t="s">
         <v>1064</v>
       </c>
-      <c r="B754" s="3" t="s">
-        <v>1065</v>
+      <c r="B754" s="4" t="s">
+        <v>1062</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D754" s="4"/>
       <c r="E754" s="3"/>
@@ -18737,13 +18763,13 @@
     </row>
     <row r="755">
       <c r="A755" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B755" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="B755" s="4" t="s">
-        <v>1067</v>
-      </c>
       <c r="C755" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D755" s="4"/>
       <c r="E755" s="3"/>
@@ -18756,13 +18782,13 @@
     </row>
     <row r="756">
       <c r="A756" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1067</v>
+        <v>478</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D756" s="4"/>
       <c r="E756" s="3"/>
@@ -18775,13 +18801,13 @@
     </row>
     <row r="757">
       <c r="A757" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B757" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="B757" s="4" t="s">
-        <v>1054</v>
-      </c>
       <c r="C757" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D757" s="4"/>
       <c r="E757" s="3"/>
@@ -18793,14 +18819,14 @@
       <c r="K757" s="4"/>
     </row>
     <row r="758">
-      <c r="A758" s="4" t="s">
+      <c r="A758" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="B758" s="5" t="s">
+      <c r="B758" s="3" t="s">
         <v>1071</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D758" s="4"/>
       <c r="E758" s="3"/>
@@ -18812,14 +18838,14 @@
       <c r="K758" s="4"/>
     </row>
     <row r="759">
-      <c r="A759" s="4" t="s">
+      <c r="A759" s="3" t="s">
         <v>1072</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>1073</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D759" s="4"/>
       <c r="E759" s="3"/>
@@ -18838,7 +18864,7 @@
         <v>1075</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D760" s="4"/>
       <c r="E760" s="3"/>
@@ -18850,14 +18876,14 @@
       <c r="K760" s="4"/>
     </row>
     <row r="761">
-      <c r="A761" s="3" t="s">
+      <c r="A761" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="B761" s="3" t="s">
-        <v>105</v>
+      <c r="B761" s="4" t="s">
+        <v>1075</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D761" s="4"/>
       <c r="E761" s="3"/>
@@ -18869,14 +18895,14 @@
       <c r="K761" s="4"/>
     </row>
     <row r="762">
-      <c r="A762" s="3" t="s">
+      <c r="A762" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="B762" s="3" t="s">
-        <v>476</v>
+      <c r="B762" s="4" t="s">
+        <v>1062</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D762" s="4"/>
       <c r="E762" s="3"/>
@@ -18888,14 +18914,14 @@
       <c r="K762" s="4"/>
     </row>
     <row r="763">
-      <c r="A763" s="3" t="s">
+      <c r="A763" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="B763" s="3" t="s">
+      <c r="B763" s="5" t="s">
         <v>1079</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D763" s="4"/>
       <c r="E763" s="3"/>
@@ -18910,11 +18936,11 @@
       <c r="A764" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="B764" s="4" t="s">
+      <c r="B764" s="3" t="s">
         <v>1081</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D764" s="4"/>
       <c r="E764" s="3"/>
@@ -18926,14 +18952,14 @@
       <c r="K764" s="4"/>
     </row>
     <row r="765">
-      <c r="A765" s="3" t="s">
+      <c r="A765" s="4" t="s">
         <v>1082</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D765" s="4"/>
       <c r="E765" s="3"/>
@@ -18946,13 +18972,13 @@
     </row>
     <row r="766">
       <c r="A766" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>476</v>
+        <v>105</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D766" s="4"/>
       <c r="E766" s="3"/>
@@ -18964,14 +18990,14 @@
       <c r="K766" s="4"/>
     </row>
     <row r="767">
-      <c r="A767" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B767" s="4" t="s">
-        <v>474</v>
+      <c r="A767" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="C767" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D767" s="4"/>
       <c r="E767" s="3"/>
@@ -18984,13 +19010,13 @@
     </row>
     <row r="768">
       <c r="A768" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>761</v>
+        <v>1087</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D768" s="4"/>
       <c r="E768" s="3"/>
@@ -19002,14 +19028,14 @@
       <c r="K768" s="4"/>
     </row>
     <row r="769">
-      <c r="A769" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B769" s="3" t="s">
-        <v>476</v>
+      <c r="A769" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>1089</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D769" s="4"/>
       <c r="E769" s="3"/>
@@ -19021,14 +19047,14 @@
       <c r="K769" s="4"/>
     </row>
     <row r="770">
-      <c r="A770" s="4" t="s">
-        <v>1087</v>
+      <c r="A770" s="3" t="s">
+        <v>1090</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D770" s="4"/>
       <c r="E770" s="3"/>
@@ -19040,14 +19066,14 @@
       <c r="K770" s="4"/>
     </row>
     <row r="771">
-      <c r="A771" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B771" s="4" t="s">
-        <v>997</v>
+      <c r="A771" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D771" s="4"/>
       <c r="E771" s="3"/>
@@ -19059,16 +19085,16 @@
       <c r="K771" s="4"/>
     </row>
     <row r="772">
-      <c r="A772" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B772" s="3" t="s">
-        <v>1091</v>
+      <c r="A772" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D772" s="3"/>
+        <v>1063</v>
+      </c>
+      <c r="D772" s="4"/>
       <c r="E772" s="3"/>
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
@@ -19079,15 +19105,15 @@
     </row>
     <row r="773">
       <c r="A773" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>1093</v>
+        <v>765</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D773" s="3"/>
+        <v>1063</v>
+      </c>
+      <c r="D773" s="4"/>
       <c r="E773" s="3"/>
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
@@ -19101,12 +19127,12 @@
         <v>1094</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>1095</v>
+        <v>478</v>
       </c>
       <c r="C774" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D774" s="3"/>
+        <v>1063</v>
+      </c>
+      <c r="D774" s="4"/>
       <c r="E774" s="3"/>
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
@@ -19116,16 +19142,16 @@
       <c r="K774" s="4"/>
     </row>
     <row r="775">
-      <c r="A775" s="3" t="s">
+      <c r="A775" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B775" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="B775" s="3" t="s">
-        <v>1097</v>
-      </c>
       <c r="C775" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D775" s="3"/>
+        <v>1063</v>
+      </c>
+      <c r="D775" s="4"/>
       <c r="E775" s="3"/>
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
@@ -19136,13 +19162,13 @@
     </row>
     <row r="776">
       <c r="A776" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>1054</v>
+        <v>1005</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D776" s="4"/>
       <c r="E776" s="3"/>
@@ -19154,16 +19180,16 @@
       <c r="K776" s="4"/>
     </row>
     <row r="777">
-      <c r="A777" s="4" t="s">
+      <c r="A777" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B777" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="B777" s="4" t="s">
-        <v>1067</v>
-      </c>
       <c r="C777" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D777" s="4"/>
+        <v>1063</v>
+      </c>
+      <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
@@ -19173,16 +19199,16 @@
       <c r="K777" s="4"/>
     </row>
     <row r="778">
-      <c r="A778" s="4" t="s">
+      <c r="A778" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="B778" s="1" t="s">
-        <v>761</v>
+      <c r="B778" s="3" t="s">
+        <v>1101</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D778" s="4"/>
+        <v>1063</v>
+      </c>
+      <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
@@ -19192,16 +19218,16 @@
       <c r="K778" s="4"/>
     </row>
     <row r="779">
-      <c r="A779" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B779" s="4" t="s">
-        <v>1067</v>
+      <c r="A779" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1103</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D779" s="4"/>
+        <v>1063</v>
+      </c>
+      <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
@@ -19212,15 +19238,15 @@
     </row>
     <row r="780">
       <c r="A780" s="3" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D780" s="4"/>
+        <v>1063</v>
+      </c>
+      <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
@@ -19230,14 +19256,14 @@
       <c r="K780" s="4"/>
     </row>
     <row r="781">
-      <c r="A781" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B781" s="3" t="s">
-        <v>1095</v>
+      <c r="A781" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>1062</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D781" s="4"/>
       <c r="E781" s="3"/>
@@ -19249,14 +19275,14 @@
       <c r="K781" s="4"/>
     </row>
     <row r="782">
-      <c r="A782" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B782" s="3" t="s">
-        <v>431</v>
+      <c r="A782" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>1075</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D782" s="4"/>
       <c r="E782" s="3"/>
@@ -19268,14 +19294,14 @@
       <c r="K782" s="4"/>
     </row>
     <row r="783">
-      <c r="A783" s="3" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="B783" s="3" t="s">
-        <v>1105</v>
+      <c r="A783" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="C783" s="2" t="s">
-        <v>1106</v>
+        <v>1063</v>
       </c>
       <c r="D783" s="4"/>
       <c r="E783" s="3"/>
@@ -19288,13 +19314,13 @@
     </row>
     <row r="784">
       <c r="A784" s="4" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1108</v>
+        <v>1075</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>1106</v>
+        <v>1063</v>
       </c>
       <c r="D784" s="4"/>
       <c r="E784" s="3"/>
@@ -19306,14 +19332,14 @@
       <c r="K784" s="4"/>
     </row>
     <row r="785">
-      <c r="A785" s="4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B785" s="4" t="s">
+      <c r="A785" s="3" t="s">
         <v>1110</v>
       </c>
+      <c r="B785" s="3" t="s">
+        <v>1101</v>
+      </c>
       <c r="C785" s="2" t="s">
-        <v>1106</v>
+        <v>1063</v>
       </c>
       <c r="D785" s="4"/>
       <c r="E785" s="3"/>
@@ -19325,14 +19351,14 @@
       <c r="K785" s="4"/>
     </row>
     <row r="786">
-      <c r="A786" s="4" t="s">
+      <c r="A786" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="B786" s="4" t="s">
-        <v>1112</v>
+      <c r="B786" s="3" t="s">
+        <v>1103</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>1106</v>
+        <v>1063</v>
       </c>
       <c r="D786" s="4"/>
       <c r="E786" s="3"/>
@@ -19344,14 +19370,14 @@
       <c r="K786" s="4"/>
     </row>
     <row r="787">
-      <c r="A787" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B787" s="4" t="s">
-        <v>1114</v>
+      <c r="A787" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>1106</v>
+        <v>1063</v>
       </c>
       <c r="D787" s="4"/>
       <c r="E787" s="3"/>
@@ -19363,14 +19389,14 @@
       <c r="K787" s="4"/>
     </row>
     <row r="788">
-      <c r="A788" s="3" t="s">
-        <v>1115</v>
+      <c r="A788" s="3" t="n">
+        <v>8.8</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D788" s="4"/>
       <c r="E788" s="3"/>
@@ -19383,13 +19409,13 @@
     </row>
     <row r="789">
       <c r="A789" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D789" s="4"/>
       <c r="E789" s="3"/>
@@ -19401,14 +19427,14 @@
       <c r="K789" s="4"/>
     </row>
     <row r="790">
-      <c r="A790" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B790" s="1" t="s">
-        <v>1120</v>
+      <c r="A790" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>1118</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D790" s="4"/>
       <c r="E790" s="3"/>
@@ -19420,14 +19446,14 @@
       <c r="K790" s="4"/>
     </row>
     <row r="791">
-      <c r="A791" s="3" t="s">
-        <v>1121</v>
+      <c r="A791" s="4" t="s">
+        <v>1119</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D791" s="4"/>
       <c r="E791" s="3"/>
@@ -19440,13 +19466,13 @@
     </row>
     <row r="792">
       <c r="A792" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B792" s="4" t="s">
         <v>1122</v>
       </c>
-      <c r="B792" s="1" t="s">
-        <v>1123</v>
-      </c>
       <c r="C792" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D792" s="4"/>
       <c r="E792" s="3"/>
@@ -19458,14 +19484,14 @@
       <c r="K792" s="4"/>
     </row>
     <row r="793">
-      <c r="A793" s="4" t="s">
+      <c r="A793" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B793" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="B793" s="6" t="s">
-        <v>1125</v>
-      </c>
       <c r="C793" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D793" s="4"/>
       <c r="E793" s="3"/>
@@ -19478,13 +19504,13 @@
     </row>
     <row r="794">
       <c r="A794" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B794" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="B794" s="4" t="s">
-        <v>1127</v>
-      </c>
       <c r="C794" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D794" s="4"/>
       <c r="E794" s="3"/>
@@ -19497,13 +19523,13 @@
     </row>
     <row r="795">
       <c r="A795" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B795" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B795" s="3" t="s">
-        <v>1129</v>
-      </c>
       <c r="C795" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D795" s="4"/>
       <c r="E795" s="3"/>
@@ -19515,14 +19541,14 @@
       <c r="K795" s="4"/>
     </row>
     <row r="796">
-      <c r="A796" s="10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B796" s="3" t="s">
-        <v>1131</v>
+      <c r="A796" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>1126</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D796" s="4"/>
       <c r="E796" s="3"/>
@@ -19534,14 +19560,14 @@
       <c r="K796" s="4"/>
     </row>
     <row r="797">
-      <c r="A797" s="10" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B797" s="3" t="s">
-        <v>1133</v>
+      <c r="A797" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>1131</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D797" s="4"/>
       <c r="E797" s="3"/>
@@ -19554,13 +19580,13 @@
     </row>
     <row r="798">
       <c r="A798" s="4" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
+      </c>
+      <c r="B798" s="6" t="s">
+        <v>1133</v>
       </c>
       <c r="C798" s="2" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="D798" s="4"/>
       <c r="E798" s="3"/>
@@ -19571,6 +19597,101 @@
       <c r="J798" s="4"/>
       <c r="K798" s="4"/>
     </row>
+    <row r="799">
+      <c r="A799" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D799" s="4"/>
+      <c r="E799" s="3"/>
+      <c r="F799" s="4"/>
+      <c r="G799" s="4"/>
+      <c r="H799" s="4"/>
+      <c r="I799" s="4"/>
+      <c r="J799" s="4"/>
+      <c r="K799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D800" s="4"/>
+      <c r="E800" s="3"/>
+      <c r="F800" s="4"/>
+      <c r="G800" s="4"/>
+      <c r="H800" s="4"/>
+      <c r="I800" s="4"/>
+      <c r="J800" s="4"/>
+      <c r="K800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D801" s="4"/>
+      <c r="E801" s="3"/>
+      <c r="F801" s="4"/>
+      <c r="G801" s="4"/>
+      <c r="H801" s="4"/>
+      <c r="I801" s="4"/>
+      <c r="J801" s="4"/>
+      <c r="K801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D802" s="4"/>
+      <c r="E802" s="3"/>
+      <c r="F802" s="4"/>
+      <c r="G802" s="4"/>
+      <c r="H802" s="4"/>
+      <c r="I802" s="4"/>
+      <c r="J802" s="4"/>
+      <c r="K802" s="4"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D803" s="4"/>
+      <c r="E803" s="3"/>
+      <c r="F803" s="4"/>
+      <c r="G803" s="4"/>
+      <c r="H803" s="4"/>
+      <c r="I803" s="4"/>
+      <c r="J803" s="4"/>
+      <c r="K803" s="4"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
